--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55118904-A40B-4566-A795-08534EE7D8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7907713-D386-410B-BC2D-E1A2C88B81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -179,12 +179,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C85A22D2-5413-4932-95A0-6343FF53898D}">
+      <text>
+        <t>Donna Galletta:
+Filter via: 
+Aggregate Report</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
   <si>
     <t>img-id</t>
   </si>
@@ -231,6 +238,9 @@
     <t>read-under-2s</t>
   </si>
   <si>
+    <t>Litmus-tacking-id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALL BRANDS - WEBINAR - JUL 25 - Financial Literacy - Invite </t>
   </si>
   <si>
@@ -240,21 +250,51 @@
     <t>Event</t>
   </si>
   <si>
+    <t>https://litmus.com/folders/324180/emails/18380262/analytics</t>
+  </si>
+  <si>
     <t>Media</t>
   </si>
   <si>
+    <t>https://litmus.com/folders/358386/emails/18105943/analytics</t>
+  </si>
+  <si>
     <t>WEBINAR - WAG - JUL Super health check seminar INVITE</t>
   </si>
   <si>
+    <t>https://litmus.com/folders/324180/emails/18300323/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18300326/analytics</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEMINAR - AUG (TAS) Retirement Seminar &amp; webinars (CBUS &amp; MS) INVITE </t>
   </si>
   <si>
+    <t>https://litmus.com/folders/324180/emails/18452986/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18452988/analytics</t>
+  </si>
+  <si>
     <t>WEBINAR - JUL Transition to Retirement strategy (TTR) INVITE</t>
   </si>
   <si>
+    <t>https://litmus.com/folders/324180/emails/18452760/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18452759/analytics</t>
+  </si>
+  <si>
     <t>SEMINAR - AUG (CAN) Retirement Seminar &amp; webinars (CBUS &amp; MS) INVITE</t>
   </si>
   <si>
+    <t>https://litmus.com/folders/324180/emails/18485780/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18485781/analytics</t>
+  </si>
+  <si>
     <t>EOFY Performance - Accum</t>
   </si>
   <si>
@@ -273,6 +313,12 @@
     <t>WEBINAR - WAG - JUL How much is enough? INVITE</t>
   </si>
   <si>
+    <t>https://litmus.com/folders/324180/emails/18529297/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18529296/analytics</t>
+  </si>
+  <si>
     <t>CBUS - Corporate insurance SEN (AME)</t>
   </si>
   <si>
@@ -282,7 +328,19 @@
     <t>WEBINAR - JUL EOFY Investment Update INVITE</t>
   </si>
   <si>
+    <t>https://litmus.com/folders/324180/emails/18619780/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18619775/analytics</t>
+  </si>
+  <si>
     <t>WEBINAR - WAG - AUG Choosing the right investment option INVITE</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18679502/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18679501/analytics</t>
   </si>
   <si>
     <t>SEMINAR - AUG (TAS) Retirement Seminar &amp; webinars (CBUS &amp; MS) REMINDER</t>
@@ -574,7 +632,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -712,6 +770,21 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -720,7 +793,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{770A8CE4-86FC-45BF-95B8-E1D8E67E3936}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1194,32 +1286,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:O26" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B1:O26" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:P26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B1:P26" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J2">
     <sortCondition ref="C1:C2"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{592A3136-8A60-4650-9DF6-CD74A33464B1}" name="name" dataDxfId="13" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{1F194343-9489-4FF7-8BA8-8FE4AD211F8B}" name="date" dataDxfId="12" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{613F8D1F-C5D7-46FB-834A-5183617D5BF8}" name="brand" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{39913B7C-CBB3-470C-8F4E-6888A201DA8B}" name="type" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{0D81733F-25B3-4A7C-B3C0-DFE06A90464F}" name="unique-sends" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{274A7B85-7FDE-4D40-8515-C885EF39314B}" name="unique-opens" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{C860F744-163F-46E0-BC1A-15DDD6121358}" name="unique-clicks" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{A71DAAD5-121C-41AC-A08E-BF363CF89DFE}" name="unsub" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{3E23A808-3FEF-4D90-BACE-62A3345A0868}" name="unsub-pc" dataDxfId="5">
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{592A3136-8A60-4650-9DF6-CD74A33464B1}" name="name" dataDxfId="14" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{1F194343-9489-4FF7-8BA8-8FE4AD211F8B}" name="date" dataDxfId="13" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{613F8D1F-C5D7-46FB-834A-5183617D5BF8}" name="brand" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{39913B7C-CBB3-470C-8F4E-6888A201DA8B}" name="type" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0D81733F-25B3-4A7C-B3C0-DFE06A90464F}" name="unique-sends" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{274A7B85-7FDE-4D40-8515-C885EF39314B}" name="unique-opens" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{C860F744-163F-46E0-BC1A-15DDD6121358}" name="unique-clicks" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{A71DAAD5-121C-41AC-A08E-BF363CF89DFE}" name="unsub" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{3E23A808-3FEF-4D90-BACE-62A3345A0868}" name="unsub-pc" dataDxfId="6">
       <calculatedColumnFormula>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E7D2EFD0-301C-4002-8501-CE02665F086E}" name="unique-opens-pc" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{E7D2EFD0-301C-4002-8501-CE02665F086E}" name="unique-opens-pc" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FE8ED384-E8DC-43C9-9628-C6A9E5DFA5BE}" name="unique-clicks-pc" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{FE8ED384-E8DC-43C9-9628-C6A9E5DFA5BE}" name="unique-clicks-pc" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3CA46112-C95F-E64B-A58D-81BDEBF2FDC4}" name="read-over-8s" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{985DCAD1-25BF-804E-9E49-5E19FC44B93C}" name="read-under-8s" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{986830C2-C7E6-C645-8ACD-C78E1B2E462F}" name="read-under-2s" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{3CA46112-C95F-E64B-A58D-81BDEBF2FDC4}" name="read-over-8s" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{985DCAD1-25BF-804E-9E49-5E19FC44B93C}" name="read-under-8s" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{986830C2-C7E6-C645-8ACD-C78E1B2E462F}" name="read-under-2s" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{D273CFB9-324F-4CB2-B1BA-58EEE2D8C50F}" name="Litmus-tacking-id" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1542,11 +1635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23CF1A7-A843-E143-B142-84B9EDCB7AA1}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <pane ySplit="1" topLeftCell="E17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
@@ -1566,11 +1659,11 @@
     <col min="13" max="13" width="17.125" style="24" customWidth="1"/>
     <col min="14" max="14" width="14.625" style="23" customWidth="1"/>
     <col min="15" max="15" width="15.375" style="14" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="52" style="55" customWidth="1"/>
     <col min="17" max="16384" width="10.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="32.1" customHeight="1">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="32.1" customHeight="1">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -1616,22 +1709,25 @@
       <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="52" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="32.1" customHeight="1">
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="32.1" customHeight="1">
       <c r="A2" s="45">
         <v>31</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="25">
         <v>45839</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="7">
         <v>9564</v>
@@ -1658,30 +1754,33 @@
         <v>0.52279381012128812</v>
       </c>
       <c r="M2" s="9">
-        <v>0</v>
+        <v>61.9</v>
       </c>
       <c r="N2" s="9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O2" s="9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="P2" s="56" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="32.1" customHeight="1">
+    <row r="3" spans="1:16" ht="32.1" customHeight="1">
       <c r="A3" s="19">
         <v>31</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="18">
         <v>45839</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="15">
         <v>230</v>
@@ -1708,30 +1807,33 @@
         <v>0</v>
       </c>
       <c r="M3" s="9">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="N3" s="9">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="O3" s="9">
         <v>0</v>
       </c>
+      <c r="P3" s="53" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="32.1" customHeight="1">
+    <row r="4" spans="1:16" ht="32.1" customHeight="1">
       <c r="A4" s="46">
         <v>31</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="18">
         <v>45846</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="15">
         <v>8314</v>
@@ -1758,30 +1860,33 @@
         <v>1.5155159971133028</v>
       </c>
       <c r="M4" s="9">
-        <v>0</v>
+        <v>78.8</v>
       </c>
       <c r="N4" s="9">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="O4" s="9">
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="32.1" customHeight="1">
+    <row r="5" spans="1:16" ht="32.1" customHeight="1">
       <c r="A5" s="19">
         <v>31</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="18">
         <v>45846</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>17</v>
       </c>
       <c r="F5" s="15">
         <v>465</v>
@@ -1808,30 +1913,33 @@
         <v>2.3655913978494625</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N5" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O5" s="9">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="32.1" customHeight="1">
+    <row r="6" spans="1:16" ht="32.1" customHeight="1">
       <c r="A6" s="46">
         <v>30</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="18">
         <v>45846</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="15">
         <v>2085</v>
@@ -1858,30 +1966,33 @@
         <v>4.8920863309352516</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N6" s="9">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="O6" s="9">
-        <v>0</v>
+        <v>8.9</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="32.1" customHeight="1">
+    <row r="7" spans="1:16" ht="32.1" customHeight="1">
       <c r="A7" s="13">
         <v>30</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="18">
         <v>45846</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>17</v>
       </c>
       <c r="F7" s="11">
         <v>217</v>
@@ -1908,30 +2019,33 @@
         <v>5.9907834101382482</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="N7" s="9">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
+        <v>7.7</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="32.1" customHeight="1">
+    <row r="8" spans="1:16" ht="32.1" customHeight="1">
       <c r="A8" s="46">
         <v>30</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C8" s="18">
         <v>45846</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="15">
         <v>8369</v>
@@ -1958,30 +2072,33 @@
         <v>2.8079818377344963</v>
       </c>
       <c r="M8" s="9">
-        <v>0</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="N8" s="9">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="O8" s="9">
-        <v>0</v>
+        <v>11.8</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="32.1" customHeight="1">
+    <row r="9" spans="1:16" ht="32.1" customHeight="1">
       <c r="A9" s="13">
         <v>30</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C9" s="18">
         <v>45846</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>17</v>
       </c>
       <c r="F9" s="11">
         <v>1253</v>
@@ -2008,30 +2125,33 @@
         <v>3.6711891460494814</v>
       </c>
       <c r="M9" s="9">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="N9" s="9">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
+        <v>8.1</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="32.1" customHeight="1">
+    <row r="10" spans="1:16" ht="32.1" customHeight="1">
       <c r="A10" s="46">
         <v>30</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18">
         <v>45848</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="15">
         <v>1542</v>
@@ -2058,30 +2178,33 @@
         <v>2.8534370946822309</v>
       </c>
       <c r="M10" s="9">
-        <v>0</v>
+        <v>75.8</v>
       </c>
       <c r="N10" s="9">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="O10" s="9">
-        <v>0</v>
+        <v>11.1</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="32.1" customHeight="1">
+    <row r="11" spans="1:16" ht="32.1" customHeight="1">
       <c r="A11" s="13">
         <v>30</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11" s="18">
         <v>45848</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>17</v>
       </c>
       <c r="F11" s="11">
         <v>182</v>
@@ -2108,30 +2231,33 @@
         <v>2.197802197802198</v>
       </c>
       <c r="M11" s="9">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="N11" s="9">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="O11" s="9">
-        <v>0</v>
+        <v>18.5</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="32.1" customHeight="1">
+    <row r="12" spans="1:16" ht="32.1" customHeight="1">
       <c r="A12" s="46">
         <v>61</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C12" s="18">
         <v>45852</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F12" s="15">
         <v>320093</v>
@@ -2166,22 +2292,23 @@
       <c r="O12" s="9">
         <v>14.3</v>
       </c>
+      <c r="P12" s="54"/>
     </row>
-    <row r="13" spans="1:15" ht="32.1" customHeight="1">
+    <row r="13" spans="1:16" ht="32.1" customHeight="1">
       <c r="A13" s="19">
         <v>5</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C13" s="18">
         <v>45852</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F13" s="15">
         <v>28154</v>
@@ -2216,22 +2343,23 @@
       <c r="O13" s="19">
         <v>17.2</v>
       </c>
+      <c r="P13" s="54"/>
     </row>
-    <row r="14" spans="1:15" ht="32.1" customHeight="1">
+    <row r="14" spans="1:16" ht="32.1" customHeight="1">
       <c r="A14" s="47">
         <v>62</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C14" s="18">
         <v>45852</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F14" s="11">
         <v>20052</v>
@@ -2266,22 +2394,23 @@
       <c r="O14" s="13">
         <v>11.6</v>
       </c>
+      <c r="P14" s="54"/>
     </row>
-    <row r="15" spans="1:15" ht="32.1" customHeight="1">
+    <row r="15" spans="1:16" ht="32.1" customHeight="1">
       <c r="A15" s="13">
         <v>63</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C15" s="18">
         <v>45852</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F15" s="11">
         <v>6012</v>
@@ -2316,22 +2445,23 @@
       <c r="O15" s="13">
         <v>9</v>
       </c>
+      <c r="P15" s="54"/>
     </row>
-    <row r="16" spans="1:15" ht="32.1" customHeight="1">
+    <row r="16" spans="1:16" ht="32.1" customHeight="1">
       <c r="A16" s="46">
         <v>31</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C16" s="18">
         <v>45853</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="15">
         <v>6597</v>
@@ -2358,30 +2488,33 @@
         <v>2.6678793390935271</v>
       </c>
       <c r="M16" s="9">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N16" s="9">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="O16" s="9">
-        <v>0</v>
+        <v>12.6</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="32.1" customHeight="1">
+    <row r="17" spans="1:16" ht="32.1" customHeight="1">
       <c r="A17" s="19">
         <v>31</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C17" s="18">
         <v>45853</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="F17" s="15">
         <v>432</v>
@@ -2408,30 +2541,33 @@
         <v>4.8611111111111116</v>
       </c>
       <c r="M17" s="9">
-        <v>0</v>
+        <v>51.2</v>
       </c>
       <c r="N17" s="9">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="O17" s="9">
-        <v>0</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P17" s="53" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="32.1" customHeight="1">
+    <row r="18" spans="1:16" ht="32.1" customHeight="1">
       <c r="A18" s="46">
         <v>77</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C18" s="18">
         <v>45860</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F18" s="11">
         <v>28</v>
@@ -2466,22 +2602,23 @@
       <c r="O18" s="19">
         <v>30</v>
       </c>
+      <c r="P18" s="54"/>
     </row>
-    <row r="19" spans="1:15" ht="32.1" customHeight="1">
+    <row r="19" spans="1:16" ht="32.1" customHeight="1">
       <c r="A19" s="13">
         <v>31</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C19" s="18">
         <v>45861</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="15">
         <v>52075</v>
@@ -2508,30 +2645,33 @@
         <v>1.6361017762842056</v>
       </c>
       <c r="M19" s="9">
-        <v>0</v>
+        <v>63.7</v>
       </c>
       <c r="N19" s="9">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="O19" s="9">
-        <v>0</v>
+        <v>13.6</v>
+      </c>
+      <c r="P19" s="53" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="32.1" customHeight="1">
+    <row r="20" spans="1:16" ht="32.1" customHeight="1">
       <c r="A20" s="47">
         <v>31</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C20" s="18">
         <v>45861</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="F20" s="11">
         <v>8068</v>
@@ -2558,30 +2698,33 @@
         <v>3.3341596430342091</v>
       </c>
       <c r="M20" s="9">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="N20" s="9">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="O20" s="9">
-        <v>0</v>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="P20" s="53" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="32.1" customHeight="1">
+    <row r="21" spans="1:16" ht="32.1" customHeight="1">
       <c r="A21" s="13">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C21" s="18">
         <v>45867</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="15">
         <v>8974</v>
@@ -2608,30 +2751,33 @@
         <v>1.8386449743704034</v>
       </c>
       <c r="M21" s="9">
-        <v>0</v>
+        <v>61.8</v>
       </c>
       <c r="N21" s="9">
-        <v>0</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="O21" s="9">
-        <v>0</v>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="P21" s="53" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="32.1" customHeight="1">
+    <row r="22" spans="1:16" ht="32.1" customHeight="1">
       <c r="A22" s="47">
         <v>31</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C22" s="18">
         <v>45867</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="F22" s="15">
         <v>610</v>
@@ -2658,30 +2804,33 @@
         <v>1.9672131147540985</v>
       </c>
       <c r="M22" s="9">
-        <v>0</v>
+        <v>52.4</v>
       </c>
       <c r="N22" s="9">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="O22" s="9">
-        <v>0</v>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="P22" s="53" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="32.1" customHeight="1">
+    <row r="23" spans="1:16" ht="32.1" customHeight="1">
       <c r="A23" s="19">
         <v>30</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C23" s="18">
         <v>45867</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="15">
         <v>1628</v>
@@ -2716,22 +2865,23 @@
       <c r="O23" s="9">
         <v>0</v>
       </c>
+      <c r="P23" s="54"/>
     </row>
-    <row r="24" spans="1:15" ht="32.1" customHeight="1">
+    <row r="24" spans="1:16" ht="32.1" customHeight="1">
       <c r="A24" s="46">
         <v>30</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C24" s="18">
         <v>45867</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="F24" s="15">
         <v>188</v>
@@ -2766,22 +2916,23 @@
       <c r="O24" s="9">
         <v>0</v>
       </c>
+      <c r="P24" s="54"/>
     </row>
-    <row r="25" spans="1:15" ht="32.1" customHeight="1">
+    <row r="25" spans="1:16" ht="32.1" customHeight="1">
       <c r="A25" s="19">
         <v>30</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C25" s="18">
         <v>45867</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25" s="15">
         <v>1217</v>
@@ -2816,22 +2967,23 @@
       <c r="O25" s="9">
         <v>0</v>
       </c>
+      <c r="P25" s="54"/>
     </row>
-    <row r="26" spans="1:15" ht="32.1" customHeight="1">
+    <row r="26" spans="1:16" ht="32.1" customHeight="1">
       <c r="A26" s="47">
         <v>30</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C26" s="18">
         <v>45867</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="F26" s="11">
         <v>155</v>
@@ -2866,6 +3018,7 @@
       <c r="O26" s="9">
         <v>0</v>
       </c>
+      <c r="P26" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2894,11 +3047,27 @@
     <hyperlink ref="B25" r:id="rId23" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{9AB33328-4010-F843-B550-8D7E64EC2CD1}"/>
     <hyperlink ref="B26" r:id="rId24" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{1CD36E2E-A888-B64A-A43F-52462AF0D631}"/>
     <hyperlink ref="B3" r:id="rId25" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/541e1d3f-d064-4e8c-ad26-a2f26946d5ec" xr:uid="{BFA6D6B9-0F92-4A98-BC01-3F66ECBAF652}"/>
+    <hyperlink ref="P3" r:id="rId26" xr:uid="{51BBEF75-8B33-4A54-A5A5-C3E2872BA63D}"/>
+    <hyperlink ref="P2" r:id="rId27" xr:uid="{9B91B3EB-9AC1-4462-A67A-81961D7FCB79}"/>
+    <hyperlink ref="P4" r:id="rId28" xr:uid="{1077084C-D29E-4ABC-BD53-A05F91719125}"/>
+    <hyperlink ref="P5" r:id="rId29" xr:uid="{E82B6BA4-E16F-492E-BCD8-911C556EA12C}"/>
+    <hyperlink ref="P6" r:id="rId30" xr:uid="{6184ED25-1DF9-49D3-AC87-98D010A3B3E0}"/>
+    <hyperlink ref="P7" r:id="rId31" xr:uid="{23489B88-1AF7-440D-82A5-D2C99B402CE1}"/>
+    <hyperlink ref="P8" r:id="rId32" xr:uid="{29D38B7B-0EEB-4F1D-BD67-2FE0B692C886}"/>
+    <hyperlink ref="P9" r:id="rId33" xr:uid="{E529B59E-BC39-41D7-A6B8-B76C65B02964}"/>
+    <hyperlink ref="P10" r:id="rId34" xr:uid="{75D776C4-686E-4764-A0CE-7978746739AA}"/>
+    <hyperlink ref="P11" r:id="rId35" xr:uid="{18534669-D2F7-4C45-BE71-B06E441E98C4}"/>
+    <hyperlink ref="P16" r:id="rId36" xr:uid="{4456DFDD-02ED-4178-A1B2-7A56262C79A7}"/>
+    <hyperlink ref="P17" r:id="rId37" xr:uid="{85BEFFFA-77A3-49CF-94D8-7F3EBFED1A80}"/>
+    <hyperlink ref="P19" r:id="rId38" xr:uid="{9D50E18A-27F4-4E22-95C5-F200362F77FE}"/>
+    <hyperlink ref="P20" r:id="rId39" xr:uid="{49F0C4D7-6B49-48CB-9B69-3680BAAED979}"/>
+    <hyperlink ref="P21" r:id="rId40" xr:uid="{669F8622-A0EA-44FE-8AAA-EAB6EE53AEB9}"/>
+    <hyperlink ref="P22" r:id="rId41" xr:uid="{3EC869FD-833C-4252-AFF2-954077725E77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId26"/>
+  <legacyDrawing r:id="rId42"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId43"/>
   </tableParts>
 </worksheet>
 </file>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7907713-D386-410B-BC2D-E1A2C88B81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD3352C-0044-4644-BD7C-3CD24FAFE118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -181,9 +181,18 @@
     </comment>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C85A22D2-5413-4932-95A0-6343FF53898D}">
       <text>
-        <t>Donna Galletta:
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Donna Galletta:
 Filter via: 
 Aggregate Report</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -191,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
   <si>
     <t>img-id</t>
   </si>
@@ -307,6 +316,9 @@
     <t>EOFY Performance - HNW</t>
   </si>
   <si>
+    <t>https://litmus.com/folders/405552/emails/18364177/analytics</t>
+  </si>
+  <si>
     <t>EOFY Performance - SIS</t>
   </si>
   <si>
@@ -347,12 +359,96 @@
   </si>
   <si>
     <t>SEMINAR - AUG (CAN) Retirement Seminar &amp; webinars (CBUS &amp; MS) REMINDER</t>
+  </si>
+  <si>
+    <t>EOFY investment performance campaign (Microsoft Accum)Week 1</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/405552/emails/18192937/analytics</t>
+  </si>
+  <si>
+    <t>EOFY investment performance campaign (Microsoft Accum)Week 2</t>
+  </si>
+  <si>
+    <t>EOFY investment performance campaign (Microsoft Accum)Week 3</t>
+  </si>
+  <si>
+    <t>WEBINAR - WAG - AUG Super health check seminar INVITE</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/358386/emails/18527135/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18752356/analytics</t>
+  </si>
+  <si>
+    <t>SEMINAR - SEP (VIC Mornington) Retirement Seminar &amp; webinars Invite</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18752012/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/366549/emails/18664429/analytics</t>
+  </si>
+  <si>
+    <t>WEBINAR - WAG - AUG Financial Literacy INVITE</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18823362/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18823361/analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMINAR - SEP (VIC) Retirement Info Forum (RIF) (CBUS) INVITE </t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/366549/emails/18737825/analytics</t>
+  </si>
+  <si>
+    <t>SEMINAR - SEP (VIC Doncaster) Retirement Seminar &amp; webinars (CBUS &amp; MS) INVITE</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18892611/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18892607/analytics</t>
+  </si>
+  <si>
+    <t>Cbus Advocacy Research Survey</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/421343/emails/18865528/analytics</t>
+  </si>
+  <si>
+    <t>WEBINAR - WAG - SEP Discover your insurance options within super (CBUS only)</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/18965907/analytics</t>
+  </si>
+  <si>
+    <t>SEMINAR - SEP (VIC Mornington) Retirement Seminar &amp; webinars (CBUS &amp; MS) REMINDER</t>
+  </si>
+  <si>
+    <t>EOFY investment performance campaign (Microsoft Media)</t>
+  </si>
+  <si>
+    <t>EOFY investment performance campaign (Microsoft SIS)</t>
+  </si>
+  <si>
+    <t>EOFY investment performance campaign (Microsoft HNW)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -456,7 +552,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -623,6 +719,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -632,14 +737,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
@@ -679,24 +781,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
@@ -786,6 +881,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{6F0A8B01-0191-40A2-B00A-ED1E02AD1E5F}"/>
@@ -1168,6 +1286,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1286,8 +1405,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:P26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="B1:P26" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:P45" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B1:P45" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J2">
     <sortCondition ref="C1:C2"/>
   </sortState>
@@ -1635,1390 +1754,2411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23CF1A7-A843-E143-B142-84B9EDCB7AA1}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+      <pane ySplit="1" topLeftCell="E3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="66.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="36" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="23" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="21" style="43" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="14" customWidth="1"/>
-    <col min="16" max="16" width="52" style="55" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="14"/>
+    <col min="1" max="1" width="8.875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="66.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="61" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="20" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="21" style="39" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="21" customWidth="1"/>
+    <col min="14" max="14" width="14.625" style="20" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="52" style="51" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A2" s="45">
+    <row r="2" spans="1:16" s="9" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A2" s="41">
         <v>31</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="58">
         <v>45839</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>9564</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="29">
         <v>5260</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="34">
         <v>50</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>3</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="45">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>3.1367628607277286E-2</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>54.997908824759513</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>0.52279381012128812</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>61.9</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>19</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <v>19</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>31</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="59">
         <v>45839</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>230</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="30">
         <v>132</v>
       </c>
-      <c r="H3" s="39">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="50">
+      <c r="H3" s="35">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>57.391304347826086</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>0</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>83.3</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>16.7</v>
       </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="53" t="s">
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="49" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A4" s="46">
+      <c r="A4" s="42">
         <v>31</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="59">
         <v>45846</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>8314</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="30">
         <v>3958</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="35">
         <v>126</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <v>2</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>2.4055809477988934E-2</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>47.606446956940104</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.5155159971133028</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>78.8</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>14.1</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>7.1</v>
       </c>
-      <c r="P4" s="53" t="s">
+      <c r="P4" s="49" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>31</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="59">
         <v>45846</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>465</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="30">
         <v>279</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="35">
         <v>11</v>
       </c>
-      <c r="I5" s="19">
-        <v>0</v>
-      </c>
-      <c r="J5" s="50">
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>60</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.3655913978494625</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>60</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>20</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <v>20</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A6" s="46">
+      <c r="A6" s="42">
         <v>30</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="59">
         <v>45846</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>2085</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="30">
         <v>1052</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="35">
         <v>102</v>
       </c>
-      <c r="I6" s="19">
-        <v>0</v>
-      </c>
-      <c r="J6" s="50">
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>50.455635491606706</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>4.8920863309352516</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>82</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>8.9</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <v>8.9</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>30</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="59">
         <v>45846</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>217</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="31">
         <v>152</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="36">
         <v>13</v>
       </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="51">
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="47">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>70.046082949308754</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>5.9907834101382482</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>73.099999999999994</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>19.2</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <v>7.7</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="P7" s="49" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A8" s="46">
+      <c r="A8" s="42">
         <v>30</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="59">
         <v>45846</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>8369</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="30">
         <v>4411</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="35">
         <v>235</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>1.1948858883976579E-2</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>52.70641653722069</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.8079818377344963</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>73.599999999999994</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>14.6</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <v>11.8</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="49" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>30</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="59">
         <v>45846</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>1253</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="31">
         <v>800</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="36">
         <v>46</v>
       </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="51">
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="47">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>63.846767757382281</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>3.6711891460494814</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>66.7</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>25.3</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>8.1</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A10" s="46">
+      <c r="A10" s="42">
         <v>30</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="59">
         <v>45848</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>1542</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="30">
         <v>822</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35">
         <v>44</v>
       </c>
-      <c r="I10" s="19">
-        <v>0</v>
-      </c>
-      <c r="J10" s="50">
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>53.307392996108952</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.8534370946822309</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>75.8</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>13.2</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <v>11.1</v>
       </c>
-      <c r="P10" s="53" t="s">
+      <c r="P10" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>30</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="59">
         <v>45848</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>182</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="31">
         <v>109</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="36">
         <v>4</v>
       </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="51">
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="47">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>59.890109890109891</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.197802197802198</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>66.7</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <v>14.8</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <v>18.5</v>
       </c>
-      <c r="P11" s="53" t="s">
+      <c r="P11" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A12" s="46">
+      <c r="A12" s="42">
         <v>61</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="59">
         <v>45852</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>320093</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="30">
         <v>144678</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="35">
         <v>4310</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <v>4310</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>1.3464836781810285</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>45.19873911644428</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.3464836781810285</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>68.5</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>17.2</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <v>14.3</v>
       </c>
-      <c r="P12" s="54"/>
+      <c r="P12" s="50"/>
     </row>
     <row r="13" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="59">
         <v>45852</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>28154</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="30">
         <v>17646</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="35">
         <v>950</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <v>13</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>4.617461106769908E-2</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>62.676706684662932</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>3.3742985011010869</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="15">
         <v>66.3</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="17">
         <v>16.399999999999999</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="17">
         <v>17.2</v>
       </c>
-      <c r="P13" s="54"/>
+      <c r="P13" s="50"/>
     </row>
     <row r="14" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A14" s="47">
+      <c r="A14" s="43">
         <v>62</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="59">
         <v>45852</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>20052</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="31">
         <v>12307</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="36">
         <v>875</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>1</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="47">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>4.9870337123478952E-3</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>61.375423897865545</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>4.3636544983044079</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>73.3</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="12">
         <v>15.1</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="12">
         <v>11.6</v>
       </c>
-      <c r="P14" s="54"/>
+      <c r="P14" s="49" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>63</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="59">
         <v>45852</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>6012</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="31">
         <v>4122</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="36">
         <v>315</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>3</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="47">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>4.9900199600798396E-2</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>68.562874251497007</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>5.2395209580838316</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>76.3</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>14.8</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <v>9</v>
       </c>
-      <c r="P15" s="54"/>
+      <c r="P15" s="50"/>
     </row>
     <row r="16" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A16" s="46">
+      <c r="A16" s="42">
         <v>31</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="59">
         <v>45853</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>6597</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="30">
         <v>4032</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="35">
         <v>176</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <v>1</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>1.5158405335758679E-2</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>61.118690313778991</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.6678793390935271</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>64</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <v>23.4</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="8">
         <v>12.6</v>
       </c>
-      <c r="P16" s="53" t="s">
-        <v>40</v>
+      <c r="P16" s="49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>31</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="B17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="59">
         <v>45853</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>432</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="30">
         <v>306</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="35">
         <v>21</v>
       </c>
-      <c r="I17" s="19">
-        <v>0</v>
-      </c>
-      <c r="J17" s="50">
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>70.833333333333343</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>4.8611111111111116</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>51.2</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <v>24.4</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P17" s="53" t="s">
-        <v>41</v>
+      <c r="P17" s="49" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A18" s="46">
+      <c r="A18" s="42">
         <v>77</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="59">
         <v>45860</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="E18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="10">
         <v>28</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="31">
         <v>12</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="36">
         <v>5</v>
       </c>
-      <c r="I18" s="19">
-        <v>0</v>
-      </c>
-      <c r="J18" s="50">
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>17.857142857142858</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="15">
         <v>60</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="17">
         <v>10</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="17">
         <v>30</v>
       </c>
-      <c r="P18" s="54"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>31</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="B19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="59">
         <v>45861</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>52075</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="30">
         <v>31853</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="35">
         <v>852</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>53</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0.10177628420547288</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>61.167546807489202</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.6361017762842056</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>63.7</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <v>22.8</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="8">
         <v>13.6</v>
       </c>
-      <c r="P19" s="53" t="s">
-        <v>45</v>
+      <c r="P19" s="49" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A20" s="47">
+      <c r="A20" s="43">
         <v>31</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="B20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="59">
         <v>45861</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>8068</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="31">
         <v>5683</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="36">
         <v>269</v>
       </c>
-      <c r="I20" s="13">
-        <v>0</v>
-      </c>
-      <c r="J20" s="50">
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>70.438770451165098</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>3.3341596430342091</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>59</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <v>22.4</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="8">
         <v>18.600000000000001</v>
       </c>
-      <c r="P20" s="53" t="s">
-        <v>46</v>
+      <c r="P20" s="49" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>31</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="59">
         <v>45867</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>8974</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="30">
         <v>5645</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="35">
         <v>165</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="17">
         <v>31</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0.34544238912413638</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>62.903944729217741</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.8386449743704034</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>61.8</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>19.100000000000001</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="8">
         <v>19.100000000000001</v>
       </c>
-      <c r="P21" s="53" t="s">
-        <v>48</v>
+      <c r="P21" s="49" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A22" s="47">
+      <c r="A22" s="43">
         <v>31</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="B22" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="59">
         <v>45867</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>610</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="30">
         <v>388</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="35">
         <v>12</v>
       </c>
-      <c r="I22" s="19">
-        <v>0</v>
-      </c>
-      <c r="J22" s="50">
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>63.606557377049178</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.9672131147540985</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>52.4</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <v>14.3</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="8">
         <v>33.299999999999997</v>
       </c>
-      <c r="P22" s="53" t="s">
-        <v>49</v>
+      <c r="P22" s="49" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>30</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="B23" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="59">
         <v>45867</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>1628</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="30">
         <v>911</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="35">
         <v>53</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="17">
         <v>7</v>
       </c>
-      <c r="J23" s="50">
+      <c r="J23" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0.42997542997542998</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>55.958230958230956</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>3.2555282555282554</v>
       </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-      <c r="P23" s="54"/>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="50"/>
     </row>
     <row r="24" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A24" s="46">
+      <c r="A24" s="42">
         <v>30</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="B24" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="59">
         <v>45867</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <v>188</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="30">
         <v>127</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="35">
         <v>16</v>
       </c>
-      <c r="I24" s="19">
-        <v>0</v>
-      </c>
-      <c r="J24" s="50">
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>67.553191489361694</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>8.5106382978723403</v>
       </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0</v>
-      </c>
-      <c r="P24" s="54"/>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="50"/>
     </row>
     <row r="25" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>30</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="B25" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="59">
         <v>45867</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <v>1217</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="30">
         <v>733</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="35">
         <v>38</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="17">
         <v>1</v>
       </c>
-      <c r="J25" s="50">
+      <c r="J25" s="46">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>8.2169268693508629E-2</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="27">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>60.230073952341826</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>3.122432210353328</v>
       </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-      <c r="P25" s="54"/>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A26" s="47">
+      <c r="A26" s="43">
         <v>30</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="B26" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="59">
         <v>45867</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>155</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="31">
         <v>106</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="36">
         <v>4</v>
       </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="51">
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="47">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
         <v>0</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>68.387096774193552</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="38">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.5806451612903225</v>
       </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <v>0</v>
-      </c>
-      <c r="P26" s="54"/>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+      <c r="P26" s="50"/>
+    </row>
+    <row r="27" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A27" s="13">
+        <v>61</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="59">
+        <v>45870</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2677</v>
+      </c>
+      <c r="G27" s="30">
+        <v>418</v>
+      </c>
+      <c r="H27" s="35">
+        <v>24</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>15.61449383638401</v>
+      </c>
+      <c r="L27" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>0.89652596189764666</v>
+      </c>
+      <c r="M27" s="8">
+        <v>68.5</v>
+      </c>
+      <c r="N27" s="8">
+        <v>17.2</v>
+      </c>
+      <c r="O27" s="8">
+        <v>14.3</v>
+      </c>
+      <c r="P27" s="54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A28" s="13">
+        <v>61</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="59">
+        <v>45870</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="10">
+        <v>14113</v>
+      </c>
+      <c r="G28" s="31">
+        <v>2099</v>
+      </c>
+      <c r="H28" s="36">
+        <v>104</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>14.872812300715651</v>
+      </c>
+      <c r="L28" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>0.73690923262240482</v>
+      </c>
+      <c r="M28" s="8">
+        <v>68.5</v>
+      </c>
+      <c r="N28" s="8">
+        <v>17.2</v>
+      </c>
+      <c r="O28" s="8">
+        <v>14.3</v>
+      </c>
+      <c r="P28" s="54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A29" s="13">
+        <v>61</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="59">
+        <v>45870</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="10">
+        <v>71201</v>
+      </c>
+      <c r="G29" s="31">
+        <v>10641</v>
+      </c>
+      <c r="H29" s="36">
+        <v>488</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>14.945014817207625</v>
+      </c>
+      <c r="L29" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>0.68538363225235599</v>
+      </c>
+      <c r="M29" s="8">
+        <v>68.5</v>
+      </c>
+      <c r="N29" s="8">
+        <v>17.2</v>
+      </c>
+      <c r="O29" s="8">
+        <v>14.3</v>
+      </c>
+      <c r="P29" s="54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A30" s="13">
+        <v>31</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="59">
+        <v>45874</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="14">
+        <v>8728</v>
+      </c>
+      <c r="G30" s="30">
+        <v>4493</v>
+      </c>
+      <c r="H30" s="35">
+        <v>148</v>
+      </c>
+      <c r="I30" s="17">
+        <v>25</v>
+      </c>
+      <c r="J30" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.28643446379468379</v>
+      </c>
+      <c r="K30" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>51.478001833180564</v>
+      </c>
+      <c r="L30" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>1.6956920256645278</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30" s="17">
+        <v>0</v>
+      </c>
+      <c r="P30" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A31" s="13">
+        <v>31</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="59">
+        <v>45874</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="10">
+        <v>392</v>
+      </c>
+      <c r="G31" s="31">
+        <v>215</v>
+      </c>
+      <c r="H31" s="36">
+        <v>11</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>54.846938775510203</v>
+      </c>
+      <c r="L31" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>2.806122448979592</v>
+      </c>
+      <c r="M31" s="11">
+        <v>50</v>
+      </c>
+      <c r="N31" s="12">
+        <v>25</v>
+      </c>
+      <c r="O31" s="12">
+        <v>25</v>
+      </c>
+      <c r="P31" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A32" s="13">
+        <v>30</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="59">
+        <v>45874</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="14">
+        <v>7879</v>
+      </c>
+      <c r="G32" s="30">
+        <v>5042</v>
+      </c>
+      <c r="H32" s="35">
+        <v>361</v>
+      </c>
+      <c r="I32" s="17">
+        <v>24</v>
+      </c>
+      <c r="J32" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.3046071836527478</v>
+      </c>
+      <c r="K32" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>63.992892499048104</v>
+      </c>
+      <c r="L32" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.5817997207767487</v>
+      </c>
+      <c r="M32" s="15">
+        <v>63.6</v>
+      </c>
+      <c r="N32" s="17">
+        <v>21.4</v>
+      </c>
+      <c r="O32" s="17">
+        <v>15</v>
+      </c>
+      <c r="P32" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A33" s="13">
+        <v>30</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="59">
+        <v>45874</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="10">
+        <v>733</v>
+      </c>
+      <c r="G33" s="31">
+        <v>501</v>
+      </c>
+      <c r="H33" s="36">
+        <v>33</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>68.349249658935889</v>
+      </c>
+      <c r="L33" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.5020463847203276</v>
+      </c>
+      <c r="M33" s="11">
+        <v>52.5</v>
+      </c>
+      <c r="N33" s="12">
+        <v>25.9</v>
+      </c>
+      <c r="O33" s="12">
+        <v>21.6</v>
+      </c>
+      <c r="P33" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A34" s="13">
+        <v>31</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="59">
+        <v>45881</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="14">
+        <v>9326</v>
+      </c>
+      <c r="G34" s="30">
+        <v>6331</v>
+      </c>
+      <c r="H34" s="35">
+        <v>41</v>
+      </c>
+      <c r="I34" s="17">
+        <v>37</v>
+      </c>
+      <c r="J34" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.39674029594681537</v>
+      </c>
+      <c r="K34" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>67.885481449710483</v>
+      </c>
+      <c r="L34" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>0.43963113875187643</v>
+      </c>
+      <c r="M34" s="15">
+        <v>37.1</v>
+      </c>
+      <c r="N34" s="17">
+        <v>38.6</v>
+      </c>
+      <c r="O34" s="17">
+        <v>24.3</v>
+      </c>
+      <c r="P34" s="54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A35" s="13">
+        <v>31</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="59">
+        <v>45881</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="10">
+        <v>257</v>
+      </c>
+      <c r="G35" s="31">
+        <v>175</v>
+      </c>
+      <c r="H35" s="36">
+        <v>5</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>68.093385214007782</v>
+      </c>
+      <c r="L35" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>1.9455252918287937</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0</v>
+      </c>
+      <c r="O35" s="12">
+        <v>0</v>
+      </c>
+      <c r="P35" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A36" s="13">
+        <v>30</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="59">
+        <v>45881</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1737</v>
+      </c>
+      <c r="G36" s="30">
+        <v>1214</v>
+      </c>
+      <c r="H36" s="35">
+        <v>42</v>
+      </c>
+      <c r="I36" s="17">
+        <v>3</v>
+      </c>
+      <c r="J36" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.17271157167530224</v>
+      </c>
+      <c r="K36" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>69.890616004605647</v>
+      </c>
+      <c r="L36" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>2.4179620034542317</v>
+      </c>
+      <c r="M36" s="15">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="N36" s="17">
+        <v>15.6</v>
+      </c>
+      <c r="O36" s="17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P36" s="54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A37" s="13">
+        <v>30</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="59">
+        <v>45888</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="10">
+        <v>12681</v>
+      </c>
+      <c r="G37" s="31">
+        <v>8122</v>
+      </c>
+      <c r="H37" s="36">
+        <v>510</v>
+      </c>
+      <c r="I37" s="12">
+        <v>15</v>
+      </c>
+      <c r="J37" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.11828720132481667</v>
+      </c>
+      <c r="K37" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>64.048576610677387</v>
+      </c>
+      <c r="L37" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.0217648450437657</v>
+      </c>
+      <c r="M37" s="11">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="N37" s="12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="O37" s="12">
+        <v>11.2</v>
+      </c>
+      <c r="P37" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A38" s="13">
+        <v>30</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="59">
+        <v>45888</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1852</v>
+      </c>
+      <c r="G38" s="30">
+        <v>1295</v>
+      </c>
+      <c r="H38" s="35">
+        <v>98</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1</v>
+      </c>
+      <c r="J38" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>5.399568034557236E-2</v>
+      </c>
+      <c r="K38" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>69.9244060475162</v>
+      </c>
+      <c r="L38" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>5.291576673866091</v>
+      </c>
+      <c r="M38" s="15">
+        <v>68.2</v>
+      </c>
+      <c r="N38" s="17">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="O38" s="17">
+        <v>14.2</v>
+      </c>
+      <c r="P38" s="54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A39" s="13">
+        <v>78</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="59">
+        <v>45891</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="14">
+        <v>19741</v>
+      </c>
+      <c r="G39" s="30">
+        <v>11173</v>
+      </c>
+      <c r="H39" s="35">
+        <v>430</v>
+      </c>
+      <c r="I39" s="17">
+        <v>6</v>
+      </c>
+      <c r="J39" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>3.0393597082214681E-2</v>
+      </c>
+      <c r="K39" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>56.597943366597434</v>
+      </c>
+      <c r="L39" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>2.1782077908920519</v>
+      </c>
+      <c r="M39" s="15">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="N39" s="17">
+        <v>16.8</v>
+      </c>
+      <c r="O39" s="17">
+        <v>16.2</v>
+      </c>
+      <c r="P39" s="54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A40" s="13">
+        <v>31</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="59">
+        <v>45895</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="14">
+        <v>5041</v>
+      </c>
+      <c r="G40" s="30">
+        <v>3277</v>
+      </c>
+      <c r="H40" s="35">
+        <v>66</v>
+      </c>
+      <c r="I40" s="17">
+        <v>10</v>
+      </c>
+      <c r="J40" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.19837333862328904</v>
+      </c>
+      <c r="K40" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>65.006943066851818</v>
+      </c>
+      <c r="L40" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>1.3092640349137077</v>
+      </c>
+      <c r="M40" s="15">
+        <v>65.7</v>
+      </c>
+      <c r="N40" s="17">
+        <v>21.4</v>
+      </c>
+      <c r="O40" s="17">
+        <v>12.9</v>
+      </c>
+      <c r="P40" s="54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A41" s="13">
+        <v>30</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="59">
+        <v>45895</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="14">
+        <v>7728</v>
+      </c>
+      <c r="G41" s="30">
+        <v>4730</v>
+      </c>
+      <c r="H41" s="35">
+        <v>305</v>
+      </c>
+      <c r="I41" s="17">
+        <v>11</v>
+      </c>
+      <c r="J41" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.14233954451345754</v>
+      </c>
+      <c r="K41" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>61.206004140786753</v>
+      </c>
+      <c r="L41" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>3.9466873706004142</v>
+      </c>
+      <c r="M41" s="15">
+        <v>63.6</v>
+      </c>
+      <c r="N41" s="17">
+        <v>21.4</v>
+      </c>
+      <c r="O41" s="17">
+        <v>15</v>
+      </c>
+      <c r="P41" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A42" s="13">
+        <v>30</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="59">
+        <v>45895</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="14">
+        <v>720</v>
+      </c>
+      <c r="G42" s="30">
+        <v>469</v>
+      </c>
+      <c r="H42" s="35">
+        <v>36</v>
+      </c>
+      <c r="I42" s="17">
+        <v>0</v>
+      </c>
+      <c r="J42" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>65.138888888888886</v>
+      </c>
+      <c r="L42" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>5</v>
+      </c>
+      <c r="M42" s="15">
+        <v>52.5</v>
+      </c>
+      <c r="N42" s="17">
+        <v>25.9</v>
+      </c>
+      <c r="O42" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="P42" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A43" s="13">
+        <v>5</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="59">
+        <v>45900</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="10">
+        <v>6485</v>
+      </c>
+      <c r="G43" s="31">
+        <v>1360</v>
+      </c>
+      <c r="H43" s="36">
+        <v>109</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
+      <c r="J43" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>20.971472629144177</v>
+      </c>
+      <c r="L43" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>1.6808018504240556</v>
+      </c>
+      <c r="M43" s="11">
+        <v>66.3</v>
+      </c>
+      <c r="N43" s="12">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="O43" s="12">
+        <v>17.2</v>
+      </c>
+      <c r="P43" s="50"/>
+    </row>
+    <row r="44" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A44" s="13">
+        <v>63</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="59">
+        <v>45900</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="14">
+        <v>427</v>
+      </c>
+      <c r="G44" s="30">
+        <v>408</v>
+      </c>
+      <c r="H44" s="35">
+        <v>23</v>
+      </c>
+      <c r="I44" s="17">
+        <v>0</v>
+      </c>
+      <c r="J44" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>95.550351288056206</v>
+      </c>
+      <c r="L44" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>5.3864168618266977</v>
+      </c>
+      <c r="M44" s="15">
+        <v>76.3</v>
+      </c>
+      <c r="N44" s="17">
+        <v>14.8</v>
+      </c>
+      <c r="O44" s="17">
+        <v>9</v>
+      </c>
+      <c r="P44" s="55"/>
+    </row>
+    <row r="45" spans="1:16" ht="32.1" customHeight="1">
+      <c r="A45" s="13">
+        <v>62</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="59">
+        <v>45900</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="10">
+        <v>4727</v>
+      </c>
+      <c r="G45" s="31">
+        <v>1455</v>
+      </c>
+      <c r="H45" s="36">
+        <v>110</v>
+      </c>
+      <c r="I45" s="12">
+        <v>0</v>
+      </c>
+      <c r="J45" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>30.78062195895917</v>
+      </c>
+      <c r="L45" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>2.3270573302305904</v>
+      </c>
+      <c r="M45" s="15">
+        <v>73.3</v>
+      </c>
+      <c r="N45" s="17">
+        <v>15.1</v>
+      </c>
+      <c r="O45" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="P45" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="32.1" customHeight="1">
+      <c r="B46" s="13"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3063,16 +4203,73 @@
     <hyperlink ref="P20" r:id="rId39" xr:uid="{49F0C4D7-6B49-48CB-9B69-3680BAAED979}"/>
     <hyperlink ref="P21" r:id="rId40" xr:uid="{669F8622-A0EA-44FE-8AAA-EAB6EE53AEB9}"/>
     <hyperlink ref="P22" r:id="rId41" xr:uid="{3EC869FD-833C-4252-AFF2-954077725E77}"/>
+    <hyperlink ref="B27" r:id="rId42" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2b3a8bd7-9314-4486-bed5-590aae72eef6" xr:uid="{DDE7FEFC-6B1E-4AA0-B976-36D2973B650E}"/>
+    <hyperlink ref="P27" r:id="rId43" xr:uid="{7AD33B0E-E2D3-41B8-9172-D15847D781D8}"/>
+    <hyperlink ref="B28" r:id="rId44" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/837cd468-99da-4b6c-86ed-a729c8dedaed" xr:uid="{8D543BC5-E411-41F4-AC77-9D04065517CB}"/>
+    <hyperlink ref="P28" r:id="rId45" xr:uid="{0118962C-499A-4545-8BD4-3ABE37EC8589}"/>
+    <hyperlink ref="B29" r:id="rId46" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1c60eb15-5315-4d97-bc92-f3321a8f2bb8" xr:uid="{0C3ADEAB-E937-4D0F-A344-AB2EAC09C8ED}"/>
+    <hyperlink ref="P29" r:id="rId47" xr:uid="{EA3D39DE-B821-4DE6-A6E8-54C4DB4002CB}"/>
+    <hyperlink ref="B30" r:id="rId48" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d0d232aa-3290-434d-8c3f-c589a73ea607" xr:uid="{21BFCBA6-6AD1-4DF1-BFCC-97AF53BF164E}"/>
+    <hyperlink ref="B31" r:id="rId49" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d0d232aa-3290-434d-8c3f-c589a73ea607" xr:uid="{FFD820BD-0682-4A01-886A-FC6E140DD7F6}"/>
+    <hyperlink ref="P30" r:id="rId50" xr:uid="{BDD938AD-4F2D-4D6D-A609-A2D733A83114}"/>
+    <hyperlink ref="P31" r:id="rId51" xr:uid="{54C0322F-D13C-44D8-B6EB-53DBB2BCA1C8}"/>
+    <hyperlink ref="B32" r:id="rId52" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/10c562f8-f91d-4456-8e2f-4ac211353527" xr:uid="{10A9ABF1-9B48-49EB-8857-3A95282225D7}"/>
+    <hyperlink ref="B33" r:id="rId53" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/10c562f8-f91d-4456-8e2f-4ac211353527" xr:uid="{03BE0AA5-037E-4E17-8386-29BAE9E3BEE5}"/>
+    <hyperlink ref="P32" r:id="rId54" xr:uid="{337F27CF-D0CD-4B04-A48D-36C253F1BE4F}"/>
+    <hyperlink ref="P33" r:id="rId55" xr:uid="{7FE3D493-8D5B-4496-8F77-D73CA4BD72FB}"/>
+    <hyperlink ref="B34" r:id="rId56" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2be0e003-3e51-476c-86ea-8a1f8913d899" xr:uid="{DCBBFEEB-0E31-4647-A7B8-662452421D74}"/>
+    <hyperlink ref="B35" r:id="rId57" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2be0e003-3e51-476c-86ea-8a1f8913d899" xr:uid="{F08C799E-E69A-4FAE-9577-3BE26DC55F8C}"/>
+    <hyperlink ref="P34" r:id="rId58" xr:uid="{F25A322F-4512-4FB9-896D-FC4488D151BC}"/>
+    <hyperlink ref="P35" r:id="rId59" xr:uid="{E9B325CA-DA26-471B-8892-3CD505753BC9}"/>
+    <hyperlink ref="B36" r:id="rId60" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d5aac9ae-16b6-46ce-9310-1ba0004b45ea" xr:uid="{FCD585C4-F8D5-442F-82A2-8DA88F7E9D6B}"/>
+    <hyperlink ref="P36" r:id="rId61" xr:uid="{E2C5678C-A592-4E8F-8D77-8769EA44690D}"/>
+    <hyperlink ref="B37" r:id="rId62" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cb123bc-fd8e-4868-82f1-14995d53c591" xr:uid="{930F7BAC-EDE4-4C25-8B39-8677C9CD53AD}"/>
+    <hyperlink ref="B38" r:id="rId63" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cb123bc-fd8e-4868-82f1-14995d53c591" xr:uid="{DDF5BEEE-A105-4CBA-B3EF-4B0632B51EAE}"/>
+    <hyperlink ref="P37" r:id="rId64" xr:uid="{28F02C08-2175-4786-AE8B-EF7115BB2A13}"/>
+    <hyperlink ref="P38" r:id="rId65" xr:uid="{6B6FA851-5730-41C3-9AD3-29501233C4EF}"/>
+    <hyperlink ref="B39" r:id="rId66" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/47e8e523-4417-4b5b-90e5-f72b14e59a38" display="Cbus Advocacy Research" xr:uid="{415E68FE-63DA-4727-BBF2-D5B9E5B4A68B}"/>
+    <hyperlink ref="P39" r:id="rId67" xr:uid="{2AD3FFE5-FB20-4C1E-B57F-CFE0E5B36B26}"/>
+    <hyperlink ref="B40" r:id="rId68" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/50c38354-a1aa-4221-89a9-67b1c2af5d56" xr:uid="{776AA357-15C0-415F-AD46-2E881767E760}"/>
+    <hyperlink ref="P40" r:id="rId69" xr:uid="{67874548-D942-44D2-AFBC-BB37ACD6D8B7}"/>
+    <hyperlink ref="B41" r:id="rId70" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bcdec3d6-9690-4399-8cce-1c945390b466" xr:uid="{17B72274-B78F-495D-B419-9A0D73821A7F}"/>
+    <hyperlink ref="B42" r:id="rId71" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bcdec3d6-9690-4399-8cce-1c945390b466" xr:uid="{C08F1CF4-F712-4502-B9D7-AB516367C6BC}"/>
+    <hyperlink ref="P41" r:id="rId72" xr:uid="{09AA577A-31BB-4E89-AD1C-E223A35FAD60}"/>
+    <hyperlink ref="P42" r:id="rId73" xr:uid="{720B7893-DA39-46C3-87FA-F12DA6138BED}"/>
+    <hyperlink ref="B44" r:id="rId74" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{69BF4C00-E3BA-45B0-811B-3788561FDB24}"/>
+    <hyperlink ref="B45" r:id="rId75" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{D7585B4B-7204-4A4E-B140-4217FD309F7E}"/>
+    <hyperlink ref="B43" r:id="rId76" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{8256078B-EEC5-4D3C-87D3-6EDECA6A4325}"/>
+    <hyperlink ref="P45" r:id="rId77" xr:uid="{BD617822-7DD4-4BC8-8F4E-3DD549DB69D2}"/>
+    <hyperlink ref="P14" r:id="rId78" xr:uid="{43E542A7-EED9-47CD-A876-76D47F10BB49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId42"/>
+  <legacyDrawing r:id="rId79"/>
   <tableParts count="1">
-    <tablePart r:id="rId43"/>
+    <tablePart r:id="rId80"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAB1339F159CD428AD0F5BA99C368F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f0c74bf1a42c2d75d8315edd8b34847e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0eeac73-9918-465e-bdd8-785547fbc2d9" xmlns:ns3="d777fa6b-bca0-4864-8d50-ac77b155e846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e574cbbd1e27f27e000ab280241298b2" ns2:_="" ns3:_="">
     <xsd:import namespace="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
@@ -3307,28 +4504,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3336,7 +4513,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD3352C-0044-4644-BD7C-3CD24FAFE118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD7961B-DB4A-4142-BB09-0C7D802AD00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -179,7 +179,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C85A22D2-5413-4932-95A0-6343FF53898D}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C532881C-78D0-47C7-88B0-EC09AAD9C203}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Donna Galletta:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Unique Clicks (AJO)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C85A22D2-5413-4932-95A0-6343FF53898D}">
       <text>
         <r>
           <rPr>
@@ -200,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="99">
   <si>
     <t>img-id</t>
   </si>
@@ -238,6 +262,9 @@
     <t>unique-clicks-pc</t>
   </si>
   <si>
+    <t>ctor-pc</t>
+  </si>
+  <si>
     <t>read-over-8s</t>
   </si>
   <si>
@@ -440,6 +467,60 @@
   </si>
   <si>
     <t>EOFY investment performance campaign (Microsoft HNW)</t>
+  </si>
+  <si>
+    <t>SIS Acquisition Sept 2025 - Segment 1 - Cbus</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/418112/emails/18808546/analytics</t>
+  </si>
+  <si>
+    <t>SIS Acquisition Sept 2025 - Segment 1 - Media</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/418112/emails/18807835/analytics</t>
+  </si>
+  <si>
+    <t>SIS Acquisition Sept 2025 - Segment 2 - Cbus</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/418112/emails/18808545/analytics</t>
+  </si>
+  <si>
+    <t>SIS Acquisition Sept 2025 - Segment 2 - Media</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/418112/emails/18808822/analytics</t>
+  </si>
+  <si>
+    <t>SIS Acquisition Sept 2025 - Segment 3 - Media</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/418112/emails/18808813/analytics</t>
+  </si>
+  <si>
+    <t>SIS Acquisition Sept 2025 - Segment 3 - Cbus B</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/418112/emails/18808542/analytics</t>
+  </si>
+  <si>
+    <t>SIS Acquisition Sept 2025 - Segment 3 - Cbus A</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/418112/emails/18808544/analytics</t>
+  </si>
+  <si>
+    <t>SIS Acquisition Sept 2025 - Segment 4  - Media</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/418112/emails/18808809/analytics</t>
+  </si>
+  <si>
+    <t>SIS Acquisition Sept 2025 - Segment 4  - Cbus</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/418112/emails/18808537/analytics</t>
   </si>
 </sst>
 </file>
@@ -552,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -728,6 +809,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -737,7 +831,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -902,8 +996,19 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{6F0A8B01-0191-40A2-B00A-ED1E02AD1E5F}"/>
@@ -911,7 +1016,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{770A8CE4-86FC-45BF-95B8-E1D8E67E3936}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="24">
     <dxf>
       <font>
         <b val="0"/>
@@ -987,6 +1092,36 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1391,6 +1526,38 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1405,28 +1572,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:P45" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="B1:P45" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:Q54" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17">
+  <autoFilter ref="B1:Q54" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J2">
     <sortCondition ref="C1:C2"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{592A3136-8A60-4650-9DF6-CD74A33464B1}" name="name" dataDxfId="14" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{1F194343-9489-4FF7-8BA8-8FE4AD211F8B}" name="date" dataDxfId="13" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{613F8D1F-C5D7-46FB-834A-5183617D5BF8}" name="brand" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{39913B7C-CBB3-470C-8F4E-6888A201DA8B}" name="type" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{0D81733F-25B3-4A7C-B3C0-DFE06A90464F}" name="unique-sends" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{274A7B85-7FDE-4D40-8515-C885EF39314B}" name="unique-opens" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{C860F744-163F-46E0-BC1A-15DDD6121358}" name="unique-clicks" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{A71DAAD5-121C-41AC-A08E-BF363CF89DFE}" name="unsub" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{3E23A808-3FEF-4D90-BACE-62A3345A0868}" name="unsub-pc" dataDxfId="6">
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{592A3136-8A60-4650-9DF6-CD74A33464B1}" name="name" dataDxfId="15" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{1F194343-9489-4FF7-8BA8-8FE4AD211F8B}" name="date" dataDxfId="14" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{613F8D1F-C5D7-46FB-834A-5183617D5BF8}" name="brand" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{39913B7C-CBB3-470C-8F4E-6888A201DA8B}" name="type" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0D81733F-25B3-4A7C-B3C0-DFE06A90464F}" name="unique-sends" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{274A7B85-7FDE-4D40-8515-C885EF39314B}" name="unique-opens" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{C860F744-163F-46E0-BC1A-15DDD6121358}" name="unique-clicks" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{A71DAAD5-121C-41AC-A08E-BF363CF89DFE}" name="unsub" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{3E23A808-3FEF-4D90-BACE-62A3345A0868}" name="unsub-pc" dataDxfId="7">
       <calculatedColumnFormula>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E7D2EFD0-301C-4002-8501-CE02665F086E}" name="unique-opens-pc" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{E7D2EFD0-301C-4002-8501-CE02665F086E}" name="unique-opens-pc" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FE8ED384-E8DC-43C9-9628-C6A9E5DFA5BE}" name="unique-clicks-pc" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{FE8ED384-E8DC-43C9-9628-C6A9E5DFA5BE}" name="unique-clicks-pc" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{E60FB7EF-7008-49DF-B5E7-A73B4E9595D4}" name="ctor-pc" dataDxfId="4">
+      <calculatedColumnFormula>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{3CA46112-C95F-E64B-A58D-81BDEBF2FDC4}" name="read-over-8s" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{985DCAD1-25BF-804E-9E49-5E19FC44B93C}" name="read-under-8s" dataDxfId="2"/>
@@ -1754,35 +1924,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23CF1A7-A843-E143-B142-84B9EDCB7AA1}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.875" style="13" customWidth="1"/>
     <col min="2" max="2" width="66.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="61" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="60" customWidth="1"/>
+    <col min="4" max="5" width="14.375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="13" customWidth="1"/>
     <col min="7" max="7" width="13.375" style="32" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="32" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="20" customWidth="1"/>
     <col min="10" max="10" width="15.375" style="21" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="21" style="39" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="21" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="52" style="51" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="13"/>
+    <col min="12" max="13" width="21" style="39" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="14.625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="15.375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="74.625" style="51" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" ht="32.1" customHeight="1">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="32.1" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1988,7 @@
       <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="26" t="s">
@@ -1828,25 +1997,28 @@
       <c r="O1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="26" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="48" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" ht="32.1" customHeight="1">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="32.1" customHeight="1">
       <c r="A2" s="41">
         <v>31</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="58">
         <v>45839</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="6">
         <v>9564</v>
@@ -1872,34 +2044,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>0.52279381012128812</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>0.95057034220532322</v>
+      </c>
+      <c r="N2" s="8">
         <v>61.9</v>
-      </c>
-      <c r="N2" s="8">
-        <v>19</v>
       </c>
       <c r="O2" s="8">
         <v>19</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="8">
         <v>19</v>
       </c>
+      <c r="Q2" s="52" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="32.1" customHeight="1">
+    <row r="3" spans="1:17" ht="32.1" customHeight="1">
       <c r="A3" s="17">
         <v>31</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="59">
         <v>45839</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="14">
         <v>230</v>
@@ -1925,34 +2101,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>0</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
         <v>83.3</v>
       </c>
-      <c r="N3" s="8">
+      <c r="O3" s="8">
         <v>16.7</v>
       </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="49" t="s">
-        <v>21</v>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="49" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="32.1" customHeight="1">
+    <row r="4" spans="1:17" ht="32.1" customHeight="1">
       <c r="A4" s="42">
         <v>31</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="59">
         <v>45846</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="14">
         <v>8314</v>
@@ -1978,34 +2158,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.5155159971133028</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.1834259727134917</v>
+      </c>
+      <c r="N4" s="8">
         <v>78.8</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="8">
         <v>14.1</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <v>7.1</v>
       </c>
-      <c r="P4" s="49" t="s">
-        <v>23</v>
+      <c r="Q4" s="49" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="32.1" customHeight="1">
+    <row r="5" spans="1:17" ht="32.1" customHeight="1">
       <c r="A5" s="17">
         <v>31</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="59">
         <v>45846</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="14">
         <v>465</v>
@@ -2031,34 +2215,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.3655913978494625</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.9426523297491038</v>
+      </c>
+      <c r="N5" s="8">
         <v>60</v>
-      </c>
-      <c r="N5" s="8">
-        <v>20</v>
       </c>
       <c r="O5" s="8">
         <v>20</v>
       </c>
-      <c r="P5" s="49" t="s">
-        <v>24</v>
+      <c r="P5" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="49" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="32.1" customHeight="1">
+    <row r="6" spans="1:17" ht="32.1" customHeight="1">
       <c r="A6" s="42">
         <v>30</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="59">
         <v>45846</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="14">
         <v>2085</v>
@@ -2084,34 +2272,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>4.8920863309352516</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>9.6958174904942958</v>
+      </c>
+      <c r="N6" s="8">
         <v>82</v>
-      </c>
-      <c r="N6" s="8">
-        <v>8.9</v>
       </c>
       <c r="O6" s="8">
         <v>8.9</v>
       </c>
-      <c r="P6" s="49" t="s">
-        <v>26</v>
+      <c r="P6" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="32.1" customHeight="1">
+    <row r="7" spans="1:17" ht="32.1" customHeight="1">
       <c r="A7" s="12">
         <v>30</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="59">
         <v>45846</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="10">
         <v>217</v>
@@ -2137,34 +2329,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>5.9907834101382482</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>8.5526315789473681</v>
+      </c>
+      <c r="N7" s="8">
         <v>73.099999999999994</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <v>19.2</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <v>7.7</v>
       </c>
-      <c r="P7" s="49" t="s">
-        <v>27</v>
+      <c r="Q7" s="49" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="32.1" customHeight="1">
+    <row r="8" spans="1:17" ht="32.1" customHeight="1">
       <c r="A8" s="42">
         <v>30</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="59">
         <v>45846</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="14">
         <v>8369</v>
@@ -2190,34 +2386,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.8079818377344963</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>5.3275901156200405</v>
+      </c>
+      <c r="N8" s="8">
         <v>73.599999999999994</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>14.6</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <v>11.8</v>
       </c>
-      <c r="P8" s="49" t="s">
-        <v>29</v>
+      <c r="Q8" s="49" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="32.1" customHeight="1">
+    <row r="9" spans="1:17" ht="32.1" customHeight="1">
       <c r="A9" s="12">
         <v>30</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="59">
         <v>45846</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="10">
         <v>1253</v>
@@ -2243,34 +2443,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>3.6711891460494814</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>5.75</v>
+      </c>
+      <c r="N9" s="8">
         <v>66.7</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <v>25.3</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>8.1</v>
       </c>
-      <c r="P9" s="49" t="s">
-        <v>30</v>
+      <c r="Q9" s="49" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="32.1" customHeight="1">
+    <row r="10" spans="1:17" ht="32.1" customHeight="1">
       <c r="A10" s="42">
         <v>30</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="59">
         <v>45848</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="14">
         <v>1542</v>
@@ -2296,34 +2500,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.8534370946822309</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>5.3527980535279802</v>
+      </c>
+      <c r="N10" s="8">
         <v>75.8</v>
       </c>
-      <c r="N10" s="8">
+      <c r="O10" s="8">
         <v>13.2</v>
       </c>
-      <c r="O10" s="8">
+      <c r="P10" s="8">
         <v>11.1</v>
       </c>
-      <c r="P10" s="49" t="s">
-        <v>32</v>
+      <c r="Q10" s="49" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="32.1" customHeight="1">
+    <row r="11" spans="1:17" ht="32.1" customHeight="1">
       <c r="A11" s="12">
         <v>30</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="59">
         <v>45848</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="10">
         <v>182</v>
@@ -2349,34 +2557,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.197802197802198</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.669724770642202</v>
+      </c>
+      <c r="N11" s="8">
         <v>66.7</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>14.8</v>
       </c>
-      <c r="O11" s="8">
+      <c r="P11" s="8">
         <v>18.5</v>
       </c>
-      <c r="P11" s="49" t="s">
-        <v>33</v>
+      <c r="Q11" s="49" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="32.1" customHeight="1">
+    <row r="12" spans="1:17" ht="32.1" customHeight="1">
       <c r="A12" s="42">
         <v>61</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="59">
         <v>45852</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="14">
         <v>320093</v>
@@ -2402,32 +2614,36 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.3464836781810285</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>2.9790292926360609</v>
+      </c>
+      <c r="N12" s="8">
         <v>68.5</v>
       </c>
-      <c r="N12" s="8">
+      <c r="O12" s="8">
         <v>17.2</v>
       </c>
-      <c r="O12" s="8">
+      <c r="P12" s="8">
         <v>14.3</v>
       </c>
-      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
     </row>
-    <row r="13" spans="1:16" ht="32.1" customHeight="1">
+    <row r="13" spans="1:17" ht="32.1" customHeight="1">
       <c r="A13" s="17">
         <v>5</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="59">
         <v>45852</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="14">
         <v>28154</v>
@@ -2453,32 +2669,36 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>3.3742985011010869</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>5.3836563527144961</v>
+      </c>
+      <c r="N13" s="15">
         <v>66.3</v>
       </c>
-      <c r="N13" s="17">
+      <c r="O13" s="17">
         <v>16.399999999999999</v>
       </c>
-      <c r="O13" s="17">
+      <c r="P13" s="17">
         <v>17.2</v>
       </c>
-      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
     </row>
-    <row r="14" spans="1:16" ht="32.1" customHeight="1">
+    <row r="14" spans="1:17" ht="32.1" customHeight="1">
       <c r="A14" s="43">
         <v>62</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="59">
         <v>45852</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="10">
         <v>20052</v>
@@ -2504,34 +2724,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>4.3636544983044079</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>7.1097749248395221</v>
+      </c>
+      <c r="N14" s="11">
         <v>73.3</v>
       </c>
-      <c r="N14" s="12">
+      <c r="O14" s="12">
         <v>15.1</v>
       </c>
-      <c r="O14" s="12">
+      <c r="P14" s="12">
         <v>11.6</v>
       </c>
-      <c r="P14" s="49" t="s">
-        <v>38</v>
+      <c r="Q14" s="49" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="32.1" customHeight="1">
+    <row r="15" spans="1:17" ht="32.1" customHeight="1">
       <c r="A15" s="12">
         <v>63</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="59">
         <v>45852</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="10">
         <v>6012</v>
@@ -2557,32 +2781,36 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>5.2395209580838316</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>7.6419213973799121</v>
+      </c>
+      <c r="N15" s="11">
         <v>76.3</v>
       </c>
-      <c r="N15" s="12">
+      <c r="O15" s="12">
         <v>14.8</v>
       </c>
-      <c r="O15" s="12">
+      <c r="P15" s="12">
         <v>9</v>
       </c>
-      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="1:16" ht="32.1" customHeight="1">
+    <row r="16" spans="1:17" ht="32.1" customHeight="1">
       <c r="A16" s="42">
         <v>31</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="59">
         <v>45853</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="14">
         <v>6597</v>
@@ -2608,34 +2836,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.6678793390935271</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>4.3650793650793647</v>
+      </c>
+      <c r="N16" s="8">
         <v>64</v>
       </c>
-      <c r="N16" s="8">
+      <c r="O16" s="8">
         <v>23.4</v>
       </c>
-      <c r="O16" s="8">
+      <c r="P16" s="8">
         <v>12.6</v>
       </c>
-      <c r="P16" s="49" t="s">
-        <v>41</v>
+      <c r="Q16" s="49" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="32.1" customHeight="1">
+    <row r="17" spans="1:17" ht="32.1" customHeight="1">
       <c r="A17" s="17">
         <v>31</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="59">
         <v>45853</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="14">
         <v>432</v>
@@ -2661,34 +2893,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>4.8611111111111116</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>6.8627450980392162</v>
+      </c>
+      <c r="N17" s="8">
         <v>51.2</v>
       </c>
-      <c r="N17" s="8">
+      <c r="O17" s="8">
         <v>24.4</v>
       </c>
-      <c r="O17" s="8">
+      <c r="P17" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P17" s="49" t="s">
-        <v>42</v>
+      <c r="Q17" s="49" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="32.1" customHeight="1">
+    <row r="18" spans="1:17" ht="32.1" customHeight="1">
       <c r="A18" s="42">
         <v>77</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="59">
         <v>45860</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="10">
         <v>28</v>
@@ -2714,32 +2950,36 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>17.857142857142858</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="N18" s="15">
         <v>60</v>
       </c>
-      <c r="N18" s="17">
+      <c r="O18" s="17">
         <v>10</v>
       </c>
-      <c r="O18" s="17">
+      <c r="P18" s="17">
         <v>30</v>
       </c>
-      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:16" ht="32.1" customHeight="1">
+    <row r="19" spans="1:17" ht="32.1" customHeight="1">
       <c r="A19" s="12">
         <v>31</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="59">
         <v>45861</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="14">
         <v>52075</v>
@@ -2765,34 +3005,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.6361017762842056</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>2.6747873041785701</v>
+      </c>
+      <c r="N19" s="8">
         <v>63.7</v>
       </c>
-      <c r="N19" s="8">
+      <c r="O19" s="8">
         <v>22.8</v>
       </c>
-      <c r="O19" s="8">
+      <c r="P19" s="8">
         <v>13.6</v>
       </c>
-      <c r="P19" s="49" t="s">
-        <v>46</v>
+      <c r="Q19" s="49" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="32.1" customHeight="1">
+    <row r="20" spans="1:17" ht="32.1" customHeight="1">
       <c r="A20" s="43">
         <v>31</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="59">
         <v>45861</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="10">
         <v>8068</v>
@@ -2818,34 +3062,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>3.3341596430342091</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>4.7334154495864862</v>
+      </c>
+      <c r="N20" s="8">
         <v>59</v>
       </c>
-      <c r="N20" s="8">
+      <c r="O20" s="8">
         <v>22.4</v>
       </c>
-      <c r="O20" s="8">
+      <c r="P20" s="8">
         <v>18.600000000000001</v>
       </c>
-      <c r="P20" s="49" t="s">
-        <v>47</v>
+      <c r="Q20" s="49" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="32.1" customHeight="1">
+    <row r="21" spans="1:17" ht="32.1" customHeight="1">
       <c r="A21" s="12">
         <v>31</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="59">
         <v>45867</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="14">
         <v>8974</v>
@@ -2871,34 +3119,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.8386449743704034</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>2.9229406554472983</v>
+      </c>
+      <c r="N21" s="8">
         <v>61.8</v>
-      </c>
-      <c r="N21" s="8">
-        <v>19.100000000000001</v>
       </c>
       <c r="O21" s="8">
         <v>19.100000000000001</v>
       </c>
-      <c r="P21" s="49" t="s">
-        <v>49</v>
+      <c r="P21" s="8">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Q21" s="49" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="32.1" customHeight="1">
+    <row r="22" spans="1:17" ht="32.1" customHeight="1">
       <c r="A22" s="43">
         <v>31</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="59">
         <v>45867</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="14">
         <v>610</v>
@@ -2924,34 +3176,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.9672131147540985</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.0927835051546393</v>
+      </c>
+      <c r="N22" s="8">
         <v>52.4</v>
       </c>
-      <c r="N22" s="8">
+      <c r="O22" s="8">
         <v>14.3</v>
       </c>
-      <c r="O22" s="8">
+      <c r="P22" s="8">
         <v>33.299999999999997</v>
       </c>
-      <c r="P22" s="49" t="s">
-        <v>50</v>
+      <c r="Q22" s="49" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="32.1" customHeight="1">
+    <row r="23" spans="1:17" ht="32.1" customHeight="1">
       <c r="A23" s="17">
         <v>30</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="59">
         <v>45867</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="14">
         <v>1628</v>
@@ -2977,8 +3233,9 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>3.2555282555282554</v>
       </c>
-      <c r="M23" s="8">
-        <v>0</v>
+      <c r="M23" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>5.8177826564215147</v>
       </c>
       <c r="N23" s="8">
         <v>0</v>
@@ -2986,23 +3243,26 @@
       <c r="O23" s="8">
         <v>0</v>
       </c>
-      <c r="P23" s="50"/>
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="1:16" ht="32.1" customHeight="1">
+    <row r="24" spans="1:17" ht="32.1" customHeight="1">
       <c r="A24" s="42">
         <v>30</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="59">
         <v>45867</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="14">
         <v>188</v>
@@ -3028,8 +3288,9 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>8.5106382978723403</v>
       </c>
-      <c r="M24" s="8">
-        <v>0</v>
+      <c r="M24" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>12.598425196850393</v>
       </c>
       <c r="N24" s="8">
         <v>0</v>
@@ -3037,23 +3298,26 @@
       <c r="O24" s="8">
         <v>0</v>
       </c>
-      <c r="P24" s="50"/>
+      <c r="P24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="1:16" ht="32.1" customHeight="1">
+    <row r="25" spans="1:17" ht="32.1" customHeight="1">
       <c r="A25" s="17">
         <v>30</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="59">
         <v>45867</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" s="14">
         <v>1217</v>
@@ -3079,8 +3343,9 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>3.122432210353328</v>
       </c>
-      <c r="M25" s="8">
-        <v>0</v>
+      <c r="M25" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>5.1841746248294678</v>
       </c>
       <c r="N25" s="8">
         <v>0</v>
@@ -3088,23 +3353,26 @@
       <c r="O25" s="8">
         <v>0</v>
       </c>
-      <c r="P25" s="50"/>
+      <c r="P25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="1:16" ht="32.1" customHeight="1">
+    <row r="26" spans="1:17" ht="32.1" customHeight="1">
       <c r="A26" s="43">
         <v>30</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="59">
         <v>45867</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" s="10">
         <v>155</v>
@@ -3130,8 +3398,9 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.5806451612903225</v>
       </c>
-      <c r="M26" s="8">
-        <v>0</v>
+      <c r="M26" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.7735849056603774</v>
       </c>
       <c r="N26" s="8">
         <v>0</v>
@@ -3139,23 +3408,26 @@
       <c r="O26" s="8">
         <v>0</v>
       </c>
-      <c r="P26" s="50"/>
+      <c r="P26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="50"/>
     </row>
-    <row r="27" spans="1:16" ht="32.1" customHeight="1">
+    <row r="27" spans="1:17" ht="32.1" customHeight="1">
       <c r="A27" s="13">
         <v>61</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="59">
         <v>45870</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="14">
         <v>2677</v>
@@ -3181,34 +3453,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>0.89652596189764666</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>5.741626794258373</v>
+      </c>
+      <c r="N27" s="8">
         <v>68.5</v>
       </c>
-      <c r="N27" s="8">
+      <c r="O27" s="8">
         <v>17.2</v>
       </c>
-      <c r="O27" s="8">
+      <c r="P27" s="8">
         <v>14.3</v>
       </c>
-      <c r="P27" s="54" t="s">
-        <v>54</v>
+      <c r="Q27" s="54" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="32.1" customHeight="1">
+    <row r="28" spans="1:17" ht="32.1" customHeight="1">
       <c r="A28" s="13">
         <v>61</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="59">
         <v>45870</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" s="10">
         <v>14113</v>
@@ -3234,34 +3510,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>0.73690923262240482</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>4.9547403525488329</v>
+      </c>
+      <c r="N28" s="8">
         <v>68.5</v>
       </c>
-      <c r="N28" s="8">
+      <c r="O28" s="8">
         <v>17.2</v>
       </c>
-      <c r="O28" s="8">
+      <c r="P28" s="8">
         <v>14.3</v>
       </c>
-      <c r="P28" s="54" t="s">
-        <v>54</v>
+      <c r="Q28" s="54" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="32.1" customHeight="1">
+    <row r="29" spans="1:17" ht="32.1" customHeight="1">
       <c r="A29" s="13">
         <v>61</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="59">
         <v>45870</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F29" s="10">
         <v>71201</v>
@@ -3287,34 +3567,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>0.68538363225235599</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>4.5860351470726437</v>
+      </c>
+      <c r="N29" s="8">
         <v>68.5</v>
       </c>
-      <c r="N29" s="8">
+      <c r="O29" s="8">
         <v>17.2</v>
       </c>
-      <c r="O29" s="8">
+      <c r="P29" s="8">
         <v>14.3</v>
       </c>
-      <c r="P29" s="54" t="s">
-        <v>54</v>
+      <c r="Q29" s="54" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="32.1" customHeight="1">
+    <row r="30" spans="1:17" ht="32.1" customHeight="1">
       <c r="A30" s="13">
         <v>31</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="59">
         <v>45874</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="14">
         <v>8728</v>
@@ -3340,34 +3624,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.6956920256645278</v>
       </c>
-      <c r="M30" s="15">
-        <v>0</v>
-      </c>
-      <c r="N30" s="17">
+      <c r="M30" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.2940129089695085</v>
+      </c>
+      <c r="N30" s="15">
         <v>0</v>
       </c>
       <c r="O30" s="17">
         <v>0</v>
       </c>
-      <c r="P30" s="54" t="s">
-        <v>58</v>
+      <c r="P30" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="54" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="32.1" customHeight="1">
+    <row r="31" spans="1:17" ht="32.1" customHeight="1">
       <c r="A31" s="13">
         <v>31</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" s="59">
         <v>45874</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31" s="10">
         <v>392</v>
@@ -3393,34 +3681,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.806122448979592</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>5.1162790697674421</v>
+      </c>
+      <c r="N31" s="11">
         <v>50</v>
-      </c>
-      <c r="N31" s="12">
-        <v>25</v>
       </c>
       <c r="O31" s="12">
         <v>25</v>
       </c>
-      <c r="P31" s="49" t="s">
-        <v>59</v>
+      <c r="P31" s="12">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="49" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="32.1" customHeight="1">
+    <row r="32" spans="1:17" ht="32.1" customHeight="1">
       <c r="A32" s="13">
         <v>30</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="59">
         <v>45874</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F32" s="14">
         <v>7879</v>
@@ -3446,34 +3738,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>4.5817997207767487</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>7.1598571995239988</v>
+      </c>
+      <c r="N32" s="15">
         <v>63.6</v>
       </c>
-      <c r="N32" s="17">
+      <c r="O32" s="17">
         <v>21.4</v>
       </c>
-      <c r="O32" s="17">
+      <c r="P32" s="17">
         <v>15</v>
       </c>
-      <c r="P32" s="54" t="s">
-        <v>61</v>
+      <c r="Q32" s="54" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="32.1" customHeight="1">
+    <row r="33" spans="1:17" ht="32.1" customHeight="1">
       <c r="A33" s="13">
         <v>30</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" s="59">
         <v>45874</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33" s="10">
         <v>733</v>
@@ -3499,34 +3795,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>4.5020463847203276</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>6.5868263473053901</v>
+      </c>
+      <c r="N33" s="11">
         <v>52.5</v>
       </c>
-      <c r="N33" s="12">
+      <c r="O33" s="12">
         <v>25.9</v>
       </c>
-      <c r="O33" s="12">
+      <c r="P33" s="12">
         <v>21.6</v>
       </c>
-      <c r="P33" s="49" t="s">
-        <v>62</v>
+      <c r="Q33" s="49" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="32.1" customHeight="1">
+    <row r="34" spans="1:17" ht="32.1" customHeight="1">
       <c r="A34" s="13">
         <v>31</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="59">
         <v>45881</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F34" s="14">
         <v>9326</v>
@@ -3552,34 +3852,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>0.43963113875187643</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>0.64760701311009317</v>
+      </c>
+      <c r="N34" s="15">
         <v>37.1</v>
       </c>
-      <c r="N34" s="17">
+      <c r="O34" s="17">
         <v>38.6</v>
       </c>
-      <c r="O34" s="17">
+      <c r="P34" s="17">
         <v>24.3</v>
       </c>
-      <c r="P34" s="54" t="s">
-        <v>64</v>
+      <c r="Q34" s="54" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="32.1" customHeight="1">
+    <row r="35" spans="1:17" ht="32.1" customHeight="1">
       <c r="A35" s="13">
         <v>31</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" s="59">
         <v>45881</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F35" s="10">
         <v>257</v>
@@ -3605,34 +3909,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.9455252918287937</v>
       </c>
-      <c r="M35" s="11">
-        <v>0</v>
-      </c>
-      <c r="N35" s="12">
+      <c r="M35" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="N35" s="11">
         <v>0</v>
       </c>
       <c r="O35" s="12">
         <v>0</v>
       </c>
-      <c r="P35" s="49" t="s">
-        <v>65</v>
+      <c r="P35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="49" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="32.1" customHeight="1">
+    <row r="36" spans="1:17" ht="32.1" customHeight="1">
       <c r="A36" s="13">
         <v>30</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" s="59">
         <v>45881</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F36" s="14">
         <v>1737</v>
@@ -3658,34 +3966,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.4179620034542317</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.4596375617792421</v>
+      </c>
+      <c r="N36" s="15">
         <v>74.599999999999994</v>
       </c>
-      <c r="N36" s="17">
+      <c r="O36" s="17">
         <v>15.6</v>
       </c>
-      <c r="O36" s="17">
+      <c r="P36" s="17">
         <v>9.8000000000000007</v>
       </c>
-      <c r="P36" s="54" t="s">
-        <v>67</v>
+      <c r="Q36" s="54" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="32.1" customHeight="1">
+    <row r="37" spans="1:17" ht="32.1" customHeight="1">
       <c r="A37" s="13">
         <v>30</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="59">
         <v>45888</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" s="10">
         <v>12681</v>
@@ -3711,34 +4023,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>4.0217648450437657</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>6.2792415661167196</v>
+      </c>
+      <c r="N37" s="11">
         <v>64.400000000000006</v>
       </c>
-      <c r="N37" s="12">
+      <c r="O37" s="12">
         <v>19.399999999999999</v>
       </c>
-      <c r="O37" s="12">
+      <c r="P37" s="12">
         <v>11.2</v>
       </c>
-      <c r="P37" s="49" t="s">
-        <v>69</v>
+      <c r="Q37" s="49" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="32.1" customHeight="1">
+    <row r="38" spans="1:17" ht="32.1" customHeight="1">
       <c r="A38" s="13">
         <v>30</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" s="59">
         <v>45888</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" s="14">
         <v>1852</v>
@@ -3764,34 +4080,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>5.291576673866091</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M38" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>7.5675675675675684</v>
+      </c>
+      <c r="N38" s="15">
         <v>68.2</v>
       </c>
-      <c r="N38" s="17">
+      <c r="O38" s="17">
         <v>17.600000000000001</v>
       </c>
-      <c r="O38" s="17">
+      <c r="P38" s="17">
         <v>14.2</v>
       </c>
-      <c r="P38" s="54" t="s">
-        <v>70</v>
+      <c r="Q38" s="54" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="32.1" customHeight="1">
+    <row r="39" spans="1:17" ht="32.1" customHeight="1">
       <c r="A39" s="13">
         <v>78</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C39" s="59">
         <v>45891</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F39" s="14">
         <v>19741</v>
@@ -3817,34 +4137,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.1782077908920519</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.8485635012977712</v>
+      </c>
+      <c r="N39" s="15">
         <v>67.099999999999994</v>
       </c>
-      <c r="N39" s="17">
+      <c r="O39" s="17">
         <v>16.8</v>
       </c>
-      <c r="O39" s="17">
+      <c r="P39" s="17">
         <v>16.2</v>
       </c>
-      <c r="P39" s="54" t="s">
-        <v>73</v>
+      <c r="Q39" s="54" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="32.1" customHeight="1">
+    <row r="40" spans="1:17" ht="32.1" customHeight="1">
       <c r="A40" s="13">
         <v>31</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" s="59">
         <v>45895</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F40" s="14">
         <v>5041</v>
@@ -3870,34 +4194,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.3092640349137077</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>2.0140372291730242</v>
+      </c>
+      <c r="N40" s="15">
         <v>65.7</v>
       </c>
-      <c r="N40" s="17">
+      <c r="O40" s="17">
         <v>21.4</v>
       </c>
-      <c r="O40" s="17">
+      <c r="P40" s="17">
         <v>12.9</v>
       </c>
-      <c r="P40" s="54" t="s">
-        <v>75</v>
+      <c r="Q40" s="54" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="32.1" customHeight="1">
+    <row r="41" spans="1:17" ht="32.1" customHeight="1">
       <c r="A41" s="13">
         <v>30</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" s="59">
         <v>45895</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F41" s="14">
         <v>7728</v>
@@ -3923,34 +4251,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>3.9466873706004142</v>
       </c>
-      <c r="M41" s="15">
+      <c r="M41" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>6.4482029598308666</v>
+      </c>
+      <c r="N41" s="15">
         <v>63.6</v>
       </c>
-      <c r="N41" s="17">
+      <c r="O41" s="17">
         <v>21.4</v>
       </c>
-      <c r="O41" s="17">
+      <c r="P41" s="17">
         <v>15</v>
       </c>
-      <c r="P41" s="54" t="s">
-        <v>61</v>
+      <c r="Q41" s="54" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="32.1" customHeight="1">
+    <row r="42" spans="1:17" ht="32.1" customHeight="1">
       <c r="A42" s="13">
         <v>30</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C42" s="59">
         <v>45895</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F42" s="14">
         <v>720</v>
@@ -3976,34 +4308,38 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>5</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M42" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>7.6759061833688706</v>
+      </c>
+      <c r="N42" s="15">
         <v>52.5</v>
       </c>
-      <c r="N42" s="17">
+      <c r="O42" s="17">
         <v>25.9</v>
       </c>
-      <c r="O42" s="17">
+      <c r="P42" s="17">
         <v>1.6</v>
       </c>
-      <c r="P42" s="54" t="s">
-        <v>62</v>
+      <c r="Q42" s="54" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="32.1" customHeight="1">
+    <row r="43" spans="1:17" ht="32.1" customHeight="1">
       <c r="A43" s="13">
         <v>5</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" s="59">
         <v>45900</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F43" s="10">
         <v>6485</v>
@@ -4029,32 +4365,36 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>1.6808018504240556</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>8.014705882352942</v>
+      </c>
+      <c r="N43" s="11">
         <v>66.3</v>
       </c>
-      <c r="N43" s="12">
+      <c r="O43" s="12">
         <v>16.399999999999999</v>
       </c>
-      <c r="O43" s="12">
+      <c r="P43" s="12">
         <v>17.2</v>
       </c>
-      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
     </row>
-    <row r="44" spans="1:16" ht="32.1" customHeight="1">
+    <row r="44" spans="1:17" ht="32.1" customHeight="1">
       <c r="A44" s="13">
         <v>63</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" s="59">
         <v>45900</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F44" s="14">
         <v>427</v>
@@ -4080,32 +4420,36 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>5.3864168618266977</v>
       </c>
-      <c r="M44" s="15">
+      <c r="M44" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>5.6372549019607847</v>
+      </c>
+      <c r="N44" s="15">
         <v>76.3</v>
       </c>
-      <c r="N44" s="17">
+      <c r="O44" s="17">
         <v>14.8</v>
       </c>
-      <c r="O44" s="17">
+      <c r="P44" s="17">
         <v>9</v>
       </c>
-      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
     </row>
-    <row r="45" spans="1:16" ht="32.1" customHeight="1">
+    <row r="45" spans="1:17" ht="32.1" customHeight="1">
       <c r="A45" s="13">
         <v>62</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45" s="59">
         <v>45900</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F45" s="10">
         <v>4727</v>
@@ -4131,36 +4475,549 @@
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
         <v>2.3270573302305904</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>7.5601374570446733</v>
+      </c>
+      <c r="N45" s="15">
         <v>73.3</v>
       </c>
-      <c r="N45" s="17">
+      <c r="O45" s="17">
         <v>15.1</v>
       </c>
-      <c r="O45" s="17">
+      <c r="P45" s="17">
         <v>1.6</v>
       </c>
-      <c r="P45" s="54" t="s">
-        <v>38</v>
+      <c r="Q45" s="54" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="32.1" customHeight="1">
-      <c r="B46" s="13"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="50"/>
+    <row r="46" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A46" s="66">
+        <v>1</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="59">
+        <v>45901</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="14">
+        <v>6286</v>
+      </c>
+      <c r="G46" s="30">
+        <v>3750</v>
+      </c>
+      <c r="H46" s="35">
+        <v>661</v>
+      </c>
+      <c r="I46" s="17">
+        <v>6</v>
+      </c>
+      <c r="J46" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>9.5450206808781426E-2</v>
+      </c>
+      <c r="K46" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>59.656379255488389</v>
+      </c>
+      <c r="L46" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>10.51543111676742</v>
+      </c>
+      <c r="M46" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>17.626666666666665</v>
+      </c>
+      <c r="N46" s="15">
+        <v>76.3</v>
+      </c>
+      <c r="O46" s="17">
+        <v>14.3</v>
+      </c>
+      <c r="P46" s="17">
+        <v>9.4</v>
+      </c>
+      <c r="Q46" s="54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A47" s="66">
+        <v>2</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="59">
+        <v>45901</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="10">
+        <v>824</v>
+      </c>
+      <c r="G47" s="31">
+        <v>565</v>
+      </c>
+      <c r="H47" s="36">
+        <v>98</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>68.567961165048544</v>
+      </c>
+      <c r="L47" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>11.893203883495145</v>
+      </c>
+      <c r="M47" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>17.345132743362832</v>
+      </c>
+      <c r="N47" s="11">
+        <v>67.7</v>
+      </c>
+      <c r="O47" s="12">
+        <v>15</v>
+      </c>
+      <c r="P47" s="12">
+        <v>17.3</v>
+      </c>
+      <c r="Q47" s="54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A48" s="66">
+        <v>3</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="59">
+        <v>45901</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="10">
+        <v>8665</v>
+      </c>
+      <c r="G48" s="31">
+        <v>4769</v>
+      </c>
+      <c r="H48" s="36">
+        <v>402</v>
+      </c>
+      <c r="I48" s="12">
+        <v>10</v>
+      </c>
+      <c r="J48" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.1154068090017311</v>
+      </c>
+      <c r="K48" s="64">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>55.037507212925561</v>
+      </c>
+      <c r="L48" s="65">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.6393537218695897</v>
+      </c>
+      <c r="M48" s="65">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>8.4294401342000427</v>
+      </c>
+      <c r="N48" s="11">
+        <v>75.8</v>
+      </c>
+      <c r="O48" s="12">
+        <v>13.9</v>
+      </c>
+      <c r="P48" s="12">
+        <v>10.3</v>
+      </c>
+      <c r="Q48" s="54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A49" s="63">
+        <v>4</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="59">
+        <v>45901</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1207</v>
+      </c>
+      <c r="G49" s="31">
+        <v>740</v>
+      </c>
+      <c r="H49" s="36">
+        <v>4769</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="64">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>61.309030654515325</v>
+      </c>
+      <c r="L49" s="65">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>395.11184755592382</v>
+      </c>
+      <c r="M49" s="65">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>644.45945945945948</v>
+      </c>
+      <c r="N49" s="11">
+        <v>75.8</v>
+      </c>
+      <c r="O49" s="12">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="P49" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="Q49" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A50" s="63">
+        <v>8</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="59">
+        <v>45901</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="10">
+        <v>715</v>
+      </c>
+      <c r="G50" s="31">
+        <v>427</v>
+      </c>
+      <c r="H50" s="36">
+        <v>62</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="64">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>59.72027972027972</v>
+      </c>
+      <c r="L50" s="65">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>8.6713286713286699</v>
+      </c>
+      <c r="M50" s="65">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>14.519906323185012</v>
+      </c>
+      <c r="N50" s="11">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="O50" s="12">
+        <v>18.3</v>
+      </c>
+      <c r="P50" s="12">
+        <v>15.6</v>
+      </c>
+      <c r="Q50" s="54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A51" s="63">
+        <v>6</v>
+      </c>
+      <c r="B51" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="59">
+        <v>45901</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="10">
+        <v>2621</v>
+      </c>
+      <c r="G51" s="31">
+        <v>1243</v>
+      </c>
+      <c r="H51" s="36">
+        <v>178</v>
+      </c>
+      <c r="I51" s="12">
+        <v>1</v>
+      </c>
+      <c r="J51" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>3.8153376573826787E-2</v>
+      </c>
+      <c r="K51" s="64">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>47.424647081266691</v>
+      </c>
+      <c r="L51" s="65">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>6.7913010301411667</v>
+      </c>
+      <c r="M51" s="65">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>14.320193081255027</v>
+      </c>
+      <c r="N51" s="11">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O51" s="12">
+        <v>13.3</v>
+      </c>
+      <c r="P51" s="12">
+        <v>8.6</v>
+      </c>
+      <c r="Q51" s="54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A52" s="13">
+        <v>7</v>
+      </c>
+      <c r="B52" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="59">
+        <v>45901</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="10">
+        <v>2543</v>
+      </c>
+      <c r="G52" s="31">
+        <v>1299</v>
+      </c>
+      <c r="H52" s="36">
+        <v>168</v>
+      </c>
+      <c r="I52" s="12">
+        <v>3</v>
+      </c>
+      <c r="J52" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.11797090051120723</v>
+      </c>
+      <c r="K52" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>51.081399921352734</v>
+      </c>
+      <c r="L52" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>6.6063704286276046</v>
+      </c>
+      <c r="M52" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>12.933025404157044</v>
+      </c>
+      <c r="N52" s="11">
+        <v>70.5</v>
+      </c>
+      <c r="O52" s="12">
+        <v>18.5</v>
+      </c>
+      <c r="P52" s="12">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A53" s="13">
+        <v>9</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="59">
+        <v>45901</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="14">
+        <v>406</v>
+      </c>
+      <c r="G53" s="30">
+        <v>271</v>
+      </c>
+      <c r="H53" s="35">
+        <v>51</v>
+      </c>
+      <c r="I53" s="17">
+        <v>0</v>
+      </c>
+      <c r="J53" s="46">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>66.748768472906406</v>
+      </c>
+      <c r="L53" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>12.561576354679804</v>
+      </c>
+      <c r="M53" s="53">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>18.819188191881921</v>
+      </c>
+      <c r="N53" s="15">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="O53" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="P53" s="17">
+        <v>15.6</v>
+      </c>
+      <c r="Q53" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="32.1" customHeight="1">
+      <c r="A54" s="13">
+        <v>8</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="59">
+        <v>45901</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="10">
+        <v>3480</v>
+      </c>
+      <c r="G54" s="31">
+        <v>1997</v>
+      </c>
+      <c r="H54" s="36">
+        <v>339</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="47">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>57.385057471264368</v>
+      </c>
+      <c r="L54" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>9.7413793103448274</v>
+      </c>
+      <c r="M54" s="38">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>16.975463194792187</v>
+      </c>
+      <c r="N54" s="11">
+        <v>76.8</v>
+      </c>
+      <c r="O54" s="12">
+        <v>14.7</v>
+      </c>
+      <c r="P54" s="12">
+        <v>8.6</v>
+      </c>
+      <c r="Q54" s="54" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B46:B51">
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="auto">
+      <formula>NOT(ISERROR(SEARCH("auto",B46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="auto">
+      <formula>NOT(ISERROR(SEARCH("auto",B52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/541e1d3f-d064-4e8c-ad26-a2f26946d5ec" xr:uid="{A0444A8C-B658-434F-912C-6E4903003899}"/>
     <hyperlink ref="B4" r:id="rId2" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{7F7AB8F8-DEAF-3449-99E1-B7BA87B8D6EF}"/>
@@ -4187,64 +5044,85 @@
     <hyperlink ref="B25" r:id="rId23" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{9AB33328-4010-F843-B550-8D7E64EC2CD1}"/>
     <hyperlink ref="B26" r:id="rId24" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{1CD36E2E-A888-B64A-A43F-52462AF0D631}"/>
     <hyperlink ref="B3" r:id="rId25" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/541e1d3f-d064-4e8c-ad26-a2f26946d5ec" xr:uid="{BFA6D6B9-0F92-4A98-BC01-3F66ECBAF652}"/>
-    <hyperlink ref="P3" r:id="rId26" xr:uid="{51BBEF75-8B33-4A54-A5A5-C3E2872BA63D}"/>
-    <hyperlink ref="P2" r:id="rId27" xr:uid="{9B91B3EB-9AC1-4462-A67A-81961D7FCB79}"/>
-    <hyperlink ref="P4" r:id="rId28" xr:uid="{1077084C-D29E-4ABC-BD53-A05F91719125}"/>
-    <hyperlink ref="P5" r:id="rId29" xr:uid="{E82B6BA4-E16F-492E-BCD8-911C556EA12C}"/>
-    <hyperlink ref="P6" r:id="rId30" xr:uid="{6184ED25-1DF9-49D3-AC87-98D010A3B3E0}"/>
-    <hyperlink ref="P7" r:id="rId31" xr:uid="{23489B88-1AF7-440D-82A5-D2C99B402CE1}"/>
-    <hyperlink ref="P8" r:id="rId32" xr:uid="{29D38B7B-0EEB-4F1D-BD67-2FE0B692C886}"/>
-    <hyperlink ref="P9" r:id="rId33" xr:uid="{E529B59E-BC39-41D7-A6B8-B76C65B02964}"/>
-    <hyperlink ref="P10" r:id="rId34" xr:uid="{75D776C4-686E-4764-A0CE-7978746739AA}"/>
-    <hyperlink ref="P11" r:id="rId35" xr:uid="{18534669-D2F7-4C45-BE71-B06E441E98C4}"/>
-    <hyperlink ref="P16" r:id="rId36" xr:uid="{4456DFDD-02ED-4178-A1B2-7A56262C79A7}"/>
-    <hyperlink ref="P17" r:id="rId37" xr:uid="{85BEFFFA-77A3-49CF-94D8-7F3EBFED1A80}"/>
-    <hyperlink ref="P19" r:id="rId38" xr:uid="{9D50E18A-27F4-4E22-95C5-F200362F77FE}"/>
-    <hyperlink ref="P20" r:id="rId39" xr:uid="{49F0C4D7-6B49-48CB-9B69-3680BAAED979}"/>
-    <hyperlink ref="P21" r:id="rId40" xr:uid="{669F8622-A0EA-44FE-8AAA-EAB6EE53AEB9}"/>
-    <hyperlink ref="P22" r:id="rId41" xr:uid="{3EC869FD-833C-4252-AFF2-954077725E77}"/>
+    <hyperlink ref="Q3" r:id="rId26" xr:uid="{51BBEF75-8B33-4A54-A5A5-C3E2872BA63D}"/>
+    <hyperlink ref="Q2" r:id="rId27" xr:uid="{9B91B3EB-9AC1-4462-A67A-81961D7FCB79}"/>
+    <hyperlink ref="Q4" r:id="rId28" xr:uid="{1077084C-D29E-4ABC-BD53-A05F91719125}"/>
+    <hyperlink ref="Q5" r:id="rId29" xr:uid="{E82B6BA4-E16F-492E-BCD8-911C556EA12C}"/>
+    <hyperlink ref="Q6" r:id="rId30" xr:uid="{6184ED25-1DF9-49D3-AC87-98D010A3B3E0}"/>
+    <hyperlink ref="Q7" r:id="rId31" xr:uid="{23489B88-1AF7-440D-82A5-D2C99B402CE1}"/>
+    <hyperlink ref="Q8" r:id="rId32" xr:uid="{29D38B7B-0EEB-4F1D-BD67-2FE0B692C886}"/>
+    <hyperlink ref="Q9" r:id="rId33" xr:uid="{E529B59E-BC39-41D7-A6B8-B76C65B02964}"/>
+    <hyperlink ref="Q10" r:id="rId34" xr:uid="{75D776C4-686E-4764-A0CE-7978746739AA}"/>
+    <hyperlink ref="Q11" r:id="rId35" xr:uid="{18534669-D2F7-4C45-BE71-B06E441E98C4}"/>
+    <hyperlink ref="Q16" r:id="rId36" xr:uid="{4456DFDD-02ED-4178-A1B2-7A56262C79A7}"/>
+    <hyperlink ref="Q17" r:id="rId37" xr:uid="{85BEFFFA-77A3-49CF-94D8-7F3EBFED1A80}"/>
+    <hyperlink ref="Q19" r:id="rId38" xr:uid="{9D50E18A-27F4-4E22-95C5-F200362F77FE}"/>
+    <hyperlink ref="Q20" r:id="rId39" xr:uid="{49F0C4D7-6B49-48CB-9B69-3680BAAED979}"/>
+    <hyperlink ref="Q21" r:id="rId40" xr:uid="{669F8622-A0EA-44FE-8AAA-EAB6EE53AEB9}"/>
+    <hyperlink ref="Q22" r:id="rId41" xr:uid="{3EC869FD-833C-4252-AFF2-954077725E77}"/>
     <hyperlink ref="B27" r:id="rId42" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2b3a8bd7-9314-4486-bed5-590aae72eef6" xr:uid="{DDE7FEFC-6B1E-4AA0-B976-36D2973B650E}"/>
-    <hyperlink ref="P27" r:id="rId43" xr:uid="{7AD33B0E-E2D3-41B8-9172-D15847D781D8}"/>
+    <hyperlink ref="Q27" r:id="rId43" xr:uid="{7AD33B0E-E2D3-41B8-9172-D15847D781D8}"/>
     <hyperlink ref="B28" r:id="rId44" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/837cd468-99da-4b6c-86ed-a729c8dedaed" xr:uid="{8D543BC5-E411-41F4-AC77-9D04065517CB}"/>
-    <hyperlink ref="P28" r:id="rId45" xr:uid="{0118962C-499A-4545-8BD4-3ABE37EC8589}"/>
+    <hyperlink ref="Q28" r:id="rId45" xr:uid="{0118962C-499A-4545-8BD4-3ABE37EC8589}"/>
     <hyperlink ref="B29" r:id="rId46" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1c60eb15-5315-4d97-bc92-f3321a8f2bb8" xr:uid="{0C3ADEAB-E937-4D0F-A344-AB2EAC09C8ED}"/>
-    <hyperlink ref="P29" r:id="rId47" xr:uid="{EA3D39DE-B821-4DE6-A6E8-54C4DB4002CB}"/>
+    <hyperlink ref="Q29" r:id="rId47" xr:uid="{EA3D39DE-B821-4DE6-A6E8-54C4DB4002CB}"/>
     <hyperlink ref="B30" r:id="rId48" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d0d232aa-3290-434d-8c3f-c589a73ea607" xr:uid="{21BFCBA6-6AD1-4DF1-BFCC-97AF53BF164E}"/>
     <hyperlink ref="B31" r:id="rId49" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d0d232aa-3290-434d-8c3f-c589a73ea607" xr:uid="{FFD820BD-0682-4A01-886A-FC6E140DD7F6}"/>
-    <hyperlink ref="P30" r:id="rId50" xr:uid="{BDD938AD-4F2D-4D6D-A609-A2D733A83114}"/>
-    <hyperlink ref="P31" r:id="rId51" xr:uid="{54C0322F-D13C-44D8-B6EB-53DBB2BCA1C8}"/>
+    <hyperlink ref="Q30" r:id="rId50" xr:uid="{BDD938AD-4F2D-4D6D-A609-A2D733A83114}"/>
+    <hyperlink ref="Q31" r:id="rId51" xr:uid="{54C0322F-D13C-44D8-B6EB-53DBB2BCA1C8}"/>
     <hyperlink ref="B32" r:id="rId52" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/10c562f8-f91d-4456-8e2f-4ac211353527" xr:uid="{10A9ABF1-9B48-49EB-8857-3A95282225D7}"/>
     <hyperlink ref="B33" r:id="rId53" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/10c562f8-f91d-4456-8e2f-4ac211353527" xr:uid="{03BE0AA5-037E-4E17-8386-29BAE9E3BEE5}"/>
-    <hyperlink ref="P32" r:id="rId54" xr:uid="{337F27CF-D0CD-4B04-A48D-36C253F1BE4F}"/>
-    <hyperlink ref="P33" r:id="rId55" xr:uid="{7FE3D493-8D5B-4496-8F77-D73CA4BD72FB}"/>
+    <hyperlink ref="Q32" r:id="rId54" xr:uid="{337F27CF-D0CD-4B04-A48D-36C253F1BE4F}"/>
+    <hyperlink ref="Q33" r:id="rId55" xr:uid="{7FE3D493-8D5B-4496-8F77-D73CA4BD72FB}"/>
     <hyperlink ref="B34" r:id="rId56" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2be0e003-3e51-476c-86ea-8a1f8913d899" xr:uid="{DCBBFEEB-0E31-4647-A7B8-662452421D74}"/>
     <hyperlink ref="B35" r:id="rId57" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2be0e003-3e51-476c-86ea-8a1f8913d899" xr:uid="{F08C799E-E69A-4FAE-9577-3BE26DC55F8C}"/>
-    <hyperlink ref="P34" r:id="rId58" xr:uid="{F25A322F-4512-4FB9-896D-FC4488D151BC}"/>
-    <hyperlink ref="P35" r:id="rId59" xr:uid="{E9B325CA-DA26-471B-8892-3CD505753BC9}"/>
+    <hyperlink ref="Q34" r:id="rId58" xr:uid="{F25A322F-4512-4FB9-896D-FC4488D151BC}"/>
+    <hyperlink ref="Q35" r:id="rId59" xr:uid="{E9B325CA-DA26-471B-8892-3CD505753BC9}"/>
     <hyperlink ref="B36" r:id="rId60" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d5aac9ae-16b6-46ce-9310-1ba0004b45ea" xr:uid="{FCD585C4-F8D5-442F-82A2-8DA88F7E9D6B}"/>
-    <hyperlink ref="P36" r:id="rId61" xr:uid="{E2C5678C-A592-4E8F-8D77-8769EA44690D}"/>
+    <hyperlink ref="Q36" r:id="rId61" xr:uid="{E2C5678C-A592-4E8F-8D77-8769EA44690D}"/>
     <hyperlink ref="B37" r:id="rId62" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cb123bc-fd8e-4868-82f1-14995d53c591" xr:uid="{930F7BAC-EDE4-4C25-8B39-8677C9CD53AD}"/>
     <hyperlink ref="B38" r:id="rId63" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cb123bc-fd8e-4868-82f1-14995d53c591" xr:uid="{DDF5BEEE-A105-4CBA-B3EF-4B0632B51EAE}"/>
-    <hyperlink ref="P37" r:id="rId64" xr:uid="{28F02C08-2175-4786-AE8B-EF7115BB2A13}"/>
-    <hyperlink ref="P38" r:id="rId65" xr:uid="{6B6FA851-5730-41C3-9AD3-29501233C4EF}"/>
+    <hyperlink ref="Q37" r:id="rId64" xr:uid="{28F02C08-2175-4786-AE8B-EF7115BB2A13}"/>
+    <hyperlink ref="Q38" r:id="rId65" xr:uid="{6B6FA851-5730-41C3-9AD3-29501233C4EF}"/>
     <hyperlink ref="B39" r:id="rId66" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/47e8e523-4417-4b5b-90e5-f72b14e59a38" display="Cbus Advocacy Research" xr:uid="{415E68FE-63DA-4727-BBF2-D5B9E5B4A68B}"/>
-    <hyperlink ref="P39" r:id="rId67" xr:uid="{2AD3FFE5-FB20-4C1E-B57F-CFE0E5B36B26}"/>
+    <hyperlink ref="Q39" r:id="rId67" xr:uid="{2AD3FFE5-FB20-4C1E-B57F-CFE0E5B36B26}"/>
     <hyperlink ref="B40" r:id="rId68" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/50c38354-a1aa-4221-89a9-67b1c2af5d56" xr:uid="{776AA357-15C0-415F-AD46-2E881767E760}"/>
-    <hyperlink ref="P40" r:id="rId69" xr:uid="{67874548-D942-44D2-AFBC-BB37ACD6D8B7}"/>
+    <hyperlink ref="Q40" r:id="rId69" xr:uid="{67874548-D942-44D2-AFBC-BB37ACD6D8B7}"/>
     <hyperlink ref="B41" r:id="rId70" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bcdec3d6-9690-4399-8cce-1c945390b466" xr:uid="{17B72274-B78F-495D-B419-9A0D73821A7F}"/>
     <hyperlink ref="B42" r:id="rId71" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bcdec3d6-9690-4399-8cce-1c945390b466" xr:uid="{C08F1CF4-F712-4502-B9D7-AB516367C6BC}"/>
-    <hyperlink ref="P41" r:id="rId72" xr:uid="{09AA577A-31BB-4E89-AD1C-E223A35FAD60}"/>
-    <hyperlink ref="P42" r:id="rId73" xr:uid="{720B7893-DA39-46C3-87FA-F12DA6138BED}"/>
+    <hyperlink ref="Q41" r:id="rId72" xr:uid="{09AA577A-31BB-4E89-AD1C-E223A35FAD60}"/>
+    <hyperlink ref="Q42" r:id="rId73" xr:uid="{720B7893-DA39-46C3-87FA-F12DA6138BED}"/>
     <hyperlink ref="B44" r:id="rId74" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{69BF4C00-E3BA-45B0-811B-3788561FDB24}"/>
     <hyperlink ref="B45" r:id="rId75" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{D7585B4B-7204-4A4E-B140-4217FD309F7E}"/>
     <hyperlink ref="B43" r:id="rId76" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{8256078B-EEC5-4D3C-87D3-6EDECA6A4325}"/>
-    <hyperlink ref="P45" r:id="rId77" xr:uid="{BD617822-7DD4-4BC8-8F4E-3DD549DB69D2}"/>
-    <hyperlink ref="P14" r:id="rId78" xr:uid="{43E542A7-EED9-47CD-A876-76D47F10BB49}"/>
+    <hyperlink ref="Q45" r:id="rId77" xr:uid="{BD617822-7DD4-4BC8-8F4E-3DD549DB69D2}"/>
+    <hyperlink ref="Q14" r:id="rId78" xr:uid="{43E542A7-EED9-47CD-A876-76D47F10BB49}"/>
+    <hyperlink ref="A47" r:id="rId79" location="2" display="https://email-gallery.netlify.app/pages/gallery/#2" xr:uid="{E66F56C6-2736-470B-874A-6A656A335B3D}"/>
+    <hyperlink ref="A46" r:id="rId80" location="1" xr:uid="{88B99AB4-DEB3-4921-B4EA-1417EFAB4AED}"/>
+    <hyperlink ref="A48" r:id="rId81" location="3" xr:uid="{025E3AF9-45A0-43C2-B3EA-D43C1BC54FF9}"/>
+    <hyperlink ref="B46" r:id="rId82" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/7e56f57e-12e2-49c0-9e51-de68fe9cf789" display="#1 - SIS Acquisition - 2025 AUG" xr:uid="{E1FC8E26-35AB-43CA-8415-357E70A82AA7}"/>
+    <hyperlink ref="B48" r:id="rId83" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bca1837c-0f90-4529-9649-68676fad5162" display="#2 - SIS Acquisition - 2025 AUG" xr:uid="{83A5C014-4EB4-4268-8408-8C349E11D7B2}"/>
+    <hyperlink ref="B47" r:id="rId84" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/7e56f57e-12e2-49c0-9e51-de68fe9cf789" display="#1 - SIS Acquisition - 2025 AUG" xr:uid="{646A26CD-0D28-4643-9A18-7C11B5F2A6A6}"/>
+    <hyperlink ref="B49" r:id="rId85" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bca1837c-0f90-4529-9649-68676fad5162" display="#2 - SIS Acquisition - 2025 AUG" xr:uid="{97F55F8E-404D-4975-8457-45A84171A0DA}"/>
+    <hyperlink ref="B51" r:id="rId86" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f089ea09-6c3a-40ce-a12b-446940edf922" display="SIS Acquisition Sept 2025 - Segment 3" xr:uid="{04BC038E-0610-489D-8444-24F059E92866}"/>
+    <hyperlink ref="B50" r:id="rId87" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f089ea09-6c3a-40ce-a12b-446940edf922" display="SIS Acquisition Sept 2025 - Segment 3" xr:uid="{D5044EAD-B4FF-4896-9CE0-207234A2ACF4}"/>
+    <hyperlink ref="B52" r:id="rId88" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f089ea09-6c3a-40ce-a12b-446940edf922" display="SIS Acquisition Sept 2025 - Segment 3" xr:uid="{DE061018-F231-4EA6-B230-C6F38A03B8ED}"/>
+    <hyperlink ref="B53" r:id="rId89" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/92b3dff9-2ac0-41da-8e22-ce0ba4df098d" display="SIS Acquisition Sept 2025 - Segment 4  - Cbus" xr:uid="{90DDD61B-B442-447D-BC3F-2F85AAF8535E}"/>
+    <hyperlink ref="B54" r:id="rId90" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/92b3dff9-2ac0-41da-8e22-ce0ba4df098d" xr:uid="{405A91C1-FFD6-4110-8E98-F2CED007F2C4}"/>
+    <hyperlink ref="Q46" r:id="rId91" xr:uid="{46A4C0C5-3DA2-4EDE-9262-78B2CEC51B84}"/>
+    <hyperlink ref="Q47" r:id="rId92" xr:uid="{AA5FA10A-8377-4821-89EE-5352A329D287}"/>
+    <hyperlink ref="Q48" r:id="rId93" xr:uid="{9AA04B41-F1EE-4344-8658-C5D6B7A1AFEA}"/>
+    <hyperlink ref="Q49" r:id="rId94" xr:uid="{C2B27C02-626B-497A-93FB-13BB9D4DBBAC}"/>
+    <hyperlink ref="Q50" r:id="rId95" xr:uid="{470E4EA3-F735-46B3-B163-4B6833C6BC1E}"/>
+    <hyperlink ref="Q51" r:id="rId96" xr:uid="{747F63F2-3DB0-4754-92D2-72D1A8E78BE2}"/>
+    <hyperlink ref="Q52" r:id="rId97" xr:uid="{5F3CB8C3-A80F-4108-86AE-76AA502ED4CE}"/>
+    <hyperlink ref="Q54" r:id="rId98" xr:uid="{A4F27734-7717-4BB5-9DD8-C6FA10D03B1E}"/>
+    <hyperlink ref="Q53" r:id="rId99" xr:uid="{10110FD1-EBB0-40E1-9BB7-56E1B6C67A71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId79"/>
+  <legacyDrawing r:id="rId100"/>
   <tableParts count="1">
-    <tablePart r:id="rId80"/>
+    <tablePart r:id="rId101"/>
   </tableParts>
 </worksheet>
 </file>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/email-gallery/cbus/pages/dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD7961B-DB4A-4142-BB09-0C7D802AD00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF611758-B93E-4140-9D58-E1ED968ABCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
   <sheets>
     <sheet name="FY-ajo-report" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1016,7 +1016,33 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{770A8CE4-86FC-45BF-95B8-E1D8E67E3936}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1457,13 +1483,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="2"/>
         </left>
@@ -1498,6 +1517,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1526,38 +1552,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1572,36 +1566,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:Q54" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:Q54" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
   <autoFilter ref="B1:Q54" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{592A3136-8A60-4650-9DF6-CD74A33464B1}" name="name" dataDxfId="15" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{1F194343-9489-4FF7-8BA8-8FE4AD211F8B}" name="date" dataDxfId="14" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{613F8D1F-C5D7-46FB-834A-5183617D5BF8}" name="brand" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{39913B7C-CBB3-470C-8F4E-6888A201DA8B}" name="type" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{0D81733F-25B3-4A7C-B3C0-DFE06A90464F}" name="unique-sends" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{274A7B85-7FDE-4D40-8515-C885EF39314B}" name="unique-opens" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{C860F744-163F-46E0-BC1A-15DDD6121358}" name="unique-clicks" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{A71DAAD5-121C-41AC-A08E-BF363CF89DFE}" name="unsub" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{3E23A808-3FEF-4D90-BACE-62A3345A0868}" name="unsub-pc" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{592A3136-8A60-4650-9DF6-CD74A33464B1}" name="name" dataDxfId="18" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{1F194343-9489-4FF7-8BA8-8FE4AD211F8B}" name="date" dataDxfId="17" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{613F8D1F-C5D7-46FB-834A-5183617D5BF8}" name="brand" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{39913B7C-CBB3-470C-8F4E-6888A201DA8B}" name="type" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{0D81733F-25B3-4A7C-B3C0-DFE06A90464F}" name="unique-sends" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{274A7B85-7FDE-4D40-8515-C885EF39314B}" name="unique-opens" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{C860F744-163F-46E0-BC1A-15DDD6121358}" name="unique-clicks" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{A71DAAD5-121C-41AC-A08E-BF363CF89DFE}" name="unsub" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{3E23A808-3FEF-4D90-BACE-62A3345A0868}" name="unsub-pc" dataDxfId="10">
       <calculatedColumnFormula>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E7D2EFD0-301C-4002-8501-CE02665F086E}" name="unique-opens-pc" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{E7D2EFD0-301C-4002-8501-CE02665F086E}" name="unique-opens-pc" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FE8ED384-E8DC-43C9-9628-C6A9E5DFA5BE}" name="unique-clicks-pc" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{FE8ED384-E8DC-43C9-9628-C6A9E5DFA5BE}" name="unique-clicks-pc" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E60FB7EF-7008-49DF-B5E7-A73B4E9595D4}" name="ctor-pc" dataDxfId="4">
+    <tableColumn id="17" xr3:uid="{E60FB7EF-7008-49DF-B5E7-A73B4E9595D4}" name="ctor-pc" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3CA46112-C95F-E64B-A58D-81BDEBF2FDC4}" name="read-over-8s" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{985DCAD1-25BF-804E-9E49-5E19FC44B93C}" name="read-under-8s" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{986830C2-C7E6-C645-8ACD-C78E1B2E462F}" name="read-under-2s" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{D273CFB9-324F-4CB2-B1BA-58EEE2D8C50F}" name="Litmus-tacking-id" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{3CA46112-C95F-E64B-A58D-81BDEBF2FDC4}" name="read-over-8s" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{985DCAD1-25BF-804E-9E49-5E19FC44B93C}" name="read-under-8s" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{986830C2-C7E6-C645-8ACD-C78E1B2E462F}" name="read-under-2s" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{D273CFB9-324F-4CB2-B1BA-58EEE2D8C50F}" name="Litmus-tacking-id" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1927,31 +1921,31 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="66.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="60" customWidth="1"/>
-    <col min="4" max="5" width="14.375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="60" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="32" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="20" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="13" customWidth="1"/>
     <col min="12" max="13" width="21" style="39" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="21" customWidth="1"/>
-    <col min="15" max="15" width="14.625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="15.375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="74.625" style="51" customWidth="1"/>
-    <col min="18" max="16384" width="10.875" style="13"/>
+    <col min="14" max="14" width="17.1640625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="74.6640625" style="51" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="32.1" customHeight="1">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +1998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="32.1" customHeight="1">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="41">
         <v>31</v>
       </c>
@@ -2061,7 +2055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="32.1" customHeight="1">
+    <row r="3" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>31</v>
       </c>
@@ -2118,7 +2112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="32.1" customHeight="1">
+    <row r="4" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42">
         <v>31</v>
       </c>
@@ -2175,7 +2169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="32.1" customHeight="1">
+    <row r="5" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>31</v>
       </c>
@@ -2232,7 +2226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="32.1" customHeight="1">
+    <row r="6" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42">
         <v>30</v>
       </c>
@@ -2289,7 +2283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="32.1" customHeight="1">
+    <row r="7" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>30</v>
       </c>
@@ -2346,7 +2340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="32.1" customHeight="1">
+    <row r="8" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42">
         <v>30</v>
       </c>
@@ -2403,7 +2397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="32.1" customHeight="1">
+    <row r="9" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>30</v>
       </c>
@@ -2460,7 +2454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="32.1" customHeight="1">
+    <row r="10" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42">
         <v>30</v>
       </c>
@@ -2517,7 +2511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="32.1" customHeight="1">
+    <row r="11" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>30</v>
       </c>
@@ -2574,7 +2568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="32.1" customHeight="1">
+    <row r="12" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42">
         <v>61</v>
       </c>
@@ -2629,7 +2623,7 @@
       </c>
       <c r="Q12" s="50"/>
     </row>
-    <row r="13" spans="1:17" ht="32.1" customHeight="1">
+    <row r="13" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>5</v>
       </c>
@@ -2684,7 +2678,7 @@
       </c>
       <c r="Q13" s="50"/>
     </row>
-    <row r="14" spans="1:17" ht="32.1" customHeight="1">
+    <row r="14" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="43">
         <v>62</v>
       </c>
@@ -2741,7 +2735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="32.1" customHeight="1">
+    <row r="15" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>63</v>
       </c>
@@ -2796,7 +2790,7 @@
       </c>
       <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="1:17" ht="32.1" customHeight="1">
+    <row r="16" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42">
         <v>31</v>
       </c>
@@ -2853,7 +2847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32.1" customHeight="1">
+    <row r="17" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>31</v>
       </c>
@@ -2910,7 +2904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="32.1" customHeight="1">
+    <row r="18" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42">
         <v>77</v>
       </c>
@@ -2965,7 +2959,7 @@
       </c>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:17" ht="32.1" customHeight="1">
+    <row r="19" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>31</v>
       </c>
@@ -3022,7 +3016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="32.1" customHeight="1">
+    <row r="20" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="43">
         <v>31</v>
       </c>
@@ -3079,7 +3073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="32.1" customHeight="1">
+    <row r="21" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
         <v>31</v>
       </c>
@@ -3136,7 +3130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="32.1" customHeight="1">
+    <row r="22" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="43">
         <v>31</v>
       </c>
@@ -3193,7 +3187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="32.1" customHeight="1">
+    <row r="23" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17">
         <v>30</v>
       </c>
@@ -3248,7 +3242,7 @@
       </c>
       <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="1:17" ht="32.1" customHeight="1">
+    <row r="24" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42">
         <v>30</v>
       </c>
@@ -3303,7 +3297,7 @@
       </c>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="1:17" ht="32.1" customHeight="1">
+    <row r="25" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17">
         <v>30</v>
       </c>
@@ -3358,7 +3352,7 @@
       </c>
       <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="1:17" ht="32.1" customHeight="1">
+    <row r="26" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43">
         <v>30</v>
       </c>
@@ -3413,7 +3407,7 @@
       </c>
       <c r="Q26" s="50"/>
     </row>
-    <row r="27" spans="1:17" ht="32.1" customHeight="1">
+    <row r="27" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>61</v>
       </c>
@@ -3470,7 +3464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="32.1" customHeight="1">
+    <row r="28" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>61</v>
       </c>
@@ -3527,7 +3521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="32.1" customHeight="1">
+    <row r="29" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>61</v>
       </c>
@@ -3584,7 +3578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="32.1" customHeight="1">
+    <row r="30" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>31</v>
       </c>
@@ -3641,7 +3635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="32.1" customHeight="1">
+    <row r="31" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>31</v>
       </c>
@@ -3698,7 +3692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="32.1" customHeight="1">
+    <row r="32" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -3755,7 +3749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="32.1" customHeight="1">
+    <row r="33" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13">
         <v>30</v>
       </c>
@@ -3812,7 +3806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="32.1" customHeight="1">
+    <row r="34" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="13">
         <v>31</v>
       </c>
@@ -3869,7 +3863,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="32.1" customHeight="1">
+    <row r="35" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13">
         <v>31</v>
       </c>
@@ -3926,7 +3920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="32.1" customHeight="1">
+    <row r="36" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="13">
         <v>30</v>
       </c>
@@ -3983,7 +3977,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="32.1" customHeight="1">
+    <row r="37" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="13">
         <v>30</v>
       </c>
@@ -4040,7 +4034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="32.1" customHeight="1">
+    <row r="38" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="13">
         <v>30</v>
       </c>
@@ -4097,7 +4091,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="32.1" customHeight="1">
+    <row r="39" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13">
         <v>78</v>
       </c>
@@ -4154,7 +4148,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="32.1" customHeight="1">
+    <row r="40" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13">
         <v>31</v>
       </c>
@@ -4211,7 +4205,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="32.1" customHeight="1">
+    <row r="41" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13">
         <v>30</v>
       </c>
@@ -4268,7 +4262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="32.1" customHeight="1">
+    <row r="42" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13">
         <v>30</v>
       </c>
@@ -4325,7 +4319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="32.1" customHeight="1">
+    <row r="43" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13">
         <v>5</v>
       </c>
@@ -4380,7 +4374,7 @@
       </c>
       <c r="Q43" s="50"/>
     </row>
-    <row r="44" spans="1:17" ht="32.1" customHeight="1">
+    <row r="44" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13">
         <v>63</v>
       </c>
@@ -4435,7 +4429,7 @@
       </c>
       <c r="Q44" s="55"/>
     </row>
-    <row r="45" spans="1:17" ht="32.1" customHeight="1">
+    <row r="45" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="13">
         <v>62</v>
       </c>
@@ -4492,7 +4486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="32.1" customHeight="1">
+    <row r="46" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="66">
         <v>1</v>
       </c>
@@ -4549,7 +4543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="32.1" customHeight="1">
+    <row r="47" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="66">
         <v>2</v>
       </c>
@@ -4606,7 +4600,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="32.1" customHeight="1">
+    <row r="48" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="66">
         <v>3</v>
       </c>
@@ -4663,7 +4657,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="32.1" customHeight="1">
+    <row r="49" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="63">
         <v>4</v>
       </c>
@@ -4686,7 +4680,7 @@
         <v>740</v>
       </c>
       <c r="H49" s="36">
-        <v>4769</v>
+        <v>82</v>
       </c>
       <c r="I49" s="12">
         <v>0</v>
@@ -4701,11 +4695,11 @@
       </c>
       <c r="L49" s="65">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>395.11184755592382</v>
+        <v>6.793703396851698</v>
       </c>
       <c r="M49" s="65">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
-        <v>644.45945945945948</v>
+        <v>11.081081081081082</v>
       </c>
       <c r="N49" s="11">
         <v>75.8</v>
@@ -4720,7 +4714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="32.1" customHeight="1">
+    <row r="50" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="63">
         <v>8</v>
       </c>
@@ -4777,7 +4771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="32.1" customHeight="1">
+    <row r="51" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="63">
         <v>6</v>
       </c>
@@ -4834,7 +4828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="32.1" customHeight="1">
+    <row r="52" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="13">
         <v>7</v>
       </c>
@@ -4891,7 +4885,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="32.1" customHeight="1">
+    <row r="53" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="13">
         <v>9</v>
       </c>
@@ -4948,7 +4942,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="32.1" customHeight="1">
+    <row r="54" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="13">
         <v>8</v>
       </c>
@@ -5007,16 +5001,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B46:B51">
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="auto">
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B52">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="auto">
       <formula>NOT(ISERROR(SEARCH("auto",B46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="auto">
-      <formula>NOT(ISERROR(SEARCH("auto",B52)))</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/541e1d3f-d064-4e8c-ad26-a2f26946d5ec" xr:uid="{A0444A8C-B658-434F-912C-6E4903003899}"/>
@@ -5098,8 +5091,8 @@
     <hyperlink ref="Q45" r:id="rId77" xr:uid="{BD617822-7DD4-4BC8-8F4E-3DD549DB69D2}"/>
     <hyperlink ref="Q14" r:id="rId78" xr:uid="{43E542A7-EED9-47CD-A876-76D47F10BB49}"/>
     <hyperlink ref="A47" r:id="rId79" location="2" display="https://email-gallery.netlify.app/pages/gallery/#2" xr:uid="{E66F56C6-2736-470B-874A-6A656A335B3D}"/>
-    <hyperlink ref="A46" r:id="rId80" location="1" xr:uid="{88B99AB4-DEB3-4921-B4EA-1417EFAB4AED}"/>
-    <hyperlink ref="A48" r:id="rId81" location="3" xr:uid="{025E3AF9-45A0-43C2-B3EA-D43C1BC54FF9}"/>
+    <hyperlink ref="A46" r:id="rId80" location="1" display="https://email-gallery.netlify.app/pages/gallery/ - 1" xr:uid="{88B99AB4-DEB3-4921-B4EA-1417EFAB4AED}"/>
+    <hyperlink ref="A48" r:id="rId81" location="3" display="https://email-gallery.netlify.app/pages/gallery/ - 3" xr:uid="{025E3AF9-45A0-43C2-B3EA-D43C1BC54FF9}"/>
     <hyperlink ref="B46" r:id="rId82" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/7e56f57e-12e2-49c0-9e51-de68fe9cf789" display="#1 - SIS Acquisition - 2025 AUG" xr:uid="{E1FC8E26-35AB-43CA-8415-357E70A82AA7}"/>
     <hyperlink ref="B48" r:id="rId83" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bca1837c-0f90-4529-9649-68676fad5162" display="#2 - SIS Acquisition - 2025 AUG" xr:uid="{83A5C014-4EB4-4268-8408-8C349E11D7B2}"/>
     <hyperlink ref="B47" r:id="rId84" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/7e56f57e-12e2-49c0-9e51-de68fe9cf789" display="#1 - SIS Acquisition - 2025 AUG" xr:uid="{646A26CD-0D28-4643-9A18-7C11B5F2A6A6}"/>
@@ -5128,26 +5121,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAB1339F159CD428AD0F5BA99C368F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f0c74bf1a42c2d75d8315edd8b34847e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0eeac73-9918-465e-bdd8-785547fbc2d9" xmlns:ns3="d777fa6b-bca0-4864-8d50-ac77b155e846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e574cbbd1e27f27e000ab280241298b2" ns2:_="" ns3:_="">
     <xsd:import namespace="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
@@ -5382,16 +5355,62 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
+    <ds:schemaRef ds:uri="d777fa6b-bca0-4864-8d50-ac77b155e846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d777fa6b-bca0-4864-8d50-ac77b155e846"/>
+    <ds:schemaRef ds:uri="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D73BDE-82AD-41B7-8B8C-B8CD114EC9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB36386-98D9-4901-88EF-44DC29C9AF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -205,17 +205,35 @@
     </comment>
     <comment ref="O1" authorId="0" shapeId="0" xr:uid="{392D3804-56EC-4160-B43F-7901312E770F}">
       <text>
-        <t>Donna Galletta:
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Donna Galletta:
 Engagement Score (%)=Open Rate (%)+Click Rate (%)−2×Unsub Rate (%)</t>
+        </r>
       </text>
     </comment>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{E6510ECF-D05E-4F7D-9FA1-A4B9CE20D238}">
       <text>
-        <t>Donna Galletta:
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Donna Galletta:
 Traffic Light Logic:
 🟢 Green = Engagement Score ≥ 80
 🟡 Yellow = Engagement Score ≥ 50 and &lt; 80
 🔴 Red = Engagement Score &lt; 50</t>
+        </r>
       </text>
     </comment>
     <comment ref="T1" authorId="0" shapeId="0" xr:uid="{C85A22D2-5413-4932-95A0-6343FF53898D}">
@@ -255,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="163">
   <si>
     <t>img-id</t>
   </si>
@@ -735,6 +753,15 @@
   </si>
   <si>
     <t>Abandoned  Cart MJOL</t>
+  </si>
+  <si>
+    <t>Cbus - 2025 Statements - SIS</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/416254/emails/19097350/analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cbus - 2025 Statements - SIS - Microsoft </t>
   </si>
 </sst>
 </file>
@@ -2069,8 +2096,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:T142" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="B1:T142" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:T144" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="B1:T144" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:T94">
     <sortCondition descending="1" ref="F1:F94"/>
   </sortState>
@@ -2438,11 +2465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23CF1A7-A843-E143-B142-84B9EDCB7AA1}">
-  <dimension ref="A1:T142"/>
+  <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <pane ySplit="1" topLeftCell="H139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q144" sqref="Q144:S144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
@@ -11969,6 +11996,142 @@
         <v>0</v>
       </c>
       <c r="T142" s="45"/>
+    </row>
+    <row r="143" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A143" s="62">
+        <v>74</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C143" s="61">
+        <v>45922</v>
+      </c>
+      <c r="D143" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" s="14">
+        <v>10911</v>
+      </c>
+      <c r="H143" s="30">
+        <v>8376</v>
+      </c>
+      <c r="I143" s="34">
+        <v>4289</v>
+      </c>
+      <c r="J143" s="17">
+        <v>8</v>
+      </c>
+      <c r="K143" s="41">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>7.3320502245440386E-2</v>
+      </c>
+      <c r="L143" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>76.766565850976079</v>
+      </c>
+      <c r="M143" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>39.308954266336727</v>
+      </c>
+      <c r="N143" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>51.205826170009551</v>
+      </c>
+      <c r="O143" s="48">
+        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>115.92887911282193</v>
+      </c>
+      <c r="P143" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q143" s="15">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="R143" s="17">
+        <v>17.2</v>
+      </c>
+      <c r="S143" s="17">
+        <v>13.5</v>
+      </c>
+      <c r="T143" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A144" s="62">
+        <v>74</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C144" s="61">
+        <v>45922</v>
+      </c>
+      <c r="D144" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F144" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144" s="10">
+        <v>3043</v>
+      </c>
+      <c r="H144" s="31">
+        <v>2080</v>
+      </c>
+      <c r="I144" s="35">
+        <v>1053</v>
+      </c>
+      <c r="J144" s="12">
+        <v>0</v>
+      </c>
+      <c r="K144" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L144" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>68.353598422609267</v>
+      </c>
+      <c r="M144" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>34.60400920144594</v>
+      </c>
+      <c r="N144" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>50.625</v>
+      </c>
+      <c r="O144" s="48">
+        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>102.95760762405521</v>
+      </c>
+      <c r="P144" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q144" s="15">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="R144" s="17">
+        <v>17.2</v>
+      </c>
+      <c r="S144" s="17">
+        <v>13.5</v>
+      </c>
+      <c r="T144" s="44" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B46:B51">
@@ -12197,17 +12360,41 @@
     <hyperlink ref="B140" r:id="rId203" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" xr:uid="{FC6E80E8-E09B-4E1C-800C-92FA7943F72B}"/>
     <hyperlink ref="B141:B142" r:id="rId204" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" display="Abandoned  Cart MJOL" xr:uid="{89E7B679-7362-475D-98BE-25F1829C350A}"/>
     <hyperlink ref="T89" r:id="rId205" xr:uid="{1ABD2676-EB8A-4847-847A-4104CD4746DF}"/>
+    <hyperlink ref="B143" r:id="rId206" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bd610eaf-020d-4ee0-8920-be3e08a37a25" xr:uid="{DEABCB06-B632-461D-84C6-F06A70FA9619}"/>
+    <hyperlink ref="B144" r:id="rId207" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3df19f42-c622-481a-a0cc-b64ea8f94164" display="Cbus - 2025 Statements - SIS" xr:uid="{8C7106E8-B2C7-4073-98E2-6BD22D598D4F}"/>
+    <hyperlink ref="T144" r:id="rId208" xr:uid="{46704411-4366-4503-871A-63C62D6F5CDF}"/>
+    <hyperlink ref="T143" r:id="rId209" xr:uid="{35617BE4-D51B-4C42-BCBC-A3326810417E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId206"/>
+  <legacyDrawing r:id="rId210"/>
   <tableParts count="2">
-    <tablePart r:id="rId207"/>
-    <tablePart r:id="rId208"/>
+    <tablePart r:id="rId211"/>
+    <tablePart r:id="rId212"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAB1339F159CD428AD0F5BA99C368F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f0c74bf1a42c2d75d8315edd8b34847e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0eeac73-9918-465e-bdd8-785547fbc2d9" xmlns:ns3="d777fa6b-bca0-4864-8d50-ac77b155e846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e574cbbd1e27f27e000ab280241298b2" ns2:_="" ns3:_="">
     <xsd:import namespace="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
@@ -12442,28 +12629,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12471,7 +12638,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB36386-98D9-4901-88EF-44DC29C9AF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4252A4E7-9534-4518-B181-8F4CBEDEDA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -205,35 +205,21 @@
     </comment>
     <comment ref="O1" authorId="0" shapeId="0" xr:uid="{392D3804-56EC-4160-B43F-7901312E770F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Donna Galletta:
-Engagement Score (%)=Open Rate (%)+Click Rate (%)−2×Unsub Rate (%)</t>
-        </r>
+        <t xml:space="preserve">Engagement Score (%) =
+(Open Rate (%) × 0.5) + (Click Rate (%) × 0.5) − 2 × Unsub Rate (%)
+&gt;Open Rate: Accounts for 50% of the score. Campaigns with more opens get a higher score.
+&gt;Click Rate: Also accounts for 50% of the score. Campaigns with very few clicks will see their score reduced, even if open rates are high.
+&gt;Unsubscribe Rate: Each unsubscribe counts double, so campaigns with higher unsubscribes are penalised more.
+Rewards campaigns that not only get opened but also encourage engagement.
+</t>
       </text>
     </comment>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{E6510ECF-D05E-4F7D-9FA1-A4B9CE20D238}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Donna Galletta:
-Traffic Light Logic:
-🟢 Green = Engagement Score ≥ 80
-🟡 Yellow = Engagement Score ≥ 50 and &lt; 80
-🔴 Red = Engagement Score &lt; 50</t>
-        </r>
+        <t xml:space="preserve">🟢 Green: Score ≥ 40 (really strong engagement, opens + clicks significant)
+🟡 Yellow: Score ≥ 30 and &lt; 40 (moderate engagement)
+🔴 Red: Score &lt; 30 (low engagement, clicks too low)
+</t>
       </text>
     </comment>
     <comment ref="T1" authorId="0" shapeId="0" xr:uid="{C85A22D2-5413-4932-95A0-6343FF53898D}">
@@ -2124,10 +2110,13 @@
       <calculatedColumnFormula>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{EA74FC93-B969-4F46-9C49-8927D6B3A01B}" name="Engagement Score" dataDxfId="10">
-      <calculatedColumnFormula>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</calculatedColumnFormula>
+      <calculatedColumnFormula>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{E01D85AE-C032-4929-BBDB-DEDD7A99ADE8}" name="Traffic Light" dataDxfId="9">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{3CA46112-C95F-E64B-A58D-81BDEBF2FDC4}" name="read-over-8s" dataDxfId="8"/>
     <tableColumn id="13" xr3:uid="{985DCAD1-25BF-804E-9E49-5E19FC44B93C}" name="read-under-8s" dataDxfId="7"/>
@@ -2468,8 +2457,8 @@
   <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="H139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q144" sqref="Q144:S144"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
@@ -2603,12 +2592,15 @@
         <v>0.95057034220532322</v>
       </c>
       <c r="O2" s="80">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>55.457967377666243</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>27.842745458581344</v>
       </c>
       <c r="P2" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q2" s="8">
         <v>61.9</v>
@@ -2671,12 +2663,15 @@
         <v>0</v>
       </c>
       <c r="O3" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>57.391304347826086</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>28.695652173913043</v>
       </c>
       <c r="P3" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q3" s="8">
         <v>83.3</v>
@@ -2739,12 +2734,15 @@
         <v>3.1834259727134917</v>
       </c>
       <c r="O4" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>49.07385133509743</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>24.8850954614031</v>
       </c>
       <c r="P4" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q4" s="8">
         <v>78.8</v>
@@ -2807,12 +2805,15 @@
         <v>3.9426523297491038</v>
       </c>
       <c r="O5" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>62.365591397849464</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>31.920453231587469</v>
       </c>
       <c r="P5" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q5" s="8">
         <v>60</v>
@@ -2875,12 +2876,15 @@
         <v>9.6958174904942958</v>
       </c>
       <c r="O6" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>55.347721822541956</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>29.027690078153299</v>
       </c>
       <c r="P6" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q6" s="8">
         <v>82</v>
@@ -2943,11 +2947,14 @@
         <v>8.5526315789473681</v>
       </c>
       <c r="O7" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>76.036866359447004</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>40.296035167448878</v>
       </c>
       <c r="P7" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q7" s="8">
@@ -3011,12 +3018,15 @@
         <v>5.3275901156200405</v>
       </c>
       <c r="O8" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>55.490500657187233</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>28.512718581557799</v>
       </c>
       <c r="P8" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q8" s="8">
         <v>73.599999999999994</v>
@@ -3079,12 +3089,15 @@
         <v>5.75</v>
       </c>
       <c r="O9" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>67.517956903431767</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>34.998334404452464</v>
       </c>
       <c r="P9" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q9" s="8">
         <v>66.7</v>
@@ -3147,12 +3160,15 @@
         <v>5.3527980535279802</v>
       </c>
       <c r="O10" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>56.16083009079118</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>28.881672024641635</v>
       </c>
       <c r="P10" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q10" s="8">
         <v>75.8</v>
@@ -3215,12 +3231,15 @@
         <v>3.669724770642202</v>
       </c>
       <c r="O11" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>62.087912087912088</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>31.726240792174856</v>
       </c>
       <c r="P11" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q11" s="8">
         <v>66.7</v>
@@ -3283,12 +3302,15 @@
         <v>2.9790292926360609</v>
       </c>
       <c r="O12" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>43.852255438263256</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>20.893005954901909</v>
       </c>
       <c r="P12" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q12" s="8">
         <v>68.5</v>
@@ -3349,12 +3371,15 @@
         <v>5.3836563527144961</v>
       </c>
       <c r="O13" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>65.958655963628615</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>34.047532409719331</v>
       </c>
       <c r="P13" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q13" s="15">
         <v>66.3</v>
@@ -3415,12 +3440,15 @@
         <v>7.1097749248395221</v>
       </c>
       <c r="O14" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>65.729104328745265</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>34.293878256449453</v>
       </c>
       <c r="P14" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q14" s="11">
         <v>73.3</v>
@@ -3483,12 +3511,15 @@
         <v>7.6419213973799121</v>
       </c>
       <c r="O15" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>73.702594810379239</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.73484318787574</v>
       </c>
       <c r="P15" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q15" s="11">
         <v>76.3</v>
@@ -3549,12 +3580,15 @@
         <v>4.3650793650793647</v>
       </c>
       <c r="O16" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>63.756252842201</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>32.713842372207488</v>
       </c>
       <c r="P16" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q16" s="8">
         <v>64</v>
@@ -3617,12 +3651,15 @@
         <v>6.8627450980392162</v>
       </c>
       <c r="O17" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>75.694444444444457</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>39.68701774691359</v>
       </c>
       <c r="P17" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q17" s="8">
         <v>51.2</v>
@@ -3685,12 +3722,15 @@
         <v>41.666666666666671</v>
       </c>
       <c r="O18" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>60.714285714285708</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>35.778061224489797</v>
       </c>
       <c r="P18" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q18" s="15">
         <v>60</v>
@@ -3751,12 +3791,15 @@
         <v>2.6747873041785701</v>
       </c>
       <c r="O19" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>62.60009601536246</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>31.712037528500964</v>
       </c>
       <c r="P19" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q19" s="8">
         <v>63.7</v>
@@ -3819,12 +3862,15 @@
         <v>4.7334154495864862</v>
       </c>
       <c r="O20" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>73.77293009419931</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.116318678441971</v>
       </c>
       <c r="P20" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q20" s="8">
         <v>59</v>
@@ -3887,12 +3933,15 @@
         <v>2.9229406554472983</v>
       </c>
       <c r="O21" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>64.051704925339877</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>32.275603259476938</v>
       </c>
       <c r="P21" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q21" s="8">
         <v>61.8</v>
@@ -3955,12 +4004,15 @@
         <v>3.0927835051546393</v>
       </c>
       <c r="O22" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>65.573770491803273</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>33.431873152378387</v>
       </c>
       <c r="P22" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q22" s="8">
         <v>52.4</v>
@@ -4023,12 +4075,15 @@
         <v>5.8177826564215147</v>
       </c>
       <c r="O23" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>58.353808353808354</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>29.710789078110945</v>
       </c>
       <c r="P23" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q23" s="8">
         <v>0</v>
@@ -4089,11 +4144,14 @@
         <v>12.598425196850393</v>
       </c>
       <c r="O24" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>76.063829787234027</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>41.268673607967393</v>
       </c>
       <c r="P24" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q24" s="8">
@@ -4155,12 +4213,15 @@
         <v>5.1841746248294678</v>
       </c>
       <c r="O25" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>63.188167625308139</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>32.500984073205601</v>
       </c>
       <c r="P25" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q25" s="8">
         <v>0</v>
@@ -4221,12 +4282,15 @@
         <v>3.7735849056603774</v>
       </c>
       <c r="O26" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>70.967741935483872</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>36.399583766909473</v>
       </c>
       <c r="P26" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q26" s="8">
         <v>0</v>
@@ -4287,11 +4351,14 @@
         <v>5.741626794258373</v>
       </c>
       <c r="O27" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>16.511019798281659</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>8.3295226886736575</v>
       </c>
       <c r="P27" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🔴</v>
       </c>
       <c r="Q27" s="8">
@@ -4355,11 +4422,14 @@
         <v>4.9547403525488329</v>
       </c>
       <c r="O28" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>15.609721533338057</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>7.8623755062519356</v>
       </c>
       <c r="P28" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🔴</v>
       </c>
       <c r="Q28" s="8">
@@ -4423,11 +4493,14 @@
         <v>4.5860351470726437</v>
       </c>
       <c r="O29" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>15.63039844945998</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>7.8687633210442014</v>
       </c>
       <c r="P29" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🔴</v>
       </c>
       <c r="Q29" s="8">
@@ -4491,12 +4564,15 @@
         <v>3.2940129089695085</v>
       </c>
       <c r="O30" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>52.600824931255723</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>26.46480904509103</v>
       </c>
       <c r="P30" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q30" s="15">
         <v>0</v>
@@ -4559,12 +4635,15 @@
         <v>5.1162790697674421</v>
       </c>
       <c r="O31" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>57.653061224489797</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>29.63543835901708</v>
       </c>
       <c r="P31" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q31" s="11">
         <v>50</v>
@@ -4627,12 +4706,15 @@
         <v>7.1598571995239988</v>
       </c>
       <c r="O32" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>67.965477852519356</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>35.249109270932657</v>
       </c>
       <c r="P32" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q32" s="15">
         <v>63.6</v>
@@ -4695,12 +4777,15 @@
         <v>6.5868263473053901</v>
       </c>
       <c r="O33" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>72.85129604365622</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.06554759170578</v>
       </c>
       <c r="P33" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q33" s="11">
         <v>52.5</v>
@@ -4763,12 +4848,15 @@
         <v>0.64760701311009317</v>
       </c>
       <c r="O34" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>67.531631996568734</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>33.519264937600624</v>
       </c>
       <c r="P34" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q34" s="15">
         <v>37.1</v>
@@ -4831,12 +4919,15 @@
         <v>2.8571428571428572</v>
       </c>
       <c r="O35" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>70.038910505836569</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>35.700767611924476</v>
       </c>
       <c r="P35" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q35" s="11">
         <v>0</v>
@@ -4899,12 +4990,15 @@
         <v>3.4596375617792421</v>
       </c>
       <c r="O36" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>71.963154864709281</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>36.683062831415818</v>
       </c>
       <c r="P36" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q36" s="15">
         <v>74.599999999999994</v>
@@ -4967,12 +5061,15 @@
         <v>6.2792415661167196</v>
       </c>
       <c r="O37" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>67.833767053071512</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>35.167410856494669</v>
       </c>
       <c r="P37" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q37" s="11">
         <v>64.400000000000006</v>
@@ -5035,12 +5132,15 @@
         <v>7.5675675675675684</v>
       </c>
       <c r="O38" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>75.107991360691145</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>39.490055698351902</v>
       </c>
       <c r="P38" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q38" s="15">
         <v>68.2</v>
@@ -5103,12 +5203,15 @@
         <v>3.8485635012977712</v>
       </c>
       <c r="O39" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>58.715363963325061</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>29.967421736429777</v>
       </c>
       <c r="P39" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q39" s="15">
         <v>67.099999999999994</v>
@@ -5171,12 +5274,15 @@
         <v>2.0140372291730242</v>
       </c>
       <c r="O40" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>65.919460424518945</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>33.195483998087347</v>
       </c>
       <c r="P40" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q40" s="15">
         <v>65.7</v>
@@ -5239,12 +5345,15 @@
         <v>6.4482029598308666</v>
       </c>
       <c r="O41" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>64.868012422360252</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>33.577353190409752</v>
       </c>
       <c r="P41" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q41" s="15">
         <v>63.6</v>
@@ -5307,12 +5416,15 @@
         <v>7.6759061833688706</v>
       </c>
       <c r="O42" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>70.138888888888886</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>36.822916666666664</v>
       </c>
       <c r="P42" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q42" s="15">
         <v>52.5</v>
@@ -5375,11 +5487,14 @@
         <v>8.014705882352942</v>
       </c>
       <c r="O43" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>22.652274479568234</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>11.516507164091976</v>
       </c>
       <c r="P43" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🔴</v>
       </c>
       <c r="Q43" s="11">
@@ -5441,11 +5556,14 @@
         <v>5.6372549019607847</v>
       </c>
       <c r="O44" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>100.93676814988291</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>53.18682162464556</v>
       </c>
       <c r="P44" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q44" s="15">
@@ -5507,12 +5625,15 @@
         <v>7.5601374570446733</v>
       </c>
       <c r="O45" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>33.107679289189761</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>16.939056983479045</v>
       </c>
       <c r="P45" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q45" s="15">
         <v>73.3</v>
@@ -5575,12 +5696,15 @@
         <v>17.626666666666665</v>
       </c>
       <c r="O46" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>69.980909958638236</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.584438964051948</v>
       </c>
       <c r="P46" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q46" s="15">
         <v>76.3</v>
@@ -5643,11 +5767,14 @@
         <v>17.345132743362832</v>
       </c>
       <c r="O47" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>80.461165048543691</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>45.015287727401265</v>
       </c>
       <c r="P47" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q47" s="11">
@@ -5711,11 +5838,14 @@
         <v>8.4294401342000427</v>
       </c>
       <c r="O48" s="59">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>59.446047316791692</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.991927183830793</v>
       </c>
       <c r="P48" s="59" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
       <c r="Q48" s="11">
@@ -5779,12 +5909,15 @@
         <v>11.081081081081082</v>
       </c>
       <c r="O49" s="59">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>68.102734051367023</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>36.364715903981811</v>
       </c>
       <c r="P49" s="59" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q49" s="11">
         <v>75.8</v>
@@ -5847,12 +5980,15 @@
         <v>14.519906323185012</v>
       </c>
       <c r="O50" s="59">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>68.391608391608386</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>37.161034769426372</v>
       </c>
       <c r="P50" s="59" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q50" s="11">
         <v>66.099999999999994</v>
@@ -5915,12 +6051,15 @@
         <v>14.320193081255027</v>
       </c>
       <c r="O51" s="59">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>54.139641358260199</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>28.872651423851693</v>
       </c>
       <c r="P51" s="59" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q51" s="11">
         <v>78.099999999999994</v>
@@ -5983,11 +6122,14 @@
         <v>12.933025404157044</v>
       </c>
       <c r="O52" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>57.451828548957927</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.513477274635605</v>
       </c>
       <c r="P52" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
       <c r="Q52" s="11">
@@ -6051,11 +6193,14 @@
         <v>18.819188191881921</v>
       </c>
       <c r="O53" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>79.310344827586206</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>44.636487175131649</v>
       </c>
       <c r="P53" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q53" s="15">
@@ -6119,12 +6264,15 @@
         <v>16.975463194792187</v>
       </c>
       <c r="O54" s="37">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>67.1264367816092</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>36.83273880301229</v>
       </c>
       <c r="P54" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q54" s="11">
         <v>76.8</v>
@@ -6187,12 +6335,15 @@
         <v>10.477366255144032</v>
       </c>
       <c r="O55" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>68.796915167095108</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>36.548929626423295</v>
       </c>
       <c r="P55" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q55" s="15">
         <v>72.8</v>
@@ -6255,11 +6406,14 @@
         <v>4.3607905502254676</v>
       </c>
       <c r="O56" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>59.696927652335468</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.367252309375818</v>
       </c>
       <c r="P56" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
       <c r="Q56" s="11">
@@ -6323,12 +6477,15 @@
         <v>1.2047697368421051</v>
       </c>
       <c r="O57" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>65.164378452302728</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>32.633867483368824</v>
       </c>
       <c r="P57" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q57" s="11">
         <v>63.2</v>
@@ -6391,12 +6548,15 @@
         <v>11.324886594712966</v>
       </c>
       <c r="O58" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>54.79532914153728</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>28.924874308936474</v>
       </c>
       <c r="P58" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q58" s="15">
         <v>72.8</v>
@@ -6459,12 +6619,15 @@
         <v>3.9709066942849072</v>
       </c>
       <c r="O59" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>42.089264955310348</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>21.382923551062493</v>
       </c>
       <c r="P59" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q59" s="11">
         <v>75.099999999999994</v>
@@ -6527,12 +6690,15 @@
         <v>1.5640273704789833</v>
       </c>
       <c r="O60" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>37.671175568261056</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>18.944855731671993</v>
       </c>
       <c r="P60" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q60" s="11">
         <v>63.2</v>
@@ -6595,12 +6761,15 @@
         <v>17.814371257485028</v>
       </c>
       <c r="O61" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>71.806569343065689</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>39.80154276999307</v>
       </c>
       <c r="P61" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q61" s="15">
         <v>72.7</v>
@@ -6663,11 +6832,14 @@
         <v>26.358257127487896</v>
       </c>
       <c r="O62" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>86.28647019916221</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>50.899311888787274</v>
       </c>
       <c r="P62" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q62" s="11">
@@ -6731,12 +6903,15 @@
         <v>9.2503987240829346</v>
       </c>
       <c r="O63" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>64.018691588785046</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>33.74443182810726</v>
       </c>
       <c r="P63" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q63" s="15">
         <v>66.5</v>
@@ -6799,12 +6974,15 @@
         <v>7.76490006817611</v>
       </c>
       <c r="O64" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>67.154282129976025</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>35.145201977472176</v>
       </c>
       <c r="P64" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q64" s="15">
         <v>66.5</v>
@@ -6867,12 +7045,15 @@
         <v>1.5778251599147122</v>
       </c>
       <c r="O65" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>38.32528180354268</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>19.260807331170703</v>
       </c>
       <c r="P65" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q65" s="15">
         <v>66.7</v>
@@ -6935,12 +7116,15 @@
         <v>2.5827280064568199</v>
       </c>
       <c r="O66" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>58.50622406639004</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>29.639269211303667</v>
       </c>
       <c r="P66" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q66" s="15">
         <v>74.599999999999994</v>
@@ -7003,12 +7187,15 @@
         <v>5.6410256410256414</v>
       </c>
       <c r="O67" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>64.241164241164242</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>33.222431611204996</v>
       </c>
       <c r="P67" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q67" s="15">
         <v>69</v>
@@ -7071,11 +7258,14 @@
         <v>6.0474860335195526</v>
       </c>
       <c r="O68" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>59.461798725312775</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.607034860568234</v>
       </c>
       <c r="P68" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
       <c r="Q68" s="15">
@@ -7139,12 +7329,15 @@
         <v>4.5315161839863709</v>
       </c>
       <c r="O69" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>42.234474149589104</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>21.350228074311548</v>
       </c>
       <c r="P69" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q69" s="15">
         <v>66.599999999999994</v>
@@ -7207,12 +7400,15 @@
         <v>2.203529304196763</v>
       </c>
       <c r="O70" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>38.899198207345684</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>19.495677422206587</v>
       </c>
       <c r="P70" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q70" s="11">
         <v>66.099999999999994</v>
@@ -7275,12 +7471,15 @@
         <v>6.0085836909871242</v>
       </c>
       <c r="O71" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>68.119139547710986</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>35.374611077865353</v>
       </c>
       <c r="P71" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q71" s="15">
         <v>68.2</v>
@@ -7343,12 +7542,15 @@
         <v>4.98772451221088</v>
       </c>
       <c r="O72" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>62.380879188441433</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>32.085872706212967</v>
       </c>
       <c r="P72" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q72" s="11">
         <v>64.400000000000006</v>
@@ -7411,11 +7613,14 @@
         <v>25.080385852090032</v>
       </c>
       <c r="O73" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>85.054945054945051</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>49.635792778649922</v>
       </c>
       <c r="P73" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q73" s="15">
@@ -7479,12 +7684,15 @@
         <v>18.393234672304441</v>
       </c>
       <c r="O74" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>38.844899860270139</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>20.471758016786239</v>
       </c>
       <c r="P74" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q74" s="11">
         <v>90.1</v>
@@ -7547,12 +7755,15 @@
         <v>4.6931407942238268</v>
       </c>
       <c r="O75" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>47.272727272727273</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>23.820777269312206</v>
       </c>
       <c r="P75" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q75" s="15">
         <v>0</v>
@@ -7613,12 +7824,15 @@
         <v>4.1671743633483613</v>
       </c>
       <c r="O76" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>60.93806200992735</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.944993779969586</v>
       </c>
       <c r="P76" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q76" s="11">
         <v>0</v>
@@ -7679,12 +7893,15 @@
         <v>4.9382716049382713</v>
       </c>
       <c r="O77" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>52.147239263803684</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>26.713463058451584</v>
       </c>
       <c r="P77" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q77" s="11">
         <v>0</v>
@@ -7745,12 +7962,15 @@
         <v>3.7357315807679004</v>
       </c>
       <c r="O78" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>66.317432010699946</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>33.69594989037077</v>
       </c>
       <c r="P78" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q78" s="11">
         <v>0</v>
@@ -7811,12 +8031,15 @@
         <v>1.8867924528301887</v>
       </c>
       <c r="O79" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>61.271676300578036</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.418657489391563</v>
       </c>
       <c r="P79" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q79" s="11">
         <v>0</v>
@@ -7877,12 +8100,15 @@
         <v>3.4090909090909087</v>
       </c>
       <c r="O80" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>71.36826421653835</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>36.07424160569002</v>
       </c>
       <c r="P80" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q80" s="11">
         <v>0</v>
@@ -7943,12 +8169,15 @@
         <v>11.76470588235294</v>
       </c>
       <c r="O81" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>48.717948717948715</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>25.608152531229454</v>
       </c>
       <c r="P81" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q81" s="15">
         <v>0</v>
@@ -8009,11 +8238,14 @@
         <v>5.5072463768115938</v>
       </c>
       <c r="O82" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>59.616438356164387</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.633049352598984</v>
       </c>
       <c r="P82" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
       <c r="Q82" s="15">
@@ -8075,12 +8307,15 @@
         <v>17.460317460317459</v>
       </c>
       <c r="O83" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>69.811320754716974</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.527945888216443</v>
       </c>
       <c r="P83" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q83" s="11">
         <v>81.400000000000006</v>
@@ -8143,11 +8378,14 @@
         <v>23.076923076923077</v>
       </c>
       <c r="O84" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>77.241379310344826</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>44.214030915576693</v>
       </c>
       <c r="P84" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q84" s="11">
@@ -8211,12 +8449,15 @@
         <v>22.5</v>
       </c>
       <c r="O85" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>60.122699386503072</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>33.381007941586063</v>
       </c>
       <c r="P85" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q85" s="11">
         <v>81.400000000000006</v>
@@ -8279,12 +8520,15 @@
         <v>8.0808080808080813</v>
       </c>
       <c r="O86" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>42.125984251968504</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>21.726393452786905</v>
       </c>
       <c r="P86" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q86" s="11">
         <v>81.400000000000006</v>
@@ -8347,12 +8591,15 @@
         <v>5.755395683453238</v>
       </c>
       <c r="O87" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>54.104477611940304</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>27.497772332368015</v>
       </c>
       <c r="P87" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q87" s="11">
         <v>0</v>
@@ -8413,12 +8660,15 @@
         <v>5</v>
       </c>
       <c r="O88" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>43.750000000000007</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>22.330729166666668</v>
       </c>
       <c r="P88" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟡</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
       </c>
       <c r="Q88" s="11">
         <v>0</v>
@@ -8479,11 +8729,14 @@
         <v>14.166666666666666</v>
       </c>
       <c r="O89" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>90.297386602583344</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>50.114313521967254</v>
       </c>
       <c r="P89" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q89" s="15">
@@ -8547,11 +8800,14 @@
         <v>8.3333333333333321</v>
       </c>
       <c r="O90" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>80.246913580246911</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>42.600213382106389</v>
       </c>
       <c r="P90" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q90" s="15">
@@ -8613,12 +8869,15 @@
         <v>12.794299876084262</v>
       </c>
       <c r="O91" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>66.150200510390079</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>35.463942021111237</v>
       </c>
       <c r="P91" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q91" s="15">
         <v>0</v>
@@ -8679,12 +8938,15 @@
         <v>6.7796610169491522</v>
       </c>
       <c r="O92" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>69.613259668508292</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>36.345044412563716</v>
       </c>
       <c r="P92" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q92" s="15">
         <v>0</v>
@@ -8745,11 +9007,14 @@
         <v>12.965340179717586</v>
       </c>
       <c r="O93" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>93.119429590017816</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>51.143965607633419</v>
       </c>
       <c r="P93" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q93" s="15">
@@ -8811,11 +9076,14 @@
         <v>7.7586206896551726</v>
       </c>
       <c r="O94" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>107.75862068965517</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>58.059601664684905</v>
       </c>
       <c r="P94" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q94" s="15">
@@ -8877,11 +9145,14 @@
         <v>16.632860040567952</v>
       </c>
       <c r="O95" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>86.077844311377248</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>48.322143138871958</v>
       </c>
       <c r="P95" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q95" s="15">
@@ -8943,11 +9214,14 @@
         <v>9.7560975609756095</v>
       </c>
       <c r="O96" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>97.826086956521735</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>53.166351606805286</v>
       </c>
       <c r="P96" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q96" s="15">
@@ -9009,12 +9283,15 @@
         <v>14.975041597337771</v>
       </c>
       <c r="O97" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>69.110999497739826</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>37.542497239587171</v>
       </c>
       <c r="P97" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q97" s="15">
         <v>0</v>
@@ -9075,11 +9352,14 @@
         <v>9.0909090909090917</v>
       </c>
       <c r="O98" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>84.507042253521135</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>45.229121206109902</v>
       </c>
       <c r="P98" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q98" s="15">
@@ -9141,11 +9421,14 @@
         <v>15.943396226415093</v>
       </c>
       <c r="O99" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>83.824537354352302</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>46.585279804724152</v>
       </c>
       <c r="P99" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q99" s="15">
@@ -9207,11 +9490,14 @@
         <v>12.76595744680851</v>
       </c>
       <c r="O100" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>98.148148148148152</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>54.52674897119342</v>
       </c>
       <c r="P100" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q100" s="11">
@@ -9273,12 +9559,15 @@
         <v>7.664233576642336</v>
       </c>
       <c r="O101" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>62.30728335991494</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>32.34171650187767</v>
       </c>
       <c r="P101" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q101" s="11">
         <v>0</v>
@@ -9339,12 +9628,15 @@
         <v>11.215834118755891</v>
       </c>
       <c r="O102" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>65.47486033519553</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>34.705221435036364</v>
       </c>
       <c r="P102" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q102" s="11">
         <v>0</v>
@@ -9405,11 +9697,14 @@
         <v>5.9475856581630113</v>
       </c>
       <c r="O103" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>59.603971535454114</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.649591384976109</v>
       </c>
       <c r="P103" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
       <c r="Q103" s="11">
@@ -9471,12 +9766,15 @@
         <v>11.278195488721805</v>
       </c>
       <c r="O104" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>65.209258173493026</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>34.546389119610154</v>
       </c>
       <c r="P104" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q104" s="11">
         <v>0</v>
@@ -9537,11 +9835,14 @@
         <v>12.030075187969924</v>
       </c>
       <c r="O105" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>89.090909090909093</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>48.317722681359051</v>
       </c>
       <c r="P105" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q105" s="11">
@@ -9603,12 +9904,15 @@
         <v>9.4594594594594597</v>
       </c>
       <c r="O106" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>74.654377880184342</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>39.735394678162635</v>
       </c>
       <c r="P106" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q106" s="11">
         <v>0</v>
@@ -9669,11 +9973,14 @@
         <v>5.1750380517503807</v>
       </c>
       <c r="O107" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>77.957446808510653</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>40.264389115235652</v>
       </c>
       <c r="P107" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q107" s="11">
@@ -9735,12 +10042,15 @@
         <v>9.3979441997063144</v>
       </c>
       <c r="O108" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>75.914067341458363</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>39.983785558193219</v>
       </c>
       <c r="P108" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q108" s="11">
         <v>0</v>
@@ -9801,11 +10111,14 @@
         <v>3.5714285714285712</v>
       </c>
       <c r="O109" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>83.815028901734109</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>43.118714290487489</v>
       </c>
       <c r="P109" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q109" s="11">
@@ -9867,12 +10180,15 @@
         <v>6.2992125984251963</v>
       </c>
       <c r="O110" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>75.72254335260115</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.509472418056063</v>
       </c>
       <c r="P110" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q110" s="11">
         <v>0</v>
@@ -9933,12 +10249,15 @@
         <v>4.6479361775927854</v>
       </c>
       <c r="O111" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>72.5830078125</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>36.959236860275269</v>
       </c>
       <c r="P111" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q111" s="11">
         <v>0</v>
@@ -9999,11 +10318,14 @@
         <v>9.8074179743223961</v>
       </c>
       <c r="O112" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>92.338096685922778</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>49.444230337061519</v>
       </c>
       <c r="P112" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q112" s="11">
@@ -10065,11 +10387,14 @@
         <v>11.475409836065573</v>
       </c>
       <c r="O113" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>88.311688311688314</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>48.170011806375442</v>
       </c>
       <c r="P113" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q113" s="11">
@@ -10131,12 +10456,15 @@
         <v>12.183908045977011</v>
       </c>
       <c r="O114" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>70.317002881844374</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>37.843516680646786</v>
       </c>
       <c r="P114" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q114" s="11">
         <v>0</v>
@@ -10197,12 +10525,15 @@
         <v>8.1081081081081088</v>
       </c>
       <c r="O115" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>67.226890756302524</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>35.308240943436203</v>
       </c>
       <c r="P115" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q115" s="11">
         <v>0</v>
@@ -10263,11 +10594,14 @@
         <v>9.610983981693364</v>
       </c>
       <c r="O116" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>59.774436090225571</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>31.341511673921644</v>
       </c>
       <c r="P116" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
       <c r="Q116" s="11">
@@ -10329,12 +10663,15 @@
         <v>5.6338028169014089</v>
       </c>
       <c r="O117" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>73.529411764705884</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.206459054209922</v>
       </c>
       <c r="P117" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q117" s="11">
         <v>0</v>
@@ -10395,12 +10732,15 @@
         <v>11.847389558232932</v>
       </c>
       <c r="O118" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>72.337662337662337</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.940209141507843</v>
       </c>
       <c r="P118" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q118" s="11">
         <v>0</v>
@@ -10461,12 +10801,15 @@
         <v>6.8750000000000009</v>
       </c>
       <c r="O119" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>63.333333333333329</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>32.956790123456791</v>
       </c>
       <c r="P119" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q119" s="11">
         <v>0</v>
@@ -10527,12 +10870,15 @@
         <v>7.1180555555555554</v>
       </c>
       <c r="O120" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>71.279069767441868</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>37.117157923201731</v>
       </c>
       <c r="P120" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q120" s="11">
         <v>0</v>
@@ -10593,12 +10939,15 @@
         <v>4.6476761619190405</v>
       </c>
       <c r="O121" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>76.710816777041927</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>39.507891954056596</v>
       </c>
       <c r="P121" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q121" s="11">
         <v>0</v>
@@ -10659,11 +11008,14 @@
         <v>7.109004739336493</v>
       </c>
       <c r="O122" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>59.946949602122018</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>31.166053374047518</v>
       </c>
       <c r="P122" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
       <c r="Q122" s="11">
@@ -10725,12 +11077,15 @@
         <v>7.6759061833688706</v>
       </c>
       <c r="O123" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>64.62938881664499</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>33.331670502451125</v>
       </c>
       <c r="P123" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q123" s="11">
         <v>0</v>
@@ -10791,12 +11146,15 @@
         <v>4.1297935103244834</v>
       </c>
       <c r="O124" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>67.555266579974003</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>34.06759999391236</v>
       </c>
       <c r="P124" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q124" s="11">
         <v>0</v>
@@ -10857,11 +11215,14 @@
         <v>22.857142857142858</v>
       </c>
       <c r="O125" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>114.66666666666666</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>69.564444444444447</v>
       </c>
       <c r="P125" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q125" s="11">
@@ -10923,11 +11284,14 @@
         <v>20</v>
       </c>
       <c r="O126" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>125</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>78.125</v>
       </c>
       <c r="P126" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q126" s="11">
@@ -10989,11 +11353,14 @@
         <v>22.900763358778626</v>
       </c>
       <c r="O127" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>160</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>128</v>
       </c>
       <c r="P127" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q127" s="11">
@@ -11055,11 +11422,14 @@
         <v>40</v>
       </c>
       <c r="O128" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>140</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>98</v>
       </c>
       <c r="P128" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q128" s="11">
@@ -11121,11 +11491,14 @@
         <v>15.441176470588236</v>
       </c>
       <c r="O129" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>110.56338028169013</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>63.457151358857367</v>
       </c>
       <c r="P129" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q129" s="11">
@@ -11187,11 +11560,14 @@
         <v>100</v>
       </c>
       <c r="O130" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>325</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>200</v>
       </c>
       <c r="P130" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q130" s="11">
@@ -11253,12 +11629,15 @@
         <v>10.383889238514788</v>
       </c>
       <c r="O131" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>72.757475083056477</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.832783992450409</v>
       </c>
       <c r="P131" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q131" s="11">
         <v>0</v>
@@ -11319,11 +11698,14 @@
         <v>18.918918918918919</v>
       </c>
       <c r="O132" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>88</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>50.160000000000004</v>
       </c>
       <c r="P132" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q132" s="11">
@@ -11385,12 +11767,15 @@
         <v>11.081932773109243</v>
       </c>
       <c r="O133" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>60.704998555330832</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>32.013017299882016</v>
       </c>
       <c r="P133" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q133" s="11">
         <v>0</v>
@@ -11451,11 +11836,14 @@
         <v>20</v>
       </c>
       <c r="O134" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>93.243243243243228</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>53.86687363038714</v>
       </c>
       <c r="P134" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q134" s="11">
@@ -11517,12 +11905,15 @@
         <v>10.644677661169414</v>
       </c>
       <c r="O135" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>61.370629370629374</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>32.25050418113355</v>
       </c>
       <c r="P135" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q135" s="11">
         <v>0</v>
@@ -11583,11 +11974,14 @@
         <v>15.596330275229359</v>
       </c>
       <c r="O136" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>99.212598425196845</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>56.24651249302498</v>
       </c>
       <c r="P136" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q136" s="11">
@@ -11649,11 +12043,14 @@
         <v>3.4539026380201254</v>
       </c>
       <c r="O137" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>91.642512077294697</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>47.109815865014355</v>
       </c>
       <c r="P137" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q137" s="11">
@@ -11715,12 +12112,15 @@
         <v>3.3907146583202921</v>
       </c>
       <c r="O138" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>73.271719038817011</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>37.516203648340692</v>
       </c>
       <c r="P138" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q138" s="11">
         <v>0</v>
@@ -11781,12 +12181,15 @@
         <v>3.323629306162057</v>
       </c>
       <c r="O139" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>77.076472740578112</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>39.093923464468972</v>
       </c>
       <c r="P139" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
-        <v>🟢</v>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
       </c>
       <c r="Q139" s="11">
         <v>0</v>
@@ -11847,11 +12250,14 @@
         <v>2.4700598802395208</v>
       </c>
       <c r="O140" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>101.76007410838351</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>51.806799461349783</v>
       </c>
       <c r="P140" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q140" s="11">
@@ -11913,11 +12319,14 @@
         <v>2.3596035865974514</v>
       </c>
       <c r="O141" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>100.63191153238546</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>50.666574048423811</v>
       </c>
       <c r="P141" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q141" s="11">
@@ -11979,11 +12388,14 @@
         <v>2.9027576197387517</v>
       </c>
       <c r="O142" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>101.11731843575419</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>51.173496457663624</v>
       </c>
       <c r="P142" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q142" s="11">
@@ -12045,11 +12457,14 @@
         <v>51.205826170009551</v>
       </c>
       <c r="O143" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>115.92887911282193</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>80.705155612829017</v>
       </c>
       <c r="P143" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q143" s="15">
@@ -12113,11 +12528,14 @@
         <v>50.625</v>
       </c>
       <c r="O144" s="48">
-        <f>MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*100 + (Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]]*100) - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>102.95760762405521</v>
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>69.292533819935954</v>
       </c>
       <c r="P144" s="48" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;=30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;=60,"🟡","🟢"))</f>
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
       <c r="Q144" s="15">
@@ -12386,15 +12804,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAB1339F159CD428AD0F5BA99C368F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f0c74bf1a42c2d75d8315edd8b34847e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0eeac73-9918-465e-bdd8-785547fbc2d9" xmlns:ns3="d777fa6b-bca0-4864-8d50-ac77b155e846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e574cbbd1e27f27e000ab280241298b2" ns2:_="" ns3:_="">
     <xsd:import namespace="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
@@ -12629,16 +13038,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4252A4E7-9534-4518-B181-8F4CBEDEDA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A63BDDF-EC72-4B77-8816-0B1431584528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -205,21 +205,39 @@
     </comment>
     <comment ref="O1" authorId="0" shapeId="0" xr:uid="{392D3804-56EC-4160-B43F-7901312E770F}">
       <text>
-        <t xml:space="preserve">Engagement Score (%) =
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Engagement Score (%) =
 (Open Rate (%) × 0.5) + (Click Rate (%) × 0.5) − 2 × Unsub Rate (%)
 &gt;Open Rate: Accounts for 50% of the score. Campaigns with more opens get a higher score.
 &gt;Click Rate: Also accounts for 50% of the score. Campaigns with very few clicks will see their score reduced, even if open rates are high.
 &gt;Unsubscribe Rate: Each unsubscribe counts double, so campaigns with higher unsubscribes are penalised more.
 Rewards campaigns that not only get opened but also encourage engagement.
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{E6510ECF-D05E-4F7D-9FA1-A4B9CE20D238}">
       <text>
-        <t xml:space="preserve">🟢 Green: Score ≥ 40 (really strong engagement, opens + clicks significant)
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">🟢 Green: Score ≥ 40 (really strong engagement, opens + clicks significant)
 🟡 Yellow: Score ≥ 30 and &lt; 40 (moderate engagement)
 🔴 Red: Score &lt; 30 (low engagement, clicks too low)
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="T1" authorId="0" shapeId="0" xr:uid="{C85A22D2-5413-4932-95A0-6343FF53898D}">
@@ -259,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="166">
   <si>
     <t>img-id</t>
   </si>
@@ -748,6 +766,15 @@
   </si>
   <si>
     <t xml:space="preserve">Cbus - 2025 Statements - SIS - Microsoft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBINAR - OCT 25 - Super Health Check seminar </t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/358386/emails/19028939/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/19332991/analytics</t>
   </si>
 </sst>
 </file>
@@ -2082,8 +2109,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:T144" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="B1:T144" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:T146" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="B1:T146" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:T94">
     <sortCondition descending="1" ref="F1:F94"/>
   </sortState>
@@ -2454,11 +2481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23CF1A7-A843-E143-B142-84B9EDCB7AA1}">
-  <dimension ref="A1:T144"/>
+  <dimension ref="A1:T146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="L139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T146" sqref="T146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
@@ -12549,6 +12576,148 @@
       </c>
       <c r="T144" s="44" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A145" s="62">
+        <v>31</v>
+      </c>
+      <c r="B145" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C145" s="61">
+        <v>45930</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145" s="10">
+        <v>298</v>
+      </c>
+      <c r="H145" s="31">
+        <v>154</v>
+      </c>
+      <c r="I145" s="35">
+        <v>2</v>
+      </c>
+      <c r="J145" s="12">
+        <v>0</v>
+      </c>
+      <c r="K145" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L145" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>51.677852348993291</v>
+      </c>
+      <c r="M145" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="N145" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>1.2987012987012987</v>
+      </c>
+      <c r="O145" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>26.350164407008698</v>
+      </c>
+      <c r="P145" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
+      </c>
+      <c r="Q145" s="11">
+        <v>50</v>
+      </c>
+      <c r="R145" s="12">
+        <v>38.9</v>
+      </c>
+      <c r="S145" s="12">
+        <v>11.1</v>
+      </c>
+      <c r="T145" s="44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A146" s="62">
+        <v>31</v>
+      </c>
+      <c r="B146" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C146" s="61">
+        <v>45930</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146" s="10">
+        <v>8785</v>
+      </c>
+      <c r="H146" s="31">
+        <v>4026</v>
+      </c>
+      <c r="I146" s="35">
+        <v>150</v>
+      </c>
+      <c r="J146" s="12">
+        <v>1</v>
+      </c>
+      <c r="K146" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>1.1383039271485488E-2</v>
+      </c>
+      <c r="L146" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>45.828116107000568</v>
+      </c>
+      <c r="M146" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>1.707455890722823</v>
+      </c>
+      <c r="N146" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.7257824143070044</v>
+      </c>
+      <c r="O146" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>24.150844382450686</v>
+      </c>
+      <c r="P146" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
+      </c>
+      <c r="Q146" s="11">
+        <v>79.5</v>
+      </c>
+      <c r="R146" s="12">
+        <v>14.4</v>
+      </c>
+      <c r="S146" s="12">
+        <v>6.1</v>
+      </c>
+      <c r="T146" s="44" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -12782,28 +12951,21 @@
     <hyperlink ref="B144" r:id="rId207" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3df19f42-c622-481a-a0cc-b64ea8f94164" display="Cbus - 2025 Statements - SIS" xr:uid="{8C7106E8-B2C7-4073-98E2-6BD22D598D4F}"/>
     <hyperlink ref="T144" r:id="rId208" xr:uid="{46704411-4366-4503-871A-63C62D6F5CDF}"/>
     <hyperlink ref="T143" r:id="rId209" xr:uid="{35617BE4-D51B-4C42-BCBC-A3326810417E}"/>
+    <hyperlink ref="B145" r:id="rId210" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/df121502-9927-4eed-8a89-998f44dfe2cb" xr:uid="{4C7035C0-55DC-42DB-BC1A-1724968D036A}"/>
+    <hyperlink ref="B146" r:id="rId211" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/df121502-9927-4eed-8a89-998f44dfe2cb" xr:uid="{D51BF1B3-CB4F-4C37-97E4-0E8A747D3371}"/>
+    <hyperlink ref="T145" r:id="rId212" xr:uid="{6D9DC780-9CDA-4D3F-B56F-0677CA3C5FB2}"/>
+    <hyperlink ref="T146" r:id="rId213" xr:uid="{E660BB65-5617-4FC2-B761-2C921DC44FB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId210"/>
+  <legacyDrawing r:id="rId214"/>
   <tableParts count="2">
-    <tablePart r:id="rId211"/>
-    <tablePart r:id="rId212"/>
+    <tablePart r:id="rId215"/>
+    <tablePart r:id="rId216"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAB1339F159CD428AD0F5BA99C368F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f0c74bf1a42c2d75d8315edd8b34847e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0eeac73-9918-465e-bdd8-785547fbc2d9" xmlns:ns3="d777fa6b-bca0-4864-8d50-ac77b155e846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e574cbbd1e27f27e000ab280241298b2" ns2:_="" ns3:_="">
     <xsd:import namespace="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
@@ -13038,6 +13200,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13048,11 +13221,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A63BDDF-EC72-4B77-8816-0B1431584528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74F6B20-A3E8-49B1-BACE-A089334A7D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
   <sheets>
     <sheet name="FY-ajo-report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -277,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="182">
   <si>
     <t>img-id</t>
   </si>
@@ -687,28 +688,31 @@
     <t xml:space="preserve">Beneficiaries - Seg 1 -New member </t>
   </si>
   <si>
-    <t>6 Month Tenure [Sept 2025]</t>
-  </si>
-  <si>
-    <t>Age Pension - 68 Years</t>
+    <t>6 Month Tenure [Post 17 Sep2025]</t>
+  </si>
+  <si>
+    <t>6 Month Tenure [Post 17 Sept 2025]</t>
+  </si>
+  <si>
+    <t>Age Pension - 68 Years [Pre 25 Sep 2025]</t>
   </si>
   <si>
     <t>https://litmus.com/folders/372742/emails/16700910/analytics</t>
   </si>
   <si>
-    <t>Age Pension - 67 Years</t>
-  </si>
-  <si>
-    <t>Age Pension - 66 Years</t>
-  </si>
-  <si>
-    <t>Age Pension - 57 Years</t>
-  </si>
-  <si>
-    <t>Data Capture- Accum - [Sept 2025]</t>
-  </si>
-  <si>
-    <t>Data Capture - Accum -  [Sept 2025]</t>
+    <t>Age Pension - 67 Years Pre 25 Sep 2025]</t>
+  </si>
+  <si>
+    <t>Age Pension - 66 Years [Pre 25 Sep 2025]</t>
+  </si>
+  <si>
+    <t>Age Pension - 57 Years [Pre 25 Sep 2025]</t>
+  </si>
+  <si>
+    <t>Data Capture- Accum - [Post 15 Sept 2025]</t>
+  </si>
+  <si>
+    <t>Data Capture - Accum -  [Post 15 Sept 2025]</t>
   </si>
   <si>
     <t>PYS 9 Months</t>
@@ -717,7 +721,7 @@
     <t>https://litmus.com/folders/308698/emails/13915034/analytics</t>
   </si>
   <si>
-    <t>PYS 5 Months</t>
+    <t>PYS 15 Months</t>
   </si>
   <si>
     <t>Consolidation - 90 days</t>
@@ -775,6 +779,52 @@
   </si>
   <si>
     <t>https://litmus.com/folders/324180/emails/19332991/analytics</t>
+  </si>
+  <si>
+    <t>Data Capture- Accum -  [Pre 15 Sept 2025]</t>
+  </si>
+  <si>
+    <t>Data Capture - Accum -  [Pre 15 Sept 2025]</t>
+  </si>
+  <si>
+    <t>Data Capture- Accum</t>
+  </si>
+  <si>
+    <t>6 Month Tenure [Pre 17 Sep 2025]</t>
+  </si>
+  <si>
+    <t>6 Month Tenure [Pre 17 Sept 2025]</t>
+  </si>
+  <si>
+    <t>6 Month Tenure</t>
+  </si>
+  <si>
+    <t>7 Month Tenure</t>
+  </si>
+  <si>
+    <t>8 Month Tenure</t>
+  </si>
+  <si>
+    <t>ALL BRANDS - WEBINAR - OCT 25 - NSW Retirement seminars &amp; webinars - Invite</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/366549/emails/19127170/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/19371176/analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL BRANDS - WEBINAR - OCT 25 - Financial Literacy V2 
+</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/19386461/analytics</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/19386462/analytics</t>
+  </si>
+  <si>
+    <t>Data Capture- Accum - [Pre 15 Sept 2025]</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1402,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{770A8CE4-86FC-45BF-95B8-E1D8E67E3936}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2109,56 +2175,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:T146" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="B1:T146" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="B1:T162" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <autoFilter ref="B1:T162" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:T94">
     <sortCondition descending="1" ref="F1:F94"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{592A3136-8A60-4650-9DF6-CD74A33464B1}" name="name" dataDxfId="23" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{1F194343-9489-4FF7-8BA8-8FE4AD211F8B}" name="date" dataDxfId="22" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{613F8D1F-C5D7-46FB-834A-5183617D5BF8}" name="brand" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{39913B7C-CBB3-470C-8F4E-6888A201DA8B}" name="type" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{DAD37DCA-0435-441A-B8E1-5FE82B0D8B9D}" name="send-type" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{0D81733F-25B3-4A7C-B3C0-DFE06A90464F}" name="unique-sends" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{274A7B85-7FDE-4D40-8515-C885EF39314B}" name="unique-opens" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{C860F744-163F-46E0-BC1A-15DDD6121358}" name="unique-clicks" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{A71DAAD5-121C-41AC-A08E-BF363CF89DFE}" name="unsub" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{3E23A808-3FEF-4D90-BACE-62A3345A0868}" name="unsub-pc" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{592A3136-8A60-4650-9DF6-CD74A33464B1}" name="name" dataDxfId="25" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{1F194343-9489-4FF7-8BA8-8FE4AD211F8B}" name="date" dataDxfId="24" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{613F8D1F-C5D7-46FB-834A-5183617D5BF8}" name="brand" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{39913B7C-CBB3-470C-8F4E-6888A201DA8B}" name="type" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{DAD37DCA-0435-441A-B8E1-5FE82B0D8B9D}" name="send-type" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{0D81733F-25B3-4A7C-B3C0-DFE06A90464F}" name="unique-sends" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{274A7B85-7FDE-4D40-8515-C885EF39314B}" name="unique-opens" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{C860F744-163F-46E0-BC1A-15DDD6121358}" name="unique-clicks" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{A71DAAD5-121C-41AC-A08E-BF363CF89DFE}" name="unsub" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{3E23A808-3FEF-4D90-BACE-62A3345A0868}" name="unsub-pc" dataDxfId="16">
       <calculatedColumnFormula>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E7D2EFD0-301C-4002-8501-CE02665F086E}" name="unique-opens-pc" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{E7D2EFD0-301C-4002-8501-CE02665F086E}" name="unique-opens-pc" dataDxfId="15">
       <calculatedColumnFormula>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FE8ED384-E8DC-43C9-9628-C6A9E5DFA5BE}" name="unique-clicks-pc" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{FE8ED384-E8DC-43C9-9628-C6A9E5DFA5BE}" name="unique-clicks-pc" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E60FB7EF-7008-49DF-B5E7-A73B4E9595D4}" name="ctor-pc" dataDxfId="11">
+    <tableColumn id="17" xr3:uid="{E60FB7EF-7008-49DF-B5E7-A73B4E9595D4}" name="ctor-pc" dataDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{EA74FC93-B969-4F46-9C49-8927D6B3A01B}" name="Engagement Score" dataDxfId="10">
+    <tableColumn id="18" xr3:uid="{EA74FC93-B969-4F46-9C49-8927D6B3A01B}" name="Engagement Score" dataDxfId="12">
       <calculatedColumnFormula>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
  + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
  * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
  - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{E01D85AE-C032-4929-BBDB-DEDD7A99ADE8}" name="Traffic Light" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{E01D85AE-C032-4929-BBDB-DEDD7A99ADE8}" name="Traffic Light" dataDxfId="11">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3CA46112-C95F-E64B-A58D-81BDEBF2FDC4}" name="read-over-8s" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{985DCAD1-25BF-804E-9E49-5E19FC44B93C}" name="read-under-8s" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{986830C2-C7E6-C645-8ACD-C78E1B2E462F}" name="read-under-2s" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{D273CFB9-324F-4CB2-B1BA-58EEE2D8C50F}" name="Litmus-tacking-id" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{3CA46112-C95F-E64B-A58D-81BDEBF2FDC4}" name="read-over-8s" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{985DCAD1-25BF-804E-9E49-5E19FC44B93C}" name="read-under-8s" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{986830C2-C7E6-C645-8ACD-C78E1B2E462F}" name="read-under-2s" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{D273CFB9-324F-4CB2-B1BA-58EEE2D8C50F}" name="Litmus-tacking-id" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9EF92C28-E924-43CA-A90D-41C9C51AEB77}" name="Table2" displayName="Table2" ref="A1:A120" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9EF92C28-E924-43CA-A90D-41C9C51AEB77}" name="Table2" displayName="Table2" ref="A1:A120" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
   <autoFilter ref="A1:A120" xr:uid="{9EF92C28-E924-43CA-A90D-41C9C51AEB77}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{58D2A550-142B-41D9-AB54-C14A9D8A0483}" name="img-id" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{58D2A550-142B-41D9-AB54-C14A9D8A0483}" name="img-id" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2481,11 +2547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23CF1A7-A843-E143-B142-84B9EDCB7AA1}">
-  <dimension ref="A1:T146"/>
+  <dimension ref="A1:T162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="L139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T146" sqref="T146"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S163" sqref="S163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
@@ -8222,7 +8288,7 @@
         <v>55</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C82" s="54">
         <v>45917</v>
@@ -8291,7 +8357,7 @@
         <v>23</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C83" s="54">
         <v>45925</v>
@@ -8354,7 +8420,7 @@
         <v>11.4</v>
       </c>
       <c r="T83" s="49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="32.1" customHeight="1">
@@ -8362,7 +8428,7 @@
         <v>22</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C84" s="54">
         <v>45925</v>
@@ -8425,7 +8491,7 @@
         <v>11.4</v>
       </c>
       <c r="T84" s="44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="32.1" customHeight="1">
@@ -8433,7 +8499,7 @@
         <v>21</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C85" s="54">
         <v>45925</v>
@@ -8496,7 +8562,7 @@
         <v>11.4</v>
       </c>
       <c r="T85" s="44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="32.1" customHeight="1">
@@ -8504,7 +8570,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C86" s="54">
         <v>45925</v>
@@ -8567,7 +8633,7 @@
         <v>11.4</v>
       </c>
       <c r="T86" s="44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="32.1" customHeight="1">
@@ -8575,7 +8641,7 @@
         <v>53</v>
       </c>
       <c r="B87" s="57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C87" s="54">
         <v>45915</v>
@@ -8644,7 +8710,7 @@
         <v>51</v>
       </c>
       <c r="B88" s="57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C88" s="54">
         <v>45915</v>
@@ -8713,7 +8779,7 @@
         <v>46</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" s="54">
         <v>45839</v>
@@ -8776,7 +8842,7 @@
         <v>2.7</v>
       </c>
       <c r="T89" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="32.1" customHeight="1">
@@ -8784,7 +8850,7 @@
         <v>45</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C90" s="54">
         <v>45839</v>
@@ -8853,7 +8919,7 @@
         <v>46</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C91" s="54">
         <v>45870</v>
@@ -8922,7 +8988,7 @@
         <v>45</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C92" s="54">
         <v>45870</v>
@@ -8991,7 +9057,7 @@
         <v>46</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C93" s="61">
         <v>45901</v>
@@ -9060,7 +9126,7 @@
         <v>45</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C94" s="54">
         <v>45901</v>
@@ -9129,7 +9195,7 @@
         <v>46</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C95" s="54">
         <v>45839</v>
@@ -9198,7 +9264,7 @@
         <v>45</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C96" s="54">
         <v>45839</v>
@@ -9267,7 +9333,7 @@
         <v>46</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C97" s="54">
         <v>45870</v>
@@ -9336,7 +9402,7 @@
         <v>45</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C98" s="54">
         <v>45870</v>
@@ -9405,7 +9471,7 @@
         <v>46</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C99" s="61">
         <v>45901</v>
@@ -9474,7 +9540,7 @@
         <v>45</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C100" s="54">
         <v>45901</v>
@@ -9543,7 +9609,7 @@
         <v>50</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C101" s="54">
         <v>45839</v>
@@ -9612,7 +9678,7 @@
         <v>48</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C102" s="54">
         <v>45839</v>
@@ -9681,7 +9747,7 @@
         <v>49</v>
       </c>
       <c r="B103" s="57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C103" s="54">
         <v>45839</v>
@@ -9750,7 +9816,7 @@
         <v>47</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C104" s="54">
         <v>45839</v>
@@ -9819,7 +9885,7 @@
         <v>50</v>
       </c>
       <c r="B105" s="57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C105" s="54">
         <v>45870</v>
@@ -9888,7 +9954,7 @@
         <v>48</v>
       </c>
       <c r="B106" s="57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C106" s="54">
         <v>45870</v>
@@ -9957,7 +10023,7 @@
         <v>49</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C107" s="54">
         <v>45870</v>
@@ -10026,7 +10092,7 @@
         <v>47</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C108" s="54">
         <v>45870</v>
@@ -10095,7 +10161,7 @@
         <v>50</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C109" s="61">
         <v>45901</v>
@@ -10164,7 +10230,7 @@
         <v>48</v>
       </c>
       <c r="B110" s="57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C110" s="61">
         <v>45901</v>
@@ -10233,7 +10299,7 @@
         <v>49</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C111" s="61">
         <v>45901</v>
@@ -10302,7 +10368,7 @@
         <v>47</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C112" s="61">
         <v>45901</v>
@@ -10371,7 +10437,7 @@
         <v>44</v>
       </c>
       <c r="B113" s="57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C113" s="54">
         <v>45839</v>
@@ -10440,7 +10506,7 @@
         <v>43</v>
       </c>
       <c r="B114" s="57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C114" s="54">
         <v>45839</v>
@@ -10509,7 +10575,7 @@
         <v>44</v>
       </c>
       <c r="B115" s="57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C115" s="54">
         <v>45870</v>
@@ -10578,7 +10644,7 @@
         <v>43</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C116" s="54">
         <v>45870</v>
@@ -10647,7 +10713,7 @@
         <v>44</v>
       </c>
       <c r="B117" s="57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C117" s="61">
         <v>45901</v>
@@ -10716,7 +10782,7 @@
         <v>43</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C118" s="61">
         <v>45901</v>
@@ -10785,7 +10851,7 @@
         <v>41</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C119" s="54">
         <v>45839</v>
@@ -10854,7 +10920,7 @@
         <v>40</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C120" s="54">
         <v>45839</v>
@@ -10923,7 +10989,7 @@
         <v>42</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C121" s="54">
         <v>45839</v>
@@ -10992,7 +11058,7 @@
         <v>41</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C122" s="54">
         <v>45870</v>
@@ -11061,7 +11127,7 @@
         <v>40</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C123" s="54">
         <v>45870</v>
@@ -11130,7 +11196,7 @@
         <v>42</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C124" s="54">
         <v>45870</v>
@@ -11199,7 +11265,7 @@
         <v>38</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C125" s="54">
         <v>45839</v>
@@ -11268,7 +11334,7 @@
         <v>39</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C126" s="54">
         <v>45839</v>
@@ -11337,7 +11403,7 @@
         <v>38</v>
       </c>
       <c r="B127" s="57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C127" s="61">
         <v>45870</v>
@@ -11406,7 +11472,7 @@
         <v>39</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C128" s="54">
         <v>45870</v>
@@ -11475,7 +11541,7 @@
         <v>38</v>
       </c>
       <c r="B129" s="57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C129" s="61">
         <v>45901</v>
@@ -11544,7 +11610,7 @@
         <v>39</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C130" s="54">
         <v>45901</v>
@@ -11613,7 +11679,7 @@
         <v>35</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C131" s="54">
         <v>45839</v>
@@ -11682,7 +11748,7 @@
         <v>36</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C132" s="54">
         <v>45839</v>
@@ -11751,7 +11817,7 @@
         <v>35</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C133" s="61">
         <v>45870</v>
@@ -11820,7 +11886,7 @@
         <v>36</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C134" s="54">
         <v>45870</v>
@@ -11889,7 +11955,7 @@
         <v>35</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C135" s="61">
         <v>45901</v>
@@ -11958,7 +12024,7 @@
         <v>36</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C136" s="54">
         <v>45901</v>
@@ -12027,7 +12093,7 @@
         <v>34</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C137" s="61">
         <v>45839</v>
@@ -12096,7 +12162,7 @@
         <v>34</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C138" s="61">
         <v>45870</v>
@@ -12165,7 +12231,7 @@
         <v>34</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C139" s="61">
         <v>45901</v>
@@ -12234,7 +12300,7 @@
         <v>14</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C140" s="61">
         <v>45839</v>
@@ -12303,7 +12369,7 @@
         <v>14</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C141" s="61">
         <v>45870</v>
@@ -12372,7 +12438,7 @@
         <v>14</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C142" s="61">
         <v>45901</v>
@@ -12441,7 +12507,7 @@
         <v>74</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C143" s="61">
         <v>45922</v>
@@ -12504,7 +12570,7 @@
         <v>13.5</v>
       </c>
       <c r="T143" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="32.1" customHeight="1">
@@ -12512,7 +12578,7 @@
         <v>74</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C144" s="61">
         <v>45922</v>
@@ -12575,7 +12641,7 @@
         <v>13.5</v>
       </c>
       <c r="T144" s="44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:20" ht="32.1" customHeight="1">
@@ -12583,7 +12649,7 @@
         <v>31</v>
       </c>
       <c r="B145" s="57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C145" s="61">
         <v>45930</v>
@@ -12646,7 +12712,7 @@
         <v>11.1</v>
       </c>
       <c r="T145" s="44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="32.1" customHeight="1">
@@ -12654,7 +12720,7 @@
         <v>31</v>
       </c>
       <c r="B146" s="57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C146" s="61">
         <v>45930</v>
@@ -12717,29 +12783,1141 @@
         <v>6.1</v>
       </c>
       <c r="T146" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A147" s="62">
+        <v>53</v>
+      </c>
+      <c r="B147" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C147" s="54">
+        <v>45901</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G147" s="10">
+        <v>316</v>
+      </c>
+      <c r="H147" s="31">
+        <v>326</v>
+      </c>
+      <c r="I147" s="35">
+        <v>33</v>
+      </c>
+      <c r="J147" s="12">
+        <v>0</v>
+      </c>
+      <c r="K147" s="41">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L147" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>103.16455696202532</v>
+      </c>
+      <c r="M147" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>10.443037974683545</v>
+      </c>
+      <c r="N147" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>10.122699386503067</v>
+      </c>
+      <c r="O147" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>60.988323185386967</v>
+      </c>
+      <c r="P147" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q147" s="15">
+        <v>0</v>
+      </c>
+      <c r="R147" s="17">
+        <v>0</v>
+      </c>
+      <c r="S147" s="17">
+        <v>0</v>
+      </c>
+      <c r="T147" s="50"/>
+    </row>
+    <row r="148" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A148" s="62">
+        <v>51</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C148" s="54">
+        <v>45901</v>
+      </c>
+      <c r="D148" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G148" s="14">
+        <v>48</v>
+      </c>
+      <c r="H148" s="30">
+        <v>36</v>
+      </c>
+      <c r="I148" s="34">
+        <v>2</v>
+      </c>
+      <c r="J148" s="17">
+        <v>0</v>
+      </c>
+      <c r="K148" s="41">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L148" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>75</v>
+      </c>
+      <c r="M148" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="N148" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="O148" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>41.232638888888893</v>
+      </c>
+      <c r="P148" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q148" s="15">
+        <v>0</v>
+      </c>
+      <c r="R148" s="17">
+        <v>0</v>
+      </c>
+      <c r="S148" s="17">
+        <v>0</v>
+      </c>
+      <c r="T148" s="50"/>
+    </row>
+    <row r="149" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A149" s="62">
+        <v>53</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C149" s="54">
+        <v>45870</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F149" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G149" s="14">
+        <v>846</v>
+      </c>
+      <c r="H149" s="30">
+        <v>673</v>
+      </c>
+      <c r="I149" s="34">
+        <v>64</v>
+      </c>
+      <c r="J149" s="17">
+        <v>8</v>
+      </c>
+      <c r="K149" s="41">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.94562647754137119</v>
+      </c>
+      <c r="L149" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>79.550827423167846</v>
+      </c>
+      <c r="M149" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>7.5650118203309695</v>
+      </c>
+      <c r="N149" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>9.5096582466567607</v>
+      </c>
+      <c r="O149" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>44.961828434742273</v>
+      </c>
+      <c r="P149" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q149" s="15">
+        <v>0</v>
+      </c>
+      <c r="R149" s="17">
+        <v>0</v>
+      </c>
+      <c r="S149" s="17">
+        <v>0</v>
+      </c>
+      <c r="T149" s="50"/>
+    </row>
+    <row r="150" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A150" s="62">
+        <v>51</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C150" s="54">
+        <v>45870</v>
+      </c>
+      <c r="D150" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G150" s="10">
+        <v>106</v>
+      </c>
+      <c r="H150" s="31">
+        <v>63</v>
+      </c>
+      <c r="I150" s="35">
+        <v>5</v>
+      </c>
+      <c r="J150" s="12">
+        <v>1</v>
+      </c>
+      <c r="K150" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.94339622641509435</v>
+      </c>
+      <c r="L150" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>59.433962264150942</v>
+      </c>
+      <c r="M150" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.716981132075472</v>
+      </c>
+      <c r="N150" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>7.9365079365079358</v>
+      </c>
+      <c r="O150" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>31.701673193307226</v>
+      </c>
+      <c r="P150" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q150" s="15">
+        <v>0</v>
+      </c>
+      <c r="R150" s="17">
+        <v>0</v>
+      </c>
+      <c r="S150" s="17">
+        <v>0</v>
+      </c>
+      <c r="T150" s="45"/>
+    </row>
+    <row r="151" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A151" s="62">
+        <v>53</v>
+      </c>
+      <c r="B151" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C151" s="61">
+        <v>45839</v>
+      </c>
+      <c r="D151" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G151" s="10">
+        <v>507</v>
+      </c>
+      <c r="H151" s="31">
+        <v>572</v>
+      </c>
+      <c r="I151" s="35">
+        <v>69</v>
+      </c>
+      <c r="J151" s="12">
+        <v>0</v>
+      </c>
+      <c r="K151" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L151" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>112.82051282051282</v>
+      </c>
+      <c r="M151" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>13.609467455621301</v>
+      </c>
+      <c r="N151" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>12.062937062937063</v>
+      </c>
+      <c r="O151" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>64.535555477749384</v>
+      </c>
+      <c r="P151" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q151" s="15">
+        <v>0</v>
+      </c>
+      <c r="R151" s="17">
+        <v>0</v>
+      </c>
+      <c r="S151" s="17">
+        <v>0</v>
+      </c>
+      <c r="T151" s="45"/>
+    </row>
+    <row r="152" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A152" s="62">
+        <v>51</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C152" s="54">
+        <v>45839</v>
+      </c>
+      <c r="D152" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G152" s="14">
+        <v>67</v>
+      </c>
+      <c r="H152" s="30">
+        <v>55</v>
+      </c>
+      <c r="I152" s="34">
+        <v>0</v>
+      </c>
+      <c r="J152" s="17">
+        <v>0</v>
+      </c>
+      <c r="K152" s="41">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L152" s="64">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>82.089552238805979</v>
+      </c>
+      <c r="M152" s="65">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>0</v>
+      </c>
+      <c r="N152" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>0</v>
+      </c>
+      <c r="O152" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>41.044776119402989</v>
+      </c>
+      <c r="P152" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q152" s="15">
+        <v>0</v>
+      </c>
+      <c r="R152" s="17">
+        <v>0</v>
+      </c>
+      <c r="S152" s="17">
+        <v>0</v>
+      </c>
+      <c r="T152" s="50"/>
+    </row>
+    <row r="153" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A153" s="62">
+        <v>55</v>
+      </c>
+      <c r="B153" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C153" s="54">
+        <v>45901</v>
+      </c>
+      <c r="D153" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F153" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G153" s="10">
+        <v>50</v>
+      </c>
+      <c r="H153" s="31">
+        <v>41</v>
+      </c>
+      <c r="I153" s="35">
+        <v>1</v>
+      </c>
+      <c r="J153" s="12">
+        <v>0</v>
+      </c>
+      <c r="K153" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L153" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>82</v>
+      </c>
+      <c r="M153" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>2</v>
+      </c>
+      <c r="N153" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="O153" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>42.84</v>
+      </c>
+      <c r="P153" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q153" s="11">
+        <v>0</v>
+      </c>
+      <c r="R153" s="12">
+        <v>0</v>
+      </c>
+      <c r="S153" s="12">
+        <v>0</v>
+      </c>
+      <c r="T153" s="45"/>
+    </row>
+    <row r="154" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A154" s="62">
+        <v>54</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C154" s="54">
+        <v>45901</v>
+      </c>
+      <c r="D154" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F154" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G154" s="14">
+        <v>2266</v>
+      </c>
+      <c r="H154" s="30">
+        <v>1780</v>
+      </c>
+      <c r="I154" s="34">
+        <v>108</v>
+      </c>
+      <c r="J154" s="17">
+        <v>15</v>
+      </c>
+      <c r="K154" s="41">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.66195939982347751</v>
+      </c>
+      <c r="L154" s="64">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>78.552515445719322</v>
+      </c>
+      <c r="M154" s="65">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.7661076787290382</v>
+      </c>
+      <c r="N154" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>6.0674157303370784</v>
+      </c>
+      <c r="O154" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>42.320920409850054</v>
+      </c>
+      <c r="P154" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q154" s="15">
+        <v>0</v>
+      </c>
+      <c r="R154" s="17">
+        <v>0</v>
+      </c>
+      <c r="S154" s="17">
+        <v>0</v>
+      </c>
+      <c r="T154" s="50"/>
+    </row>
+    <row r="155" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A155" s="62">
+        <v>55</v>
+      </c>
+      <c r="B155" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C155" s="54">
+        <v>45870</v>
+      </c>
+      <c r="D155" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F155" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G155" s="10">
+        <v>254</v>
+      </c>
+      <c r="H155" s="31">
+        <v>114</v>
+      </c>
+      <c r="I155" s="35">
+        <v>12</v>
+      </c>
+      <c r="J155" s="12">
+        <v>1</v>
+      </c>
+      <c r="K155" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.39370078740157477</v>
+      </c>
+      <c r="L155" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>44.881889763779526</v>
+      </c>
+      <c r="M155" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="N155" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>10.526315789473683</v>
+      </c>
+      <c r="O155" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>25.187550375100749</v>
+      </c>
+      <c r="P155" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
+      </c>
+      <c r="Q155" s="11">
+        <v>0</v>
+      </c>
+      <c r="R155" s="12">
+        <v>0</v>
+      </c>
+      <c r="S155" s="12">
+        <v>0</v>
+      </c>
+      <c r="T155" s="45"/>
+    </row>
+    <row r="156" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A156" s="62">
+        <v>54</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C156" s="54">
+        <v>45870</v>
+      </c>
+      <c r="D156" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F156" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G156" s="14">
+        <v>4935</v>
+      </c>
+      <c r="H156" s="30">
+        <v>3424</v>
+      </c>
+      <c r="I156" s="34">
+        <v>242</v>
+      </c>
+      <c r="J156" s="17">
+        <v>17</v>
+      </c>
+      <c r="K156" s="41">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.34447821681864232</v>
+      </c>
+      <c r="L156" s="64">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>69.381965552178315</v>
+      </c>
+      <c r="M156" s="65">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.9037487335359673</v>
+      </c>
+      <c r="N156" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>7.0677570093457946</v>
+      </c>
+      <c r="O156" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.275293095961779</v>
+      </c>
+      <c r="P156" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q156" s="15">
+        <v>0</v>
+      </c>
+      <c r="R156" s="17">
+        <v>0</v>
+      </c>
+      <c r="S156" s="17">
+        <v>0</v>
+      </c>
+      <c r="T156" s="50"/>
+    </row>
+    <row r="157" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A157" s="62">
+        <v>55</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" s="61">
+        <v>45839</v>
+      </c>
+      <c r="D157" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G157" s="10">
+        <v>161</v>
+      </c>
+      <c r="H157" s="31">
+        <v>87</v>
+      </c>
+      <c r="I157" s="35">
+        <v>8</v>
+      </c>
+      <c r="J157" s="12">
+        <v>0</v>
+      </c>
+      <c r="K157" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L157" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>54.037267080745345</v>
+      </c>
+      <c r="M157" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="N157" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>9.1954022988505741</v>
+      </c>
+      <c r="O157" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.969098414413029</v>
+      </c>
+      <c r="P157" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q157" s="11">
+        <v>0</v>
+      </c>
+      <c r="R157" s="12">
+        <v>0</v>
+      </c>
+      <c r="S157" s="12">
+        <v>0</v>
+      </c>
+      <c r="T157" s="45"/>
+    </row>
+    <row r="158" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A158" s="62">
+        <v>54</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C158" s="54">
+        <v>45839</v>
+      </c>
+      <c r="D158" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E158" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G158" s="10">
+        <v>4141</v>
+      </c>
+      <c r="H158" s="31">
+        <v>3245</v>
+      </c>
+      <c r="I158" s="35">
+        <v>249</v>
+      </c>
+      <c r="J158" s="12">
+        <v>7</v>
+      </c>
+      <c r="K158" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.16904129437333978</v>
+      </c>
+      <c r="L158" s="58">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>78.362714320212518</v>
+      </c>
+      <c r="M158" s="59">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>6.0130403284230862</v>
+      </c>
+      <c r="N158" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>7.6733436055469948</v>
+      </c>
+      <c r="O158" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>44.386568812788013</v>
+      </c>
+      <c r="P158" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q158" s="11">
+        <v>0</v>
+      </c>
+      <c r="R158" s="12">
+        <v>0</v>
+      </c>
+      <c r="S158" s="12">
+        <v>0</v>
+      </c>
+      <c r="T158" s="45"/>
+    </row>
+    <row r="159" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A159" s="62">
+        <v>30</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C159" s="54">
+        <v>45933</v>
+      </c>
+      <c r="D159" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G159" s="14">
+        <v>910</v>
+      </c>
+      <c r="H159" s="30">
+        <v>521</v>
+      </c>
+      <c r="I159" s="34">
+        <v>35</v>
+      </c>
+      <c r="J159" s="17">
+        <v>0</v>
+      </c>
+      <c r="K159" s="41">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L159" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>57.252747252747248</v>
+      </c>
+      <c r="M159" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="N159" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>6.7178502879078703</v>
+      </c>
+      <c r="O159" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>31.724429416737109</v>
+      </c>
+      <c r="P159" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q159" s="15">
+        <v>86</v>
+      </c>
+      <c r="R159" s="17">
+        <v>10</v>
+      </c>
+      <c r="S159" s="17">
+        <v>4</v>
+      </c>
+      <c r="T159" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A160" s="62">
+        <v>30</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C160" s="54">
+        <v>45933</v>
+      </c>
+      <c r="D160" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G160" s="10">
+        <v>13333</v>
+      </c>
+      <c r="H160" s="31">
+        <v>7023</v>
+      </c>
+      <c r="I160" s="35">
         <v>165</v>
+      </c>
+      <c r="J160" s="12">
+        <v>4</v>
+      </c>
+      <c r="K160" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>3.0000750018750466E-2</v>
+      </c>
+      <c r="L160" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>52.673816845421143</v>
+      </c>
+      <c r="M160" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>1.2375309382734569</v>
+      </c>
+      <c r="N160" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>2.3494233233660831</v>
+      </c>
+      <c r="O160" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>27.229257195841512</v>
+      </c>
+      <c r="P160" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
+      </c>
+      <c r="Q160" s="11">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="R160" s="12">
+        <v>16.5</v>
+      </c>
+      <c r="S160" s="12">
+        <v>12.4</v>
+      </c>
+      <c r="T160" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A161" s="62">
+        <v>31</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C161" s="54">
+        <v>45936</v>
+      </c>
+      <c r="D161" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G161" s="14">
+        <v>221</v>
+      </c>
+      <c r="H161" s="30">
+        <v>144</v>
+      </c>
+      <c r="I161" s="34">
+        <v>1</v>
+      </c>
+      <c r="J161" s="17">
+        <v>1</v>
+      </c>
+      <c r="K161" s="41">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.45248868778280549</v>
+      </c>
+      <c r="L161" s="27">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>65.158371040723978</v>
+      </c>
+      <c r="M161" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>0.45248868778280549</v>
+      </c>
+      <c r="N161" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="O161" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>32.04889334780205</v>
+      </c>
+      <c r="P161" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q161" s="15">
+        <v>0</v>
+      </c>
+      <c r="R161" s="17">
+        <v>0</v>
+      </c>
+      <c r="S161" s="17">
+        <v>0</v>
+      </c>
+      <c r="T161" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A162" s="62">
+        <v>31</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C162" s="54">
+        <v>45936</v>
+      </c>
+      <c r="D162" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G162" s="10">
+        <v>9656</v>
+      </c>
+      <c r="H162" s="31">
+        <v>5855</v>
+      </c>
+      <c r="I162" s="35">
+        <v>41</v>
+      </c>
+      <c r="J162" s="12">
+        <v>2</v>
+      </c>
+      <c r="K162" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>2.0712510356255178E-2</v>
+      </c>
+      <c r="L162" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>60.635874067937031</v>
+      </c>
+      <c r="M162" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>0.42460646230323112</v>
+      </c>
+      <c r="N162" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>0.70025619128949623</v>
+      </c>
+      <c r="O162" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.618448617530024</v>
+      </c>
+      <c r="P162" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q162" s="11">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="R162" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="S162" s="12">
+        <v>14.7</v>
+      </c>
+      <c r="T162" s="44" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B46:B51">
-    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
-    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="auto">
+    <cfRule type="duplicateValues" dxfId="35" priority="9"/>
+    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="auto">
       <formula>NOT(ISERROR(SEARCH("auto",B46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="auto">
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="auto">
       <formula>NOT(ISERROR(SEARCH("auto",B52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/541e1d3f-d064-4e8c-ad26-a2f26946d5ec" xr:uid="{A0444A8C-B658-434F-912C-6E4903003899}"/>
@@ -12955,17 +14133,221 @@
     <hyperlink ref="B146" r:id="rId211" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/df121502-9927-4eed-8a89-998f44dfe2cb" xr:uid="{D51BF1B3-CB4F-4C37-97E4-0E8A747D3371}"/>
     <hyperlink ref="T145" r:id="rId212" xr:uid="{6D9DC780-9CDA-4D3F-B56F-0677CA3C5FB2}"/>
     <hyperlink ref="T146" r:id="rId213" xr:uid="{E660BB65-5617-4FC2-B761-2C921DC44FB7}"/>
+    <hyperlink ref="B147" r:id="rId214" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{787E3B42-1A34-460D-BCBD-6D1DEBA1028A}"/>
+    <hyperlink ref="B148" r:id="rId215" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" xr:uid="{CAB5B92A-46CB-4743-B631-1BDD2851A0CE}"/>
+    <hyperlink ref="B149" r:id="rId216" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{95384588-A5DD-422B-8251-86A1E34F35E7}"/>
+    <hyperlink ref="B150" r:id="rId217" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{690ACB40-AD80-4398-88D6-EF31DB93FD07}"/>
+    <hyperlink ref="B151" r:id="rId218" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{ACA5534A-56E5-44DB-8EBF-E9C689DD70E6}"/>
+    <hyperlink ref="B152" r:id="rId219" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{8FEB3484-B05E-47F9-99FD-554CD58C3EA1}"/>
+    <hyperlink ref="B153" r:id="rId220" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" xr:uid="{403A0435-2A6E-4B4F-AB1E-59A9DD3D7421}"/>
+    <hyperlink ref="B154" r:id="rId221" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" xr:uid="{70EDC27F-2DC1-4DB6-8815-947052CC4758}"/>
+    <hyperlink ref="B155" r:id="rId222" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" display="6 Month Tenure [Pre 17 Sep 2025]" xr:uid="{BAACE1B3-18DD-40D4-B9D4-9C9FFC7032EA}"/>
+    <hyperlink ref="B156" r:id="rId223" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" display="6 Month Tenure [Pre 17 Sept 2025]" xr:uid="{90BD2120-2520-423A-878B-E4198EC602E4}"/>
+    <hyperlink ref="B157:B158" r:id="rId224" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" display="6 Month Tenure [Pre 17 Sept 2025]" xr:uid="{011C95CE-D787-4DFF-A58A-52BB55F1A47F}"/>
+    <hyperlink ref="B159" r:id="rId225" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/9efc2441-6827-4717-9013-680afb8db7de" xr:uid="{95F5B5C6-E7F9-4F03-BCC3-72C6C47E693A}"/>
+    <hyperlink ref="B160" r:id="rId226" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/9efc2441-6827-4717-9013-680afb8db7de" xr:uid="{0A3ED4AD-923A-41AB-8AA4-552B42BFBC3C}"/>
+    <hyperlink ref="B161" r:id="rId227" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/745dc927-64df-462b-8819-760afc248605" xr:uid="{9CD36ECF-BF41-4F3E-9C75-670618C667D2}"/>
+    <hyperlink ref="B162" r:id="rId228" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/745dc927-64df-462b-8819-760afc248605" xr:uid="{3851E138-F07F-4299-82F1-CDACC7AB2D4F}"/>
+    <hyperlink ref="T159" r:id="rId229" xr:uid="{F2675824-1A9F-49D9-A78F-51A609CB7E9D}"/>
+    <hyperlink ref="T160" r:id="rId230" xr:uid="{76235692-6651-4E03-9AAE-80F4C54EA185}"/>
+    <hyperlink ref="T162" r:id="rId231" xr:uid="{B292C362-9C06-4B60-942C-245AE8714903}"/>
+    <hyperlink ref="T161" r:id="rId232" xr:uid="{EF137438-E2BA-480C-9EEA-2E208B2FF391}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId214"/>
+  <legacyDrawing r:id="rId233"/>
   <tableParts count="2">
-    <tablePart r:id="rId215"/>
-    <tablePart r:id="rId216"/>
+    <tablePart r:id="rId234"/>
+    <tablePart r:id="rId235"/>
   </tableParts>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D032122D-62FB-4739-852C-E4C2B771C8FF}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="72">
+        <v>53</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="54">
+        <v>45901</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="10">
+        <v>268</v>
+      </c>
+      <c r="H1" s="31">
+        <v>139</v>
+      </c>
+      <c r="I1" s="35">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12">
+        <v>1</v>
+      </c>
+      <c r="K1" s="42" t="e">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L1" s="7" t="e">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M1" s="37" t="e">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N1" s="48" t="e">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O1" s="48" t="e">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P1" s="48" t="e">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q1" s="11">
+        <v>0</v>
+      </c>
+      <c r="R1" s="12">
+        <v>0</v>
+      </c>
+      <c r="S1" s="12">
+        <v>0</v>
+      </c>
+      <c r="T1" s="45"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="72">
+        <v>51</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="54">
+        <v>45901</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="10">
+        <v>48</v>
+      </c>
+      <c r="H2" s="31">
+        <v>20</v>
+      </c>
+      <c r="I2" s="35">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="42">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>3.1367628607277286E-2</v>
+      </c>
+      <c r="L2" s="7">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>54.997908824759513</v>
+      </c>
+      <c r="M2" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>0.52279381012128812</v>
+      </c>
+      <c r="N2" s="48">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>0.95057034220532322</v>
+      </c>
+      <c r="O2" s="48">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>27.842745458581344</v>
+      </c>
+      <c r="P2" s="48" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <v>0</v>
+      </c>
+      <c r="S2" s="12">
+        <v>0</v>
+      </c>
+      <c r="T2" s="45"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:M2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" xr:uid="{5A4EA10E-7804-4E6D-8562-A00F2BA4F729}"/>
+    <hyperlink ref="B2" r:id="rId2" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" xr:uid="{715DA196-005C-4EF0-8D51-AB5D9B1793A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAB1339F159CD428AD0F5BA99C368F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f0c74bf1a42c2d75d8315edd8b34847e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0eeac73-9918-465e-bdd8-785547fbc2d9" xmlns:ns3="d777fa6b-bca0-4864-8d50-ac77b155e846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e574cbbd1e27f27e000ab280241298b2" ns2:_="" ns3:_="">
     <xsd:import namespace="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
@@ -13200,28 +14582,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13229,7 +14591,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFB8158-C1A2-453A-A951-1338C1FD9481}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/email-gallery/cbus/pages/dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25146704-2006-C54B-A45B-6E313049CCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CECDB8-EC7A-614B-A63C-449EF9069950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="244">
   <si>
     <t>img-id</t>
   </si>
@@ -1000,18 +1000,6 @@
   </si>
   <si>
     <t>https://litmus.com/folders/416254/emails/19414929/analytics</t>
-  </si>
-  <si>
-    <t>Media - 2025 Statements - RIE - Microsoft Version 1.0</t>
-  </si>
-  <si>
-    <t>Media - 2025 Statements - NON RIE - Microsoft Version 1.0</t>
-  </si>
-  <si>
-    <t>Tuesday, October 16, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, October 23, 2025</t>
   </si>
   <si>
     <t>Email - Cbus - 2025 Statements - 1.eDM [RIE - C]</t>
@@ -2932,11 +2920,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23CF1A7-A843-E143-B142-84B9EDCB7AA1}">
-  <dimension ref="A1:T238"/>
+  <dimension ref="A1:T224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A225" sqref="A225:XFD240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18389,271 +18377,6 @@
       <c r="H224" s="12"/>
       <c r="I224" s="12"/>
       <c r="J224" s="12"/>
-    </row>
-    <row r="225" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="12"/>
-      <c r="B225" s="12"/>
-      <c r="C225" s="12"/>
-      <c r="D225" s="136"/>
-      <c r="E225" s="136"/>
-      <c r="F225" s="136"/>
-      <c r="G225" s="12"/>
-      <c r="H225" s="12"/>
-      <c r="I225" s="12"/>
-      <c r="J225" s="12"/>
-    </row>
-    <row r="226" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="12"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="12"/>
-      <c r="D226" s="136"/>
-      <c r="E226" s="136"/>
-      <c r="F226" s="136"/>
-      <c r="G226" s="12"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="12"/>
-      <c r="J226" s="12"/>
-    </row>
-    <row r="227" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="136"/>
-      <c r="E227" s="136"/>
-      <c r="F227" s="136"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="12"/>
-      <c r="J227" s="12"/>
-    </row>
-    <row r="228" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="136"/>
-      <c r="E228" s="136"/>
-      <c r="F228" s="136"/>
-      <c r="G228" s="12"/>
-      <c r="H228" s="12"/>
-      <c r="I228" s="12"/>
-      <c r="J228" s="12"/>
-    </row>
-    <row r="229" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="12"/>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="136"/>
-      <c r="E229" s="136"/>
-      <c r="F229" s="136"/>
-      <c r="G229" s="12"/>
-      <c r="H229" s="12"/>
-      <c r="I229" s="12"/>
-      <c r="J229" s="12"/>
-    </row>
-    <row r="230" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="12"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="136"/>
-      <c r="E230" s="136"/>
-      <c r="F230" s="136"/>
-      <c r="G230" s="12"/>
-      <c r="H230" s="12"/>
-      <c r="I230" s="12"/>
-      <c r="J230" s="12"/>
-    </row>
-    <row r="231" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="12"/>
-      <c r="B231" s="12"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="136"/>
-      <c r="E231" s="136"/>
-      <c r="F231" s="136"/>
-      <c r="G231" s="12"/>
-      <c r="H231" s="12"/>
-      <c r="I231" s="12"/>
-      <c r="J231" s="12"/>
-    </row>
-    <row r="232" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="12"/>
-      <c r="B232" s="12"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="136"/>
-      <c r="E232" s="136"/>
-      <c r="F232" s="136"/>
-      <c r="G232" s="12"/>
-      <c r="H232" s="12"/>
-      <c r="I232" s="12"/>
-      <c r="J232" s="12"/>
-    </row>
-    <row r="233" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="136"/>
-      <c r="E233" s="136"/>
-      <c r="F233" s="136"/>
-      <c r="G233" s="12"/>
-      <c r="H233" s="12"/>
-      <c r="I233" s="12"/>
-      <c r="J233" s="12"/>
-    </row>
-    <row r="234" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="81">
-        <v>76</v>
-      </c>
-      <c r="B234" s="100" t="s">
-        <v>235</v>
-      </c>
-      <c r="C234" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="D234" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="E234" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="F234" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G234" s="100">
-        <v>5665</v>
-      </c>
-      <c r="H234" s="100">
-        <v>3502</v>
-      </c>
-      <c r="I234" s="100">
-        <v>1556</v>
-      </c>
-      <c r="J234" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="81">
-        <v>76</v>
-      </c>
-      <c r="B235" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="C235" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="D235" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="E235" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="F235" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G235" s="100">
-        <v>4216</v>
-      </c>
-      <c r="H235" s="100">
-        <v>2280</v>
-      </c>
-      <c r="I235" s="100">
-        <v>880</v>
-      </c>
-      <c r="J235" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="81">
-        <v>73</v>
-      </c>
-      <c r="B236" s="100" t="s">
-        <v>232</v>
-      </c>
-      <c r="C236" s="100" t="s">
-        <v>237</v>
-      </c>
-      <c r="D236" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="E236" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="F236" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G236" s="100">
-        <v>14</v>
-      </c>
-      <c r="H236" s="100">
-        <v>10</v>
-      </c>
-      <c r="I236" s="100">
-        <v>3</v>
-      </c>
-      <c r="J236" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="100" t="s">
-        <v>229</v>
-      </c>
-      <c r="C237" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="D237" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="E237" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="F237" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G237" s="100">
-        <v>7</v>
-      </c>
-      <c r="H237" s="100">
-        <v>7</v>
-      </c>
-      <c r="I237" s="100">
-        <v>5</v>
-      </c>
-      <c r="J237" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="81">
-        <v>76</v>
-      </c>
-      <c r="B238" s="100" t="s">
-        <v>231</v>
-      </c>
-      <c r="C238" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="D238" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="E238" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="F238" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G238" s="100">
-        <v>5</v>
-      </c>
-      <c r="H238" s="100">
-        <v>5</v>
-      </c>
-      <c r="I238" s="100">
-        <v>2</v>
-      </c>
-      <c r="J238" s="100">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C200:C205">
@@ -19007,7 +18730,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="103" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C1" s="104" t="s">
         <v>222</v>
@@ -19078,7 +18801,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="113" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C2" s="114" t="s">
         <v>222</v>
@@ -19149,7 +18872,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="116" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C3" s="104" t="s">
         <v>222</v>
@@ -19220,7 +18943,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="113" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C4" s="114" t="s">
         <v>222</v>
@@ -19291,7 +19014,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C5" s="104" t="s">
         <v>222</v>
@@ -19362,7 +19085,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C6" s="114" t="s">
         <v>222</v>
@@ -19433,7 +19156,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C7" s="104" t="s">
         <v>222</v>
@@ -19504,7 +19227,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="113" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C8" s="114" t="s">
         <v>222</v>
@@ -19575,7 +19298,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="126" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C9" s="127" t="s">
         <v>233</v>
@@ -19667,14 +19390,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19913,21 +19634,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d777fa6b-bca0-4864-8d50-ac77b155e846"/>
-    <ds:schemaRef ds:uri="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19952,9 +19672,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d777fa6b-bca0-4864-8d50-ac77b155e846"/>
+    <ds:schemaRef ds:uri="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/email-gallery/cbus/pages/dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65E0296A-4DEA-4148-A50A-10E480F5EDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72539A75-3306-914A-9034-1819F92BF4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
   <sheets>
     <sheet name="FY-ajo-report" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1231,17 +1231,20 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1261,6 +1264,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1513,7 +1517,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
@@ -1927,12 +1931,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1943,7 +1941,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{770A8CE4-86FC-45BF-95B8-E1D8E67E3936}"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="36">
     <dxf>
       <font>
         <b/>
@@ -1959,6 +1957,71 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2545,13 +2608,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="2"/>
         </left>
@@ -2586,6 +2642,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2614,78 +2677,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2700,47 +2691,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="A1:T266" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="A1:T266" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
   <autoFilter ref="A1:T266" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T164">
     <sortCondition ref="C1:C164"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="20" xr3:uid="{66E4B416-ED24-47A6-B9F0-5E9B6DD250F2}" name="img-id" dataDxfId="21" dataCellStyle="Hyperlink"/>
-    <tableColumn id="1" xr3:uid="{592A3136-8A60-4650-9DF6-CD74A33464B1}" name="name" dataDxfId="20" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{1F194343-9489-4FF7-8BA8-8FE4AD211F8B}" name="date" dataDxfId="19" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{613F8D1F-C5D7-46FB-834A-5183617D5BF8}" name="brand" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{39913B7C-CBB3-470C-8F4E-6888A201DA8B}" name="type" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{DAD37DCA-0435-441A-B8E1-5FE82B0D8B9D}" name="send-type" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{0D81733F-25B3-4A7C-B3C0-DFE06A90464F}" name="unique-sends" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{274A7B85-7FDE-4D40-8515-C885EF39314B}" name="unique-opens" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{C860F744-163F-46E0-BC1A-15DDD6121358}" name="unique-clicks" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{A71DAAD5-121C-41AC-A08E-BF363CF89DFE}" name="unsub" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{3E23A808-3FEF-4D90-BACE-62A3345A0868}" name="unsub-pc" dataDxfId="11">
+    <tableColumn id="20" xr3:uid="{66E4B416-ED24-47A6-B9F0-5E9B6DD250F2}" name="img-id" dataDxfId="31" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{592A3136-8A60-4650-9DF6-CD74A33464B1}" name="name" dataDxfId="30" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{1F194343-9489-4FF7-8BA8-8FE4AD211F8B}" name="date" dataDxfId="29" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{613F8D1F-C5D7-46FB-834A-5183617D5BF8}" name="brand" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{39913B7C-CBB3-470C-8F4E-6888A201DA8B}" name="type" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{DAD37DCA-0435-441A-B8E1-5FE82B0D8B9D}" name="send-type" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{0D81733F-25B3-4A7C-B3C0-DFE06A90464F}" name="unique-sends" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{274A7B85-7FDE-4D40-8515-C885EF39314B}" name="unique-opens" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{C860F744-163F-46E0-BC1A-15DDD6121358}" name="unique-clicks" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{A71DAAD5-121C-41AC-A08E-BF363CF89DFE}" name="unsub" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{3E23A808-3FEF-4D90-BACE-62A3345A0868}" name="unsub-pc" dataDxfId="21">
       <calculatedColumnFormula>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E7D2EFD0-301C-4002-8501-CE02665F086E}" name="unique-opens-pc" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{E7D2EFD0-301C-4002-8501-CE02665F086E}" name="unique-opens-pc" dataDxfId="20">
       <calculatedColumnFormula>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FE8ED384-E8DC-43C9-9628-C6A9E5DFA5BE}" name="unique-clicks-pc" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{FE8ED384-E8DC-43C9-9628-C6A9E5DFA5BE}" name="unique-clicks-pc" dataDxfId="19">
       <calculatedColumnFormula>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E60FB7EF-7008-49DF-B5E7-A73B4E9595D4}" name="ctor-pc" dataDxfId="8">
+    <tableColumn id="17" xr3:uid="{E60FB7EF-7008-49DF-B5E7-A73B4E9595D4}" name="ctor-pc" dataDxfId="18">
       <calculatedColumnFormula>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{EA74FC93-B969-4F46-9C49-8927D6B3A01B}" name="Engagement Score" dataDxfId="7">
+    <tableColumn id="18" xr3:uid="{EA74FC93-B969-4F46-9C49-8927D6B3A01B}" name="Engagement Score" dataDxfId="17">
       <calculatedColumnFormula>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
  + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
  * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
  - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{E01D85AE-C032-4929-BBDB-DEDD7A99ADE8}" name="Traffic Light" dataDxfId="6">
+    <tableColumn id="19" xr3:uid="{E01D85AE-C032-4929-BBDB-DEDD7A99ADE8}" name="Traffic Light" dataDxfId="16">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3CA46112-C95F-E64B-A58D-81BDEBF2FDC4}" name="read-over-8s" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{985DCAD1-25BF-804E-9E49-5E19FC44B93C}" name="read-under-8s" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{986830C2-C7E6-C645-8ACD-C78E1B2E462F}" name="read-under-2s" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{D273CFB9-324F-4CB2-B1BA-58EEE2D8C50F}" name="Litmus-tacking-id" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{3CA46112-C95F-E64B-A58D-81BDEBF2FDC4}" name="read-over-8s" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{985DCAD1-25BF-804E-9E49-5E19FC44B93C}" name="read-under-8s" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{986830C2-C7E6-C645-8ACD-C78E1B2E462F}" name="read-under-2s" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{D273CFB9-324F-4CB2-B1BA-58EEE2D8C50F}" name="Litmus-tacking-id" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3066,34 +3057,34 @@
   <dimension ref="A1:T266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="K255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S267" sqref="S267"/>
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="83" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="83" customWidth="1"/>
     <col min="2" max="2" width="59" style="147" customWidth="1"/>
-    <col min="3" max="3" width="28.875" style="71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="42" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="43" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="43" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="18" customWidth="1"/>
-    <col min="12" max="12" width="18.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="21" style="32" customWidth="1"/>
-    <col min="16" max="16" width="13.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="132" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="74.625" style="133" customWidth="1"/>
-    <col min="21" max="16384" width="10.875" style="12"/>
+    <col min="16" max="16" width="13.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" style="132" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="74.6640625" style="133" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="32.1" customHeight="1">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="32.1" customHeight="1">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="72">
         <v>14</v>
       </c>
@@ -3224,7 +3215,7 @@
       </c>
       <c r="T2" s="128"/>
     </row>
-    <row r="3" spans="1:20" ht="32.1" customHeight="1">
+    <row r="3" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="73">
         <v>31</v>
       </c>
@@ -3295,7 +3286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="32.1" customHeight="1">
+    <row r="4" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="73">
         <v>31</v>
       </c>
@@ -3366,7 +3357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="32.1" customHeight="1">
+    <row r="5" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="74">
         <v>34</v>
       </c>
@@ -3435,7 +3426,7 @@
       </c>
       <c r="T5" s="88"/>
     </row>
-    <row r="6" spans="1:20" ht="32.1" customHeight="1">
+    <row r="6" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="74">
         <v>35</v>
       </c>
@@ -3504,7 +3495,7 @@
       </c>
       <c r="T6" s="88"/>
     </row>
-    <row r="7" spans="1:20" ht="32.1" customHeight="1">
+    <row r="7" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="75">
         <v>36</v>
       </c>
@@ -3573,7 +3564,7 @@
       </c>
       <c r="T7" s="88"/>
     </row>
-    <row r="8" spans="1:20" ht="32.1" customHeight="1">
+    <row r="8" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="74">
         <v>38</v>
       </c>
@@ -3642,7 +3633,7 @@
       </c>
       <c r="T8" s="88"/>
     </row>
-    <row r="9" spans="1:20" ht="32.1" customHeight="1">
+    <row r="9" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="75">
         <v>38</v>
       </c>
@@ -3711,7 +3702,7 @@
       </c>
       <c r="T9" s="88"/>
     </row>
-    <row r="10" spans="1:20" ht="32.1" customHeight="1">
+    <row r="10" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="74">
         <v>39</v>
       </c>
@@ -3780,7 +3771,7 @@
       </c>
       <c r="T10" s="88"/>
     </row>
-    <row r="11" spans="1:20" ht="32.1" customHeight="1">
+    <row r="11" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="75">
         <v>39</v>
       </c>
@@ -3849,7 +3840,7 @@
       </c>
       <c r="T11" s="88"/>
     </row>
-    <row r="12" spans="1:20" ht="32.1" customHeight="1">
+    <row r="12" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74">
         <v>40</v>
       </c>
@@ -3918,7 +3909,7 @@
       </c>
       <c r="T12" s="88"/>
     </row>
-    <row r="13" spans="1:20" ht="32.1" customHeight="1">
+    <row r="13" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74">
         <v>41</v>
       </c>
@@ -3987,7 +3978,7 @@
       </c>
       <c r="T13" s="88"/>
     </row>
-    <row r="14" spans="1:20" ht="32.1" customHeight="1">
+    <row r="14" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="75">
         <v>42</v>
       </c>
@@ -4056,7 +4047,7 @@
       </c>
       <c r="T14" s="88"/>
     </row>
-    <row r="15" spans="1:20" ht="32.1" customHeight="1">
+    <row r="15" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="75">
         <v>43</v>
       </c>
@@ -4125,7 +4116,7 @@
       </c>
       <c r="T15" s="88"/>
     </row>
-    <row r="16" spans="1:20" ht="32.1" customHeight="1">
+    <row r="16" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74">
         <v>44</v>
       </c>
@@ -4194,7 +4185,7 @@
       </c>
       <c r="T16" s="88"/>
     </row>
-    <row r="17" spans="1:20" ht="32.1" customHeight="1">
+    <row r="17" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74">
         <v>45</v>
       </c>
@@ -4263,7 +4254,7 @@
       </c>
       <c r="T17" s="88"/>
     </row>
-    <row r="18" spans="1:20" ht="32.1" customHeight="1">
+    <row r="18" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74">
         <v>45</v>
       </c>
@@ -4332,7 +4323,7 @@
       </c>
       <c r="T18" s="88"/>
     </row>
-    <row r="19" spans="1:20" ht="32.1" customHeight="1">
+    <row r="19" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="75">
         <v>46</v>
       </c>
@@ -4403,7 +4394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="32.1" customHeight="1">
+    <row r="20" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="75">
         <v>46</v>
       </c>
@@ -4472,7 +4463,7 @@
       </c>
       <c r="T20" s="88"/>
     </row>
-    <row r="21" spans="1:20" ht="32.1" customHeight="1">
+    <row r="21" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="75">
         <v>47</v>
       </c>
@@ -4541,7 +4532,7 @@
       </c>
       <c r="T21" s="88"/>
     </row>
-    <row r="22" spans="1:20" ht="32.1" customHeight="1">
+    <row r="22" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="75">
         <v>48</v>
       </c>
@@ -4610,7 +4601,7 @@
       </c>
       <c r="T22" s="88"/>
     </row>
-    <row r="23" spans="1:20" ht="32.1" customHeight="1">
+    <row r="23" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74">
         <v>49</v>
       </c>
@@ -4679,7 +4670,7 @@
       </c>
       <c r="T23" s="88"/>
     </row>
-    <row r="24" spans="1:20" ht="32.1" customHeight="1">
+    <row r="24" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74">
         <v>50</v>
       </c>
@@ -4748,7 +4739,7 @@
       </c>
       <c r="T24" s="88"/>
     </row>
-    <row r="25" spans="1:20" ht="32.1" customHeight="1">
+    <row r="25" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74">
         <v>51</v>
       </c>
@@ -4817,7 +4808,7 @@
       </c>
       <c r="T25" s="88"/>
     </row>
-    <row r="26" spans="1:20" ht="32.1" customHeight="1">
+    <row r="26" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="75">
         <v>53</v>
       </c>
@@ -4886,7 +4877,7 @@
       </c>
       <c r="T26" s="88"/>
     </row>
-    <row r="27" spans="1:20" ht="32.1" customHeight="1">
+    <row r="27" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75">
         <v>54</v>
       </c>
@@ -4955,7 +4946,7 @@
       </c>
       <c r="T27" s="130"/>
     </row>
-    <row r="28" spans="1:20" ht="32.1" customHeight="1">
+    <row r="28" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75">
         <v>55</v>
       </c>
@@ -5024,7 +5015,7 @@
       </c>
       <c r="T28" s="130"/>
     </row>
-    <row r="29" spans="1:20" ht="32.1" customHeight="1">
+    <row r="29" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="76">
         <v>30</v>
       </c>
@@ -5095,7 +5086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="32.1" customHeight="1">
+    <row r="30" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="76">
         <v>30</v>
       </c>
@@ -5166,7 +5157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="32.1" customHeight="1">
+    <row r="31" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="76">
         <v>30</v>
       </c>
@@ -5237,7 +5228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="32.1" customHeight="1">
+    <row r="32" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="76">
         <v>30</v>
       </c>
@@ -5308,7 +5299,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="32.1" customHeight="1">
+    <row r="33" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="76">
         <v>31</v>
       </c>
@@ -5379,7 +5370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="32.1" customHeight="1">
+    <row r="34" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="76">
         <v>31</v>
       </c>
@@ -5450,7 +5441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="32.1" customHeight="1">
+    <row r="35" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="76">
         <v>30</v>
       </c>
@@ -5521,7 +5512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="32.1" customHeight="1">
+    <row r="36" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="76">
         <v>30</v>
       </c>
@@ -5592,7 +5583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="32.1" customHeight="1">
+    <row r="37" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="76">
         <v>5</v>
       </c>
@@ -5661,7 +5652,7 @@
       </c>
       <c r="T37" s="88"/>
     </row>
-    <row r="38" spans="1:20" ht="32.1" customHeight="1">
+    <row r="38" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="76">
         <v>61</v>
       </c>
@@ -5730,7 +5721,7 @@
       </c>
       <c r="T38" s="130"/>
     </row>
-    <row r="39" spans="1:20" ht="32.1" customHeight="1">
+    <row r="39" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="76">
         <v>62</v>
       </c>
@@ -5801,7 +5792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="32.1" customHeight="1">
+    <row r="40" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="76">
         <v>63</v>
       </c>
@@ -5870,7 +5861,7 @@
       </c>
       <c r="T40" s="130"/>
     </row>
-    <row r="41" spans="1:20" ht="32.1" customHeight="1">
+    <row r="41" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="76">
         <v>31</v>
       </c>
@@ -5941,7 +5932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="32.1" customHeight="1">
+    <row r="42" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="76">
         <v>31</v>
       </c>
@@ -6012,7 +6003,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="32.1" customHeight="1">
+    <row r="43" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="76">
         <v>77</v>
       </c>
@@ -6081,7 +6072,7 @@
       </c>
       <c r="T43" s="88"/>
     </row>
-    <row r="44" spans="1:20" ht="32.1" customHeight="1">
+    <row r="44" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="76">
         <v>31</v>
       </c>
@@ -6152,7 +6143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="32.1" customHeight="1">
+    <row r="45" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="76">
         <v>31</v>
       </c>
@@ -6223,7 +6214,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="32.1" customHeight="1">
+    <row r="46" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="77">
         <v>30</v>
       </c>
@@ -6292,7 +6283,7 @@
       </c>
       <c r="T46" s="130"/>
     </row>
-    <row r="47" spans="1:20" ht="32.1" customHeight="1">
+    <row r="47" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="77">
         <v>30</v>
       </c>
@@ -6361,7 +6352,7 @@
       </c>
       <c r="T47" s="130"/>
     </row>
-    <row r="48" spans="1:20" ht="32.1" customHeight="1">
+    <row r="48" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="77">
         <v>30</v>
       </c>
@@ -6430,7 +6421,7 @@
       </c>
       <c r="T48" s="130"/>
     </row>
-    <row r="49" spans="1:20" ht="32.1" customHeight="1">
+    <row r="49" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="76">
         <v>30</v>
       </c>
@@ -6499,7 +6490,7 @@
       </c>
       <c r="T49" s="130"/>
     </row>
-    <row r="50" spans="1:20" ht="32.1" customHeight="1">
+    <row r="50" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="76">
         <v>31</v>
       </c>
@@ -6570,7 +6561,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="32.1" customHeight="1">
+    <row r="51" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="76">
         <v>31</v>
       </c>
@@ -6641,7 +6632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="32.1" customHeight="1">
+    <row r="52" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="75">
         <v>14</v>
       </c>
@@ -6710,7 +6701,7 @@
       </c>
       <c r="T52" s="130"/>
     </row>
-    <row r="53" spans="1:20" ht="32.1" customHeight="1">
+    <row r="53" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="75">
         <v>34</v>
       </c>
@@ -6779,7 +6770,7 @@
       </c>
       <c r="T53" s="130"/>
     </row>
-    <row r="54" spans="1:20" ht="32.1" customHeight="1">
+    <row r="54" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="75">
         <v>35</v>
       </c>
@@ -6848,7 +6839,7 @@
       </c>
       <c r="T54" s="130"/>
     </row>
-    <row r="55" spans="1:20" ht="32.1" customHeight="1">
+    <row r="55" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="75">
         <v>36</v>
       </c>
@@ -6917,7 +6908,7 @@
       </c>
       <c r="T55" s="130"/>
     </row>
-    <row r="56" spans="1:20" ht="32.1" customHeight="1">
+    <row r="56" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="75">
         <v>38</v>
       </c>
@@ -6986,7 +6977,7 @@
       </c>
       <c r="T56" s="88"/>
     </row>
-    <row r="57" spans="1:20" ht="32.1" customHeight="1">
+    <row r="57" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="75">
         <v>38</v>
       </c>
@@ -7055,7 +7046,7 @@
       </c>
       <c r="T57" s="88"/>
     </row>
-    <row r="58" spans="1:20" ht="32.1" customHeight="1">
+    <row r="58" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="75">
         <v>39</v>
       </c>
@@ -7124,7 +7115,7 @@
       </c>
       <c r="T58" s="130"/>
     </row>
-    <row r="59" spans="1:20" ht="32.1" customHeight="1">
+    <row r="59" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="75">
         <v>39</v>
       </c>
@@ -7193,7 +7184,7 @@
       </c>
       <c r="T59" s="88"/>
     </row>
-    <row r="60" spans="1:20" ht="32.1" customHeight="1">
+    <row r="60" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="75">
         <v>40</v>
       </c>
@@ -7262,7 +7253,7 @@
       </c>
       <c r="T60" s="88"/>
     </row>
-    <row r="61" spans="1:20" ht="32.1" customHeight="1">
+    <row r="61" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="75">
         <v>41</v>
       </c>
@@ -7331,7 +7322,7 @@
       </c>
       <c r="T61" s="130"/>
     </row>
-    <row r="62" spans="1:20" ht="32.1" customHeight="1">
+    <row r="62" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="75">
         <v>42</v>
       </c>
@@ -7400,7 +7391,7 @@
       </c>
       <c r="T62" s="88"/>
     </row>
-    <row r="63" spans="1:20" ht="32.1" customHeight="1">
+    <row r="63" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="75">
         <v>43</v>
       </c>
@@ -7469,7 +7460,7 @@
       </c>
       <c r="T63" s="130"/>
     </row>
-    <row r="64" spans="1:20" ht="32.1" customHeight="1">
+    <row r="64" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="75">
         <v>44</v>
       </c>
@@ -7538,7 +7529,7 @@
       </c>
       <c r="T64" s="130"/>
     </row>
-    <row r="65" spans="1:20" ht="32.1" customHeight="1">
+    <row r="65" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="75">
         <v>45</v>
       </c>
@@ -7607,7 +7598,7 @@
       </c>
       <c r="T65" s="130"/>
     </row>
-    <row r="66" spans="1:20" ht="32.1" customHeight="1">
+    <row r="66" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="75">
         <v>45</v>
       </c>
@@ -7676,7 +7667,7 @@
       </c>
       <c r="T66" s="130"/>
     </row>
-    <row r="67" spans="1:20" ht="32.1" customHeight="1">
+    <row r="67" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="75">
         <v>46</v>
       </c>
@@ -7745,7 +7736,7 @@
       </c>
       <c r="T67" s="130"/>
     </row>
-    <row r="68" spans="1:20" ht="32.1" customHeight="1">
+    <row r="68" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="75">
         <v>46</v>
       </c>
@@ -7814,7 +7805,7 @@
       </c>
       <c r="T68" s="130"/>
     </row>
-    <row r="69" spans="1:20" ht="32.1" customHeight="1">
+    <row r="69" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="75">
         <v>47</v>
       </c>
@@ -7883,7 +7874,7 @@
       </c>
       <c r="T69" s="130"/>
     </row>
-    <row r="70" spans="1:20" ht="32.1" customHeight="1">
+    <row r="70" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="75">
         <v>48</v>
       </c>
@@ -7952,7 +7943,7 @@
       </c>
       <c r="T70" s="88"/>
     </row>
-    <row r="71" spans="1:20" ht="32.1" customHeight="1">
+    <row r="71" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="75">
         <v>49</v>
       </c>
@@ -8021,7 +8012,7 @@
       </c>
       <c r="T71" s="130"/>
     </row>
-    <row r="72" spans="1:20" ht="32.1" customHeight="1">
+    <row r="72" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="75">
         <v>50</v>
       </c>
@@ -8090,7 +8081,7 @@
       </c>
       <c r="T72" s="88"/>
     </row>
-    <row r="73" spans="1:20" ht="32.1" customHeight="1">
+    <row r="73" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="75">
         <v>51</v>
       </c>
@@ -8159,7 +8150,7 @@
       </c>
       <c r="T73" s="130"/>
     </row>
-    <row r="74" spans="1:20" ht="32.1" customHeight="1">
+    <row r="74" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="75">
         <v>53</v>
       </c>
@@ -8228,7 +8219,7 @@
       </c>
       <c r="T74" s="88"/>
     </row>
-    <row r="75" spans="1:20" ht="32.1" customHeight="1">
+    <row r="75" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="75">
         <v>54</v>
       </c>
@@ -8297,7 +8288,7 @@
       </c>
       <c r="T75" s="130"/>
     </row>
-    <row r="76" spans="1:20" ht="32.1" customHeight="1">
+    <row r="76" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="75">
         <v>55</v>
       </c>
@@ -8366,7 +8357,7 @@
       </c>
       <c r="T76" s="88"/>
     </row>
-    <row r="77" spans="1:20" ht="32.1" customHeight="1">
+    <row r="77" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="75">
         <v>61</v>
       </c>
@@ -8437,7 +8428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="32.1" customHeight="1">
+    <row r="78" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="75">
         <v>61</v>
       </c>
@@ -8508,7 +8499,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="32.1" customHeight="1">
+    <row r="79" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="75">
         <v>61</v>
       </c>
@@ -8579,7 +8570,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="32.1" customHeight="1">
+    <row r="80" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="75">
         <v>30</v>
       </c>
@@ -8650,7 +8641,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="32.1" customHeight="1">
+    <row r="81" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="75">
         <v>30</v>
       </c>
@@ -8721,7 +8712,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="32.1" customHeight="1">
+    <row r="82" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="75">
         <v>31</v>
       </c>
@@ -8792,7 +8783,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="32.1" customHeight="1">
+    <row r="83" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="75">
         <v>31</v>
       </c>
@@ -8863,7 +8854,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="32.1" customHeight="1">
+    <row r="84" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="75">
         <v>30</v>
       </c>
@@ -8934,7 +8925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="32.1" customHeight="1">
+    <row r="85" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="75">
         <v>31</v>
       </c>
@@ -9005,7 +8996,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="32.1" customHeight="1">
+    <row r="86" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="75">
         <v>31</v>
       </c>
@@ -9076,7 +9067,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="32.1" customHeight="1">
+    <row r="87" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="75">
         <v>30</v>
       </c>
@@ -9147,7 +9138,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="32.1" customHeight="1">
+    <row r="88" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="75">
         <v>30</v>
       </c>
@@ -9218,7 +9209,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="32.1" customHeight="1">
+    <row r="89" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="75">
         <v>78</v>
       </c>
@@ -9289,7 +9280,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="32.1" customHeight="1">
+    <row r="90" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="75">
         <v>30</v>
       </c>
@@ -9360,7 +9351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="32.1" customHeight="1">
+    <row r="91" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="75">
         <v>30</v>
       </c>
@@ -9431,7 +9422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="32.1" customHeight="1">
+    <row r="92" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="75">
         <v>31</v>
       </c>
@@ -9502,7 +9493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="32.1" customHeight="1">
+    <row r="93" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="75">
         <v>5</v>
       </c>
@@ -9571,7 +9562,7 @@
       </c>
       <c r="T93" s="88"/>
     </row>
-    <row r="94" spans="1:20" ht="32.1" customHeight="1">
+    <row r="94" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="75">
         <v>62</v>
       </c>
@@ -9642,7 +9633,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="32.1" customHeight="1">
+    <row r="95" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="75">
         <v>63</v>
       </c>
@@ -9711,7 +9702,7 @@
       </c>
       <c r="T95" s="88"/>
     </row>
-    <row r="96" spans="1:20" ht="32.1" customHeight="1">
+    <row r="96" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="78">
         <v>1</v>
       </c>
@@ -9782,7 +9773,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="32.1" customHeight="1">
+    <row r="97" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="78">
         <v>2</v>
       </c>
@@ -9853,7 +9844,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="32.1" customHeight="1">
+    <row r="98" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="78">
         <v>3</v>
       </c>
@@ -9924,7 +9915,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="32.1" customHeight="1">
+    <row r="99" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="79">
         <v>4</v>
       </c>
@@ -9995,7 +9986,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="32.1" customHeight="1">
+    <row r="100" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="79">
         <v>6</v>
       </c>
@@ -10066,7 +10057,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="32.1" customHeight="1">
+    <row r="101" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="75">
         <v>7</v>
       </c>
@@ -10137,7 +10128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="32.1" customHeight="1">
+    <row r="102" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="79">
         <v>8</v>
       </c>
@@ -10208,7 +10199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="32.1" customHeight="1">
+    <row r="103" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="75">
         <v>8</v>
       </c>
@@ -10279,7 +10270,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="32.1" customHeight="1">
+    <row r="104" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="75">
         <v>9</v>
       </c>
@@ -10350,7 +10341,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="32.1" customHeight="1">
+    <row r="105" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="75">
         <v>14</v>
       </c>
@@ -10419,7 +10410,7 @@
       </c>
       <c r="T105" s="88"/>
     </row>
-    <row r="106" spans="1:20" ht="32.1" customHeight="1">
+    <row r="106" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="75">
         <v>34</v>
       </c>
@@ -10488,7 +10479,7 @@
       </c>
       <c r="T106" s="88"/>
     </row>
-    <row r="107" spans="1:20" ht="32.1" customHeight="1">
+    <row r="107" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="75">
         <v>35</v>
       </c>
@@ -10557,7 +10548,7 @@
       </c>
       <c r="T107" s="88"/>
     </row>
-    <row r="108" spans="1:20" ht="32.1" customHeight="1">
+    <row r="108" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="75">
         <v>36</v>
       </c>
@@ -10626,7 +10617,7 @@
       </c>
       <c r="T108" s="130"/>
     </row>
-    <row r="109" spans="1:20" ht="32.1" customHeight="1">
+    <row r="109" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="75">
         <v>38</v>
       </c>
@@ -10695,7 +10686,7 @@
       </c>
       <c r="T109" s="88"/>
     </row>
-    <row r="110" spans="1:20" ht="32.1" customHeight="1">
+    <row r="110" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="75">
         <v>38</v>
       </c>
@@ -10764,7 +10755,7 @@
       </c>
       <c r="T110" s="88"/>
     </row>
-    <row r="111" spans="1:20" ht="32.1" customHeight="1">
+    <row r="111" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="75">
         <v>39</v>
       </c>
@@ -10833,7 +10824,7 @@
       </c>
       <c r="T111" s="88"/>
     </row>
-    <row r="112" spans="1:20" ht="32.1" customHeight="1">
+    <row r="112" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="74">
         <v>39</v>
       </c>
@@ -10902,7 +10893,7 @@
       </c>
       <c r="T112" s="130"/>
     </row>
-    <row r="113" spans="1:20" ht="32.1" customHeight="1">
+    <row r="113" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="74">
         <v>43</v>
       </c>
@@ -10971,7 +10962,7 @@
       </c>
       <c r="T113" s="88"/>
     </row>
-    <row r="114" spans="1:20" ht="32.1" customHeight="1">
+    <row r="114" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="74">
         <v>44</v>
       </c>
@@ -11040,7 +11031,7 @@
       </c>
       <c r="T114" s="88"/>
     </row>
-    <row r="115" spans="1:20" ht="32.1" customHeight="1">
+    <row r="115" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="75">
         <v>45</v>
       </c>
@@ -11109,7 +11100,7 @@
       </c>
       <c r="T115" s="88"/>
     </row>
-    <row r="116" spans="1:20" ht="32.1" customHeight="1">
+    <row r="116" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="74">
         <v>45</v>
       </c>
@@ -11178,7 +11169,7 @@
       </c>
       <c r="T116" s="130"/>
     </row>
-    <row r="117" spans="1:20" ht="32.1" customHeight="1">
+    <row r="117" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75">
         <v>46</v>
       </c>
@@ -11247,7 +11238,7 @@
       </c>
       <c r="T117" s="88"/>
     </row>
-    <row r="118" spans="1:20" ht="32.1" customHeight="1">
+    <row r="118" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="74">
         <v>46</v>
       </c>
@@ -11316,7 +11307,7 @@
       </c>
       <c r="T118" s="130"/>
     </row>
-    <row r="119" spans="1:20" ht="32.1" customHeight="1">
+    <row r="119" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="74">
         <v>47</v>
       </c>
@@ -11385,7 +11376,7 @@
       </c>
       <c r="T119" s="130"/>
     </row>
-    <row r="120" spans="1:20" ht="32.1" customHeight="1">
+    <row r="120" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="74">
         <v>48</v>
       </c>
@@ -11454,7 +11445,7 @@
       </c>
       <c r="T120" s="88"/>
     </row>
-    <row r="121" spans="1:20" ht="32.1" customHeight="1">
+    <row r="121" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="80">
         <v>49</v>
       </c>
@@ -11523,7 +11514,7 @@
       </c>
       <c r="T121" s="88"/>
     </row>
-    <row r="122" spans="1:20" ht="32.1" customHeight="1">
+    <row r="122" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="74">
         <v>50</v>
       </c>
@@ -11592,7 +11583,7 @@
       </c>
       <c r="T122" s="88"/>
     </row>
-    <row r="123" spans="1:20" ht="32.1" customHeight="1">
+    <row r="123" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="74">
         <v>51</v>
       </c>
@@ -11661,7 +11652,7 @@
       </c>
       <c r="T123" s="130"/>
     </row>
-    <row r="124" spans="1:20" ht="32.1" customHeight="1">
+    <row r="124" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="80">
         <v>53</v>
       </c>
@@ -11730,7 +11721,7 @@
       </c>
       <c r="T124" s="130"/>
     </row>
-    <row r="125" spans="1:20" ht="32.1" customHeight="1">
+    <row r="125" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="80">
         <v>54</v>
       </c>
@@ -11799,7 +11790,7 @@
       </c>
       <c r="T125" s="130"/>
     </row>
-    <row r="126" spans="1:20" ht="32.1" customHeight="1">
+    <row r="126" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="80">
         <v>55</v>
       </c>
@@ -11868,7 +11859,7 @@
       </c>
       <c r="T126" s="88"/>
     </row>
-    <row r="127" spans="1:20" ht="32.1" customHeight="1">
+    <row r="127" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="80">
         <v>57</v>
       </c>
@@ -11939,7 +11930,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="32.1" customHeight="1">
+    <row r="128" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="80">
         <v>58</v>
       </c>
@@ -12010,7 +12001,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="32.1" customHeight="1">
+    <row r="129" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="80">
         <v>30</v>
       </c>
@@ -12081,7 +12072,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="32.1" customHeight="1">
+    <row r="130" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="80">
         <v>31</v>
       </c>
@@ -12152,7 +12143,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="32.1" customHeight="1">
+    <row r="131" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="80">
         <v>65</v>
       </c>
@@ -12223,7 +12214,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="32.1" customHeight="1">
+    <row r="132" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="80">
         <v>30</v>
       </c>
@@ -12294,7 +12285,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="32.1" customHeight="1">
+    <row r="133" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="80">
         <v>30</v>
       </c>
@@ -12365,7 +12356,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="32.1" customHeight="1">
+    <row r="134" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="80">
         <v>56</v>
       </c>
@@ -12436,7 +12427,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="32.1" customHeight="1">
+    <row r="135" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="80">
         <v>59</v>
       </c>
@@ -12507,7 +12498,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="32.1" customHeight="1">
+    <row r="136" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="80">
         <v>60</v>
       </c>
@@ -12578,7 +12569,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="32.1" customHeight="1">
+    <row r="137" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="80">
         <v>78</v>
       </c>
@@ -12649,7 +12640,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="32.1" customHeight="1">
+    <row r="138" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="80">
         <v>56</v>
       </c>
@@ -12720,7 +12711,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="32.1" customHeight="1">
+    <row r="139" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="80">
         <v>59</v>
       </c>
@@ -12791,7 +12782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="32.1" customHeight="1">
+    <row r="140" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="80">
         <v>60</v>
       </c>
@@ -12862,7 +12853,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="32.1" customHeight="1">
+    <row r="141" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="80">
         <v>31</v>
       </c>
@@ -12933,7 +12924,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="32.1" customHeight="1">
+    <row r="142" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="80">
         <v>31</v>
       </c>
@@ -13004,7 +12995,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="32.1" customHeight="1">
+    <row r="143" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="80">
         <v>78</v>
       </c>
@@ -13075,7 +13066,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="32.1" customHeight="1">
+    <row r="144" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="80">
         <v>51</v>
       </c>
@@ -13144,7 +13135,7 @@
       </c>
       <c r="T144" s="88"/>
     </row>
-    <row r="145" spans="1:20" ht="32.1" customHeight="1">
+    <row r="145" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="80">
         <v>53</v>
       </c>
@@ -13213,7 +13204,7 @@
       </c>
       <c r="T145" s="88"/>
     </row>
-    <row r="146" spans="1:20" ht="32.1" customHeight="1">
+    <row r="146" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="80">
         <v>65</v>
       </c>
@@ -13284,7 +13275,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="32.1" customHeight="1">
+    <row r="147" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="80">
         <v>27</v>
       </c>
@@ -13355,7 +13346,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="32.1" customHeight="1">
+    <row r="148" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="80">
         <v>28</v>
       </c>
@@ -13426,7 +13417,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="32.1" customHeight="1">
+    <row r="149" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="80">
         <v>54</v>
       </c>
@@ -13495,7 +13486,7 @@
       </c>
       <c r="T149" s="130"/>
     </row>
-    <row r="150" spans="1:20" ht="32.1" customHeight="1">
+    <row r="150" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="80">
         <v>55</v>
       </c>
@@ -13564,7 +13555,7 @@
       </c>
       <c r="T150" s="88"/>
     </row>
-    <row r="151" spans="1:20" ht="32.1" customHeight="1">
+    <row r="151" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="80">
         <v>74</v>
       </c>
@@ -13635,7 +13626,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="32.1" customHeight="1">
+    <row r="152" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="80">
         <v>74</v>
       </c>
@@ -13706,7 +13697,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="32.1" customHeight="1">
+    <row r="153" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="80">
         <v>20</v>
       </c>
@@ -13777,7 +13768,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="32.1" customHeight="1">
+    <row r="154" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="80">
         <v>21</v>
       </c>
@@ -13848,7 +13839,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="32.1" customHeight="1">
+    <row r="155" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="80">
         <v>22</v>
       </c>
@@ -13919,7 +13910,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="32.1" customHeight="1">
+    <row r="156" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="80">
         <v>23</v>
       </c>
@@ -13990,7 +13981,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="32.1" customHeight="1">
+    <row r="157" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="80">
         <v>31</v>
       </c>
@@ -14061,7 +14052,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="32.1" customHeight="1">
+    <row r="158" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="80">
         <v>31</v>
       </c>
@@ -14132,7 +14123,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="32.1" customHeight="1">
+    <row r="159" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="80">
         <v>38</v>
       </c>
@@ -14201,7 +14192,7 @@
       </c>
       <c r="T159" s="130"/>
     </row>
-    <row r="160" spans="1:20" ht="32.1" customHeight="1">
+    <row r="160" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="80">
         <v>39</v>
       </c>
@@ -14270,7 +14261,7 @@
       </c>
       <c r="T160" s="88"/>
     </row>
-    <row r="161" spans="1:20" ht="32.1" customHeight="1">
+    <row r="161" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="80">
         <v>30</v>
       </c>
@@ -14341,7 +14332,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="32.1" customHeight="1">
+    <row r="162" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="80">
         <v>30</v>
       </c>
@@ -14412,7 +14403,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="32.1" customHeight="1">
+    <row r="163" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="75">
         <v>31</v>
       </c>
@@ -14483,7 +14474,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="32.1" customHeight="1">
+    <row r="164" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="75">
         <v>31</v>
       </c>
@@ -14554,7 +14545,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="32.1" customHeight="1">
+    <row r="165" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="81">
         <v>30</v>
       </c>
@@ -14615,7 +14606,7 @@
       </c>
       <c r="T165" s="87"/>
     </row>
-    <row r="166" spans="1:20" ht="32.1" customHeight="1">
+    <row r="166" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="81">
         <v>30</v>
       </c>
@@ -14678,7 +14669,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="32.1" customHeight="1">
+    <row r="167" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="74">
         <v>79</v>
       </c>
@@ -14741,7 +14732,7 @@
       <c r="S167" s="60"/>
       <c r="T167" s="87"/>
     </row>
-    <row r="168" spans="1:20" ht="32.1" customHeight="1">
+    <row r="168" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="81">
         <v>45</v>
       </c>
@@ -14812,7 +14803,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="32.1" customHeight="1">
+    <row r="169" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="81">
         <v>46</v>
       </c>
@@ -14875,7 +14866,7 @@
       <c r="S169" s="60"/>
       <c r="T169" s="87"/>
     </row>
-    <row r="170" spans="1:20" ht="32.1" customHeight="1">
+    <row r="170" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="81">
         <v>45</v>
       </c>
@@ -14946,7 +14937,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="32.1" customHeight="1">
+    <row r="171" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="81">
         <v>49</v>
       </c>
@@ -15009,7 +15000,7 @@
       <c r="S171" s="60"/>
       <c r="T171" s="87"/>
     </row>
-    <row r="172" spans="1:20" ht="32.1" customHeight="1">
+    <row r="172" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="81">
         <v>48</v>
       </c>
@@ -15080,7 +15071,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="32.1" customHeight="1">
+    <row r="173" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="74">
         <v>50</v>
       </c>
@@ -15143,7 +15134,7 @@
       <c r="S173" s="60"/>
       <c r="T173" s="87"/>
     </row>
-    <row r="174" spans="1:20" ht="32.1" customHeight="1">
+    <row r="174" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="75">
         <v>47</v>
       </c>
@@ -15214,7 +15205,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="32.1" customHeight="1">
+    <row r="175" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="75">
         <v>43</v>
       </c>
@@ -15277,7 +15268,7 @@
       <c r="S175" s="60"/>
       <c r="T175" s="87"/>
     </row>
-    <row r="176" spans="1:20" ht="32.1" customHeight="1">
+    <row r="176" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="74">
         <v>44</v>
       </c>
@@ -15348,7 +15339,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="32.1" customHeight="1">
+    <row r="177" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="75">
         <v>38</v>
       </c>
@@ -15411,7 +15402,7 @@
       <c r="S177" s="60"/>
       <c r="T177" s="87"/>
     </row>
-    <row r="178" spans="1:20" ht="32.1" customHeight="1">
+    <row r="178" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="81">
         <v>39</v>
       </c>
@@ -15482,7 +15473,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="32.1" customHeight="1">
+    <row r="179" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="74">
         <v>35</v>
       </c>
@@ -15545,7 +15536,7 @@
       <c r="S179" s="60"/>
       <c r="T179" s="87"/>
     </row>
-    <row r="180" spans="1:20" ht="32.1" customHeight="1">
+    <row r="180" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="75">
         <v>36</v>
       </c>
@@ -15616,7 +15607,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="32.1" customHeight="1">
+    <row r="181" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="81">
         <v>34</v>
       </c>
@@ -15679,7 +15670,7 @@
       <c r="S181" s="60"/>
       <c r="T181" s="87"/>
     </row>
-    <row r="182" spans="1:20" ht="32.1" customHeight="1">
+    <row r="182" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="81">
         <v>14</v>
       </c>
@@ -15750,7 +15741,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="32.1" customHeight="1">
+    <row r="183" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="81">
         <v>55</v>
       </c>
@@ -15813,7 +15804,7 @@
       <c r="S183" s="60"/>
       <c r="T183" s="87"/>
     </row>
-    <row r="184" spans="1:20" ht="32.1" customHeight="1">
+    <row r="184" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="81">
         <v>54</v>
       </c>
@@ -15884,7 +15875,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="32.1" customHeight="1">
+    <row r="185" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="80">
         <v>23</v>
       </c>
@@ -15947,7 +15938,7 @@
       <c r="S185" s="60"/>
       <c r="T185" s="87"/>
     </row>
-    <row r="186" spans="1:20" ht="32.1" customHeight="1">
+    <row r="186" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="81">
         <v>22</v>
       </c>
@@ -16010,7 +16001,7 @@
       <c r="S186" s="60"/>
       <c r="T186" s="87"/>
     </row>
-    <row r="187" spans="1:20" ht="32.1" customHeight="1">
+    <row r="187" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="80">
         <v>21</v>
       </c>
@@ -16073,7 +16064,7 @@
       <c r="S187" s="60"/>
       <c r="T187" s="87"/>
     </row>
-    <row r="188" spans="1:20" ht="32.1" customHeight="1">
+    <row r="188" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="80">
         <v>20</v>
       </c>
@@ -16136,7 +16127,7 @@
       <c r="S188" s="60"/>
       <c r="T188" s="87"/>
     </row>
-    <row r="189" spans="1:20" ht="32.1" customHeight="1">
+    <row r="189" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="80">
         <v>51</v>
       </c>
@@ -16205,7 +16196,7 @@
       </c>
       <c r="T189" s="88"/>
     </row>
-    <row r="190" spans="1:20" ht="32.1" customHeight="1">
+    <row r="190" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="80">
         <v>53</v>
       </c>
@@ -16274,7 +16265,7 @@
       </c>
       <c r="T190" s="88"/>
     </row>
-    <row r="191" spans="1:20" ht="32.1" customHeight="1">
+    <row r="191" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="81">
         <v>31</v>
       </c>
@@ -16345,7 +16336,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="32.1" customHeight="1">
+    <row r="192" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="81">
         <v>31</v>
       </c>
@@ -16416,7 +16407,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="32.1" customHeight="1">
+    <row r="193" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="81">
         <v>31</v>
       </c>
@@ -16487,7 +16478,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="32.1" customHeight="1">
+    <row r="194" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="81">
         <v>31</v>
       </c>
@@ -16558,7 +16549,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="32.1" customHeight="1">
+    <row r="195" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="81">
         <v>82</v>
       </c>
@@ -16629,7 +16620,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="32.1" customHeight="1">
+    <row r="196" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="81">
         <v>81</v>
       </c>
@@ -16692,7 +16683,7 @@
       <c r="S196" s="60"/>
       <c r="T196" s="87"/>
     </row>
-    <row r="197" spans="1:20" ht="32.1" customHeight="1">
+    <row r="197" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="81">
         <v>83</v>
       </c>
@@ -16763,7 +16754,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="32.1" customHeight="1">
+    <row r="198" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="81">
         <v>31</v>
       </c>
@@ -16826,7 +16817,7 @@
       <c r="S198" s="60"/>
       <c r="T198" s="87"/>
     </row>
-    <row r="199" spans="1:20" ht="32.1" customHeight="1">
+    <row r="199" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="81">
         <v>31</v>
       </c>
@@ -16889,7 +16880,7 @@
       <c r="S199" s="60"/>
       <c r="T199" s="87"/>
     </row>
-    <row r="200" spans="1:20" ht="32.1" customHeight="1">
+    <row r="200" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="82">
         <v>31</v>
       </c>
@@ -16960,7 +16951,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="32.1" customHeight="1">
+    <row r="201" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="82">
         <v>31</v>
       </c>
@@ -17023,7 +17014,7 @@
       <c r="S201" s="60"/>
       <c r="T201" s="87"/>
     </row>
-    <row r="202" spans="1:20" ht="32.1" customHeight="1">
+    <row r="202" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="82">
         <v>85</v>
       </c>
@@ -17086,7 +17077,7 @@
       <c r="S202" s="16"/>
       <c r="T202" s="130"/>
     </row>
-    <row r="203" spans="1:20" ht="32.1" customHeight="1">
+    <row r="203" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="82">
         <v>84</v>
       </c>
@@ -17149,7 +17140,7 @@
       <c r="S203" s="16"/>
       <c r="T203" s="130"/>
     </row>
-    <row r="204" spans="1:20" ht="32.1" customHeight="1">
+    <row r="204" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="82">
         <v>84</v>
       </c>
@@ -17212,7 +17203,7 @@
       <c r="S204" s="16"/>
       <c r="T204" s="130"/>
     </row>
-    <row r="205" spans="1:20" ht="32.1" customHeight="1">
+    <row r="205" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="82">
         <v>86</v>
       </c>
@@ -17275,7 +17266,7 @@
       <c r="S205" s="16"/>
       <c r="T205" s="130"/>
     </row>
-    <row r="206" spans="1:20" ht="32.1" customHeight="1">
+    <row r="206" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="82">
         <v>86</v>
       </c>
@@ -17338,7 +17329,7 @@
       <c r="S206" s="16"/>
       <c r="T206" s="130"/>
     </row>
-    <row r="207" spans="1:20" ht="32.1" customHeight="1">
+    <row r="207" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="81">
         <v>31</v>
       </c>
@@ -17401,7 +17392,7 @@
       <c r="S207" s="16"/>
       <c r="T207" s="130"/>
     </row>
-    <row r="208" spans="1:20" ht="32.1" customHeight="1">
+    <row r="208" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="81">
         <v>31</v>
       </c>
@@ -17464,7 +17455,7 @@
       <c r="S208" s="11"/>
       <c r="T208" s="88"/>
     </row>
-    <row r="209" spans="1:20" ht="32.1" customHeight="1">
+    <row r="209" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="82">
         <v>31</v>
       </c>
@@ -17527,7 +17518,7 @@
       <c r="S209" s="16"/>
       <c r="T209" s="130"/>
     </row>
-    <row r="210" spans="1:20" ht="32.1" customHeight="1">
+    <row r="210" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="82">
         <v>31</v>
       </c>
@@ -17590,7 +17581,7 @@
       <c r="S210" s="16"/>
       <c r="T210" s="130"/>
     </row>
-    <row r="211" spans="1:20" ht="32.1" customHeight="1">
+    <row r="211" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="82">
         <v>73</v>
       </c>
@@ -17661,7 +17652,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="32.1" customHeight="1">
+    <row r="212" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="81">
         <v>73</v>
       </c>
@@ -17732,7 +17723,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="32.1" customHeight="1">
+    <row r="213" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="82">
         <v>73</v>
       </c>
@@ -17803,7 +17794,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="32.1" customHeight="1">
+    <row r="214" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="82">
         <v>73</v>
       </c>
@@ -17874,7 +17865,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="32.1" customHeight="1">
+    <row r="215" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="82">
         <v>73</v>
       </c>
@@ -17945,7 +17936,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="32.1" customHeight="1">
+    <row r="216" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="82">
         <v>73</v>
       </c>
@@ -18016,7 +18007,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="32.1" customHeight="1">
+    <row r="217" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="82">
         <v>73</v>
       </c>
@@ -18087,7 +18078,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="32.1" customHeight="1">
+    <row r="218" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="82">
         <v>73</v>
       </c>
@@ -18158,7 +18149,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="32.1" customHeight="1">
+    <row r="219" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="82">
         <v>73</v>
       </c>
@@ -18229,7 +18220,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="32.1" customHeight="1">
+    <row r="220" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="82">
         <v>73</v>
       </c>
@@ -18300,7 +18291,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="32.1" customHeight="1">
+    <row r="221" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="81">
         <v>76</v>
       </c>
@@ -18371,7 +18362,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="32.1" customHeight="1">
+    <row r="222" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="81">
         <v>76</v>
       </c>
@@ -18442,7 +18433,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="32.1" customHeight="1">
+    <row r="223" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="81">
         <v>74</v>
       </c>
@@ -18513,7 +18504,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="32.1" customHeight="1">
+    <row r="224" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="82">
         <v>76</v>
       </c>
@@ -18578,7 +18569,7 @@
       <c r="S224" s="16"/>
       <c r="T224" s="130"/>
     </row>
-    <row r="225" spans="1:20" ht="32.1" customHeight="1">
+    <row r="225" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="82">
         <v>73</v>
       </c>
@@ -18649,9 +18640,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="32.1" customHeight="1">
+    <row r="226" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="81">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B226" s="140" t="s">
         <v>238</v>
@@ -18710,9 +18701,9 @@
       </c>
       <c r="T226" s="87"/>
     </row>
-    <row r="227" spans="1:20" ht="32.1" customHeight="1">
+    <row r="227" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="81">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B227" s="140" t="s">
         <v>239</v>
@@ -18773,7 +18764,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="32.1" customHeight="1">
+    <row r="228" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="81">
         <v>79</v>
       </c>
@@ -18836,7 +18827,7 @@
       <c r="S228" s="60"/>
       <c r="T228" s="87"/>
     </row>
-    <row r="229" spans="1:20" ht="32.1" customHeight="1">
+    <row r="229" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="81">
         <v>45</v>
       </c>
@@ -18907,7 +18898,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="32.1" customHeight="1">
+    <row r="230" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="81">
         <v>46</v>
       </c>
@@ -18970,7 +18961,7 @@
       <c r="S230" s="60"/>
       <c r="T230" s="87"/>
     </row>
-    <row r="231" spans="1:20" ht="32.1" customHeight="1">
+    <row r="231" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="81">
         <v>45</v>
       </c>
@@ -19041,7 +19032,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="32.1" customHeight="1">
+    <row r="232" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="81">
         <v>43</v>
       </c>
@@ -19104,7 +19095,7 @@
       <c r="S232" s="60"/>
       <c r="T232" s="87"/>
     </row>
-    <row r="233" spans="1:20" ht="32.1" customHeight="1">
+    <row r="233" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="81">
         <v>44</v>
       </c>
@@ -19175,7 +19166,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="32.1" customHeight="1">
+    <row r="234" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="81">
         <v>38</v>
       </c>
@@ -19238,7 +19229,7 @@
       <c r="S234" s="60"/>
       <c r="T234" s="87"/>
     </row>
-    <row r="235" spans="1:20" ht="32.1" customHeight="1">
+    <row r="235" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="81">
         <v>39</v>
       </c>
@@ -19309,7 +19300,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="32.1" customHeight="1">
+    <row r="236" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="81">
         <v>35</v>
       </c>
@@ -19372,7 +19363,7 @@
       <c r="S236" s="60"/>
       <c r="T236" s="87"/>
     </row>
-    <row r="237" spans="1:20" ht="32.1" customHeight="1">
+    <row r="237" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="81">
         <v>36</v>
       </c>
@@ -19443,7 +19434,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="32.1" customHeight="1">
+    <row r="238" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="81">
         <v>34</v>
       </c>
@@ -19506,7 +19497,7 @@
       <c r="S238" s="60"/>
       <c r="T238" s="87"/>
     </row>
-    <row r="239" spans="1:20" ht="32.1" customHeight="1">
+    <row r="239" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="81">
         <v>14</v>
       </c>
@@ -19577,7 +19568,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="32.1" customHeight="1">
+    <row r="240" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="81">
         <v>23</v>
       </c>
@@ -19640,7 +19631,7 @@
       <c r="S240" s="60"/>
       <c r="T240" s="87"/>
     </row>
-    <row r="241" spans="1:20" ht="32.1" customHeight="1">
+    <row r="241" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="81">
         <v>22</v>
       </c>
@@ -19703,7 +19694,7 @@
       <c r="S241" s="60"/>
       <c r="T241" s="87"/>
     </row>
-    <row r="242" spans="1:20" ht="32.1" customHeight="1">
+    <row r="242" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="81">
         <v>21</v>
       </c>
@@ -19766,7 +19757,7 @@
       <c r="S242" s="60"/>
       <c r="T242" s="87"/>
     </row>
-    <row r="243" spans="1:20" ht="32.1" customHeight="1">
+    <row r="243" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="82">
         <v>20</v>
       </c>
@@ -19829,7 +19820,7 @@
       <c r="S243" s="60"/>
       <c r="T243" s="87"/>
     </row>
-    <row r="244" spans="1:20" ht="32.1" customHeight="1">
+    <row r="244" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="82">
         <v>87</v>
       </c>
@@ -19892,7 +19883,7 @@
       <c r="S244" s="16"/>
       <c r="T244" s="130"/>
     </row>
-    <row r="245" spans="1:20" ht="32.1" customHeight="1">
+    <row r="245" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="81">
         <v>87</v>
       </c>
@@ -19955,7 +19946,7 @@
       <c r="S245" s="16"/>
       <c r="T245" s="130"/>
     </row>
-    <row r="246" spans="1:20" ht="32.1" customHeight="1">
+    <row r="246" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="80">
         <v>51</v>
       </c>
@@ -20024,7 +20015,7 @@
       </c>
       <c r="T246" s="88"/>
     </row>
-    <row r="247" spans="1:20" ht="32.1" customHeight="1">
+    <row r="247" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="80">
         <v>53</v>
       </c>
@@ -20093,7 +20084,7 @@
       </c>
       <c r="T247" s="88"/>
     </row>
-    <row r="248" spans="1:20" ht="32.1" customHeight="1">
+    <row r="248" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="82">
         <v>30</v>
       </c>
@@ -20156,7 +20147,7 @@
       <c r="S248" s="16"/>
       <c r="T248" s="130"/>
     </row>
-    <row r="249" spans="1:20" ht="32.1" customHeight="1">
+    <row r="249" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="82">
         <v>30</v>
       </c>
@@ -20219,7 +20210,7 @@
       <c r="S249" s="16"/>
       <c r="T249" s="130"/>
     </row>
-    <row r="250" spans="1:20" ht="32.1" customHeight="1">
+    <row r="250" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="82">
         <v>85</v>
       </c>
@@ -20282,7 +20273,7 @@
       <c r="S250" s="16"/>
       <c r="T250" s="130"/>
     </row>
-    <row r="251" spans="1:20" ht="32.1" customHeight="1">
+    <row r="251" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="82">
         <v>84</v>
       </c>
@@ -20345,7 +20336,7 @@
       <c r="S251" s="16"/>
       <c r="T251" s="130"/>
     </row>
-    <row r="252" spans="1:20" ht="32.1" customHeight="1">
+    <row r="252" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="82">
         <v>84</v>
       </c>
@@ -20408,7 +20399,7 @@
       <c r="S252" s="16"/>
       <c r="T252" s="130"/>
     </row>
-    <row r="253" spans="1:20" ht="32.1" customHeight="1">
+    <row r="253" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="82">
         <v>89</v>
       </c>
@@ -20479,7 +20470,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="32.1" customHeight="1">
+    <row r="254" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="82">
         <v>89</v>
       </c>
@@ -20550,7 +20541,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="32.1" customHeight="1">
+    <row r="255" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="82">
         <v>89</v>
       </c>
@@ -20621,7 +20612,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="32.1" customHeight="1">
+    <row r="256" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="82">
         <v>89</v>
       </c>
@@ -20692,7 +20683,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="32.1" customHeight="1">
+    <row r="257" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="82">
         <v>31</v>
       </c>
@@ -20755,7 +20746,7 @@
       <c r="S257" s="16"/>
       <c r="T257" s="130"/>
     </row>
-    <row r="258" spans="1:20" ht="32.1" customHeight="1">
+    <row r="258" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="82">
         <v>90</v>
       </c>
@@ -20822,11 +20813,11 @@
       <c r="S258" s="16">
         <v>8.4</v>
       </c>
-      <c r="T258" s="151" t="s">
+      <c r="T258" s="149" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="32.1" customHeight="1">
+    <row r="259" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="82">
         <v>90</v>
       </c>
@@ -20884,20 +20875,20 @@
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
-      <c r="Q259" s="149">
+      <c r="Q259" s="14">
         <v>80.2</v>
       </c>
-      <c r="R259" s="150">
+      <c r="R259" s="16">
         <v>14.7</v>
       </c>
-      <c r="S259" s="150">
+      <c r="S259" s="16">
         <v>5.0999999999999996</v>
       </c>
       <c r="T259" s="131" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="32.1" customHeight="1">
+    <row r="260" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="82">
         <v>30</v>
       </c>
@@ -20955,20 +20946,20 @@
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
-      <c r="Q260" s="149">
+      <c r="Q260" s="14">
         <v>65.900000000000006</v>
       </c>
-      <c r="R260" s="150">
+      <c r="R260" s="16">
         <v>22</v>
       </c>
-      <c r="S260" s="150">
+      <c r="S260" s="16">
         <v>12.2</v>
       </c>
       <c r="T260" s="131" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="32.1" customHeight="1">
+    <row r="261" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="81">
         <v>30</v>
       </c>
@@ -21026,20 +21017,20 @@
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🔴</v>
       </c>
-      <c r="Q261" s="149">
+      <c r="Q261" s="14">
         <v>80</v>
       </c>
-      <c r="R261" s="150">
+      <c r="R261" s="16">
         <v>12.9</v>
       </c>
-      <c r="S261" s="150">
+      <c r="S261" s="16">
         <v>7.1</v>
       </c>
       <c r="T261" s="131" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="32.1" customHeight="1">
+    <row r="262" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="81">
         <v>30</v>
       </c>
@@ -21097,20 +21088,20 @@
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
-      <c r="Q262" s="149">
+      <c r="Q262" s="14">
         <v>51</v>
       </c>
-      <c r="R262" s="150">
+      <c r="R262" s="16">
         <v>19.600000000000001</v>
       </c>
-      <c r="S262" s="150">
+      <c r="S262" s="16">
         <v>29.4</v>
       </c>
       <c r="T262" s="131" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="32.1" customHeight="1">
+    <row r="263" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="81">
         <v>30</v>
       </c>
@@ -21168,20 +21159,20 @@
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🔴</v>
       </c>
-      <c r="Q263" s="149">
+      <c r="Q263" s="14">
         <v>72.2</v>
       </c>
-      <c r="R263" s="150">
+      <c r="R263" s="16">
         <v>13.7</v>
       </c>
-      <c r="S263" s="150">
+      <c r="S263" s="16">
         <v>14.1</v>
       </c>
       <c r="T263" s="131" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="32.1" customHeight="1">
+    <row r="264" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="82">
         <v>91</v>
       </c>
@@ -21239,20 +21230,20 @@
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
-      <c r="Q264" s="149">
+      <c r="Q264" s="14">
         <v>74.7</v>
       </c>
-      <c r="R264" s="150">
+      <c r="R264" s="16">
         <v>14.6</v>
       </c>
-      <c r="S264" s="150">
+      <c r="S264" s="16">
         <v>10.7</v>
       </c>
       <c r="T264" s="131" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="32.1" customHeight="1">
+    <row r="265" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="82">
         <v>91</v>
       </c>
@@ -21310,20 +21301,20 @@
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🔴</v>
       </c>
-      <c r="Q265" s="149">
+      <c r="Q265" s="14">
         <v>79.7</v>
       </c>
-      <c r="R265" s="150">
+      <c r="R265" s="16">
         <v>11.9</v>
       </c>
-      <c r="S265" s="150">
+      <c r="S265" s="16">
         <v>8.3000000000000007</v>
       </c>
       <c r="T265" s="131" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="32.1" customHeight="1">
+    <row r="266" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="82">
         <v>92</v>
       </c>
@@ -21381,13 +21372,13 @@
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟢</v>
       </c>
-      <c r="Q266" s="149">
+      <c r="Q266" s="14">
         <v>33.299999999999997</v>
       </c>
-      <c r="R266" s="150">
+      <c r="R266" s="16">
         <v>66.7</v>
       </c>
-      <c r="S266" s="150">
+      <c r="S266" s="16">
         <v>0</v>
       </c>
       <c r="T266" s="131" t="s">
@@ -21395,44 +21386,39 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C202:C207">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M217 M223:M1048576">
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C202:C204">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="lessThanOrEqual">
-      <formula>TODAY()</formula>
-    </cfRule>
+  <conditionalFormatting sqref="T211">
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C205:C207">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="lessThanOrEqual">
-      <formula>TODAY()</formula>
-    </cfRule>
+  <conditionalFormatting sqref="T212">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T213:T220">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T221">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T222">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T223">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T225">
+    <cfRule type="duplicateValues" dxfId="3" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T226:T1048576 T224 T1:T210">
-    <cfRule type="duplicateValues" dxfId="33" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T211">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T212">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T213:T220">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T222">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T221">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T223">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T225">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="14"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/541e1d3f-d064-4e8c-ad26-a2f26946d5ec" xr:uid="{A0444A8C-B658-434F-912C-6E4903003899}"/>
@@ -21793,13 +21779,13 @@
       <selection activeCell="Q9" sqref="Q9:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.375" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="91">
         <v>73</v>
       </c>
@@ -21870,7 +21856,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="101">
         <v>73</v>
       </c>
@@ -21941,7 +21927,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="91">
         <v>73</v>
       </c>
@@ -22012,7 +21998,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="101">
         <v>73</v>
       </c>
@@ -22083,7 +22069,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="91">
         <v>73</v>
       </c>
@@ -22154,7 +22140,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="101">
         <v>73</v>
       </c>
@@ -22225,7 +22211,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="110">
         <v>76</v>
       </c>
@@ -22296,7 +22282,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="114">
         <v>76</v>
       </c>
@@ -22367,7 +22353,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="110">
         <v>73</v>
       </c>
@@ -22475,15 +22461,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAB1339F159CD428AD0F5BA99C368F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3c12e32d35f281fc2cfbff59ce227b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0eeac73-9918-465e-bdd8-785547fbc2d9" xmlns:ns3="d777fa6b-bca0-4864-8d50-ac77b155e846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8cccd8974b01cfe5577657fdcd6042cb" ns2:_="" ns3:_="">
     <xsd:import namespace="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
@@ -22718,16 +22695,51 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d777fa6b-bca0-4864-8d50-ac77b155e846"/>
+    <ds:schemaRef ds:uri="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBF9AAC-F6EE-4F9D-A850-BD5FE7C93CA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
+    <ds:schemaRef ds:uri="d777fa6b-bca0-4864-8d50-ac77b155e846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBF9AAC-F6EE-4F9D-A850-BD5FE7C93CA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/email-gallery/cbus/pages/dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72539A75-3306-914A-9034-1819F92BF4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8ABCA9-1C96-2E46-8E3B-4C8F27B382D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -18642,7 +18642,7 @@
     </row>
     <row r="226" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="81">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B226" s="140" t="s">
         <v>238</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="227" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="81">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B227" s="140" t="s">
         <v>239</v>
@@ -22450,14 +22450,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22696,21 +22694,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d777fa6b-bca0-4864-8d50-ac77b155e846"/>
-    <ds:schemaRef ds:uri="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22735,9 +22732,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d777fa6b-bca0-4864-8d50-ac77b155e846"/>
+    <ds:schemaRef ds:uri="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29704"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donnagalletta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbussuper.sharepoint.com/sites/MarketingTechTeam/Shared Documents/Reporting/FY26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB552FB-899D-4BF8-902D-8EDE477ABC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB6D736-BD17-4648-84E3-F58F9685CA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="740" windowWidth="29920" windowHeight="17700" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
   <sheets>
     <sheet name="FY-ajo-report" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="293">
   <si>
     <t>img-id</t>
   </si>
@@ -1087,6 +1087,78 @@
   </si>
   <si>
     <t>https://litmus.com/folders/416254/emails/19414929/analytics</t>
+  </si>
+  <si>
+    <t>Cbus - Accessing Super &amp; SIS - Age 69  - (Stopped 22 Dec)</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/445617/emails/19937274/analytics</t>
+  </si>
+  <si>
+    <t>Cbus - Accessing Super &amp; SIS - Age 65 - (Stopped 22 Dec)</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/445617/emails/19937261/analytics</t>
+  </si>
+  <si>
+    <t>Cbus - Accessing Super &amp; SIS - Age 60 - (Stopped 22 Dec)</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/445617/emails/19937180/analytics</t>
+  </si>
+  <si>
+    <t>Cbus - Accessing Super &amp; SIS - Age 59 - (Stopped 22 Dec)</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/445617/emails/19937150/analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downsizer - 73 yrs - (Stopped 22 Dec) </t>
+  </si>
+  <si>
+    <t>Downsizer - 55 yrs - (Stopped 22 Dec)</t>
+  </si>
+  <si>
+    <t>Beneficiaries [Seg 4 - Lapsed binding] - (Stopped 22 Dec)</t>
+  </si>
+  <si>
+    <t>PYS 12 Months - (Stopped 22 Dec)</t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/308698/emails/13915180/analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPC - Unpaid Super </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abandoned  Cart MJOL </t>
+  </si>
+  <si>
+    <t>Day 3 Welcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Capture - Accum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Capture- Accum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBUS - Podcast Launch [Super Shift] </t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/444140/emails/19869296/analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIA - WEBINAR - JAN 26 - Super Health Check seminar </t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/20279342/analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBUS - WEBINAR - JAN 26 - Super Health Check seminar </t>
+  </si>
+  <si>
+    <t>https://litmus.com/folders/324180/emails/20279341/analytics</t>
   </si>
   <si>
     <t>Averages %</t>
@@ -1488,7 +1560,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
@@ -1822,6 +1894,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{6F0A8B01-0191-40A2-B00A-ED1E02AD1E5F}"/>
@@ -1829,7 +1904,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{770A8CE4-86FC-45BF-95B8-E1D8E67E3936}"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="34">
     <dxf>
       <font>
         <b val="0"/>
@@ -2486,16 +2561,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -2532,8 +2597,21 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -2543,16 +2621,6 @@
         <i/>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2568,8 +2636,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="A1:T257" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
-  <autoFilter ref="A1:T257" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="A1:T275" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
+  <autoFilter ref="A1:T275" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T160">
     <sortCondition ref="C1:C160"/>
   </sortState>
@@ -2931,11 +2999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23CF1A7-A843-E143-B142-84B9EDCB7AA1}">
-  <dimension ref="A1:T257"/>
+  <dimension ref="A1:T275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A227" sqref="A227:XFD227"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G264" sqref="G264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
@@ -20580,7 +20648,7 @@
         <v>21</v>
       </c>
       <c r="E257" s="15" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F257" s="15" t="s">
         <v>26</v>
@@ -20637,49 +20705,1278 @@
         <v>263</v>
       </c>
     </row>
+    <row r="258" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A258" s="82">
+        <v>93</v>
+      </c>
+      <c r="B258" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C258" s="70">
+        <v>45995</v>
+      </c>
+      <c r="D258" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E258" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F258" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G258" s="13">
+        <v>154</v>
+      </c>
+      <c r="H258" s="24">
+        <v>83</v>
+      </c>
+      <c r="I258" s="28">
+        <v>7</v>
+      </c>
+      <c r="J258" s="16">
+        <v>0</v>
+      </c>
+      <c r="K258" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L258" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>53.896103896103895</v>
+      </c>
+      <c r="M258" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="N258" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>8.4337349397590362</v>
+      </c>
+      <c r="O258" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.548996458087366</v>
+      </c>
+      <c r="P258" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q258" s="14">
+        <v>47.4</v>
+      </c>
+      <c r="R258" s="16">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="S258" s="16">
+        <v>15.8</v>
+      </c>
+      <c r="T258" s="99" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A259" s="82">
+        <v>93</v>
+      </c>
+      <c r="B259" s="104" t="s">
+        <v>266</v>
+      </c>
+      <c r="C259" s="70">
+        <v>45995</v>
+      </c>
+      <c r="D259" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E259" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F259" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G259" s="13">
+        <v>275</v>
+      </c>
+      <c r="H259" s="24">
+        <v>159</v>
+      </c>
+      <c r="I259" s="28">
+        <v>12</v>
+      </c>
+      <c r="J259" s="16">
+        <v>1</v>
+      </c>
+      <c r="K259" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="L259" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>57.818181818181813</v>
+      </c>
+      <c r="M259" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.3636363636363642</v>
+      </c>
+      <c r="N259" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>7.5471698113207548</v>
+      </c>
+      <c r="O259" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>31.720330578512396</v>
+      </c>
+      <c r="P259" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q259" s="14">
+        <v>72</v>
+      </c>
+      <c r="R259" s="16">
+        <v>18</v>
+      </c>
+      <c r="S259" s="16">
+        <v>10</v>
+      </c>
+      <c r="T259" s="99" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A260" s="82">
+        <v>93</v>
+      </c>
+      <c r="B260" s="104" t="s">
+        <v>268</v>
+      </c>
+      <c r="C260" s="70">
+        <v>45995</v>
+      </c>
+      <c r="D260" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E260" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F260" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G260" s="13">
+        <v>393</v>
+      </c>
+      <c r="H260" s="24">
+        <v>201</v>
+      </c>
+      <c r="I260" s="28">
+        <v>25</v>
+      </c>
+      <c r="J260" s="16">
+        <v>0</v>
+      </c>
+      <c r="K260" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L260" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>51.145038167938928</v>
+      </c>
+      <c r="M260" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>6.3613231552162848</v>
+      </c>
+      <c r="N260" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>12.437810945273633</v>
+      </c>
+      <c r="O260" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>30.582263400863713</v>
+      </c>
+      <c r="P260" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q260" s="10">
+        <v>80</v>
+      </c>
+      <c r="R260" s="16">
+        <v>20</v>
+      </c>
+      <c r="S260" s="16">
+        <v>0</v>
+      </c>
+      <c r="T260" s="99" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A261" s="82">
+        <v>93</v>
+      </c>
+      <c r="B261" s="104" t="s">
+        <v>270</v>
+      </c>
+      <c r="C261" s="70">
+        <v>45995</v>
+      </c>
+      <c r="D261" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E261" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F261" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G261" s="13">
+        <v>421</v>
+      </c>
+      <c r="H261" s="24">
+        <v>255</v>
+      </c>
+      <c r="I261" s="28">
+        <v>15</v>
+      </c>
+      <c r="J261" s="16">
+        <v>0</v>
+      </c>
+      <c r="K261" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L261" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>60.570071258907362</v>
+      </c>
+      <c r="M261" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>3.5629453681710213</v>
+      </c>
+      <c r="N261" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="O261" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>33.209020486230607</v>
+      </c>
+      <c r="P261" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q261" s="14">
+        <v>75</v>
+      </c>
+      <c r="R261" s="16">
+        <v>13.3</v>
+      </c>
+      <c r="S261" s="16">
+        <v>11.7</v>
+      </c>
+      <c r="T261" s="117" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A262" s="81">
+        <v>43</v>
+      </c>
+      <c r="B262" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="C262" s="69">
+        <v>45992</v>
+      </c>
+      <c r="D262" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E262" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F262" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G262" s="9">
+        <v>79</v>
+      </c>
+      <c r="H262" s="25">
+        <v>64</v>
+      </c>
+      <c r="I262" s="29">
+        <v>4</v>
+      </c>
+      <c r="J262" s="60">
+        <v>0</v>
+      </c>
+      <c r="K262" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L262" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>81.012658227848107</v>
+      </c>
+      <c r="M262" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>5.0632911392405067</v>
+      </c>
+      <c r="N262" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>6.25</v>
+      </c>
+      <c r="O262" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>45.217112642204782</v>
+      </c>
+      <c r="P262" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q262" s="60"/>
+      <c r="R262" s="60"/>
+      <c r="S262" s="60"/>
+      <c r="T262" s="87"/>
+    </row>
+    <row r="263" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A263" s="82">
+        <v>44</v>
+      </c>
+      <c r="B263" s="111" t="s">
+        <v>273</v>
+      </c>
+      <c r="C263" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D263" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E263" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F263" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G263" s="13">
+        <v>573</v>
+      </c>
+      <c r="H263" s="24">
+        <v>391</v>
+      </c>
+      <c r="I263" s="28">
+        <v>40</v>
+      </c>
+      <c r="J263" s="60">
+        <v>1</v>
+      </c>
+      <c r="K263" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.17452006980802792</v>
+      </c>
+      <c r="L263" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>68.237347294938928</v>
+      </c>
+      <c r="M263" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>6.9808027923211169</v>
+      </c>
+      <c r="N263" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>10.230179028132993</v>
+      </c>
+      <c r="O263" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>39.885450264825835</v>
+      </c>
+      <c r="P263" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q263" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="R263" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="S263" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="T263" s="87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A264" s="82">
+        <v>38</v>
+      </c>
+      <c r="B264" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="C264" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D264" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E264" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F264" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G264" s="13">
+        <v>115</v>
+      </c>
+      <c r="H264" s="24">
+        <v>116</v>
+      </c>
+      <c r="I264" s="28">
+        <v>24</v>
+      </c>
+      <c r="J264" s="60">
+        <v>0</v>
+      </c>
+      <c r="K264" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L264" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>100.8695652173913</v>
+      </c>
+      <c r="M264" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>20.869565217391305</v>
+      </c>
+      <c r="N264" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>20.689655172413794</v>
+      </c>
+      <c r="O264" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>73.047258979206049</v>
+      </c>
+      <c r="P264" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q264" s="60"/>
+      <c r="R264" s="60"/>
+      <c r="S264" s="60"/>
+      <c r="T264" s="87"/>
+    </row>
+    <row r="265" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A265" s="81">
+        <v>35</v>
+      </c>
+      <c r="B265" s="108" t="s">
+        <v>275</v>
+      </c>
+      <c r="C265" s="69">
+        <v>45992</v>
+      </c>
+      <c r="D265" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E265" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F265" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G265" s="9">
+        <v>1610</v>
+      </c>
+      <c r="H265" s="25">
+        <v>898</v>
+      </c>
+      <c r="I265" s="29">
+        <v>74</v>
+      </c>
+      <c r="J265" s="60">
+        <v>1</v>
+      </c>
+      <c r="K265" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>6.2111801242236024E-2</v>
+      </c>
+      <c r="L265" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>55.776397515527954</v>
+      </c>
+      <c r="M265" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>4.5962732919254661</v>
+      </c>
+      <c r="N265" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>8.2405345211581285</v>
+      </c>
+      <c r="O265" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>31.449558273214766</v>
+      </c>
+      <c r="P265" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q265" s="60">
+        <v>94.3</v>
+      </c>
+      <c r="R265" s="60">
+        <v>5.7</v>
+      </c>
+      <c r="S265" s="60">
+        <v>0</v>
+      </c>
+      <c r="T265" s="123" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A266" s="81">
+        <v>36</v>
+      </c>
+      <c r="B266" s="108" t="s">
+        <v>275</v>
+      </c>
+      <c r="C266" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D266" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F266" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G266" s="9">
+        <v>47</v>
+      </c>
+      <c r="H266" s="25">
+        <v>35</v>
+      </c>
+      <c r="I266" s="29">
+        <v>4</v>
+      </c>
+      <c r="J266" s="60">
+        <v>0</v>
+      </c>
+      <c r="K266" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L266" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>74.468085106382972</v>
+      </c>
+      <c r="M266" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>8.5106382978723403</v>
+      </c>
+      <c r="N266" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="O266" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>45.020371208691706</v>
+      </c>
+      <c r="P266" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q266" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="R266" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="S266" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="T266" s="87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A267" s="81">
+        <v>34</v>
+      </c>
+      <c r="B267" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="C267" s="69">
+        <v>45992</v>
+      </c>
+      <c r="D267" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E267" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F267" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G267" s="9">
+        <v>4145</v>
+      </c>
+      <c r="H267" s="25">
+        <v>2772</v>
+      </c>
+      <c r="I267" s="29">
+        <v>73</v>
+      </c>
+      <c r="J267" s="60">
+        <v>15</v>
+      </c>
+      <c r="K267" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.36188178528347409</v>
+      </c>
+      <c r="L267" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>66.875753920386003</v>
+      </c>
+      <c r="M267" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>1.761158021712907</v>
+      </c>
+      <c r="N267" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>2.6334776334776335</v>
+      </c>
+      <c r="O267" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>34.199094640744654</v>
+      </c>
+      <c r="P267" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q267" s="60"/>
+      <c r="R267" s="60"/>
+      <c r="S267" s="60"/>
+      <c r="T267" s="87"/>
+    </row>
+    <row r="268" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A268" s="81">
+        <v>14</v>
+      </c>
+      <c r="B268" s="106" t="s">
+        <v>278</v>
+      </c>
+      <c r="C268" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D268" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E268" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F268" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G268" s="9">
+        <v>1066</v>
+      </c>
+      <c r="H268" s="25">
+        <v>1299</v>
+      </c>
+      <c r="I268" s="29">
+        <v>35</v>
+      </c>
+      <c r="J268" s="60">
+        <v>7</v>
+      </c>
+      <c r="K268" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.65666041275797382</v>
+      </c>
+      <c r="L268" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>121.85741088180113</v>
+      </c>
+      <c r="M268" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>3.2833020637898689</v>
+      </c>
+      <c r="N268" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>2.6943802925327174</v>
+      </c>
+      <c r="O268" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>52.023881600484359</v>
+      </c>
+      <c r="P268" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q268" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="R268" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="S268" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="T268" s="87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A269" s="81">
+        <v>87</v>
+      </c>
+      <c r="B269" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="C269" s="69">
+        <v>45992</v>
+      </c>
+      <c r="D269" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F269" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G269" s="9">
+        <v>215</v>
+      </c>
+      <c r="H269" s="25">
+        <v>124</v>
+      </c>
+      <c r="I269" s="29">
+        <v>13</v>
+      </c>
+      <c r="J269" s="16">
+        <v>0</v>
+      </c>
+      <c r="K269" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L269" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>57.674418604651166</v>
+      </c>
+      <c r="M269" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>6.0465116279069768</v>
+      </c>
+      <c r="N269" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>10.483870967741936</v>
+      </c>
+      <c r="O269" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>33.78691184424013</v>
+      </c>
+      <c r="P269" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q269" s="14"/>
+      <c r="R269" s="16"/>
+      <c r="S269" s="16"/>
+      <c r="T269" s="98"/>
+    </row>
+    <row r="270" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A270" s="81">
+        <v>87</v>
+      </c>
+      <c r="B270" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="C270" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D270" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E270" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F270" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G270" s="9">
+        <v>3348</v>
+      </c>
+      <c r="H270" s="25">
+        <v>1621</v>
+      </c>
+      <c r="I270" s="29">
+        <v>132</v>
+      </c>
+      <c r="J270" s="16">
+        <v>10</v>
+      </c>
+      <c r="K270" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.29868578255675032</v>
+      </c>
+      <c r="L270" s="6">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>48.416965352449225</v>
+      </c>
+      <c r="M270" s="31">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>3.9426523297491038</v>
+      </c>
+      <c r="N270" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>8.143121529919803</v>
+      </c>
+      <c r="O270" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>26.614616119183122</v>
+      </c>
+      <c r="P270" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
+      </c>
+      <c r="Q270" s="14"/>
+      <c r="R270" s="16"/>
+      <c r="S270" s="16"/>
+      <c r="T270" s="98"/>
+    </row>
+    <row r="271" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A271" s="81">
+        <v>51</v>
+      </c>
+      <c r="B271" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="C271" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D271" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E271" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F271" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G271" s="9">
+        <v>629</v>
+      </c>
+      <c r="H271" s="25">
+        <v>449</v>
+      </c>
+      <c r="I271" s="29">
+        <v>37</v>
+      </c>
+      <c r="J271" s="11">
+        <v>4</v>
+      </c>
+      <c r="K271" s="36">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.63593004769475359</v>
+      </c>
+      <c r="L271" s="6">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>71.383147853736091</v>
+      </c>
+      <c r="M271" s="31">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="N271" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>8.2405345211581285</v>
+      </c>
+      <c r="O271" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>39.633405031328905</v>
+      </c>
+      <c r="P271" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q271" s="14">
+        <v>0</v>
+      </c>
+      <c r="R271" s="16">
+        <v>0</v>
+      </c>
+      <c r="S271" s="16">
+        <v>0</v>
+      </c>
+      <c r="T271" s="88"/>
+    </row>
+    <row r="272" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A272" s="82">
+        <v>53</v>
+      </c>
+      <c r="B272" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="C272" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D272" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F272" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G272" s="13">
+        <v>93</v>
+      </c>
+      <c r="H272" s="24">
+        <v>57</v>
+      </c>
+      <c r="I272" s="28">
+        <v>2</v>
+      </c>
+      <c r="J272" s="16">
+        <v>0</v>
+      </c>
+      <c r="K272" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L272" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>61.29032258064516</v>
+      </c>
+      <c r="M272" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>2.1505376344086025</v>
+      </c>
+      <c r="N272" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.5087719298245612</v>
+      </c>
+      <c r="O272" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>32.402589894785521</v>
+      </c>
+      <c r="P272" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q272" s="14">
+        <v>0</v>
+      </c>
+      <c r="R272" s="16">
+        <v>0</v>
+      </c>
+      <c r="S272" s="16">
+        <v>0</v>
+      </c>
+      <c r="T272" s="98"/>
+    </row>
+    <row r="273" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A273" s="82">
+        <v>94</v>
+      </c>
+      <c r="B273" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="C273" s="70">
+        <v>46000</v>
+      </c>
+      <c r="D273" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E273" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F273" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G273" s="13">
+        <v>161516</v>
+      </c>
+      <c r="H273" s="24">
+        <v>76045</v>
+      </c>
+      <c r="I273" s="28">
+        <v>3030</v>
+      </c>
+      <c r="J273" s="16">
+        <v>132</v>
+      </c>
+      <c r="K273" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>8.172564947125982E-2</v>
+      </c>
+      <c r="L273" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>47.082022833651152</v>
+      </c>
+      <c r="M273" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>1.8759751355902818</v>
+      </c>
+      <c r="N273" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.984482871983694</v>
+      </c>
+      <c r="O273" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>24.774767620071078</v>
+      </c>
+      <c r="P273" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
+      </c>
+      <c r="Q273" s="14">
+        <v>73.2</v>
+      </c>
+      <c r="R273" s="16">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S273" s="16">
+        <v>10.7</v>
+      </c>
+      <c r="T273" s="99" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A274" s="82">
+        <v>95</v>
+      </c>
+      <c r="B274" s="104" t="s">
+        <v>284</v>
+      </c>
+      <c r="C274" s="70">
+        <v>46009</v>
+      </c>
+      <c r="D274" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F274" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G274" s="13">
+        <v>169</v>
+      </c>
+      <c r="H274" s="24">
+        <v>123</v>
+      </c>
+      <c r="I274" s="28">
+        <v>5</v>
+      </c>
+      <c r="J274" s="16">
+        <v>0</v>
+      </c>
+      <c r="K274" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L274" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>72.781065088757401</v>
+      </c>
+      <c r="M274" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>2.9585798816568047</v>
+      </c>
+      <c r="N274" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>4.0650406504065035</v>
+      </c>
+      <c r="O274" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.990231434473579</v>
+      </c>
+      <c r="P274" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q274" s="14">
+        <v>40</v>
+      </c>
+      <c r="R274" s="16">
+        <v>26.7</v>
+      </c>
+      <c r="S274" s="16">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="T274" s="117" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A275" s="82">
+        <v>95</v>
+      </c>
+      <c r="B275" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="C275" s="70">
+        <v>46009</v>
+      </c>
+      <c r="D275" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E275" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F275" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G275" s="13">
+        <v>2754</v>
+      </c>
+      <c r="H275" s="24">
+        <v>1665</v>
+      </c>
+      <c r="I275" s="28">
+        <v>181</v>
+      </c>
+      <c r="J275" s="16">
+        <v>1</v>
+      </c>
+      <c r="K275" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>3.6310820624546117E-2</v>
+      </c>
+      <c r="L275" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>60.457516339869279</v>
+      </c>
+      <c r="M275" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>6.572258533042846</v>
+      </c>
+      <c r="N275" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>10.870870870870871</v>
+      </c>
+      <c r="O275" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>35.644950844589161</v>
+      </c>
+      <c r="P275" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q275" s="14">
+        <v>77.2</v>
+      </c>
+      <c r="R275" s="16">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="S275" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="T275" s="117" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C197:C202">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
+      <formula>88</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M212 M218:M1048576">
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C197:C199">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="lessThanOrEqual">
-      <formula>TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C200:C202">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThanOrEqual">
-      <formula>TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T218:T1048576 T1:T205">
-    <cfRule type="duplicateValues" dxfId="31" priority="16"/>
+  <conditionalFormatting sqref="T1:T205 T218:T1048576">
+    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T206">
-    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T207">
-    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T208:T215">
-    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T216">
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T217">
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T216">
-    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
-      <formula>88</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
-      <formula>44</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/541e1d3f-d064-4e8c-ad26-a2f26946d5ec" xr:uid="{A0444A8C-B658-434F-912C-6E4903003899}"/>
@@ -21015,11 +22312,34 @@
     <hyperlink ref="T255" r:id="rId331" xr:uid="{3E8DCB2C-2CBD-444A-AE77-A07E924D1512}"/>
     <hyperlink ref="T256" r:id="rId332" xr:uid="{9A418F6D-2E11-4129-8625-EBA8CBF24892}"/>
     <hyperlink ref="T257" r:id="rId333" xr:uid="{8D57081E-13DF-438D-889C-CE6E066BDC9C}"/>
+    <hyperlink ref="B258" r:id="rId334" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb50294d-186e-4efb-a08c-5bd962403459" display="Cbus - Accessing Super &amp; SIS " xr:uid="{A194A329-BFAE-4C41-A6E8-5281732B1448}"/>
+    <hyperlink ref="B259" r:id="rId335" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb50294d-186e-4efb-a08c-5bd962403459" display="Cbus - Accessing Super &amp; SIS " xr:uid="{D864079F-919D-4730-9C4E-9BFDD5A3FCCF}"/>
+    <hyperlink ref="B260" r:id="rId336" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb50294d-186e-4efb-a08c-5bd962403459" display="Cbus - Accessing Super &amp; SIS " xr:uid="{1A8763F8-E195-441A-A099-16AA0DDC0D04}"/>
+    <hyperlink ref="B261" r:id="rId337" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb50294d-186e-4efb-a08c-5bd962403459" display="Cbus - Accessing Super &amp; SIS " xr:uid="{B9DD3996-A656-413E-A205-65D707DAB485}"/>
+    <hyperlink ref="T258" r:id="rId338" xr:uid="{D1B9CD42-A935-4D74-9DB5-F2F2D2E0CAC4}"/>
+    <hyperlink ref="T259" r:id="rId339" xr:uid="{54B4B942-FEEB-476D-93A8-2D81479DC092}"/>
+    <hyperlink ref="T260" r:id="rId340" xr:uid="{8633495D-53BC-4CCB-987E-FF235604B280}"/>
+    <hyperlink ref="T261" r:id="rId341" xr:uid="{D5762008-1984-4804-BF9A-2485573B0A1D}"/>
+    <hyperlink ref="B262" r:id="rId342" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 73 yrs - (Stop 22 Dec)" xr:uid="{C628F592-2342-4EE7-AFD5-99A84D5762D5}"/>
+    <hyperlink ref="B263" r:id="rId343" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 55 yrs (Stop 22 Dec)" xr:uid="{884D2A54-DC16-4160-8FE3-AFED9BE7722A}"/>
+    <hyperlink ref="B264" r:id="rId344" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/785d6f2f-8292-422a-9833-2d2802ca7fa1" display="Beneficiaries [Seg 4 - Lapsed binding] (Stop 22 Dec)" xr:uid="{947451C0-F3E8-410C-B94E-AE666A563C27}"/>
+    <hyperlink ref="B267" r:id="rId345" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2a36e6fd-dd95-4f8b-87cb-ee5cbb8d6e73" display="SPC - Unpaid Super (Redundant 20251120) " xr:uid="{B5B1C7D8-8DF9-4D9D-B7AF-ACE3656B9CB3}"/>
+    <hyperlink ref="B268" r:id="rId346" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" display="Abandoned  Cart MJOL" xr:uid="{37A0CAD7-A271-4EDE-A7CB-3AB9E642CBA2}"/>
+    <hyperlink ref="B265:B266" r:id="rId347" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e1d432aa-88e8-4c3a-89bb-7cfed646e1be" display="PYS 12 Months" xr:uid="{56C87BF7-E58B-4910-BAD8-FA2366D4FEE7}"/>
+    <hyperlink ref="B269" r:id="rId348" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6b33825c-fbb5-4f47-b564-a293510bba4f" xr:uid="{C23CDD79-90A2-4C6B-A3DB-33B6822CF85A}"/>
+    <hyperlink ref="B270" r:id="rId349" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6b33825c-fbb5-4f47-b564-a293510bba4f" xr:uid="{DE650C40-D448-4F87-94F1-1AE88176FC1C}"/>
+    <hyperlink ref="B272" r:id="rId350" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{0D526AE5-9C92-49CC-841E-35EF62220E24}"/>
+    <hyperlink ref="B271" r:id="rId351" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{89DD9A11-62CB-443C-A2DC-91316A733B75}"/>
+    <hyperlink ref="T265" r:id="rId352" xr:uid="{45BDE7B1-09B3-46B9-BB72-8C0930A078BF}"/>
+    <hyperlink ref="B273" r:id="rId353" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{379C56FA-1D5B-4FA2-A31E-C5973A4CD9BF}"/>
+    <hyperlink ref="T273" r:id="rId354" xr:uid="{64F605DE-53A2-4520-9ECB-700F494E4B56}"/>
+    <hyperlink ref="T274" r:id="rId355" xr:uid="{F6F05B44-6AA2-4B51-A325-43FB7485F862}"/>
+    <hyperlink ref="T275" r:id="rId356" xr:uid="{6FA4FBEE-9AD9-4F61-8D10-C7C9A74A177F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId334"/>
+  <legacyDrawing r:id="rId357"/>
   <tableParts count="1">
-    <tablePart r:id="rId335"/>
+    <tablePart r:id="rId358"/>
   </tableParts>
 </worksheet>
 </file>
@@ -21032,7 +22352,7 @@
       <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="22.875" style="122" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
@@ -21040,44 +22360,44 @@
   <sheetData>
     <row r="1" spans="1:2" s="120" customFormat="1">
       <c r="A1" s="121" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="122" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="B2" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!L:L))</f>
-        <v>64.589614346182358</v>
+        <v>64.768442863437429</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="122" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B3" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!M:M))</f>
-        <v>6.4798719816326065</v>
+        <v>6.4166952030591622</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="122" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="B4" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!N:N))</f>
-        <v>9.9411063183731478</v>
+        <v>9.8200283852527317</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="122" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="B5" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!K:K))</f>
-        <v>0.15069075368289425</v>
+        <v>0.15054122509451209</v>
       </c>
     </row>
   </sheetData>
@@ -21086,15 +22406,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAB1339F159CD428AD0F5BA99C368F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3c12e32d35f281fc2cfbff59ce227b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0eeac73-9918-465e-bdd8-785547fbc2d9" xmlns:ns3="d777fa6b-bca0-4864-8d50-ac77b155e846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8cccd8974b01cfe5577657fdcd6042cb" ns2:_="" ns3:_="">
     <xsd:import namespace="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
@@ -21329,7 +22640,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
@@ -21340,16 +22651,25 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBF9AAC-F6EE-4F9D-A850-BD5FE7C93CA6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBF9AAC-F6EE-4F9D-A850-BD5FE7C93CA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbussuper.sharepoint.com/sites/MarketingTechTeam/Shared Documents/Reporting/FY26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB6D736-BD17-4648-84E3-F58F9685CA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E016FD0D-321E-4B4B-B08B-60C3CA687854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="297">
   <si>
     <t>img-id</t>
   </si>
@@ -1159,6 +1159,18 @@
   </si>
   <si>
     <t>https://litmus.com/folders/324180/emails/20279341/analytics</t>
+  </si>
+  <si>
+    <t>Age Pension - 68 Years (Filterted stats from insight team)</t>
+  </si>
+  <si>
+    <t>Age Pension - 67 Years  (Filterted stats from insight team)</t>
+  </si>
+  <si>
+    <t>Age Pension - 66 Years (Filterted stats from insight team)</t>
+  </si>
+  <si>
+    <t>Age Pension - 57 Years  (Filterted stats from insight team)</t>
   </si>
   <si>
     <t>Averages %</t>
@@ -1560,7 +1572,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
@@ -1895,6 +1907,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2636,8 +2660,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="A1:T275" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
-  <autoFilter ref="A1:T275" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="A1:T279" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
+  <autoFilter ref="A1:T279" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T160">
     <sortCondition ref="C1:C160"/>
   </sortState>
@@ -2999,11 +3023,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23CF1A7-A843-E143-B142-84B9EDCB7AA1}">
-  <dimension ref="A1:T275"/>
+  <dimension ref="A1:T279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G264" sqref="G264"/>
+      <pane ySplit="1" topLeftCell="K272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q276" sqref="Q276:T278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
@@ -21938,6 +21962,258 @@
       <c r="T275" s="117" t="s">
         <v>287</v>
       </c>
+    </row>
+    <row r="276" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A276" s="81">
+        <v>23</v>
+      </c>
+      <c r="B276" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="C276" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D276" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E276" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F276" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G276" s="9">
+        <v>193</v>
+      </c>
+      <c r="H276" s="25">
+        <v>120</v>
+      </c>
+      <c r="I276" s="29">
+        <v>16</v>
+      </c>
+      <c r="J276" s="16">
+        <v>0</v>
+      </c>
+      <c r="K276" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L276" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>62.176165803108809</v>
+      </c>
+      <c r="M276" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>8.2901554404145088</v>
+      </c>
+      <c r="N276" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O276" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.154044403876611</v>
+      </c>
+      <c r="P276" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q276" s="124"/>
+      <c r="R276" s="124"/>
+      <c r="S276" s="124"/>
+      <c r="T276" s="127"/>
+    </row>
+    <row r="277" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A277" s="81">
+        <v>22</v>
+      </c>
+      <c r="B277" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="C277" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D277" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E277" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G277" s="9">
+        <v>226</v>
+      </c>
+      <c r="H277" s="25">
+        <v>161</v>
+      </c>
+      <c r="I277" s="29">
+        <v>59</v>
+      </c>
+      <c r="J277" s="11">
+        <v>0</v>
+      </c>
+      <c r="K277" s="36">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L277" s="6">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>71.238938053097343</v>
+      </c>
+      <c r="M277" s="31">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>26.10619469026549</v>
+      </c>
+      <c r="N277" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>36.645962732919259</v>
+      </c>
+      <c r="O277" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>61.379121309421251</v>
+      </c>
+      <c r="P277" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟢</v>
+      </c>
+      <c r="Q277" s="124"/>
+      <c r="R277" s="124"/>
+      <c r="S277" s="124"/>
+      <c r="T277" s="127"/>
+    </row>
+    <row r="278" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A278" s="81">
+        <v>21</v>
+      </c>
+      <c r="B278" s="108" t="s">
+        <v>290</v>
+      </c>
+      <c r="C278" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D278" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E278" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F278" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G278" s="9">
+        <v>214</v>
+      </c>
+      <c r="H278" s="25">
+        <v>123</v>
+      </c>
+      <c r="I278" s="29">
+        <v>22</v>
+      </c>
+      <c r="J278" s="16">
+        <v>0</v>
+      </c>
+      <c r="K278" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L278" s="44">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>57.476635514018696</v>
+      </c>
+      <c r="M278" s="45">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>10.2803738317757</v>
+      </c>
+      <c r="N278" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>17.886178861788618</v>
+      </c>
+      <c r="O278" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>37.361341601886629</v>
+      </c>
+      <c r="P278" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q278" s="124"/>
+      <c r="R278" s="124"/>
+      <c r="S278" s="124"/>
+      <c r="T278" s="127"/>
+    </row>
+    <row r="279" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A279" s="82">
+        <v>20</v>
+      </c>
+      <c r="B279" s="111" t="s">
+        <v>291</v>
+      </c>
+      <c r="C279" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D279" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E279" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F279" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G279" s="13">
+        <v>428</v>
+      </c>
+      <c r="H279" s="24">
+        <v>210</v>
+      </c>
+      <c r="I279" s="28">
+        <v>17</v>
+      </c>
+      <c r="J279" s="16">
+        <v>2</v>
+      </c>
+      <c r="K279" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.46728971962616817</v>
+      </c>
+      <c r="L279" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>49.065420560747661</v>
+      </c>
+      <c r="M279" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>3.9719626168224296</v>
+      </c>
+      <c r="N279" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>8.0952380952380949</v>
+      </c>
+      <c r="O279" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>26.637424665909684</v>
+      </c>
+      <c r="P279" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
+      </c>
+      <c r="Q279" s="125"/>
+      <c r="R279" s="125"/>
+      <c r="S279" s="125"/>
+      <c r="T279" s="126"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C197:C202">
@@ -22335,11 +22611,15 @@
     <hyperlink ref="T273" r:id="rId354" xr:uid="{64F605DE-53A2-4520-9ECB-700F494E4B56}"/>
     <hyperlink ref="T274" r:id="rId355" xr:uid="{F6F05B44-6AA2-4B51-A325-43FB7485F862}"/>
     <hyperlink ref="T275" r:id="rId356" xr:uid="{6FA4FBEE-9AD9-4F61-8D10-C7C9A74A177F}"/>
+    <hyperlink ref="B276" r:id="rId357" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 68 Years [Pre 25 Sep 2025]" xr:uid="{90EA5B2E-0B7B-4C4F-837D-0A6B5A5040E0}"/>
+    <hyperlink ref="B277" r:id="rId358" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 67 Years Pre 25 Sep 2025]" xr:uid="{80F0ADC7-54B7-4261-8899-88744AEFCE9F}"/>
+    <hyperlink ref="B278" r:id="rId359" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 66 Years [Pre 25 Sep 2025]" xr:uid="{38563F74-846E-4FAD-99DB-EB52E1F2AE65}"/>
+    <hyperlink ref="B279" r:id="rId360" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" xr:uid="{8ADD44E8-6354-42E1-BB12-830FDE27E91D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId357"/>
+  <legacyDrawing r:id="rId361"/>
   <tableParts count="1">
-    <tablePart r:id="rId358"/>
+    <tablePart r:id="rId362"/>
   </tableParts>
 </worksheet>
 </file>
@@ -22360,44 +22640,44 @@
   <sheetData>
     <row r="1" spans="1:2" s="120" customFormat="1">
       <c r="A1" s="121" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="122" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B2" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!L:L))</f>
-        <v>64.768442863437429</v>
+        <v>64.699678073787155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="122" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B3" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!M:M))</f>
-        <v>6.4166952030591622</v>
+        <v>6.4993639288398866</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="122" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B4" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!N:N))</f>
-        <v>9.8200283852527317</v>
+        <v>9.9519729877069345</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="122" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B5" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!K:K))</f>
-        <v>0.15054122509451209</v>
+        <v>0.15005606257382187</v>
       </c>
     </row>
   </sheetData>
@@ -22406,6 +22686,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAB1339F159CD428AD0F5BA99C368F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3c12e32d35f281fc2cfbff59ce227b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0eeac73-9918-465e-bdd8-785547fbc2d9" xmlns:ns3="d777fa6b-bca0-4864-8d50-ac77b155e846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8cccd8974b01cfe5577657fdcd6042cb" ns2:_="" ns3:_="">
     <xsd:import namespace="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
@@ -22640,17 +22931,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -22661,11 +22941,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBF9AAC-F6EE-4F9D-A850-BD5FE7C93CA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBF9AAC-F6EE-4F9D-A850-BD5FE7C93CA6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbussuper.sharepoint.com/sites/MarketingTechTeam/Shared Documents/Reporting/FY26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E016FD0D-321E-4B4B-B08B-60C3CA687854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CCC12F6-761E-4E67-A1B9-E0A2F4641D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="298">
   <si>
     <t>img-id</t>
   </si>
@@ -1143,6 +1143,21 @@
     <t xml:space="preserve">Data Capture- Accum </t>
   </si>
   <si>
+    <t xml:space="preserve">PYS 9 Months (22-Dec-End) </t>
+  </si>
+  <si>
+    <t>Age Pension - 68 Years (Filterted stats from insight team)</t>
+  </si>
+  <si>
+    <t>Age Pension - 67 Years  (Filterted stats from insight team)</t>
+  </si>
+  <si>
+    <t>Age Pension - 66 Years (Filterted stats from insight team)</t>
+  </si>
+  <si>
+    <t>Age Pension - 57 Years  (Filterted stats from insight team)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CBUS - Podcast Launch [Super Shift] </t>
   </si>
   <si>
@@ -1159,18 +1174,6 @@
   </si>
   <si>
     <t>https://litmus.com/folders/324180/emails/20279341/analytics</t>
-  </si>
-  <si>
-    <t>Age Pension - 68 Years (Filterted stats from insight team)</t>
-  </si>
-  <si>
-    <t>Age Pension - 67 Years  (Filterted stats from insight team)</t>
-  </si>
-  <si>
-    <t>Age Pension - 66 Years (Filterted stats from insight team)</t>
-  </si>
-  <si>
-    <t>Age Pension - 57 Years  (Filterted stats from insight team)</t>
   </si>
   <si>
     <t>Averages %</t>
@@ -1909,16 +1912,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2660,8 +2663,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="A1:T279" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
-  <autoFilter ref="A1:T279" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}" name="Table1" displayName="Table1" ref="A1:T281" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
+  <autoFilter ref="A1:T281" xr:uid="{50DD768E-A427-4502-A92D-DAA15A17B5EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T160">
     <sortCondition ref="C1:C160"/>
   </sortState>
@@ -3023,11 +3026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23CF1A7-A843-E143-B142-84B9EDCB7AA1}">
-  <dimension ref="A1:T279"/>
+  <dimension ref="A1:T281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="K272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q276" sqref="Q276:T278"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A275" sqref="A275:XFD275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
@@ -21701,7 +21704,7 @@
         <v>23</v>
       </c>
       <c r="G272" s="13">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H272" s="24">
         <v>57</v>
@@ -21718,11 +21721,11 @@
       </c>
       <c r="L272" s="21">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>61.29032258064516</v>
+        <v>61.95652173913043</v>
       </c>
       <c r="M272" s="37">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>2.1505376344086025</v>
+        <v>2.1739130434782608</v>
       </c>
       <c r="N272" s="37">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
@@ -21733,7 +21736,7 @@
  + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
  * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
  - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>32.402589894785521</v>
+        <v>32.762287334593573</v>
       </c>
       <c r="P272" s="37" t="str">
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
@@ -21751,469 +21754,603 @@
       <c r="T272" s="98"/>
     </row>
     <row r="273" spans="1:20" ht="32.1" customHeight="1">
-      <c r="A273" s="82">
-        <v>94</v>
-      </c>
-      <c r="B273" s="86" t="s">
+      <c r="A273" s="81">
+        <v>79</v>
+      </c>
+      <c r="B273" s="84" t="s">
         <v>282</v>
       </c>
       <c r="C273" s="70">
-        <v>46000</v>
-      </c>
-      <c r="D273" s="15" t="s">
+        <v>45992</v>
+      </c>
+      <c r="D273" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E273" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F273" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G273" s="13">
-        <v>161516</v>
-      </c>
-      <c r="H273" s="24">
-        <v>76045</v>
-      </c>
-      <c r="I273" s="28">
-        <v>3030</v>
-      </c>
-      <c r="J273" s="16">
-        <v>132</v>
+      <c r="E273" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F273" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G273" s="9">
+        <v>1495</v>
+      </c>
+      <c r="H273" s="25">
+        <v>1008</v>
+      </c>
+      <c r="I273" s="29">
+        <v>147</v>
+      </c>
+      <c r="J273" s="60">
+        <v>3</v>
       </c>
       <c r="K273" s="35">
         <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
-        <v>8.172564947125982E-2</v>
+        <v>0.20066889632107021</v>
       </c>
       <c r="L273" s="21">
         <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>47.082022833651152</v>
+        <v>67.424749163879596</v>
       </c>
       <c r="M273" s="37">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>1.8759751355902818</v>
+        <v>9.8327759197324429</v>
       </c>
       <c r="N273" s="37">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
-        <v>3.984482871983694</v>
+        <v>14.583333333333334</v>
       </c>
       <c r="O273" s="37">
         <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
  + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
  * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
  - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>24.774767620071078</v>
+        <v>42.02570441046521</v>
       </c>
       <c r="P273" s="37" t="str">
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
-        <v>🔴</v>
-      </c>
-      <c r="Q273" s="14">
-        <v>73.2</v>
-      </c>
-      <c r="R273" s="16">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="S273" s="16">
-        <v>10.7</v>
-      </c>
-      <c r="T273" s="99" t="s">
+        <v>🟢</v>
+      </c>
+      <c r="Q273" s="60"/>
+      <c r="R273" s="60"/>
+      <c r="S273" s="60"/>
+      <c r="T273" s="87"/>
+    </row>
+    <row r="274" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A274" s="81">
+        <v>45</v>
+      </c>
+      <c r="B274" s="84" t="s">
+        <v>282</v>
+      </c>
+      <c r="C274" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D274" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F274" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G274" s="9">
+        <v>60</v>
+      </c>
+      <c r="H274" s="25">
+        <v>37</v>
+      </c>
+      <c r="I274" s="29">
+        <v>3</v>
+      </c>
+      <c r="J274" s="60">
+        <v>0</v>
+      </c>
+      <c r="K274" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L274" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>61.666666666666671</v>
+      </c>
+      <c r="M274" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>5</v>
+      </c>
+      <c r="N274" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>8.1081081081081088</v>
+      </c>
+      <c r="O274" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>35.000000000000007</v>
+      </c>
+      <c r="P274" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q274" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="R274" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="S274" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="T274" s="87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A275" s="81">
+        <v>23</v>
+      </c>
+      <c r="B275" s="108" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" ht="32.1" customHeight="1">
-      <c r="A274" s="82">
-        <v>95</v>
-      </c>
-      <c r="B274" s="104" t="s">
-        <v>284</v>
-      </c>
-      <c r="C274" s="70">
-        <v>46009</v>
-      </c>
-      <c r="D274" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E274" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F274" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G274" s="13">
-        <v>169</v>
-      </c>
-      <c r="H274" s="24">
-        <v>123</v>
-      </c>
-      <c r="I274" s="28">
-        <v>5</v>
-      </c>
-      <c r="J274" s="16">
-        <v>0</v>
-      </c>
-      <c r="K274" s="35">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="L274" s="21">
-        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>72.781065088757401</v>
-      </c>
-      <c r="M274" s="37">
-        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>2.9585798816568047</v>
-      </c>
-      <c r="N274" s="37">
-        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
-        <v>4.0650406504065035</v>
-      </c>
-      <c r="O274" s="37">
-        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
- + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
- * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
- - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>38.990231434473579</v>
-      </c>
-      <c r="P274" s="37" t="str">
+      <c r="C275" s="70">
+        <v>45992</v>
+      </c>
+      <c r="D275" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E275" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F275" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G275" s="9">
+        <v>193</v>
+      </c>
+      <c r="H275" s="25">
+        <v>120</v>
+      </c>
+      <c r="I275" s="29">
+        <v>16</v>
+      </c>
+      <c r="J275" s="16">
+        <v>0</v>
+      </c>
+      <c r="K275" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L275" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>62.176165803108809</v>
+      </c>
+      <c r="M275" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>8.2901554404145088</v>
+      </c>
+      <c r="N275" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O275" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.154044403876611</v>
+      </c>
+      <c r="P275" s="37" t="str">
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
-      <c r="Q274" s="14">
-        <v>40</v>
-      </c>
-      <c r="R274" s="16">
-        <v>26.7</v>
-      </c>
-      <c r="S274" s="16">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="T274" s="117" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="275" spans="1:20" ht="32.1" customHeight="1">
-      <c r="A275" s="82">
-        <v>95</v>
-      </c>
-      <c r="B275" s="104" t="s">
-        <v>286</v>
-      </c>
-      <c r="C275" s="70">
-        <v>46009</v>
-      </c>
-      <c r="D275" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E275" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F275" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G275" s="13">
-        <v>2754</v>
-      </c>
-      <c r="H275" s="24">
-        <v>1665</v>
-      </c>
-      <c r="I275" s="28">
-        <v>181</v>
-      </c>
-      <c r="J275" s="16">
-        <v>1</v>
-      </c>
-      <c r="K275" s="35">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
-        <v>3.6310820624546117E-2</v>
-      </c>
-      <c r="L275" s="21">
-        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>60.457516339869279</v>
-      </c>
-      <c r="M275" s="37">
-        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>6.572258533042846</v>
-      </c>
-      <c r="N275" s="37">
-        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
-        <v>10.870870870870871</v>
-      </c>
-      <c r="O275" s="37">
-        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
- + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
- * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
- - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>35.644950844589161</v>
-      </c>
-      <c r="P275" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
-        <v>🟡</v>
-      </c>
-      <c r="Q275" s="14">
-        <v>77.2</v>
-      </c>
-      <c r="R275" s="16">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S275" s="16">
-        <v>6.4</v>
-      </c>
-      <c r="T275" s="117" t="s">
-        <v>287</v>
-      </c>
+      <c r="Q275" s="60"/>
+      <c r="R275" s="60"/>
+      <c r="S275" s="60"/>
+      <c r="T275" s="124"/>
     </row>
     <row r="276" spans="1:20" ht="32.1" customHeight="1">
       <c r="A276" s="81">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B276" s="108" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C276" s="70">
         <v>45992</v>
       </c>
-      <c r="D276" s="46" t="s">
+      <c r="D276" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E276" s="46" t="s">
+      <c r="E276" s="48" t="s">
         <v>22</v>
       </c>
       <c r="F276" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G276" s="9">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="H276" s="25">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="I276" s="29">
-        <v>16</v>
-      </c>
-      <c r="J276" s="16">
-        <v>0</v>
-      </c>
-      <c r="K276" s="35">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="L276" s="21">
-        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>62.176165803108809</v>
-      </c>
-      <c r="M276" s="37">
-        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>8.2901554404145088</v>
+        <v>59</v>
+      </c>
+      <c r="J276" s="11">
+        <v>0</v>
+      </c>
+      <c r="K276" s="36">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L276" s="6">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>71.238938053097343</v>
+      </c>
+      <c r="M276" s="31">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>26.10619469026549</v>
       </c>
       <c r="N276" s="37">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
-        <v>13.333333333333334</v>
+        <v>36.645962732919259</v>
       </c>
       <c r="O276" s="37">
         <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
  + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
  * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
  - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>38.154044403876611</v>
+        <v>61.379121309421251</v>
       </c>
       <c r="P276" s="37" t="str">
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
-        <v>🟡</v>
-      </c>
-      <c r="Q276" s="124"/>
-      <c r="R276" s="124"/>
-      <c r="S276" s="124"/>
-      <c r="T276" s="127"/>
+        <v>🟢</v>
+      </c>
+      <c r="Q276" s="60"/>
+      <c r="R276" s="60"/>
+      <c r="S276" s="60"/>
+      <c r="T276" s="124"/>
     </row>
     <row r="277" spans="1:20" ht="32.1" customHeight="1">
       <c r="A277" s="81">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B277" s="108" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C277" s="70">
         <v>45992</v>
       </c>
-      <c r="D277" s="48" t="s">
+      <c r="D277" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E277" s="48" t="s">
+      <c r="E277" s="46" t="s">
         <v>22</v>
       </c>
       <c r="F277" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G277" s="9">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H277" s="25">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="I277" s="29">
-        <v>59</v>
-      </c>
-      <c r="J277" s="11">
-        <v>0</v>
-      </c>
-      <c r="K277" s="36">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="L277" s="6">
-        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>71.238938053097343</v>
-      </c>
-      <c r="M277" s="31">
-        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>26.10619469026549</v>
+        <v>22</v>
+      </c>
+      <c r="J277" s="16">
+        <v>0</v>
+      </c>
+      <c r="K277" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L277" s="44">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>57.476635514018696</v>
+      </c>
+      <c r="M277" s="45">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>10.2803738317757</v>
       </c>
       <c r="N277" s="37">
         <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
-        <v>36.645962732919259</v>
+        <v>17.886178861788618</v>
       </c>
       <c r="O277" s="37">
         <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
  + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
  * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
  - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>61.379121309421251</v>
+        <v>37.361341601886629</v>
       </c>
       <c r="P277" s="37" t="str">
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
-        <v>🟢</v>
-      </c>
-      <c r="Q277" s="124"/>
-      <c r="R277" s="124"/>
-      <c r="S277" s="124"/>
-      <c r="T277" s="127"/>
+        <v>🟡</v>
+      </c>
+      <c r="Q277" s="60"/>
+      <c r="R277" s="60"/>
+      <c r="S277" s="60"/>
+      <c r="T277" s="124"/>
     </row>
     <row r="278" spans="1:20" ht="32.1" customHeight="1">
-      <c r="A278" s="81">
-        <v>21</v>
-      </c>
-      <c r="B278" s="108" t="s">
-        <v>290</v>
+      <c r="A278" s="82">
+        <v>20</v>
+      </c>
+      <c r="B278" s="111" t="s">
+        <v>286</v>
       </c>
       <c r="C278" s="70">
         <v>45992</v>
       </c>
-      <c r="D278" s="46" t="s">
+      <c r="D278" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E278" s="46" t="s">
+      <c r="E278" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F278" s="20" t="s">
+      <c r="F278" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G278" s="9">
-        <v>214</v>
-      </c>
-      <c r="H278" s="25">
+      <c r="G278" s="13">
+        <v>428</v>
+      </c>
+      <c r="H278" s="24">
+        <v>210</v>
+      </c>
+      <c r="I278" s="28">
+        <v>17</v>
+      </c>
+      <c r="J278" s="16">
+        <v>2</v>
+      </c>
+      <c r="K278" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0.46728971962616817</v>
+      </c>
+      <c r="L278" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>49.065420560747661</v>
+      </c>
+      <c r="M278" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>3.9719626168224296</v>
+      </c>
+      <c r="N278" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>8.0952380952380949</v>
+      </c>
+      <c r="O278" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>26.637424665909684</v>
+      </c>
+      <c r="P278" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
+      </c>
+      <c r="Q278" s="60"/>
+      <c r="R278" s="60"/>
+      <c r="S278" s="60"/>
+      <c r="T278" s="87"/>
+    </row>
+    <row r="279" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A279" s="81">
+        <v>94</v>
+      </c>
+      <c r="B279" s="106" t="s">
+        <v>287</v>
+      </c>
+      <c r="C279" s="69">
+        <v>46000</v>
+      </c>
+      <c r="D279" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E279" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F279" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G279" s="9">
+        <v>161516</v>
+      </c>
+      <c r="H279" s="25">
+        <v>76045</v>
+      </c>
+      <c r="I279" s="29">
+        <v>3030</v>
+      </c>
+      <c r="J279" s="16">
+        <v>132</v>
+      </c>
+      <c r="K279" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>8.172564947125982E-2</v>
+      </c>
+      <c r="L279" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>47.082022833651152</v>
+      </c>
+      <c r="M279" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>1.8759751355902818</v>
+      </c>
+      <c r="N279" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>3.984482871983694</v>
+      </c>
+      <c r="O279" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>24.774767620071078</v>
+      </c>
+      <c r="P279" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🔴</v>
+      </c>
+      <c r="Q279" s="125">
+        <v>73.2</v>
+      </c>
+      <c r="R279" s="126">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S279" s="126">
+        <v>10.7</v>
+      </c>
+      <c r="T279" s="127" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A280" s="81">
+        <v>95</v>
+      </c>
+      <c r="B280" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="C280" s="69">
+        <v>46009</v>
+      </c>
+      <c r="D280" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F280" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G280" s="9">
+        <v>169</v>
+      </c>
+      <c r="H280" s="25">
         <v>123</v>
       </c>
-      <c r="I278" s="29">
-        <v>22</v>
-      </c>
-      <c r="J278" s="16">
-        <v>0</v>
-      </c>
-      <c r="K278" s="35">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="L278" s="44">
-        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>57.476635514018696</v>
-      </c>
-      <c r="M278" s="45">
-        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>10.2803738317757</v>
-      </c>
-      <c r="N278" s="37">
-        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
-        <v>17.886178861788618</v>
-      </c>
-      <c r="O278" s="37">
-        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
- + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
- * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
- - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>37.361341601886629</v>
-      </c>
-      <c r="P278" s="37" t="str">
+      <c r="I280" s="29">
+        <v>5</v>
+      </c>
+      <c r="J280" s="16">
+        <v>0</v>
+      </c>
+      <c r="K280" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>0</v>
+      </c>
+      <c r="L280" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>72.781065088757401</v>
+      </c>
+      <c r="M280" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>2.9585798816568047</v>
+      </c>
+      <c r="N280" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>4.0650406504065035</v>
+      </c>
+      <c r="O280" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>38.990231434473579</v>
+      </c>
+      <c r="P280" s="37" t="str">
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
-      <c r="Q278" s="124"/>
-      <c r="R278" s="124"/>
-      <c r="S278" s="124"/>
-      <c r="T278" s="127"/>
-    </row>
-    <row r="279" spans="1:20" ht="32.1" customHeight="1">
-      <c r="A279" s="82">
-        <v>20</v>
-      </c>
-      <c r="B279" s="111" t="s">
+      <c r="Q280" s="125">
+        <v>40</v>
+      </c>
+      <c r="R280" s="126">
+        <v>26.7</v>
+      </c>
+      <c r="S280" s="126">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="T280" s="127" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" ht="32.1" customHeight="1">
+      <c r="A281" s="82">
+        <v>95</v>
+      </c>
+      <c r="B281" s="104" t="s">
         <v>291</v>
       </c>
-      <c r="C279" s="70">
-        <v>45992</v>
-      </c>
-      <c r="D279" s="47" t="s">
+      <c r="C281" s="70">
+        <v>46009</v>
+      </c>
+      <c r="D281" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E279" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F279" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G279" s="13">
-        <v>428</v>
-      </c>
-      <c r="H279" s="24">
-        <v>210</v>
-      </c>
-      <c r="I279" s="28">
-        <v>17</v>
-      </c>
-      <c r="J279" s="16">
-        <v>2</v>
-      </c>
-      <c r="K279" s="35">
-        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
-        <v>0.46728971962616817</v>
-      </c>
-      <c r="L279" s="21">
-        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>49.065420560747661</v>
-      </c>
-      <c r="M279" s="37">
-        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
-        <v>3.9719626168224296</v>
-      </c>
-      <c r="N279" s="37">
-        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
-        <v>8.0952380952380949</v>
-      </c>
-      <c r="O279" s="37">
-        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
- + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
- * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
- - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
-        <v>26.637424665909684</v>
-      </c>
-      <c r="P279" s="37" t="str">
-        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
-        <v>🔴</v>
-      </c>
-      <c r="Q279" s="125"/>
-      <c r="R279" s="125"/>
-      <c r="S279" s="125"/>
-      <c r="T279" s="126"/>
+      <c r="E281" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F281" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G281" s="13">
+        <v>2754</v>
+      </c>
+      <c r="H281" s="24">
+        <v>1665</v>
+      </c>
+      <c r="I281" s="28">
+        <v>181</v>
+      </c>
+      <c r="J281" s="16">
+        <v>1</v>
+      </c>
+      <c r="K281" s="35">
+        <f>(Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]])*100</f>
+        <v>3.6310820624546117E-2</v>
+      </c>
+      <c r="L281" s="21">
+        <f>Table1[[#This Row],[unique-opens]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>60.457516339869279</v>
+      </c>
+      <c r="M281" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-sends]] * 100</f>
+        <v>6.572258533042846</v>
+      </c>
+      <c r="N281" s="37">
+        <f>Table1[[#This Row],[unique-clicks]] / Table1[[#This Row],[unique-opens]] * 100</f>
+        <v>10.870870870870871</v>
+      </c>
+      <c r="O281" s="37">
+        <f>(MIN(Table1[[#This Row],[unique-opens]]/Table1[[#This Row],[unique-sends]],1)*50
+ + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1)*50)
+ * (1 + MIN(Table1[[#This Row],[unique-clicks]]/Table1[[#This Row],[unique-sends]],1))
+ - ((Table1[[#This Row],[unsub]]/Table1[[#This Row],[unique-sends]]*100)*2)</f>
+        <v>35.644950844589161</v>
+      </c>
+      <c r="P281" s="37" t="str">
+        <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
+        <v>🟡</v>
+      </c>
+      <c r="Q281" s="125">
+        <v>77.2</v>
+      </c>
+      <c r="R281" s="126">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="S281" s="126">
+        <v>6.4</v>
+      </c>
+      <c r="T281" s="127" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C197:C202">
@@ -22255,371 +22392,349 @@
     <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/541e1d3f-d064-4e8c-ad26-a2f26946d5ec" xr:uid="{A0444A8C-B658-434F-912C-6E4903003899}"/>
-    <hyperlink ref="B32" r:id="rId2" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{7F7AB8F8-DEAF-3449-99E1-B7BA87B8D6EF}"/>
-    <hyperlink ref="B33" r:id="rId3" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{B63C576D-7994-6D43-BAC0-C9CB36419E3D}"/>
-    <hyperlink ref="B28" r:id="rId4" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{55F1AE99-10CB-7148-815A-490ABAE8C7E5}"/>
-    <hyperlink ref="B29" r:id="rId5" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{E086D344-6939-0546-BD48-E1DE212F93A3}"/>
-    <hyperlink ref="B30" r:id="rId6" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{BA7A759B-B2FB-C64C-AACF-2D62F08DC76A}"/>
-    <hyperlink ref="B31" r:id="rId7" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{4D168887-CA13-A245-A790-692A0821F674}"/>
-    <hyperlink ref="B34" r:id="rId8" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{A74DA7AF-FF8B-CD43-A7F7-7E57FBD2A7BA}"/>
-    <hyperlink ref="B35" r:id="rId9" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{0DCFFBD3-AB88-B84D-96F9-F86FD4E67D64}"/>
-    <hyperlink ref="B37" r:id="rId10" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{6DF15277-6029-7343-8803-C69575ED3570}"/>
-    <hyperlink ref="B36" r:id="rId11" location="/@cbus/sname:prod/journey-optimizer/journey/report/" display="EOFY Performance" xr:uid="{4F2D85B6-4267-0641-8B81-5023B9593C70}"/>
-    <hyperlink ref="B38" r:id="rId12" location="/@cbus/sname:prod/journey-optimizer/journey/report/" display="EOFY Performance" xr:uid="{B316FBC2-9FEE-B340-A267-E6ECABFCA375}"/>
-    <hyperlink ref="B39" r:id="rId13" location="/@cbus/sname:prod/journey-optimizer/journey/report/" display="EOFY Performance" xr:uid="{ED60402C-1452-B241-8941-D6448A79EB4B}"/>
-    <hyperlink ref="B40" r:id="rId14" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{2DDC3489-8245-B045-B27C-0C53BE66B1D3}"/>
-    <hyperlink ref="B41" r:id="rId15" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{CC18B321-7B40-B14C-B0BA-0B394F37FB1B}"/>
-    <hyperlink ref="B42" r:id="rId16" location="/@cbus/sname:prod/journey-optimizer/journey/report/" display="CBUS - Corporate insurance SEN (AME) Cbus" xr:uid="{C540744B-5256-B74D-917A-E9C3183B0ED0}"/>
-    <hyperlink ref="B43" r:id="rId17" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{D2AD9D56-ED8D-A74B-BF75-E0A47B438E34}"/>
-    <hyperlink ref="B44" r:id="rId18" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{E0417873-39DF-B845-B923-0200FA9CA2F7}"/>
-    <hyperlink ref="B49" r:id="rId19" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{D74E4B1C-FE5C-C542-800C-ECA69E65CCF0}"/>
-    <hyperlink ref="B50" r:id="rId20" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{9E4CF538-4AC2-1849-8C5A-4AB7B64B6F63}"/>
-    <hyperlink ref="B45" r:id="rId21" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{B25CC288-D429-7342-8850-3247BA70AFCE}"/>
-    <hyperlink ref="B46" r:id="rId22" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{53BC90F5-EC80-0D48-BDE3-6B226F229779}"/>
-    <hyperlink ref="B47" r:id="rId23" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{9AB33328-4010-F843-B550-8D7E64EC2CD1}"/>
-    <hyperlink ref="B48" r:id="rId24" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{1CD36E2E-A888-B64A-A43F-52462AF0D631}"/>
-    <hyperlink ref="B4" r:id="rId25" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/541e1d3f-d064-4e8c-ad26-a2f26946d5ec" xr:uid="{BFA6D6B9-0F92-4A98-BC01-3F66ECBAF652}"/>
-    <hyperlink ref="T4" r:id="rId26" xr:uid="{51BBEF75-8B33-4A54-A5A5-C3E2872BA63D}"/>
-    <hyperlink ref="T3" r:id="rId27" xr:uid="{9B91B3EB-9AC1-4462-A67A-81961D7FCB79}"/>
-    <hyperlink ref="T32" r:id="rId28" xr:uid="{1077084C-D29E-4ABC-BD53-A05F91719125}"/>
-    <hyperlink ref="T33" r:id="rId29" xr:uid="{E82B6BA4-E16F-492E-BCD8-911C556EA12C}"/>
-    <hyperlink ref="T28" r:id="rId30" xr:uid="{6184ED25-1DF9-49D3-AC87-98D010A3B3E0}"/>
-    <hyperlink ref="T29" r:id="rId31" xr:uid="{23489B88-1AF7-440D-82A5-D2C99B402CE1}"/>
-    <hyperlink ref="T30" r:id="rId32" xr:uid="{29D38B7B-0EEB-4F1D-BD67-2FE0B692C886}"/>
-    <hyperlink ref="T31" r:id="rId33" xr:uid="{E529B59E-BC39-41D7-A6B8-B76C65B02964}"/>
-    <hyperlink ref="T34" r:id="rId34" xr:uid="{75D776C4-686E-4764-A0CE-7978746739AA}"/>
-    <hyperlink ref="T35" r:id="rId35" xr:uid="{18534669-D2F7-4C45-BE71-B06E441E98C4}"/>
-    <hyperlink ref="T40" r:id="rId36" xr:uid="{4456DFDD-02ED-4178-A1B2-7A56262C79A7}"/>
-    <hyperlink ref="T41" r:id="rId37" xr:uid="{85BEFFFA-77A3-49CF-94D8-7F3EBFED1A80}"/>
-    <hyperlink ref="T43" r:id="rId38" xr:uid="{9D50E18A-27F4-4E22-95C5-F200362F77FE}"/>
-    <hyperlink ref="T44" r:id="rId39" xr:uid="{49F0C4D7-6B49-48CB-9B69-3680BAAED979}"/>
-    <hyperlink ref="T49" r:id="rId40" xr:uid="{669F8622-A0EA-44FE-8AAA-EAB6EE53AEB9}"/>
-    <hyperlink ref="T50" r:id="rId41" xr:uid="{3EC869FD-833C-4252-AFF2-954077725E77}"/>
-    <hyperlink ref="B74" r:id="rId42" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2b3a8bd7-9314-4486-bed5-590aae72eef6" xr:uid="{DDE7FEFC-6B1E-4AA0-B976-36D2973B650E}"/>
-    <hyperlink ref="T74" r:id="rId43" xr:uid="{7AD33B0E-E2D3-41B8-9172-D15847D781D8}"/>
-    <hyperlink ref="B75" r:id="rId44" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/837cd468-99da-4b6c-86ed-a729c8dedaed" xr:uid="{8D543BC5-E411-41F4-AC77-9D04065517CB}"/>
-    <hyperlink ref="T75" r:id="rId45" xr:uid="{0118962C-499A-4545-8BD4-3ABE37EC8589}"/>
-    <hyperlink ref="B76" r:id="rId46" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1c60eb15-5315-4d97-bc92-f3321a8f2bb8" xr:uid="{0C3ADEAB-E937-4D0F-A344-AB2EAC09C8ED}"/>
-    <hyperlink ref="T76" r:id="rId47" xr:uid="{EA3D39DE-B821-4DE6-A6E8-54C4DB4002CB}"/>
-    <hyperlink ref="B79" r:id="rId48" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d0d232aa-3290-434d-8c3f-c589a73ea607" xr:uid="{21BFCBA6-6AD1-4DF1-BFCC-97AF53BF164E}"/>
-    <hyperlink ref="B80" r:id="rId49" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d0d232aa-3290-434d-8c3f-c589a73ea607" xr:uid="{FFD820BD-0682-4A01-886A-FC6E140DD7F6}"/>
-    <hyperlink ref="T79" r:id="rId50" xr:uid="{BDD938AD-4F2D-4D6D-A609-A2D733A83114}"/>
-    <hyperlink ref="T80" r:id="rId51" xr:uid="{54C0322F-D13C-44D8-B6EB-53DBB2BCA1C8}"/>
-    <hyperlink ref="B77" r:id="rId52" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/10c562f8-f91d-4456-8e2f-4ac211353527" xr:uid="{10A9ABF1-9B48-49EB-8857-3A95282225D7}"/>
-    <hyperlink ref="B78" r:id="rId53" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/10c562f8-f91d-4456-8e2f-4ac211353527" xr:uid="{03BE0AA5-037E-4E17-8386-29BAE9E3BEE5}"/>
-    <hyperlink ref="T77" r:id="rId54" xr:uid="{337F27CF-D0CD-4B04-A48D-36C253F1BE4F}"/>
-    <hyperlink ref="T78" r:id="rId55" xr:uid="{7FE3D493-8D5B-4496-8F77-D73CA4BD72FB}"/>
-    <hyperlink ref="B82" r:id="rId56" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2be0e003-3e51-476c-86ea-8a1f8913d899" xr:uid="{DCBBFEEB-0E31-4647-A7B8-662452421D74}"/>
-    <hyperlink ref="B83" r:id="rId57" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2be0e003-3e51-476c-86ea-8a1f8913d899" xr:uid="{F08C799E-E69A-4FAE-9577-3BE26DC55F8C}"/>
-    <hyperlink ref="T82" r:id="rId58" xr:uid="{F25A322F-4512-4FB9-896D-FC4488D151BC}"/>
-    <hyperlink ref="T83" r:id="rId59" xr:uid="{E9B325CA-DA26-471B-8892-3CD505753BC9}"/>
-    <hyperlink ref="B81" r:id="rId60" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d5aac9ae-16b6-46ce-9310-1ba0004b45ea" xr:uid="{FCD585C4-F8D5-442F-82A2-8DA88F7E9D6B}"/>
-    <hyperlink ref="T81" r:id="rId61" xr:uid="{E2C5678C-A592-4E8F-8D77-8769EA44690D}"/>
-    <hyperlink ref="B84" r:id="rId62" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cb123bc-fd8e-4868-82f1-14995d53c591" xr:uid="{930F7BAC-EDE4-4C25-8B39-8677C9CD53AD}"/>
-    <hyperlink ref="B85" r:id="rId63" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cb123bc-fd8e-4868-82f1-14995d53c591" xr:uid="{DDF5BEEE-A105-4CBA-B3EF-4B0632B51EAE}"/>
-    <hyperlink ref="T84" r:id="rId64" xr:uid="{28F02C08-2175-4786-AE8B-EF7115BB2A13}"/>
-    <hyperlink ref="T85" r:id="rId65" xr:uid="{6B6FA851-5730-41C3-9AD3-29501233C4EF}"/>
-    <hyperlink ref="B86" r:id="rId66" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/47e8e523-4417-4b5b-90e5-f72b14e59a38" display="Cbus Advocacy Research" xr:uid="{415E68FE-63DA-4727-BBF2-D5B9E5B4A68B}"/>
-    <hyperlink ref="T86" r:id="rId67" xr:uid="{2AD3FFE5-FB20-4C1E-B57F-CFE0E5B36B26}"/>
-    <hyperlink ref="B89" r:id="rId68" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/50c38354-a1aa-4221-89a9-67b1c2af5d56" xr:uid="{776AA357-15C0-415F-AD46-2E881767E760}"/>
-    <hyperlink ref="T89" r:id="rId69" xr:uid="{67874548-D942-44D2-AFBC-BB37ACD6D8B7}"/>
-    <hyperlink ref="B87" r:id="rId70" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bcdec3d6-9690-4399-8cce-1c945390b466" xr:uid="{17B72274-B78F-495D-B419-9A0D73821A7F}"/>
-    <hyperlink ref="B88" r:id="rId71" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bcdec3d6-9690-4399-8cce-1c945390b466" xr:uid="{C08F1CF4-F712-4502-B9D7-AB516367C6BC}"/>
-    <hyperlink ref="T87" r:id="rId72" xr:uid="{09AA577A-31BB-4E89-AD1C-E223A35FAD60}"/>
-    <hyperlink ref="T88" r:id="rId73" xr:uid="{720B7893-DA39-46C3-87FA-F12DA6138BED}"/>
-    <hyperlink ref="B92" r:id="rId74" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{69BF4C00-E3BA-45B0-811B-3788561FDB24}"/>
-    <hyperlink ref="B91" r:id="rId75" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{D7585B4B-7204-4A4E-B140-4217FD309F7E}"/>
-    <hyperlink ref="B90" r:id="rId76" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{8256078B-EEC5-4D3C-87D3-6EDECA6A4325}"/>
-    <hyperlink ref="T91" r:id="rId77" xr:uid="{BD617822-7DD4-4BC8-8F4E-3DD549DB69D2}"/>
-    <hyperlink ref="T38" r:id="rId78" xr:uid="{43E542A7-EED9-47CD-A876-76D47F10BB49}"/>
-    <hyperlink ref="B93" r:id="rId79" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/7e56f57e-12e2-49c0-9e51-de68fe9cf789" display="#1 - SIS Acquisition - 2025 AUG" xr:uid="{E1FC8E26-35AB-43CA-8415-357E70A82AA7}"/>
-    <hyperlink ref="B95" r:id="rId80" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bca1837c-0f90-4529-9649-68676fad5162" display="#2 - SIS Acquisition - 2025 AUG" xr:uid="{83A5C014-4EB4-4268-8408-8C349E11D7B2}"/>
-    <hyperlink ref="B94" r:id="rId81" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/7e56f57e-12e2-49c0-9e51-de68fe9cf789" display="#1 - SIS Acquisition - 2025 AUG" xr:uid="{646A26CD-0D28-4643-9A18-7C11B5F2A6A6}"/>
-    <hyperlink ref="B96" r:id="rId82" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bca1837c-0f90-4529-9649-68676fad5162" display="#2 - SIS Acquisition - 2025 AUG" xr:uid="{97F55F8E-404D-4975-8457-45A84171A0DA}"/>
-    <hyperlink ref="B97" r:id="rId83" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f089ea09-6c3a-40ce-a12b-446940edf922" display="SIS Acquisition Sept 2025 - Segment 3" xr:uid="{04BC038E-0610-489D-8444-24F059E92866}"/>
-    <hyperlink ref="B99" r:id="rId84" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f089ea09-6c3a-40ce-a12b-446940edf922" display="SIS Acquisition Sept 2025 - Segment 3" xr:uid="{D5044EAD-B4FF-4896-9CE0-207234A2ACF4}"/>
-    <hyperlink ref="B98" r:id="rId85" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f089ea09-6c3a-40ce-a12b-446940edf922" display="SIS Acquisition Sept 2025 - Segment 3" xr:uid="{DE061018-F231-4EA6-B230-C6F38A03B8ED}"/>
-    <hyperlink ref="B101" r:id="rId86" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/92b3dff9-2ac0-41da-8e22-ce0ba4df098d" display="SIS Acquisition Sept 2025 - Segment 4  - Cbus" xr:uid="{90DDD61B-B442-447D-BC3F-2F85AAF8535E}"/>
-    <hyperlink ref="B100" r:id="rId87" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/92b3dff9-2ac0-41da-8e22-ce0ba4df098d" xr:uid="{405A91C1-FFD6-4110-8E98-F2CED007F2C4}"/>
-    <hyperlink ref="T93" r:id="rId88" xr:uid="{46A4C0C5-3DA2-4EDE-9262-78B2CEC51B84}"/>
-    <hyperlink ref="T94" r:id="rId89" xr:uid="{AA5FA10A-8377-4821-89EE-5352A329D287}"/>
-    <hyperlink ref="T95" r:id="rId90" xr:uid="{9AA04B41-F1EE-4344-8658-C5D6B7A1AFEA}"/>
-    <hyperlink ref="T96" r:id="rId91" xr:uid="{C2B27C02-626B-497A-93FB-13BB9D4DBBAC}"/>
-    <hyperlink ref="T99" r:id="rId92" xr:uid="{470E4EA3-F735-46B3-B163-4B6833C6BC1E}"/>
-    <hyperlink ref="T97" r:id="rId93" xr:uid="{747F63F2-3DB0-4754-92D2-72D1A8E78BE2}"/>
-    <hyperlink ref="T98" r:id="rId94" xr:uid="{5F3CB8C3-A80F-4108-86AE-76AA502ED4CE}"/>
-    <hyperlink ref="T100" r:id="rId95" xr:uid="{A4F27734-7717-4BB5-9DD8-C6FA10D03B1E}"/>
-    <hyperlink ref="T101" r:id="rId96" xr:uid="{10110FD1-EBB0-40E1-9BB7-56E1B6C67A71}"/>
-    <hyperlink ref="B130" r:id="rId97" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c24482ca-6dff-4676-bc67-415d108359fd" display="Cbus News" xr:uid="{7B937800-2778-4DA1-909D-7AA3E2D314AE}"/>
-    <hyperlink ref="B55" r:id="rId98" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c24482ca-6dff-4676-bc67-415d108359fd" display="Cbus News" xr:uid="{38AC2DFC-38D6-4B1E-8941-C0F91073E1DF}"/>
-    <hyperlink ref="B134" r:id="rId99" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c24482ca-6dff-4676-bc67-415d108359fd" display="Cbus News" xr:uid="{0EC00125-AD37-4C7E-87D0-E41A772F2C30}"/>
-    <hyperlink ref="B57" r:id="rId100" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c24482ca-6dff-4676-bc67-415d108359fd" display="Cbus News" xr:uid="{9A26CB6A-49BD-4B31-A6A4-92AF61DD4285}"/>
-    <hyperlink ref="B124" r:id="rId101" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b4838304-27ee-40d6-a2c5-fbe51637f011" display="Cbus News Sep - SIS " xr:uid="{9BB6CB4F-35CC-4CCB-A023-11C2EF4DDE69}"/>
-    <hyperlink ref="B123" r:id="rId102" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b4838304-27ee-40d6-a2c5-fbe51637f011" display="Cbus News Sep - SIS " xr:uid="{0B77C253-E7F7-42DB-81B8-1D54AEBD1DE2}"/>
-    <hyperlink ref="B127" r:id="rId103" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/738d4a66-5e39-4d8d-a98d-63f9d66dd930" display="News Sep" xr:uid="{CA7D616B-F1AE-40D0-8563-BC35B1028440}"/>
-    <hyperlink ref="T130" r:id="rId104" xr:uid="{6CD9C4AC-521A-44D2-ABED-C9ADFE5619F9}"/>
-    <hyperlink ref="T132" r:id="rId105" xr:uid="{DECC8875-831C-48D8-A401-5D8F6D6AA9A9}"/>
-    <hyperlink ref="T131" r:id="rId106" xr:uid="{9694BB1C-6051-4A63-9607-0AFC686FEDAC}"/>
-    <hyperlink ref="T134" r:id="rId107" xr:uid="{2AFB76FF-37CE-4C3B-8875-234DF8BBF9B9}"/>
-    <hyperlink ref="T136" r:id="rId108" xr:uid="{47C5D00B-E958-478C-9509-D0B2CD2EC750}"/>
-    <hyperlink ref="T135" r:id="rId109" xr:uid="{F7CD77B8-5717-48A5-9E25-F0A154195DAE}"/>
-    <hyperlink ref="T124" r:id="rId110" xr:uid="{5870EC70-AFC1-4984-B63C-70E52D1997C7}"/>
-    <hyperlink ref="T123" r:id="rId111" xr:uid="{2FE6564C-E9AF-47B3-BC71-8D3F9604053F}"/>
-    <hyperlink ref="T127" r:id="rId112" xr:uid="{CB253886-C65A-44AD-83AA-4CB9936DC0E9}"/>
-    <hyperlink ref="T142" r:id="rId113" xr:uid="{8FD3C9C1-19DD-4DE4-BFED-40C1EDDB16F1}"/>
-    <hyperlink ref="B126" r:id="rId114" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/283624f3-e567-4929-b8bc-d33a9f46ea1e" xr:uid="{FC91E404-A8D6-4EA7-B93E-83446233E670}"/>
-    <hyperlink ref="T126" r:id="rId115" xr:uid="{27456D55-2F72-404D-9C8B-C854698E9165}"/>
-    <hyperlink ref="B125" r:id="rId116" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6a792d2d-ca50-468a-9456-895d03fadfd6" xr:uid="{D4243DDC-749D-4275-B355-E031B567E956}"/>
-    <hyperlink ref="T125" r:id="rId117" xr:uid="{081DB7BB-6798-4BBA-9CAC-132A641DD637}"/>
-    <hyperlink ref="B128" r:id="rId118" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6e06488a-6cb6-428b-9ed6-c8c73ef8b763" xr:uid="{870C6C52-B6E1-4366-9D24-2C1E9D97B15C}"/>
-    <hyperlink ref="B129" r:id="rId119" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6e06488a-6cb6-428b-9ed6-c8c73ef8b763" xr:uid="{0DBE4AED-79C9-4D1F-B6BF-0DF81DB8A6E6}"/>
-    <hyperlink ref="T128" r:id="rId120" xr:uid="{E438F1A1-1B16-4AA3-9219-689FFA1E87CB}"/>
-    <hyperlink ref="T129" r:id="rId121" xr:uid="{25B0C20B-7FC6-45F5-9CF8-EA12B3A78096}"/>
-    <hyperlink ref="B133" r:id="rId122" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/4a7d9c16-ca7f-44aa-a2ef-4239c50d26cc" display="Cbus Advocacy Research Survey - Reminder" xr:uid="{56014A37-0DA9-4BC2-A690-FC44626B215E}"/>
-    <hyperlink ref="T133" r:id="rId123" xr:uid="{084B1D27-4465-483D-85B0-F28273391DB3}"/>
-    <hyperlink ref="B139" r:id="rId124" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/92edf682-d87c-422d-8e7b-bb7d146dc839" xr:uid="{E6EF1D18-86DA-462F-B890-F8805E20CCE5}"/>
-    <hyperlink ref="T139" r:id="rId125" xr:uid="{20B61D8D-19A7-4A3E-A798-10CEE9AEF74B}"/>
-    <hyperlink ref="B137" r:id="rId126" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bc71c7b3-ef48-4aba-ad95-ac8cb9712109" xr:uid="{A22BAA73-5D18-498B-901E-BDD442AEF8DC}"/>
-    <hyperlink ref="B138" r:id="rId127" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bc71c7b3-ef48-4aba-ad95-ac8cb9712109" xr:uid="{1080EF57-D511-42D8-BBD2-1077C17CE1D8}"/>
-    <hyperlink ref="T138" r:id="rId128" xr:uid="{DC7BC730-9C8E-42AB-B523-E4F558909582}"/>
-    <hyperlink ref="T137" r:id="rId129" xr:uid="{EE104E06-0CE6-4434-87A1-BE63E2EC99FD}"/>
-    <hyperlink ref="B144" r:id="rId130" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/39dddfa5-71d3-4db1-89ec-f3482f49b94b" xr:uid="{40523AEF-4573-476A-BF62-104B9F750959}"/>
-    <hyperlink ref="B143" r:id="rId131" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/39dddfa5-71d3-4db1-89ec-f3482f49b94b" xr:uid="{1CF92908-8F0B-478A-A7E0-2E0D1F9C7B4F}"/>
-    <hyperlink ref="T144" r:id="rId132" xr:uid="{85D8ACF6-EC7B-484B-9BEC-B0E24AEFDE3B}"/>
-    <hyperlink ref="T143" r:id="rId133" xr:uid="{8ADCB61D-1BA4-4E3A-B2B6-624284BAD8AF}"/>
-    <hyperlink ref="B10" r:id="rId134" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{28B25AE9-4F7D-4F1B-9862-3D666289805E}"/>
-    <hyperlink ref="B8" r:id="rId135" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{AA7C2E3C-4422-4951-8708-469C474A105B}"/>
-    <hyperlink ref="B145" r:id="rId136" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/35d680d6-e62b-40a2-98e9-8980addab421" xr:uid="{A11CCE1F-CB08-4EF8-8E6D-31B3422A7288}"/>
-    <hyperlink ref="B146" r:id="rId137" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/35d680d6-e62b-40a2-98e9-8980addab421" xr:uid="{DCE34DA4-0432-4EDF-9782-2526B7BF935B}"/>
-    <hyperlink ref="B152" r:id="rId138" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 57 Years - Automated Sep Report" xr:uid="{1832F64D-AA22-48DF-AC5C-5140E44E7706}"/>
-    <hyperlink ref="B151" r:id="rId139" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 57 Years - Automated Sep Report" xr:uid="{5551D050-087E-4390-B182-1616970EBD76}"/>
-    <hyperlink ref="B150" r:id="rId140" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 57 Years - Automated Sep Report" xr:uid="{E4B7E407-4979-4D35-B801-225F790EB799}"/>
-    <hyperlink ref="B149" r:id="rId141" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" xr:uid="{CAAF221F-68B7-4199-A185-2DFB46FF1094}"/>
-    <hyperlink ref="T152" r:id="rId142" xr:uid="{D9BF2647-E109-4CB9-81F1-ECD9D09437EB}"/>
-    <hyperlink ref="T151" r:id="rId143" xr:uid="{2A3BE898-28E3-468E-A841-818E5F0AC324}"/>
-    <hyperlink ref="T149" r:id="rId144" xr:uid="{D1171090-F3DC-47A0-9B84-7511891F333E}"/>
-    <hyperlink ref="T150" r:id="rId145" xr:uid="{1C6F57FC-CDBA-4341-9E63-EE9913F028E3}"/>
-    <hyperlink ref="B141" r:id="rId146" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{E9FC87C5-54F7-4CB8-A7F8-DDFE177EAD5D}"/>
-    <hyperlink ref="B140" r:id="rId147" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{7F2080F1-684A-44B5-AEDD-4D722FE1D052}"/>
-    <hyperlink ref="B18" r:id="rId148" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" xr:uid="{27E0F2FA-FCF6-4E8E-B98F-EF542BEBBEF3}"/>
-    <hyperlink ref="B16" r:id="rId149" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" xr:uid="{2D35048C-FB26-4FC3-AD9B-C97FE93800FE}"/>
-    <hyperlink ref="B64" r:id="rId150" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" display="PYS 9 Months - Automated July Report" xr:uid="{EB3AA57A-A898-4CA4-B7CE-499CA3EFE349}"/>
-    <hyperlink ref="B62" r:id="rId151" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" display="PYS 9 Months - Automated July Report" xr:uid="{D41E71F9-B333-4537-B969-C54B32BAE73F}"/>
-    <hyperlink ref="B113" r:id="rId152" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" display="PYS 9 Months - Automated July Report" xr:uid="{EB538D88-BD66-4D15-8B44-94A62534326E}"/>
-    <hyperlink ref="B111" r:id="rId153" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" display="PYS 9 Months - Automated July Report" xr:uid="{F66AD42F-5AC0-484A-B6EA-FAD1DA7827F8}"/>
-    <hyperlink ref="B56" r:id="rId154" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{42560414-F49E-43C7-8271-AF9D9065FC22}"/>
-    <hyperlink ref="B55" r:id="rId155" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{630C694F-30D3-49D8-901D-9014C09E771E}"/>
-    <hyperlink ref="B108" r:id="rId156" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{4C5DDE7F-9FA5-4B76-A6CD-769F71F5FD65}"/>
-    <hyperlink ref="B106" r:id="rId157" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{B9C8B1AB-780B-4793-9196-135A5E0C864A}"/>
-    <hyperlink ref="B19" r:id="rId158" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" xr:uid="{12E37414-18DA-4186-953F-E5BB530749D2}"/>
-    <hyperlink ref="B17" r:id="rId159" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" xr:uid="{CC6FF5ED-2C39-4774-8245-22A540324AF4}"/>
-    <hyperlink ref="B65" r:id="rId160" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" display="PYS 5 Months - Automated July Report" xr:uid="{3F5521B6-AE14-4530-8B2D-098986E3A2B6}"/>
-    <hyperlink ref="B63" r:id="rId161" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" display="PYS 5 Months - Automated July Report" xr:uid="{9859A856-288D-4DBC-8259-0125513EFDD6}"/>
-    <hyperlink ref="B114" r:id="rId162" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" display="PYS 5 Months - Automated July Report" xr:uid="{DB4E5029-79AB-4B71-BB4B-DA93872E2665}"/>
-    <hyperlink ref="B112" r:id="rId163" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" display="PYS 5 Months - Automated July Report" xr:uid="{4EB3C59B-5AB6-4FF8-B394-0FBEACB9DDAE}"/>
-    <hyperlink ref="B23" r:id="rId164" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" xr:uid="{8BDBBCFB-BFC4-4713-A665-959D3FD8D405}"/>
-    <hyperlink ref="B21" r:id="rId165" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{125CAE76-D66F-46FB-B45A-FC734E3F3C0F}"/>
-    <hyperlink ref="B22" r:id="rId166" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" xr:uid="{3619D2E3-049C-495C-99BB-B7C888CBD763}"/>
-    <hyperlink ref="B20" r:id="rId167" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{1D577D2E-861C-4F9B-B487-F3C44378483F}"/>
-    <hyperlink ref="B69" r:id="rId168" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{A5D81D22-5636-4694-8806-92C57FC44478}"/>
-    <hyperlink ref="B67" r:id="rId169" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{23943098-0279-488F-824B-7FBEBCADBD15}"/>
-    <hyperlink ref="B68" r:id="rId170" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{D5B8960F-D042-464A-9468-EE2A6715192E}"/>
-    <hyperlink ref="B66" r:id="rId171" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{7BF59EAE-4D48-4039-9E0B-0DFB48AB37AF}"/>
-    <hyperlink ref="B118" r:id="rId172" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{2B962197-19D1-46CC-9BAF-5E58E2AB29B2}"/>
-    <hyperlink ref="B116" r:id="rId173" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{EDE737E6-545A-4CDA-A2C9-5AAA815C1912}"/>
-    <hyperlink ref="B117" r:id="rId174" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{5C87BAEB-6361-4F87-84AE-35BB546650AA}"/>
-    <hyperlink ref="B115" r:id="rId175" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{6DE5DBBD-4BC9-44A4-B8A1-2CF44A270889}"/>
-    <hyperlink ref="B15" r:id="rId176" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" xr:uid="{4E214E15-DE76-4DFE-9E45-6AD2D4EB2924}"/>
-    <hyperlink ref="B14" r:id="rId177" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" xr:uid="{AED23E82-24D9-4339-8455-882C9F4B745E}"/>
-    <hyperlink ref="B61" r:id="rId178" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 73 yrs - Automated July Report" xr:uid="{0BFB927B-249A-4940-A13D-459D0CEDCFCC}"/>
-    <hyperlink ref="B60" r:id="rId179" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 55 yrs - Automated July Report" xr:uid="{441AFB7D-5AC3-460E-9FDB-A402F12EA1F9}"/>
-    <hyperlink ref="B110" r:id="rId180" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 73 yrs - Automated July Report" xr:uid="{99C1F603-EAF1-42FF-B65D-AA1818836699}"/>
-    <hyperlink ref="B109" r:id="rId181" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 55 yrs - Automated July Report" xr:uid="{FE3BD79E-85F1-491C-8D3E-1034584CB3F9}"/>
-    <hyperlink ref="B12" r:id="rId182" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/89e3bf9a-c9fc-4381-a3e2-79ec60962cf0" xr:uid="{B1FAE406-F381-468A-A121-6A14BFBBC2B4}"/>
-    <hyperlink ref="B11" r:id="rId183" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/89e3bf9a-c9fc-4381-a3e2-79ec60962cf0" display="12 Month Check in - 35+ Rolled in - Automated July Report" xr:uid="{15C78881-B4D5-4750-85F7-75235480710A}"/>
-    <hyperlink ref="B13" r:id="rId184" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/89e3bf9a-c9fc-4381-a3e2-79ec60962cf0" display="12 Month Check in - 35+ Rolled in - Automated July Report" xr:uid="{B2C0EA31-5D5E-4F34-8222-B138CD8575F3}"/>
-    <hyperlink ref="B58" r:id="rId185" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/89e3bf9a-c9fc-4381-a3e2-79ec60962cf0" display="12 Month Check in - 35+ Rolled in - Automated July Report" xr:uid="{FB526AFF-EB93-4185-BEAD-58B030C61417}"/>
-    <hyperlink ref="B57" r:id="rId186" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/89e3bf9a-c9fc-4381-a3e2-79ec60962cf0" display="12 Month Check in - 35+ Rolled in - Automated July Report" xr:uid="{1B22B47B-D362-437F-B489-CDB4A84B1907}"/>
-    <hyperlink ref="B59" r:id="rId187" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/89e3bf9a-c9fc-4381-a3e2-79ec60962cf0" display="12 Month Check in - 35+ Rolled in - Automated July Report" xr:uid="{C05B998E-F0FE-496D-B2C8-450D8EB2672F}"/>
-    <hyperlink ref="B9" r:id="rId188" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/785d6f2f-8292-422a-9833-2d2802ca7fa1" display="Beneficiaries [Seg 4 - Lapsed binding] - Automated July Report" xr:uid="{0CA9DB7A-5DE6-452A-8CB3-F20C06315E06}"/>
-    <hyperlink ref="B107" r:id="rId189" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/785d6f2f-8292-422a-9833-2d2802ca7fa1" display="Beneficiaries [Seg 4 - Lapsed binding] - Automated July Report" xr:uid="{29BA7AE2-D727-48C5-8BB6-F40AEBA48DDC}"/>
-    <hyperlink ref="B6" r:id="rId190" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/df53f790-6392-4a01-a73f-f23a41796609" display="PYS 12 Months - Automated July Report" xr:uid="{B8C16EF4-1EB0-439E-9931-8CCBEBB7434F}"/>
-    <hyperlink ref="B7" r:id="rId191" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/df53f790-6392-4a01-a73f-f23a41796609" display="PYS 12 Months - Automated July Report" xr:uid="{F8F9A670-BB32-4D63-A566-5C5D144A68A4}"/>
-    <hyperlink ref="B129:B132" r:id="rId192" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/df53f790-6392-4a01-a73f-f23a41796609" display="PYS 12 Months - Automated July Report" xr:uid="{5A57F3AC-8F37-4AA2-AEC3-D228861D25E1}"/>
-    <hyperlink ref="B5" r:id="rId193" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e518a319-9c52-4d1e-8c54-5a5bac7e98c1" display="SPC" xr:uid="{BE4B61FC-D27B-4CD6-9DCB-597D9B237175}"/>
-    <hyperlink ref="B52" r:id="rId194" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e518a319-9c52-4d1e-8c54-5a5bac7e98c1" display="SPC" xr:uid="{7C1DD57D-0992-4981-92FB-393607C4E760}"/>
-    <hyperlink ref="B103" r:id="rId195" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e518a319-9c52-4d1e-8c54-5a5bac7e98c1" display="SPC" xr:uid="{4724CBB6-757A-4570-AC13-3FD363F876BC}"/>
-    <hyperlink ref="B2" r:id="rId196" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" xr:uid="{FC6E80E8-E09B-4E1C-800C-92FA7943F72B}"/>
-    <hyperlink ref="B137:B138" r:id="rId197" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" display="Abandoned  Cart MJOL" xr:uid="{89E7B679-7362-475D-98BE-25F1829C350A}"/>
-    <hyperlink ref="T18" r:id="rId198" xr:uid="{1ABD2676-EB8A-4847-847A-4104CD4746DF}"/>
-    <hyperlink ref="B147" r:id="rId199" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bd610eaf-020d-4ee0-8920-be3e08a37a25" xr:uid="{DEABCB06-B632-461D-84C6-F06A70FA9619}"/>
-    <hyperlink ref="B148" r:id="rId200" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3df19f42-c622-481a-a0cc-b64ea8f94164" display="Cbus - 2025 Statements - SIS" xr:uid="{8C7106E8-B2C7-4073-98E2-6BD22D598D4F}"/>
-    <hyperlink ref="T148" r:id="rId201" xr:uid="{46704411-4366-4503-871A-63C62D6F5CDF}"/>
-    <hyperlink ref="T147" r:id="rId202" xr:uid="{35617BE4-D51B-4C42-BCBC-A3326810417E}"/>
-    <hyperlink ref="B153" r:id="rId203" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/df121502-9927-4eed-8a89-998f44dfe2cb" xr:uid="{4C7035C0-55DC-42DB-BC1A-1724968D036A}"/>
-    <hyperlink ref="B154" r:id="rId204" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/df121502-9927-4eed-8a89-998f44dfe2cb" xr:uid="{D51BF1B3-CB4F-4C37-97E4-0E8A747D3371}"/>
-    <hyperlink ref="T153" r:id="rId205" xr:uid="{6D9DC780-9CDA-4D3F-B56F-0677CA3C5FB2}"/>
-    <hyperlink ref="T154" r:id="rId206" xr:uid="{E660BB65-5617-4FC2-B761-2C921DC44FB7}"/>
-    <hyperlink ref="B120" r:id="rId207" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{787E3B42-1A34-460D-BCBD-6D1DEBA1028A}"/>
-    <hyperlink ref="B119" r:id="rId208" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" xr:uid="{CAB5B92A-46CB-4743-B631-1BDD2851A0CE}"/>
-    <hyperlink ref="B71" r:id="rId209" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{95384588-A5DD-422B-8251-86A1E34F35E7}"/>
-    <hyperlink ref="B70" r:id="rId210" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{690ACB40-AD80-4398-88D6-EF31DB93FD07}"/>
-    <hyperlink ref="B25" r:id="rId211" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{ACA5534A-56E5-44DB-8EBF-E9C689DD70E6}"/>
-    <hyperlink ref="B24" r:id="rId212" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{8FEB3484-B05E-47F9-99FD-554CD58C3EA1}"/>
-    <hyperlink ref="B122" r:id="rId213" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" xr:uid="{403A0435-2A6E-4B4F-AB1E-59A9DD3D7421}"/>
-    <hyperlink ref="B121" r:id="rId214" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" xr:uid="{70EDC27F-2DC1-4DB6-8815-947052CC4758}"/>
-    <hyperlink ref="B73" r:id="rId215" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" display="6 Month Tenure [Pre 17 Sep 2025]" xr:uid="{BAACE1B3-18DD-40D4-B9D4-9C9FFC7032EA}"/>
-    <hyperlink ref="B72" r:id="rId216" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" display="6 Month Tenure [Pre 17 Sept 2025]" xr:uid="{90BD2120-2520-423A-878B-E4198EC602E4}"/>
-    <hyperlink ref="B153:B154" r:id="rId217" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" display="6 Month Tenure [Pre 17 Sept 2025]" xr:uid="{011C95CE-D787-4DFF-A58A-52BB55F1A47F}"/>
-    <hyperlink ref="B157" r:id="rId218" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/9efc2441-6827-4717-9013-680afb8db7de" xr:uid="{95F5B5C6-E7F9-4F03-BCC3-72C6C47E693A}"/>
-    <hyperlink ref="B158" r:id="rId219" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/9efc2441-6827-4717-9013-680afb8db7de" xr:uid="{0A3ED4AD-923A-41AB-8AA4-552B42BFBC3C}"/>
-    <hyperlink ref="B159" r:id="rId220" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/745dc927-64df-462b-8819-760afc248605" xr:uid="{9CD36ECF-BF41-4F3E-9C75-670618C667D2}"/>
-    <hyperlink ref="B160" r:id="rId221" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/745dc927-64df-462b-8819-760afc248605" xr:uid="{3851E138-F07F-4299-82F1-CDACC7AB2D4F}"/>
-    <hyperlink ref="T157" r:id="rId222" xr:uid="{F2675824-1A9F-49D9-A78F-51A609CB7E9D}"/>
-    <hyperlink ref="T158" r:id="rId223" xr:uid="{76235692-6651-4E03-9AAE-80F4C54EA185}"/>
-    <hyperlink ref="T160" r:id="rId224" xr:uid="{B292C362-9C06-4B60-942C-245AE8714903}"/>
-    <hyperlink ref="T159" r:id="rId225" xr:uid="{EF137438-E2BA-480C-9EEA-2E208B2FF391}"/>
-    <hyperlink ref="B156" r:id="rId226" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{594850D2-A800-4945-A1A3-7601E7DFC5BA}"/>
-    <hyperlink ref="B155" r:id="rId227" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{B56A7C75-F3A7-41B8-AB09-941E011BBE2B}"/>
-    <hyperlink ref="B161" r:id="rId228" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" xr:uid="{EC7A412D-E0CD-473A-92EC-8B71EC598FC0}"/>
-    <hyperlink ref="B162" r:id="rId229" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" xr:uid="{5B6183F1-E7D9-4E23-8A1E-85D2D04FC441}"/>
-    <hyperlink ref="B163" r:id="rId230" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" xr:uid="{B402C10B-4B83-4737-83E5-8CFA813ECEB4}"/>
-    <hyperlink ref="B164" r:id="rId231" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" xr:uid="{37A7B1A0-5954-4F69-A396-24AAA969F4E7}"/>
-    <hyperlink ref="B165" r:id="rId232" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" xr:uid="{B18BF7CB-5575-459F-973A-30561B8958FE}"/>
-    <hyperlink ref="B166" r:id="rId233" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" xr:uid="{9D326E37-133E-4777-A180-AD1C95B3D1D2}"/>
-    <hyperlink ref="B167" r:id="rId234" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" xr:uid="{F245AA5F-1AE2-4629-900B-0CB71BF249ED}"/>
-    <hyperlink ref="B168" r:id="rId235" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" xr:uid="{D5E69B1E-2DD7-48B4-A931-6A46F1D52FE4}"/>
-    <hyperlink ref="B169" r:id="rId236" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" xr:uid="{AE17125C-908A-451D-BAB3-78150075D391}"/>
-    <hyperlink ref="B170" r:id="rId237" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" xr:uid="{FCDBE11B-CC1D-44AE-BAC3-6BF06E4A6EEB}"/>
-    <hyperlink ref="B171" r:id="rId238" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" xr:uid="{F6A1F5A1-0BCA-4C33-AB46-BD7106ACD0A6}"/>
-    <hyperlink ref="B172" r:id="rId239" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" xr:uid="{5D070645-C605-48A6-B30A-545539E44075}"/>
-    <hyperlink ref="B173" r:id="rId240" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/785d6f2f-8292-422a-9833-2d2802ca7fa1" xr:uid="{3D07B372-B516-4FA3-97CF-D7FA84A3AC31}"/>
-    <hyperlink ref="B176" r:id="rId241" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e518a319-9c52-4d1e-8c54-5a5bac7e98c1" xr:uid="{F0EF1DE0-C482-4FE6-A769-98A5CF368ADF}"/>
-    <hyperlink ref="B178" r:id="rId242" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/35d680d6-e62b-40a2-98e9-8980addab421" display="6 Month Tenure [Pre 17 Sep 2025]" xr:uid="{560F601D-574D-4934-AD09-006713AC4CDC}"/>
-    <hyperlink ref="B186" r:id="rId243" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/9efc2441-6827-4717-9013-680afb8db7de" xr:uid="{96C74F20-FE6A-40F8-AA31-5644008F3617}"/>
-    <hyperlink ref="T186" r:id="rId244" xr:uid="{D8F82DA6-CC4A-493E-A6B4-B86927821944}"/>
-    <hyperlink ref="B187" r:id="rId245" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/9efc2441-6827-4717-9013-680afb8db7de" xr:uid="{B1D0FF54-7018-42C6-B8F9-A5E1BF28F722}"/>
-    <hyperlink ref="T187" r:id="rId246" xr:uid="{6AE8FEA1-47CB-4F24-B9A5-5E882E21AC38}"/>
-    <hyperlink ref="B188" r:id="rId247" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/745dc927-64df-462b-8819-760afc248605" xr:uid="{8A9343BC-24AB-4F65-8509-CA061FD69388}"/>
-    <hyperlink ref="T188" r:id="rId248" xr:uid="{93AFC6AB-9BA1-4973-92F3-F790ACDE4D19}"/>
-    <hyperlink ref="B189" r:id="rId249" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/745dc927-64df-462b-8819-760afc248605" xr:uid="{14E99629-55BD-48C9-B1BA-1FDF579A92AE}"/>
-    <hyperlink ref="T189" r:id="rId250" xr:uid="{03849D1B-E17B-4AD6-B577-6CF3F1BBB6CD}"/>
-    <hyperlink ref="B191" r:id="rId251" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b3c83ca1-5def-411e-8a8a-b1fa4230bca9" xr:uid="{212C918E-50B9-4332-B1C2-01AD126D7D41}"/>
-    <hyperlink ref="B190" r:id="rId252" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b3c83ca1-5def-411e-8a8a-b1fa4230bca9" xr:uid="{747F800E-4385-4B16-AF7F-18B7A6E1DCBA}"/>
-    <hyperlink ref="B177" r:id="rId253" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" xr:uid="{D2BB8B2B-A730-4842-96DA-050B58161FA7}"/>
-    <hyperlink ref="B193" r:id="rId254" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/11c7ab80-6498-486d-8799-60566311d059" xr:uid="{D028E486-7C5C-4F19-BC7C-4D0BF4854C81}"/>
-    <hyperlink ref="B194" r:id="rId255" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/11c7ab80-6498-486d-8799-60566311d059" xr:uid="{EC080CCE-4AC3-44C9-846F-24E8A6E373E2}"/>
-    <hyperlink ref="B198" r:id="rId256" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" xr:uid="{D18EE3B5-4079-4B25-85C7-EED23D580736}"/>
-    <hyperlink ref="B197" r:id="rId257" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" display="Advice Needs research" xr:uid="{102FCE9B-70AE-41E5-87B2-139F4ABCDDFC}"/>
-    <hyperlink ref="B199" r:id="rId258" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" xr:uid="{3FE70EE3-023F-4E4B-BBF2-78E8EA52A0B4}"/>
-    <hyperlink ref="B200" r:id="rId259" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e72ad46a-3745-40ba-a629-d9f53273a656" display="Scam awareness EDM" xr:uid="{8AF7365D-29AF-42A6-B6EF-DE0F6A74D90E}"/>
-    <hyperlink ref="B201" r:id="rId260" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e72ad46a-3745-40ba-a629-d9f53273a656" display="Scam awareness EDM" xr:uid="{810FFCD4-E9A1-4CA2-BE71-0B3F9838A0F3}"/>
-    <hyperlink ref="B180" r:id="rId261" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 68 Years [Pre 25 Sep 2025]" xr:uid="{EC52EDA4-B983-4691-994A-4372BFCF8AB8}"/>
-    <hyperlink ref="B181" r:id="rId262" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 67 Years Pre 25 Sep 2025]" xr:uid="{2F265E0D-9A04-4F85-9612-18A7045D0D63}"/>
-    <hyperlink ref="B182" r:id="rId263" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 66 Years [Pre 25 Sep 2025]" xr:uid="{72F11345-FB57-4891-AFCB-A7021674E90D}"/>
-    <hyperlink ref="B183" r:id="rId264" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" xr:uid="{20208A02-C4B2-4288-907A-1191A7C238BE}"/>
-    <hyperlink ref="B179" r:id="rId265" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/35d680d6-e62b-40a2-98e9-8980addab421" display="6 Month Tenure [Pre 17 Sep 2025]" xr:uid="{AABAB842-6D2C-4F7E-85C6-832CD62AC046}"/>
-    <hyperlink ref="B202" r:id="rId266" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/dd583dec-4a8f-4364-b58b-eeb1bca64b4d" xr:uid="{B7F0A43A-9F04-440F-AD9C-9105037D6F5C}"/>
-    <hyperlink ref="B203" r:id="rId267" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/dd583dec-4a8f-4364-b58b-eeb1bca64b4d" xr:uid="{DD788B99-0528-4A31-9DA2-3F14526C441E}"/>
-    <hyperlink ref="B204" r:id="rId268" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1705c74b-00e3-4f10-ba53-8d31b070761f" xr:uid="{17785F7D-009F-47E5-BBC0-003E27DEA98B}"/>
-    <hyperlink ref="B205" r:id="rId269" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1705c74b-00e3-4f10-ba53-8d31b070761f" xr:uid="{D3C43F25-13E2-464D-BC6A-ACA9A0C7C58D}"/>
-    <hyperlink ref="T206" r:id="rId270" xr:uid="{8BE67F82-F3D7-4965-828D-53844EB241DB}"/>
-    <hyperlink ref="T207" r:id="rId271" xr:uid="{F7ECDDC4-C378-4C02-ADFF-9C619DE281B0}"/>
-    <hyperlink ref="T208" r:id="rId272" xr:uid="{DE67BC14-DC57-4C4C-8FE5-3ACFBDA435C4}"/>
-    <hyperlink ref="T217" r:id="rId273" xr:uid="{C7E19626-02A4-4B0C-B60E-86E179849241}"/>
-    <hyperlink ref="T216" r:id="rId274" xr:uid="{D891EFB4-ACAF-45AA-832E-A8B62891E532}"/>
-    <hyperlink ref="T209" r:id="rId275" xr:uid="{308B7210-80CE-4BFD-9B40-FDB3B1E0E14D}"/>
-    <hyperlink ref="T210" r:id="rId276" xr:uid="{5D44B1DF-075A-4461-BA16-F256BCB5DB2F}"/>
-    <hyperlink ref="T211" r:id="rId277" xr:uid="{AC14882E-C08F-418B-89F1-712D6C01D1EB}"/>
-    <hyperlink ref="T212" r:id="rId278" xr:uid="{D65178F1-7C36-4856-968B-BB7AFA21409D}"/>
-    <hyperlink ref="T213" r:id="rId279" xr:uid="{B27A6DAE-AEF7-4B53-BFDF-7010146F131A}"/>
-    <hyperlink ref="T214" r:id="rId280" xr:uid="{8190AD1D-5D8B-4E66-B390-2F27A170F62F}"/>
-    <hyperlink ref="T215" r:id="rId281" xr:uid="{1A1D7CA3-25FC-465E-8689-45457A25D40D}"/>
-    <hyperlink ref="B218" r:id="rId282" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" xr:uid="{E1872C75-D226-47E3-AF54-1A01D18B09E6}"/>
-    <hyperlink ref="B219" r:id="rId283" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" xr:uid="{3461D3D2-9801-47C0-BE04-13C65711D695}"/>
-    <hyperlink ref="B220" r:id="rId284" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" xr:uid="{D4B47714-368B-4369-BC6A-CE3BF62714B4}"/>
-    <hyperlink ref="B221" r:id="rId285" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" xr:uid="{530F7378-391C-4B8F-ABC0-9D46F6F0F7C4}"/>
-    <hyperlink ref="B222" r:id="rId286" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" xr:uid="{05123249-3A00-4E04-9FA3-0FAF2BC645C5}"/>
-    <hyperlink ref="B223" r:id="rId287" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" xr:uid="{9EDD1503-471B-46D8-A716-808692FB771A}"/>
-    <hyperlink ref="B224" r:id="rId288" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" xr:uid="{F57197D2-BDF7-4008-AFD0-70B7D9715401}"/>
-    <hyperlink ref="B225" r:id="rId289" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" xr:uid="{9CACDA5D-7A93-4498-910D-CB23E2DD242F}"/>
-    <hyperlink ref="B226" r:id="rId290" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/785d6f2f-8292-422a-9833-2d2802ca7fa1" xr:uid="{9AAA07F3-02AF-4AF9-976C-35C0B3FBDD69}"/>
-    <hyperlink ref="B229" r:id="rId291" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e518a319-9c52-4d1e-8c54-5a5bac7e98c1" xr:uid="{60B4CB47-B5E1-4484-AB18-9847FCCFAFF2}"/>
-    <hyperlink ref="B230" r:id="rId292" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" xr:uid="{95C6780C-2B2D-4C98-8481-E4E825CBE9BF}"/>
-    <hyperlink ref="B231" r:id="rId293" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 68 Years [Pre 25 Sep 2025]" xr:uid="{0021A7F2-DD1B-4870-9404-16898343915B}"/>
-    <hyperlink ref="B232" r:id="rId294" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 67 Years Pre 25 Sep 2025]" xr:uid="{53DF61B3-616E-480C-9213-CCC9AC61DF56}"/>
-    <hyperlink ref="B233" r:id="rId295" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 66 Years [Pre 25 Sep 2025]" xr:uid="{E79F2A25-E7F2-40DB-926C-4F4EB6753687}"/>
-    <hyperlink ref="B234" r:id="rId296" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" xr:uid="{DFEB8853-4230-4E7F-84A7-0B899306326B}"/>
-    <hyperlink ref="B227:B228" r:id="rId297" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e1d432aa-88e8-4c3a-89bb-7cfed646e1be" display="PYS 12 Months" xr:uid="{2704B708-84EA-4C85-8C04-062100C8F184}"/>
-    <hyperlink ref="B235" r:id="rId298" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6b33825c-fbb5-4f47-b564-a293510bba4f" xr:uid="{4C0A1E69-2558-4BB8-B21B-397325219DC8}"/>
-    <hyperlink ref="B236" r:id="rId299" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6b33825c-fbb5-4f47-b564-a293510bba4f" xr:uid="{76AAD98C-AAC2-4503-AA34-8B434EE3ED3E}"/>
-    <hyperlink ref="B238" r:id="rId300" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{FC9C2CA8-8ABC-4F1E-BB1E-03A815CF8CD8}"/>
-    <hyperlink ref="B237" r:id="rId301" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{8838D11D-6FBD-48CF-9CA4-EDBB1F82F383}"/>
-    <hyperlink ref="B185" r:id="rId302" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{B7867DAB-269E-4524-91A1-534B6EDD7C51}"/>
-    <hyperlink ref="B184" r:id="rId303" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{9D599D62-17C9-498F-8055-4133593F374D}"/>
-    <hyperlink ref="B239" r:id="rId304" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/854f73d8-aa00-4fe2-9c2e-45bcb54156f4" xr:uid="{C1027C14-56EA-448E-8BAB-C63E09D0C9E4}"/>
-    <hyperlink ref="B240" r:id="rId305" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/854f73d8-aa00-4fe2-9c2e-45bcb54156f4" xr:uid="{384E04F6-4003-476E-B192-E063148EA31B}"/>
-    <hyperlink ref="B242" r:id="rId306" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" xr:uid="{02010B3C-9466-465E-936C-9470E6B34533}"/>
-    <hyperlink ref="B241" r:id="rId307" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" display="Advice Needs research" xr:uid="{AE77844B-C2CD-4063-8DD4-6E106784FF21}"/>
-    <hyperlink ref="B243" r:id="rId308" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" xr:uid="{2E8F6402-4182-4DDE-A83F-CCF9127227F3}"/>
-    <hyperlink ref="B241:B243" r:id="rId309" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/09bbe6ac-c38b-4e06-9ae0-fa2b7779445b" display="Advice Needs research- MEDIA 35s+ Reminder" xr:uid="{B63A33C9-482B-449F-9AF5-9895152EAB9F}"/>
-    <hyperlink ref="B244" r:id="rId310" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/51b42ebc-0a9a-4491-a1fa-669bce1a67e7" display="YC Investment Basics" xr:uid="{47D98467-B2C4-4A72-B0B6-64FB8BC26859}"/>
-    <hyperlink ref="B245:B247" r:id="rId311" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/51b42ebc-0a9a-4491-a1fa-669bce1a67e7" display="YC Investment Basics" xr:uid="{5F39ABA6-87A9-4E9D-A6EE-905C88ABE4DF}"/>
-    <hyperlink ref="T244" r:id="rId312" xr:uid="{18314DDC-5F4F-4BDB-A668-B5872785532C}"/>
-    <hyperlink ref="T245" r:id="rId313" xr:uid="{7BADFD5C-DAEF-4DE1-A527-593BE81D4E72}"/>
-    <hyperlink ref="T246" r:id="rId314" xr:uid="{F7E6F66E-D9EA-4898-900D-5532E4671623}"/>
-    <hyperlink ref="T247" r:id="rId315" xr:uid="{5A74C3FC-5D44-4CFB-89D8-A45337A2B428}"/>
-    <hyperlink ref="B248" r:id="rId316" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3e292887-b584-4bcf-8302-372f4e8f75d2" xr:uid="{F6016358-C5B9-40C3-96F3-C601559DB907}"/>
-    <hyperlink ref="B249" r:id="rId317" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/98bceed7-967d-4787-a4c1-29e5d4f011c6" display="Quarterly Investment Perf Update - HNW" xr:uid="{1A2508D2-E90A-4CBB-8B8C-963174C904B8}"/>
-    <hyperlink ref="B250" r:id="rId318" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/98bceed7-967d-4787-a4c1-29e5d4f011c6" display="Quarterly Investment Perf Update - HNW" xr:uid="{0AA40987-2B11-42F9-81C9-236D7843AC8D}"/>
-    <hyperlink ref="T249" r:id="rId319" xr:uid="{D97EE891-4645-49D2-B25F-26C14EFC3BEF}"/>
-    <hyperlink ref="T250" r:id="rId320" xr:uid="{13D1D080-A49D-42A1-8A13-AC04792EAEEB}"/>
-    <hyperlink ref="B251" r:id="rId321" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b2d213d8-d137-4f0b-bd6c-535471820e6f" xr:uid="{0C3F0A6D-5EE8-4501-803F-ADDCAD0ED220}"/>
-    <hyperlink ref="B252" r:id="rId322" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b2d213d8-d137-4f0b-bd6c-535471820e6f" xr:uid="{38CF9644-43F9-483B-886E-9A492D9C3A3B}"/>
-    <hyperlink ref="T251" r:id="rId323" xr:uid="{678283B0-C9B8-42D6-88C9-59FCE516EEB7}"/>
-    <hyperlink ref="T252" r:id="rId324" xr:uid="{F2DBCCEF-744E-4DBE-9BC8-6CD22C6569A1}"/>
-    <hyperlink ref="B253" r:id="rId325" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f4685d9b-1aa1-48e0-88a5-676af16225cf" xr:uid="{9AB60A34-75B2-46E6-867A-C6D18F6473D8}"/>
-    <hyperlink ref="B254" r:id="rId326" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f4685d9b-1aa1-48e0-88a5-676af16225cf" xr:uid="{6EBAF5FD-971F-43EB-BC02-D9DED04180AA}"/>
-    <hyperlink ref="T253" r:id="rId327" xr:uid="{EF9898B8-4752-4803-84B4-723099440F4F}"/>
-    <hyperlink ref="T254" r:id="rId328" xr:uid="{2C97B4E3-E071-4FC9-8214-2E7EFF682463}"/>
-    <hyperlink ref="B255" r:id="rId329" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6a9f570b-c2e8-4903-8f56-8a02b73a7926" xr:uid="{6F27F4B5-83E3-4C53-BCB6-11143FEAB1D0}"/>
-    <hyperlink ref="B256" r:id="rId330" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6a9f570b-c2e8-4903-8f56-8a02b73a7926" display="SEN - Death Benefit Nov 25" xr:uid="{D7AAF38C-5652-4386-8A71-3DA5707467F1}"/>
-    <hyperlink ref="T255" r:id="rId331" xr:uid="{3E8DCB2C-2CBD-444A-AE77-A07E924D1512}"/>
-    <hyperlink ref="T256" r:id="rId332" xr:uid="{9A418F6D-2E11-4129-8625-EBA8CBF24892}"/>
-    <hyperlink ref="T257" r:id="rId333" xr:uid="{8D57081E-13DF-438D-889C-CE6E066BDC9C}"/>
-    <hyperlink ref="B258" r:id="rId334" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb50294d-186e-4efb-a08c-5bd962403459" display="Cbus - Accessing Super &amp; SIS " xr:uid="{A194A329-BFAE-4C41-A6E8-5281732B1448}"/>
+    <hyperlink ref="B32" r:id="rId1" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{7F7AB8F8-DEAF-3449-99E1-B7BA87B8D6EF}"/>
+    <hyperlink ref="B33" r:id="rId2" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{B63C576D-7994-6D43-BAC0-C9CB36419E3D}"/>
+    <hyperlink ref="B28" r:id="rId3" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{55F1AE99-10CB-7148-815A-490ABAE8C7E5}"/>
+    <hyperlink ref="B29" r:id="rId4" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{E086D344-6939-0546-BD48-E1DE212F93A3}"/>
+    <hyperlink ref="B30" r:id="rId5" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{BA7A759B-B2FB-C64C-AACF-2D62F08DC76A}"/>
+    <hyperlink ref="B31" r:id="rId6" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{4D168887-CA13-A245-A790-692A0821F674}"/>
+    <hyperlink ref="B34" r:id="rId7" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{A74DA7AF-FF8B-CD43-A7F7-7E57FBD2A7BA}"/>
+    <hyperlink ref="B35" r:id="rId8" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{0DCFFBD3-AB88-B84D-96F9-F86FD4E67D64}"/>
+    <hyperlink ref="B37" r:id="rId9" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{6DF15277-6029-7343-8803-C69575ED3570}"/>
+    <hyperlink ref="B36" r:id="rId10" location="/@cbus/sname:prod/journey-optimizer/journey/report/" display="EOFY Performance" xr:uid="{4F2D85B6-4267-0641-8B81-5023B9593C70}"/>
+    <hyperlink ref="B38" r:id="rId11" location="/@cbus/sname:prod/journey-optimizer/journey/report/" display="EOFY Performance" xr:uid="{B316FBC2-9FEE-B340-A267-E6ECABFCA375}"/>
+    <hyperlink ref="B39" r:id="rId12" location="/@cbus/sname:prod/journey-optimizer/journey/report/" display="EOFY Performance" xr:uid="{ED60402C-1452-B241-8941-D6448A79EB4B}"/>
+    <hyperlink ref="B40" r:id="rId13" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{2DDC3489-8245-B045-B27C-0C53BE66B1D3}"/>
+    <hyperlink ref="B41" r:id="rId14" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{CC18B321-7B40-B14C-B0BA-0B394F37FB1B}"/>
+    <hyperlink ref="B42" r:id="rId15" location="/@cbus/sname:prod/journey-optimizer/journey/report/" display="CBUS - Corporate insurance SEN (AME) Cbus" xr:uid="{C540744B-5256-B74D-917A-E9C3183B0ED0}"/>
+    <hyperlink ref="B43" r:id="rId16" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{D2AD9D56-ED8D-A74B-BF75-E0A47B438E34}"/>
+    <hyperlink ref="B44" r:id="rId17" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{E0417873-39DF-B845-B923-0200FA9CA2F7}"/>
+    <hyperlink ref="B49" r:id="rId18" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{D74E4B1C-FE5C-C542-800C-ECA69E65CCF0}"/>
+    <hyperlink ref="B50" r:id="rId19" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{9E4CF538-4AC2-1849-8C5A-4AB7B64B6F63}"/>
+    <hyperlink ref="B45" r:id="rId20" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{B25CC288-D429-7342-8850-3247BA70AFCE}"/>
+    <hyperlink ref="B46" r:id="rId21" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{53BC90F5-EC80-0D48-BDE3-6B226F229779}"/>
+    <hyperlink ref="B47" r:id="rId22" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{9AB33328-4010-F843-B550-8D7E64EC2CD1}"/>
+    <hyperlink ref="B48" r:id="rId23" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{1CD36E2E-A888-B64A-A43F-52462AF0D631}"/>
+    <hyperlink ref="T32" r:id="rId24" xr:uid="{1077084C-D29E-4ABC-BD53-A05F91719125}"/>
+    <hyperlink ref="T33" r:id="rId25" xr:uid="{E82B6BA4-E16F-492E-BCD8-911C556EA12C}"/>
+    <hyperlink ref="T28" r:id="rId26" xr:uid="{6184ED25-1DF9-49D3-AC87-98D010A3B3E0}"/>
+    <hyperlink ref="T29" r:id="rId27" xr:uid="{23489B88-1AF7-440D-82A5-D2C99B402CE1}"/>
+    <hyperlink ref="T30" r:id="rId28" xr:uid="{29D38B7B-0EEB-4F1D-BD67-2FE0B692C886}"/>
+    <hyperlink ref="T31" r:id="rId29" xr:uid="{E529B59E-BC39-41D7-A6B8-B76C65B02964}"/>
+    <hyperlink ref="T34" r:id="rId30" xr:uid="{75D776C4-686E-4764-A0CE-7978746739AA}"/>
+    <hyperlink ref="T35" r:id="rId31" xr:uid="{18534669-D2F7-4C45-BE71-B06E441E98C4}"/>
+    <hyperlink ref="T40" r:id="rId32" xr:uid="{4456DFDD-02ED-4178-A1B2-7A56262C79A7}"/>
+    <hyperlink ref="T41" r:id="rId33" xr:uid="{85BEFFFA-77A3-49CF-94D8-7F3EBFED1A80}"/>
+    <hyperlink ref="T43" r:id="rId34" xr:uid="{9D50E18A-27F4-4E22-95C5-F200362F77FE}"/>
+    <hyperlink ref="T44" r:id="rId35" xr:uid="{49F0C4D7-6B49-48CB-9B69-3680BAAED979}"/>
+    <hyperlink ref="T49" r:id="rId36" xr:uid="{669F8622-A0EA-44FE-8AAA-EAB6EE53AEB9}"/>
+    <hyperlink ref="T50" r:id="rId37" xr:uid="{3EC869FD-833C-4252-AFF2-954077725E77}"/>
+    <hyperlink ref="B74" r:id="rId38" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2b3a8bd7-9314-4486-bed5-590aae72eef6" xr:uid="{DDE7FEFC-6B1E-4AA0-B976-36D2973B650E}"/>
+    <hyperlink ref="T74" r:id="rId39" xr:uid="{7AD33B0E-E2D3-41B8-9172-D15847D781D8}"/>
+    <hyperlink ref="B75" r:id="rId40" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/837cd468-99da-4b6c-86ed-a729c8dedaed" xr:uid="{8D543BC5-E411-41F4-AC77-9D04065517CB}"/>
+    <hyperlink ref="T75" r:id="rId41" xr:uid="{0118962C-499A-4545-8BD4-3ABE37EC8589}"/>
+    <hyperlink ref="B76" r:id="rId42" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1c60eb15-5315-4d97-bc92-f3321a8f2bb8" xr:uid="{0C3ADEAB-E937-4D0F-A344-AB2EAC09C8ED}"/>
+    <hyperlink ref="T76" r:id="rId43" xr:uid="{EA3D39DE-B821-4DE6-A6E8-54C4DB4002CB}"/>
+    <hyperlink ref="B79" r:id="rId44" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d0d232aa-3290-434d-8c3f-c589a73ea607" xr:uid="{21BFCBA6-6AD1-4DF1-BFCC-97AF53BF164E}"/>
+    <hyperlink ref="B80" r:id="rId45" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d0d232aa-3290-434d-8c3f-c589a73ea607" xr:uid="{FFD820BD-0682-4A01-886A-FC6E140DD7F6}"/>
+    <hyperlink ref="T79" r:id="rId46" xr:uid="{BDD938AD-4F2D-4D6D-A609-A2D733A83114}"/>
+    <hyperlink ref="T80" r:id="rId47" xr:uid="{54C0322F-D13C-44D8-B6EB-53DBB2BCA1C8}"/>
+    <hyperlink ref="B77" r:id="rId48" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/10c562f8-f91d-4456-8e2f-4ac211353527" xr:uid="{10A9ABF1-9B48-49EB-8857-3A95282225D7}"/>
+    <hyperlink ref="B78" r:id="rId49" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/10c562f8-f91d-4456-8e2f-4ac211353527" xr:uid="{03BE0AA5-037E-4E17-8386-29BAE9E3BEE5}"/>
+    <hyperlink ref="T77" r:id="rId50" xr:uid="{337F27CF-D0CD-4B04-A48D-36C253F1BE4F}"/>
+    <hyperlink ref="T78" r:id="rId51" xr:uid="{7FE3D493-8D5B-4496-8F77-D73CA4BD72FB}"/>
+    <hyperlink ref="B82" r:id="rId52" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2be0e003-3e51-476c-86ea-8a1f8913d899" xr:uid="{DCBBFEEB-0E31-4647-A7B8-662452421D74}"/>
+    <hyperlink ref="B83" r:id="rId53" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2be0e003-3e51-476c-86ea-8a1f8913d899" xr:uid="{F08C799E-E69A-4FAE-9577-3BE26DC55F8C}"/>
+    <hyperlink ref="T82" r:id="rId54" xr:uid="{F25A322F-4512-4FB9-896D-FC4488D151BC}"/>
+    <hyperlink ref="T83" r:id="rId55" xr:uid="{E9B325CA-DA26-471B-8892-3CD505753BC9}"/>
+    <hyperlink ref="B81" r:id="rId56" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d5aac9ae-16b6-46ce-9310-1ba0004b45ea" xr:uid="{FCD585C4-F8D5-442F-82A2-8DA88F7E9D6B}"/>
+    <hyperlink ref="T81" r:id="rId57" xr:uid="{E2C5678C-A592-4E8F-8D77-8769EA44690D}"/>
+    <hyperlink ref="B84" r:id="rId58" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cb123bc-fd8e-4868-82f1-14995d53c591" xr:uid="{930F7BAC-EDE4-4C25-8B39-8677C9CD53AD}"/>
+    <hyperlink ref="B85" r:id="rId59" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cb123bc-fd8e-4868-82f1-14995d53c591" xr:uid="{DDF5BEEE-A105-4CBA-B3EF-4B0632B51EAE}"/>
+    <hyperlink ref="T84" r:id="rId60" xr:uid="{28F02C08-2175-4786-AE8B-EF7115BB2A13}"/>
+    <hyperlink ref="T85" r:id="rId61" xr:uid="{6B6FA851-5730-41C3-9AD3-29501233C4EF}"/>
+    <hyperlink ref="B86" r:id="rId62" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/47e8e523-4417-4b5b-90e5-f72b14e59a38" display="Cbus Advocacy Research" xr:uid="{415E68FE-63DA-4727-BBF2-D5B9E5B4A68B}"/>
+    <hyperlink ref="T86" r:id="rId63" xr:uid="{2AD3FFE5-FB20-4C1E-B57F-CFE0E5B36B26}"/>
+    <hyperlink ref="B89" r:id="rId64" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/50c38354-a1aa-4221-89a9-67b1c2af5d56" xr:uid="{776AA357-15C0-415F-AD46-2E881767E760}"/>
+    <hyperlink ref="T89" r:id="rId65" xr:uid="{67874548-D942-44D2-AFBC-BB37ACD6D8B7}"/>
+    <hyperlink ref="B87" r:id="rId66" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bcdec3d6-9690-4399-8cce-1c945390b466" xr:uid="{17B72274-B78F-495D-B419-9A0D73821A7F}"/>
+    <hyperlink ref="B88" r:id="rId67" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bcdec3d6-9690-4399-8cce-1c945390b466" xr:uid="{C08F1CF4-F712-4502-B9D7-AB516367C6BC}"/>
+    <hyperlink ref="T87" r:id="rId68" xr:uid="{09AA577A-31BB-4E89-AD1C-E223A35FAD60}"/>
+    <hyperlink ref="T88" r:id="rId69" xr:uid="{720B7893-DA39-46C3-87FA-F12DA6138BED}"/>
+    <hyperlink ref="B92" r:id="rId70" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{69BF4C00-E3BA-45B0-811B-3788561FDB24}"/>
+    <hyperlink ref="B91" r:id="rId71" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{D7585B4B-7204-4A4E-B140-4217FD309F7E}"/>
+    <hyperlink ref="B90" r:id="rId72" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e48b4e16-bdcf-44b1-87db-8546a575ba4e" display="EOFY investment performance campaign (Microsoft HNW, SIS, Media)" xr:uid="{8256078B-EEC5-4D3C-87D3-6EDECA6A4325}"/>
+    <hyperlink ref="T91" r:id="rId73" xr:uid="{BD617822-7DD4-4BC8-8F4E-3DD549DB69D2}"/>
+    <hyperlink ref="T38" r:id="rId74" xr:uid="{43E542A7-EED9-47CD-A876-76D47F10BB49}"/>
+    <hyperlink ref="B93" r:id="rId75" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/7e56f57e-12e2-49c0-9e51-de68fe9cf789" display="#1 - SIS Acquisition - 2025 AUG" xr:uid="{E1FC8E26-35AB-43CA-8415-357E70A82AA7}"/>
+    <hyperlink ref="B95" r:id="rId76" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bca1837c-0f90-4529-9649-68676fad5162" display="#2 - SIS Acquisition - 2025 AUG" xr:uid="{83A5C014-4EB4-4268-8408-8C349E11D7B2}"/>
+    <hyperlink ref="B94" r:id="rId77" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/7e56f57e-12e2-49c0-9e51-de68fe9cf789" display="#1 - SIS Acquisition - 2025 AUG" xr:uid="{646A26CD-0D28-4643-9A18-7C11B5F2A6A6}"/>
+    <hyperlink ref="B96" r:id="rId78" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bca1837c-0f90-4529-9649-68676fad5162" display="#2 - SIS Acquisition - 2025 AUG" xr:uid="{97F55F8E-404D-4975-8457-45A84171A0DA}"/>
+    <hyperlink ref="B97" r:id="rId79" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f089ea09-6c3a-40ce-a12b-446940edf922" display="SIS Acquisition Sept 2025 - Segment 3" xr:uid="{04BC038E-0610-489D-8444-24F059E92866}"/>
+    <hyperlink ref="B99" r:id="rId80" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f089ea09-6c3a-40ce-a12b-446940edf922" display="SIS Acquisition Sept 2025 - Segment 3" xr:uid="{D5044EAD-B4FF-4896-9CE0-207234A2ACF4}"/>
+    <hyperlink ref="B98" r:id="rId81" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f089ea09-6c3a-40ce-a12b-446940edf922" display="SIS Acquisition Sept 2025 - Segment 3" xr:uid="{DE061018-F231-4EA6-B230-C6F38A03B8ED}"/>
+    <hyperlink ref="B101" r:id="rId82" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/92b3dff9-2ac0-41da-8e22-ce0ba4df098d" display="SIS Acquisition Sept 2025 - Segment 4  - Cbus" xr:uid="{90DDD61B-B442-447D-BC3F-2F85AAF8535E}"/>
+    <hyperlink ref="B100" r:id="rId83" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/92b3dff9-2ac0-41da-8e22-ce0ba4df098d" xr:uid="{405A91C1-FFD6-4110-8E98-F2CED007F2C4}"/>
+    <hyperlink ref="T93" r:id="rId84" xr:uid="{46A4C0C5-3DA2-4EDE-9262-78B2CEC51B84}"/>
+    <hyperlink ref="T94" r:id="rId85" xr:uid="{AA5FA10A-8377-4821-89EE-5352A329D287}"/>
+    <hyperlink ref="T95" r:id="rId86" xr:uid="{9AA04B41-F1EE-4344-8658-C5D6B7A1AFEA}"/>
+    <hyperlink ref="T96" r:id="rId87" xr:uid="{C2B27C02-626B-497A-93FB-13BB9D4DBBAC}"/>
+    <hyperlink ref="T99" r:id="rId88" xr:uid="{470E4EA3-F735-46B3-B163-4B6833C6BC1E}"/>
+    <hyperlink ref="T97" r:id="rId89" xr:uid="{747F63F2-3DB0-4754-92D2-72D1A8E78BE2}"/>
+    <hyperlink ref="T98" r:id="rId90" xr:uid="{5F3CB8C3-A80F-4108-86AE-76AA502ED4CE}"/>
+    <hyperlink ref="T100" r:id="rId91" xr:uid="{A4F27734-7717-4BB5-9DD8-C6FA10D03B1E}"/>
+    <hyperlink ref="T101" r:id="rId92" xr:uid="{10110FD1-EBB0-40E1-9BB7-56E1B6C67A71}"/>
+    <hyperlink ref="B130" r:id="rId93" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c24482ca-6dff-4676-bc67-415d108359fd" display="Cbus News" xr:uid="{7B937800-2778-4DA1-909D-7AA3E2D314AE}"/>
+    <hyperlink ref="B55" r:id="rId94" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c24482ca-6dff-4676-bc67-415d108359fd" display="Cbus News" xr:uid="{38AC2DFC-38D6-4B1E-8941-C0F91073E1DF}"/>
+    <hyperlink ref="B134" r:id="rId95" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c24482ca-6dff-4676-bc67-415d108359fd" display="Cbus News" xr:uid="{0EC00125-AD37-4C7E-87D0-E41A772F2C30}"/>
+    <hyperlink ref="B57" r:id="rId96" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/c24482ca-6dff-4676-bc67-415d108359fd" display="Cbus News" xr:uid="{9A26CB6A-49BD-4B31-A6A4-92AF61DD4285}"/>
+    <hyperlink ref="B124" r:id="rId97" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b4838304-27ee-40d6-a2c5-fbe51637f011" display="Cbus News Sep - SIS " xr:uid="{9BB6CB4F-35CC-4CCB-A023-11C2EF4DDE69}"/>
+    <hyperlink ref="B123" r:id="rId98" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b4838304-27ee-40d6-a2c5-fbe51637f011" display="Cbus News Sep - SIS " xr:uid="{0B77C253-E7F7-42DB-81B8-1D54AEBD1DE2}"/>
+    <hyperlink ref="B127" r:id="rId99" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/738d4a66-5e39-4d8d-a98d-63f9d66dd930" display="News Sep" xr:uid="{CA7D616B-F1AE-40D0-8563-BC35B1028440}"/>
+    <hyperlink ref="T130" r:id="rId100" xr:uid="{6CD9C4AC-521A-44D2-ABED-C9ADFE5619F9}"/>
+    <hyperlink ref="T132" r:id="rId101" xr:uid="{DECC8875-831C-48D8-A401-5D8F6D6AA9A9}"/>
+    <hyperlink ref="T131" r:id="rId102" xr:uid="{9694BB1C-6051-4A63-9607-0AFC686FEDAC}"/>
+    <hyperlink ref="T134" r:id="rId103" xr:uid="{2AFB76FF-37CE-4C3B-8875-234DF8BBF9B9}"/>
+    <hyperlink ref="T136" r:id="rId104" xr:uid="{47C5D00B-E958-478C-9509-D0B2CD2EC750}"/>
+    <hyperlink ref="T135" r:id="rId105" xr:uid="{F7CD77B8-5717-48A5-9E25-F0A154195DAE}"/>
+    <hyperlink ref="T124" r:id="rId106" xr:uid="{5870EC70-AFC1-4984-B63C-70E52D1997C7}"/>
+    <hyperlink ref="T123" r:id="rId107" xr:uid="{2FE6564C-E9AF-47B3-BC71-8D3F9604053F}"/>
+    <hyperlink ref="T127" r:id="rId108" xr:uid="{CB253886-C65A-44AD-83AA-4CB9936DC0E9}"/>
+    <hyperlink ref="T142" r:id="rId109" xr:uid="{8FD3C9C1-19DD-4DE4-BFED-40C1EDDB16F1}"/>
+    <hyperlink ref="B126" r:id="rId110" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/283624f3-e567-4929-b8bc-d33a9f46ea1e" xr:uid="{FC91E404-A8D6-4EA7-B93E-83446233E670}"/>
+    <hyperlink ref="T126" r:id="rId111" xr:uid="{27456D55-2F72-404D-9C8B-C854698E9165}"/>
+    <hyperlink ref="B125" r:id="rId112" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6a792d2d-ca50-468a-9456-895d03fadfd6" xr:uid="{D4243DDC-749D-4275-B355-E031B567E956}"/>
+    <hyperlink ref="T125" r:id="rId113" xr:uid="{081DB7BB-6798-4BBA-9CAC-132A641DD637}"/>
+    <hyperlink ref="B128" r:id="rId114" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6e06488a-6cb6-428b-9ed6-c8c73ef8b763" xr:uid="{870C6C52-B6E1-4366-9D24-2C1E9D97B15C}"/>
+    <hyperlink ref="B129" r:id="rId115" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6e06488a-6cb6-428b-9ed6-c8c73ef8b763" xr:uid="{0DBE4AED-79C9-4D1F-B6BF-0DF81DB8A6E6}"/>
+    <hyperlink ref="T128" r:id="rId116" xr:uid="{E438F1A1-1B16-4AA3-9219-689FFA1E87CB}"/>
+    <hyperlink ref="T129" r:id="rId117" xr:uid="{25B0C20B-7FC6-45F5-9CF8-EA12B3A78096}"/>
+    <hyperlink ref="B133" r:id="rId118" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/4a7d9c16-ca7f-44aa-a2ef-4239c50d26cc" display="Cbus Advocacy Research Survey - Reminder" xr:uid="{56014A37-0DA9-4BC2-A690-FC44626B215E}"/>
+    <hyperlink ref="T133" r:id="rId119" xr:uid="{084B1D27-4465-483D-85B0-F28273391DB3}"/>
+    <hyperlink ref="B139" r:id="rId120" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/92edf682-d87c-422d-8e7b-bb7d146dc839" xr:uid="{E6EF1D18-86DA-462F-B890-F8805E20CCE5}"/>
+    <hyperlink ref="T139" r:id="rId121" xr:uid="{20B61D8D-19A7-4A3E-A798-10CEE9AEF74B}"/>
+    <hyperlink ref="B137" r:id="rId122" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bc71c7b3-ef48-4aba-ad95-ac8cb9712109" xr:uid="{A22BAA73-5D18-498B-901E-BDD442AEF8DC}"/>
+    <hyperlink ref="B138" r:id="rId123" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bc71c7b3-ef48-4aba-ad95-ac8cb9712109" xr:uid="{1080EF57-D511-42D8-BBD2-1077C17CE1D8}"/>
+    <hyperlink ref="T138" r:id="rId124" xr:uid="{DC7BC730-9C8E-42AB-B523-E4F558909582}"/>
+    <hyperlink ref="T137" r:id="rId125" xr:uid="{EE104E06-0CE6-4434-87A1-BE63E2EC99FD}"/>
+    <hyperlink ref="B144" r:id="rId126" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/39dddfa5-71d3-4db1-89ec-f3482f49b94b" xr:uid="{40523AEF-4573-476A-BF62-104B9F750959}"/>
+    <hyperlink ref="B143" r:id="rId127" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/39dddfa5-71d3-4db1-89ec-f3482f49b94b" xr:uid="{1CF92908-8F0B-478A-A7E0-2E0D1F9C7B4F}"/>
+    <hyperlink ref="T144" r:id="rId128" xr:uid="{85D8ACF6-EC7B-484B-9BEC-B0E24AEFDE3B}"/>
+    <hyperlink ref="T143" r:id="rId129" xr:uid="{8ADCB61D-1BA4-4E3A-B2B6-624284BAD8AF}"/>
+    <hyperlink ref="B145" r:id="rId130" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/35d680d6-e62b-40a2-98e9-8980addab421" xr:uid="{A11CCE1F-CB08-4EF8-8E6D-31B3422A7288}"/>
+    <hyperlink ref="B146" r:id="rId131" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/35d680d6-e62b-40a2-98e9-8980addab421" xr:uid="{DCE34DA4-0432-4EDF-9782-2526B7BF935B}"/>
+    <hyperlink ref="B152" r:id="rId132" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 57 Years - Automated Sep Report" xr:uid="{1832F64D-AA22-48DF-AC5C-5140E44E7706}"/>
+    <hyperlink ref="B151" r:id="rId133" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 57 Years - Automated Sep Report" xr:uid="{5551D050-087E-4390-B182-1616970EBD76}"/>
+    <hyperlink ref="B150" r:id="rId134" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 57 Years - Automated Sep Report" xr:uid="{E4B7E407-4979-4D35-B801-225F790EB799}"/>
+    <hyperlink ref="B149" r:id="rId135" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" xr:uid="{CAAF221F-68B7-4199-A185-2DFB46FF1094}"/>
+    <hyperlink ref="T152" r:id="rId136" xr:uid="{D9BF2647-E109-4CB9-81F1-ECD9D09437EB}"/>
+    <hyperlink ref="T151" r:id="rId137" xr:uid="{2A3BE898-28E3-468E-A841-818E5F0AC324}"/>
+    <hyperlink ref="T149" r:id="rId138" xr:uid="{D1171090-F3DC-47A0-9B84-7511891F333E}"/>
+    <hyperlink ref="T150" r:id="rId139" xr:uid="{1C6F57FC-CDBA-4341-9E63-EE9913F028E3}"/>
+    <hyperlink ref="B141" r:id="rId140" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{E9FC87C5-54F7-4CB8-A7F8-DDFE177EAD5D}"/>
+    <hyperlink ref="B140" r:id="rId141" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{7F2080F1-684A-44B5-AEDD-4D722FE1D052}"/>
+    <hyperlink ref="B64" r:id="rId142" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" display="PYS 9 Months - Automated July Report" xr:uid="{EB3AA57A-A898-4CA4-B7CE-499CA3EFE349}"/>
+    <hyperlink ref="B62" r:id="rId143" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" display="PYS 9 Months - Automated July Report" xr:uid="{D41E71F9-B333-4537-B969-C54B32BAE73F}"/>
+    <hyperlink ref="B113" r:id="rId144" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" display="PYS 9 Months - Automated July Report" xr:uid="{EB538D88-BD66-4D15-8B44-94A62534326E}"/>
+    <hyperlink ref="B111" r:id="rId145" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" display="PYS 9 Months - Automated July Report" xr:uid="{F66AD42F-5AC0-484A-B6EA-FAD1DA7827F8}"/>
+    <hyperlink ref="B56" r:id="rId146" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{42560414-F49E-43C7-8271-AF9D9065FC22}"/>
+    <hyperlink ref="B55" r:id="rId147" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{630C694F-30D3-49D8-901D-9014C09E771E}"/>
+    <hyperlink ref="B108" r:id="rId148" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{4C5DDE7F-9FA5-4B76-A6CD-769F71F5FD65}"/>
+    <hyperlink ref="B106" r:id="rId149" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{B9C8B1AB-780B-4793-9196-135A5E0C864A}"/>
+    <hyperlink ref="B65" r:id="rId150" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" display="PYS 5 Months - Automated July Report" xr:uid="{3F5521B6-AE14-4530-8B2D-098986E3A2B6}"/>
+    <hyperlink ref="B63" r:id="rId151" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" display="PYS 5 Months - Automated July Report" xr:uid="{9859A856-288D-4DBC-8259-0125513EFDD6}"/>
+    <hyperlink ref="B114" r:id="rId152" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" display="PYS 5 Months - Automated July Report" xr:uid="{DB4E5029-79AB-4B71-BB4B-DA93872E2665}"/>
+    <hyperlink ref="B112" r:id="rId153" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" display="PYS 5 Months - Automated July Report" xr:uid="{4EB3C59B-5AB6-4FF8-B394-0FBEACB9DDAE}"/>
+    <hyperlink ref="B23" r:id="rId154" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" xr:uid="{8BDBBCFB-BFC4-4713-A665-959D3FD8D405}"/>
+    <hyperlink ref="B69" r:id="rId155" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{A5D81D22-5636-4694-8806-92C57FC44478}"/>
+    <hyperlink ref="B67" r:id="rId156" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{23943098-0279-488F-824B-7FBEBCADBD15}"/>
+    <hyperlink ref="B68" r:id="rId157" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{D5B8960F-D042-464A-9468-EE2A6715192E}"/>
+    <hyperlink ref="B66" r:id="rId158" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{7BF59EAE-4D48-4039-9E0B-0DFB48AB37AF}"/>
+    <hyperlink ref="B118" r:id="rId159" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{2B962197-19D1-46CC-9BAF-5E58E2AB29B2}"/>
+    <hyperlink ref="B116" r:id="rId160" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{EDE737E6-545A-4CDA-A2C9-5AAA815C1912}"/>
+    <hyperlink ref="B117" r:id="rId161" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{5C87BAEB-6361-4F87-84AE-35BB546650AA}"/>
+    <hyperlink ref="B115" r:id="rId162" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" display="Consolidation - 90 days -  Automated July Report" xr:uid="{6DE5DBBD-4BC9-44A4-B8A1-2CF44A270889}"/>
+    <hyperlink ref="B61" r:id="rId163" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 73 yrs - Automated July Report" xr:uid="{0BFB927B-249A-4940-A13D-459D0CEDCFCC}"/>
+    <hyperlink ref="B60" r:id="rId164" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 55 yrs - Automated July Report" xr:uid="{441AFB7D-5AC3-460E-9FDB-A402F12EA1F9}"/>
+    <hyperlink ref="B110" r:id="rId165" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 73 yrs - Automated July Report" xr:uid="{99C1F603-EAF1-42FF-B65D-AA1818836699}"/>
+    <hyperlink ref="B109" r:id="rId166" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 55 yrs - Automated July Report" xr:uid="{FE3BD79E-85F1-491C-8D3E-1034584CB3F9}"/>
+    <hyperlink ref="B58" r:id="rId167" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/89e3bf9a-c9fc-4381-a3e2-79ec60962cf0" display="12 Month Check in - 35+ Rolled in - Automated July Report" xr:uid="{FB526AFF-EB93-4185-BEAD-58B030C61417}"/>
+    <hyperlink ref="B57" r:id="rId168" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/89e3bf9a-c9fc-4381-a3e2-79ec60962cf0" display="12 Month Check in - 35+ Rolled in - Automated July Report" xr:uid="{1B22B47B-D362-437F-B489-CDB4A84B1907}"/>
+    <hyperlink ref="B59" r:id="rId169" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/89e3bf9a-c9fc-4381-a3e2-79ec60962cf0" display="12 Month Check in - 35+ Rolled in - Automated July Report" xr:uid="{C05B998E-F0FE-496D-B2C8-450D8EB2672F}"/>
+    <hyperlink ref="B107" r:id="rId170" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/785d6f2f-8292-422a-9833-2d2802ca7fa1" display="Beneficiaries [Seg 4 - Lapsed binding] - Automated July Report" xr:uid="{29BA7AE2-D727-48C5-8BB6-F40AEBA48DDC}"/>
+    <hyperlink ref="B129:B132" r:id="rId171" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/df53f790-6392-4a01-a73f-f23a41796609" display="PYS 12 Months - Automated July Report" xr:uid="{5A57F3AC-8F37-4AA2-AEC3-D228861D25E1}"/>
+    <hyperlink ref="B52" r:id="rId172" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e518a319-9c52-4d1e-8c54-5a5bac7e98c1" display="SPC" xr:uid="{7C1DD57D-0992-4981-92FB-393607C4E760}"/>
+    <hyperlink ref="B103" r:id="rId173" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e518a319-9c52-4d1e-8c54-5a5bac7e98c1" display="SPC" xr:uid="{4724CBB6-757A-4570-AC13-3FD363F876BC}"/>
+    <hyperlink ref="B137:B138" r:id="rId174" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" display="Abandoned  Cart MJOL" xr:uid="{89E7B679-7362-475D-98BE-25F1829C350A}"/>
+    <hyperlink ref="B147" r:id="rId175" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/bd610eaf-020d-4ee0-8920-be3e08a37a25" xr:uid="{DEABCB06-B632-461D-84C6-F06A70FA9619}"/>
+    <hyperlink ref="B148" r:id="rId176" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3df19f42-c622-481a-a0cc-b64ea8f94164" display="Cbus - 2025 Statements - SIS" xr:uid="{8C7106E8-B2C7-4073-98E2-6BD22D598D4F}"/>
+    <hyperlink ref="T148" r:id="rId177" xr:uid="{46704411-4366-4503-871A-63C62D6F5CDF}"/>
+    <hyperlink ref="T147" r:id="rId178" xr:uid="{35617BE4-D51B-4C42-BCBC-A3326810417E}"/>
+    <hyperlink ref="B153" r:id="rId179" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/df121502-9927-4eed-8a89-998f44dfe2cb" xr:uid="{4C7035C0-55DC-42DB-BC1A-1724968D036A}"/>
+    <hyperlink ref="B154" r:id="rId180" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/df121502-9927-4eed-8a89-998f44dfe2cb" xr:uid="{D51BF1B3-CB4F-4C37-97E4-0E8A747D3371}"/>
+    <hyperlink ref="T153" r:id="rId181" xr:uid="{6D9DC780-9CDA-4D3F-B56F-0677CA3C5FB2}"/>
+    <hyperlink ref="T154" r:id="rId182" xr:uid="{E660BB65-5617-4FC2-B761-2C921DC44FB7}"/>
+    <hyperlink ref="B120" r:id="rId183" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{787E3B42-1A34-460D-BCBD-6D1DEBA1028A}"/>
+    <hyperlink ref="B119" r:id="rId184" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" xr:uid="{CAB5B92A-46CB-4743-B631-1BDD2851A0CE}"/>
+    <hyperlink ref="B71" r:id="rId185" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{95384588-A5DD-422B-8251-86A1E34F35E7}"/>
+    <hyperlink ref="B70" r:id="rId186" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{690ACB40-AD80-4398-88D6-EF31DB93FD07}"/>
+    <hyperlink ref="B25" r:id="rId187" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{ACA5534A-56E5-44DB-8EBF-E9C689DD70E6}"/>
+    <hyperlink ref="B24" r:id="rId188" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8c062c79-30ff-4ef1-80d7-e40490c50fab" display="Data Capture- Accum - [Pre 15 Sept 2025]" xr:uid="{8FEB3484-B05E-47F9-99FD-554CD58C3EA1}"/>
+    <hyperlink ref="B122" r:id="rId189" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" xr:uid="{403A0435-2A6E-4B4F-AB1E-59A9DD3D7421}"/>
+    <hyperlink ref="B121" r:id="rId190" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" xr:uid="{70EDC27F-2DC1-4DB6-8815-947052CC4758}"/>
+    <hyperlink ref="B73" r:id="rId191" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" display="6 Month Tenure [Pre 17 Sep 2025]" xr:uid="{BAACE1B3-18DD-40D4-B9D4-9C9FFC7032EA}"/>
+    <hyperlink ref="B72" r:id="rId192" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" display="6 Month Tenure [Pre 17 Sept 2025]" xr:uid="{90BD2120-2520-423A-878B-E4198EC602E4}"/>
+    <hyperlink ref="B153:B154" r:id="rId193" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6c2633f2-243d-40d9-b2d1-214cd45324a9" display="6 Month Tenure [Pre 17 Sept 2025]" xr:uid="{011C95CE-D787-4DFF-A58A-52BB55F1A47F}"/>
+    <hyperlink ref="B157" r:id="rId194" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/9efc2441-6827-4717-9013-680afb8db7de" xr:uid="{95F5B5C6-E7F9-4F03-BCC3-72C6C47E693A}"/>
+    <hyperlink ref="B158" r:id="rId195" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/9efc2441-6827-4717-9013-680afb8db7de" xr:uid="{0A3ED4AD-923A-41AB-8AA4-552B42BFBC3C}"/>
+    <hyperlink ref="B159" r:id="rId196" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/745dc927-64df-462b-8819-760afc248605" xr:uid="{9CD36ECF-BF41-4F3E-9C75-670618C667D2}"/>
+    <hyperlink ref="B160" r:id="rId197" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/745dc927-64df-462b-8819-760afc248605" xr:uid="{3851E138-F07F-4299-82F1-CDACC7AB2D4F}"/>
+    <hyperlink ref="T157" r:id="rId198" xr:uid="{F2675824-1A9F-49D9-A78F-51A609CB7E9D}"/>
+    <hyperlink ref="T158" r:id="rId199" xr:uid="{76235692-6651-4E03-9AAE-80F4C54EA185}"/>
+    <hyperlink ref="T160" r:id="rId200" xr:uid="{B292C362-9C06-4B60-942C-245AE8714903}"/>
+    <hyperlink ref="T159" r:id="rId201" xr:uid="{EF137438-E2BA-480C-9EEA-2E208B2FF391}"/>
+    <hyperlink ref="B156" r:id="rId202" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{594850D2-A800-4945-A1A3-7601E7DFC5BA}"/>
+    <hyperlink ref="B155" r:id="rId203" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" display="Beneficiaries - Seg 1 -New member -  Automated July" xr:uid="{B56A7C75-F3A7-41B8-AB09-941E011BBE2B}"/>
+    <hyperlink ref="B161" r:id="rId204" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" xr:uid="{EC7A412D-E0CD-473A-92EC-8B71EC598FC0}"/>
+    <hyperlink ref="B162" r:id="rId205" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" xr:uid="{5B6183F1-E7D9-4E23-8A1E-85D2D04FC441}"/>
+    <hyperlink ref="B163" r:id="rId206" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" xr:uid="{B402C10B-4B83-4737-83E5-8CFA813ECEB4}"/>
+    <hyperlink ref="B164" r:id="rId207" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" xr:uid="{37A7B1A0-5954-4F69-A396-24AAA969F4E7}"/>
+    <hyperlink ref="B165" r:id="rId208" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" xr:uid="{B18BF7CB-5575-459F-973A-30561B8958FE}"/>
+    <hyperlink ref="B166" r:id="rId209" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" xr:uid="{9D326E37-133E-4777-A180-AD1C95B3D1D2}"/>
+    <hyperlink ref="B167" r:id="rId210" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" xr:uid="{F245AA5F-1AE2-4629-900B-0CB71BF249ED}"/>
+    <hyperlink ref="B168" r:id="rId211" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" xr:uid="{D5E69B1E-2DD7-48B4-A931-6A46F1D52FE4}"/>
+    <hyperlink ref="B169" r:id="rId212" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" xr:uid="{AE17125C-908A-451D-BAB3-78150075D391}"/>
+    <hyperlink ref="B170" r:id="rId213" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cbafab5a-039f-4e19-b165-5c9aea855168" xr:uid="{FCDBE11B-CC1D-44AE-BAC3-6BF06E4A6EEB}"/>
+    <hyperlink ref="B171" r:id="rId214" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" xr:uid="{F6A1F5A1-0BCA-4C33-AB46-BD7106ACD0A6}"/>
+    <hyperlink ref="B172" r:id="rId215" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" xr:uid="{5D070645-C605-48A6-B30A-545539E44075}"/>
+    <hyperlink ref="B173" r:id="rId216" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/785d6f2f-8292-422a-9833-2d2802ca7fa1" xr:uid="{3D07B372-B516-4FA3-97CF-D7FA84A3AC31}"/>
+    <hyperlink ref="B176" r:id="rId217" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e518a319-9c52-4d1e-8c54-5a5bac7e98c1" xr:uid="{F0EF1DE0-C482-4FE6-A769-98A5CF368ADF}"/>
+    <hyperlink ref="B178" r:id="rId218" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/35d680d6-e62b-40a2-98e9-8980addab421" display="6 Month Tenure [Pre 17 Sep 2025]" xr:uid="{560F601D-574D-4934-AD09-006713AC4CDC}"/>
+    <hyperlink ref="B186" r:id="rId219" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/9efc2441-6827-4717-9013-680afb8db7de" xr:uid="{96C74F20-FE6A-40F8-AA31-5644008F3617}"/>
+    <hyperlink ref="T186" r:id="rId220" xr:uid="{D8F82DA6-CC4A-493E-A6B4-B86927821944}"/>
+    <hyperlink ref="B187" r:id="rId221" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/9efc2441-6827-4717-9013-680afb8db7de" xr:uid="{B1D0FF54-7018-42C6-B8F9-A5E1BF28F722}"/>
+    <hyperlink ref="T187" r:id="rId222" xr:uid="{6AE8FEA1-47CB-4F24-B9A5-5E882E21AC38}"/>
+    <hyperlink ref="B188" r:id="rId223" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/745dc927-64df-462b-8819-760afc248605" xr:uid="{8A9343BC-24AB-4F65-8509-CA061FD69388}"/>
+    <hyperlink ref="T188" r:id="rId224" xr:uid="{93AFC6AB-9BA1-4973-92F3-F790ACDE4D19}"/>
+    <hyperlink ref="B189" r:id="rId225" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/745dc927-64df-462b-8819-760afc248605" xr:uid="{14E99629-55BD-48C9-B1BA-1FDF579A92AE}"/>
+    <hyperlink ref="T189" r:id="rId226" xr:uid="{03849D1B-E17B-4AD6-B577-6CF3F1BBB6CD}"/>
+    <hyperlink ref="B191" r:id="rId227" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b3c83ca1-5def-411e-8a8a-b1fa4230bca9" xr:uid="{212C918E-50B9-4332-B1C2-01AD126D7D41}"/>
+    <hyperlink ref="B190" r:id="rId228" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b3c83ca1-5def-411e-8a8a-b1fa4230bca9" xr:uid="{747F800E-4385-4B16-AF7F-18B7A6E1DCBA}"/>
+    <hyperlink ref="B177" r:id="rId229" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" xr:uid="{D2BB8B2B-A730-4842-96DA-050B58161FA7}"/>
+    <hyperlink ref="B193" r:id="rId230" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/11c7ab80-6498-486d-8799-60566311d059" xr:uid="{D028E486-7C5C-4F19-BC7C-4D0BF4854C81}"/>
+    <hyperlink ref="B194" r:id="rId231" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/11c7ab80-6498-486d-8799-60566311d059" xr:uid="{EC080CCE-4AC3-44C9-846F-24E8A6E373E2}"/>
+    <hyperlink ref="B198" r:id="rId232" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" xr:uid="{D18EE3B5-4079-4B25-85C7-EED23D580736}"/>
+    <hyperlink ref="B197" r:id="rId233" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" display="Advice Needs research" xr:uid="{102FCE9B-70AE-41E5-87B2-139F4ABCDDFC}"/>
+    <hyperlink ref="B199" r:id="rId234" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" xr:uid="{3FE70EE3-023F-4E4B-BBF2-78E8EA52A0B4}"/>
+    <hyperlink ref="B200" r:id="rId235" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e72ad46a-3745-40ba-a629-d9f53273a656" display="Scam awareness EDM" xr:uid="{8AF7365D-29AF-42A6-B6EF-DE0F6A74D90E}"/>
+    <hyperlink ref="B201" r:id="rId236" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e72ad46a-3745-40ba-a629-d9f53273a656" display="Scam awareness EDM" xr:uid="{810FFCD4-E9A1-4CA2-BE71-0B3F9838A0F3}"/>
+    <hyperlink ref="B180" r:id="rId237" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 68 Years [Pre 25 Sep 2025]" xr:uid="{EC52EDA4-B983-4691-994A-4372BFCF8AB8}"/>
+    <hyperlink ref="B181" r:id="rId238" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 67 Years Pre 25 Sep 2025]" xr:uid="{2F265E0D-9A04-4F85-9612-18A7045D0D63}"/>
+    <hyperlink ref="B182" r:id="rId239" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 66 Years [Pre 25 Sep 2025]" xr:uid="{72F11345-FB57-4891-AFCB-A7021674E90D}"/>
+    <hyperlink ref="B183" r:id="rId240" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" xr:uid="{20208A02-C4B2-4288-907A-1191A7C238BE}"/>
+    <hyperlink ref="B179" r:id="rId241" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/35d680d6-e62b-40a2-98e9-8980addab421" display="6 Month Tenure [Pre 17 Sep 2025]" xr:uid="{AABAB842-6D2C-4F7E-85C6-832CD62AC046}"/>
+    <hyperlink ref="B202" r:id="rId242" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/dd583dec-4a8f-4364-b58b-eeb1bca64b4d" xr:uid="{B7F0A43A-9F04-440F-AD9C-9105037D6F5C}"/>
+    <hyperlink ref="B203" r:id="rId243" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/dd583dec-4a8f-4364-b58b-eeb1bca64b4d" xr:uid="{DD788B99-0528-4A31-9DA2-3F14526C441E}"/>
+    <hyperlink ref="B204" r:id="rId244" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1705c74b-00e3-4f10-ba53-8d31b070761f" xr:uid="{17785F7D-009F-47E5-BBC0-003E27DEA98B}"/>
+    <hyperlink ref="B205" r:id="rId245" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1705c74b-00e3-4f10-ba53-8d31b070761f" xr:uid="{D3C43F25-13E2-464D-BC6A-ACA9A0C7C58D}"/>
+    <hyperlink ref="T206" r:id="rId246" xr:uid="{8BE67F82-F3D7-4965-828D-53844EB241DB}"/>
+    <hyperlink ref="T207" r:id="rId247" xr:uid="{F7ECDDC4-C378-4C02-ADFF-9C619DE281B0}"/>
+    <hyperlink ref="T208" r:id="rId248" xr:uid="{DE67BC14-DC57-4C4C-8FE5-3ACFBDA435C4}"/>
+    <hyperlink ref="T217" r:id="rId249" xr:uid="{C7E19626-02A4-4B0C-B60E-86E179849241}"/>
+    <hyperlink ref="T216" r:id="rId250" xr:uid="{D891EFB4-ACAF-45AA-832E-A8B62891E532}"/>
+    <hyperlink ref="T209" r:id="rId251" xr:uid="{308B7210-80CE-4BFD-9B40-FDB3B1E0E14D}"/>
+    <hyperlink ref="T210" r:id="rId252" xr:uid="{5D44B1DF-075A-4461-BA16-F256BCB5DB2F}"/>
+    <hyperlink ref="T211" r:id="rId253" xr:uid="{AC14882E-C08F-418B-89F1-712D6C01D1EB}"/>
+    <hyperlink ref="T212" r:id="rId254" xr:uid="{D65178F1-7C36-4856-968B-BB7AFA21409D}"/>
+    <hyperlink ref="T213" r:id="rId255" xr:uid="{B27A6DAE-AEF7-4B53-BFDF-7010146F131A}"/>
+    <hyperlink ref="T214" r:id="rId256" xr:uid="{8190AD1D-5D8B-4E66-B390-2F27A170F62F}"/>
+    <hyperlink ref="T215" r:id="rId257" xr:uid="{1A1D7CA3-25FC-465E-8689-45457A25D40D}"/>
+    <hyperlink ref="B218" r:id="rId258" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" xr:uid="{E1872C75-D226-47E3-AF54-1A01D18B09E6}"/>
+    <hyperlink ref="B219" r:id="rId259" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d7209149-fde7-4ac2-84e6-07fd80500573" xr:uid="{3461D3D2-9801-47C0-BE04-13C65711D695}"/>
+    <hyperlink ref="B220" r:id="rId260" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" xr:uid="{D4B47714-368B-4369-BC6A-CE3BF62714B4}"/>
+    <hyperlink ref="B221" r:id="rId261" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/8358282e-963a-4b3a-95a3-3c1846825c9c" xr:uid="{530F7378-391C-4B8F-ABC0-9D46F6F0F7C4}"/>
+    <hyperlink ref="B222" r:id="rId262" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" xr:uid="{05123249-3A00-4E04-9FA3-0FAF2BC645C5}"/>
+    <hyperlink ref="B223" r:id="rId263" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/a7179232-e11e-42a4-af3e-d7e193714354" xr:uid="{9EDD1503-471B-46D8-A716-808692FB771A}"/>
+    <hyperlink ref="B224" r:id="rId264" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" xr:uid="{F57197D2-BDF7-4008-AFD0-70B7D9715401}"/>
+    <hyperlink ref="B225" r:id="rId265" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" xr:uid="{9CACDA5D-7A93-4498-910D-CB23E2DD242F}"/>
+    <hyperlink ref="B226" r:id="rId266" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/785d6f2f-8292-422a-9833-2d2802ca7fa1" xr:uid="{9AAA07F3-02AF-4AF9-976C-35C0B3FBDD69}"/>
+    <hyperlink ref="B229" r:id="rId267" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e518a319-9c52-4d1e-8c54-5a5bac7e98c1" xr:uid="{60B4CB47-B5E1-4484-AB18-9847FCCFAFF2}"/>
+    <hyperlink ref="B230" r:id="rId268" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" xr:uid="{95C6780C-2B2D-4C98-8481-E4E825CBE9BF}"/>
+    <hyperlink ref="B231" r:id="rId269" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 68 Years [Pre 25 Sep 2025]" xr:uid="{0021A7F2-DD1B-4870-9404-16898343915B}"/>
+    <hyperlink ref="B232" r:id="rId270" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 67 Years Pre 25 Sep 2025]" xr:uid="{53DF61B3-616E-480C-9213-CCC9AC61DF56}"/>
+    <hyperlink ref="B233" r:id="rId271" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 66 Years [Pre 25 Sep 2025]" xr:uid="{E79F2A25-E7F2-40DB-926C-4F4EB6753687}"/>
+    <hyperlink ref="B234" r:id="rId272" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" xr:uid="{DFEB8853-4230-4E7F-84A7-0B899306326B}"/>
+    <hyperlink ref="B227:B228" r:id="rId273" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e1d432aa-88e8-4c3a-89bb-7cfed646e1be" display="PYS 12 Months" xr:uid="{2704B708-84EA-4C85-8C04-062100C8F184}"/>
+    <hyperlink ref="B235" r:id="rId274" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6b33825c-fbb5-4f47-b564-a293510bba4f" xr:uid="{4C0A1E69-2558-4BB8-B21B-397325219DC8}"/>
+    <hyperlink ref="B236" r:id="rId275" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6b33825c-fbb5-4f47-b564-a293510bba4f" xr:uid="{76AAD98C-AAC2-4503-AA34-8B434EE3ED3E}"/>
+    <hyperlink ref="B238" r:id="rId276" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{FC9C2CA8-8ABC-4F1E-BB1E-03A815CF8CD8}"/>
+    <hyperlink ref="B237" r:id="rId277" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{8838D11D-6FBD-48CF-9CA4-EDBB1F82F383}"/>
+    <hyperlink ref="B185" r:id="rId278" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{B7867DAB-269E-4524-91A1-534B6EDD7C51}"/>
+    <hyperlink ref="B184" r:id="rId279" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{9D599D62-17C9-498F-8055-4133593F374D}"/>
+    <hyperlink ref="B239" r:id="rId280" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/854f73d8-aa00-4fe2-9c2e-45bcb54156f4" xr:uid="{C1027C14-56EA-448E-8BAB-C63E09D0C9E4}"/>
+    <hyperlink ref="B240" r:id="rId281" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/854f73d8-aa00-4fe2-9c2e-45bcb54156f4" xr:uid="{384E04F6-4003-476E-B192-E063148EA31B}"/>
+    <hyperlink ref="B242" r:id="rId282" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" xr:uid="{02010B3C-9466-465E-936C-9470E6B34533}"/>
+    <hyperlink ref="B241" r:id="rId283" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" display="Advice Needs research" xr:uid="{AE77844B-C2CD-4063-8DD4-6E106784FF21}"/>
+    <hyperlink ref="B243" r:id="rId284" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b02f06c5-9124-4f58-a106-99330e115490" xr:uid="{2E8F6402-4182-4DDE-A83F-CCF9127227F3}"/>
+    <hyperlink ref="B241:B243" r:id="rId285" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/09bbe6ac-c38b-4e06-9ae0-fa2b7779445b" display="Advice Needs research- MEDIA 35s+ Reminder" xr:uid="{B63A33C9-482B-449F-9AF5-9895152EAB9F}"/>
+    <hyperlink ref="B244" r:id="rId286" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/51b42ebc-0a9a-4491-a1fa-669bce1a67e7" display="YC Investment Basics" xr:uid="{47D98467-B2C4-4A72-B0B6-64FB8BC26859}"/>
+    <hyperlink ref="B245:B247" r:id="rId287" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/51b42ebc-0a9a-4491-a1fa-669bce1a67e7" display="YC Investment Basics" xr:uid="{5F39ABA6-87A9-4E9D-A6EE-905C88ABE4DF}"/>
+    <hyperlink ref="T244" r:id="rId288" xr:uid="{18314DDC-5F4F-4BDB-A668-B5872785532C}"/>
+    <hyperlink ref="T245" r:id="rId289" xr:uid="{7BADFD5C-DAEF-4DE1-A527-593BE81D4E72}"/>
+    <hyperlink ref="T246" r:id="rId290" xr:uid="{F7E6F66E-D9EA-4898-900D-5532E4671623}"/>
+    <hyperlink ref="T247" r:id="rId291" xr:uid="{5A74C3FC-5D44-4CFB-89D8-A45337A2B428}"/>
+    <hyperlink ref="B248" r:id="rId292" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3e292887-b584-4bcf-8302-372f4e8f75d2" xr:uid="{F6016358-C5B9-40C3-96F3-C601559DB907}"/>
+    <hyperlink ref="B249" r:id="rId293" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/98bceed7-967d-4787-a4c1-29e5d4f011c6" display="Quarterly Investment Perf Update - HNW" xr:uid="{1A2508D2-E90A-4CBB-8B8C-963174C904B8}"/>
+    <hyperlink ref="B250" r:id="rId294" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/98bceed7-967d-4787-a4c1-29e5d4f011c6" display="Quarterly Investment Perf Update - HNW" xr:uid="{0AA40987-2B11-42F9-81C9-236D7843AC8D}"/>
+    <hyperlink ref="T249" r:id="rId295" xr:uid="{D97EE891-4645-49D2-B25F-26C14EFC3BEF}"/>
+    <hyperlink ref="T250" r:id="rId296" xr:uid="{13D1D080-A49D-42A1-8A13-AC04792EAEEB}"/>
+    <hyperlink ref="B251" r:id="rId297" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b2d213d8-d137-4f0b-bd6c-535471820e6f" xr:uid="{0C3F0A6D-5EE8-4501-803F-ADDCAD0ED220}"/>
+    <hyperlink ref="B252" r:id="rId298" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/b2d213d8-d137-4f0b-bd6c-535471820e6f" xr:uid="{38CF9644-43F9-483B-886E-9A492D9C3A3B}"/>
+    <hyperlink ref="T251" r:id="rId299" xr:uid="{678283B0-C9B8-42D6-88C9-59FCE516EEB7}"/>
+    <hyperlink ref="T252" r:id="rId300" xr:uid="{F2DBCCEF-744E-4DBE-9BC8-6CD22C6569A1}"/>
+    <hyperlink ref="B253" r:id="rId301" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f4685d9b-1aa1-48e0-88a5-676af16225cf" xr:uid="{9AB60A34-75B2-46E6-867A-C6D18F6473D8}"/>
+    <hyperlink ref="B254" r:id="rId302" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/f4685d9b-1aa1-48e0-88a5-676af16225cf" xr:uid="{6EBAF5FD-971F-43EB-BC02-D9DED04180AA}"/>
+    <hyperlink ref="T253" r:id="rId303" xr:uid="{EF9898B8-4752-4803-84B4-723099440F4F}"/>
+    <hyperlink ref="T254" r:id="rId304" xr:uid="{2C97B4E3-E071-4FC9-8214-2E7EFF682463}"/>
+    <hyperlink ref="B255" r:id="rId305" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6a9f570b-c2e8-4903-8f56-8a02b73a7926" xr:uid="{6F27F4B5-83E3-4C53-BCB6-11143FEAB1D0}"/>
+    <hyperlink ref="B256" r:id="rId306" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6a9f570b-c2e8-4903-8f56-8a02b73a7926" display="SEN - Death Benefit Nov 25" xr:uid="{D7AAF38C-5652-4386-8A71-3DA5707467F1}"/>
+    <hyperlink ref="T255" r:id="rId307" xr:uid="{3E8DCB2C-2CBD-444A-AE77-A07E924D1512}"/>
+    <hyperlink ref="T256" r:id="rId308" xr:uid="{9A418F6D-2E11-4129-8625-EBA8CBF24892}"/>
+    <hyperlink ref="T257" r:id="rId309" xr:uid="{8D57081E-13DF-438D-889C-CE6E066BDC9C}"/>
+    <hyperlink ref="B278" r:id="rId310" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" xr:uid="{8ADD44E8-6354-42E1-BB12-830FDE27E91D}"/>
+    <hyperlink ref="B277" r:id="rId311" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 66 Years [Pre 25 Sep 2025]" xr:uid="{38563F74-846E-4FAD-99DB-EB52E1F2AE65}"/>
+    <hyperlink ref="B276" r:id="rId312" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 67 Years Pre 25 Sep 2025]" xr:uid="{80F0ADC7-54B7-4261-8899-88744AEFCE9F}"/>
+    <hyperlink ref="B275" r:id="rId313" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 68 Years [Pre 25 Sep 2025]" xr:uid="{90EA5B2E-0B7B-4C4F-837D-0A6B5A5040E0}"/>
+    <hyperlink ref="T281" r:id="rId314" xr:uid="{6FA4FBEE-9AD9-4F61-8D10-C7C9A74A177F}"/>
+    <hyperlink ref="T280" r:id="rId315" xr:uid="{F6F05B44-6AA2-4B51-A325-43FB7485F862}"/>
+    <hyperlink ref="T279" r:id="rId316" xr:uid="{64F605DE-53A2-4520-9ECB-700F494E4B56}"/>
+    <hyperlink ref="B279" r:id="rId317" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{379C56FA-1D5B-4FA2-A31E-C5973A4CD9BF}"/>
+    <hyperlink ref="T265" r:id="rId318" xr:uid="{45BDE7B1-09B3-46B9-BB72-8C0930A078BF}"/>
+    <hyperlink ref="B271" r:id="rId319" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{89DD9A11-62CB-443C-A2DC-91316A733B75}"/>
+    <hyperlink ref="B272" r:id="rId320" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{0D526AE5-9C92-49CC-841E-35EF62220E24}"/>
+    <hyperlink ref="B270" r:id="rId321" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6b33825c-fbb5-4f47-b564-a293510bba4f" xr:uid="{DE650C40-D448-4F87-94F1-1AE88176FC1C}"/>
+    <hyperlink ref="B269" r:id="rId322" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6b33825c-fbb5-4f47-b564-a293510bba4f" xr:uid="{C23CDD79-90A2-4C6B-A3DB-33B6822CF85A}"/>
+    <hyperlink ref="B265:B266" r:id="rId323" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e1d432aa-88e8-4c3a-89bb-7cfed646e1be" display="PYS 12 Months" xr:uid="{56C87BF7-E58B-4910-BAD8-FA2366D4FEE7}"/>
+    <hyperlink ref="B268" r:id="rId324" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" display="Abandoned  Cart MJOL" xr:uid="{37A0CAD7-A271-4EDE-A7CB-3AB9E642CBA2}"/>
+    <hyperlink ref="B267" r:id="rId325" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2a36e6fd-dd95-4f8b-87cb-ee5cbb8d6e73" display="SPC - Unpaid Super (Redundant 20251120) " xr:uid="{B5B1C7D8-8DF9-4D9D-B7AF-ACE3656B9CB3}"/>
+    <hyperlink ref="B264" r:id="rId326" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/785d6f2f-8292-422a-9833-2d2802ca7fa1" display="Beneficiaries [Seg 4 - Lapsed binding] (Stop 22 Dec)" xr:uid="{947451C0-F3E8-410C-B94E-AE666A563C27}"/>
+    <hyperlink ref="B263" r:id="rId327" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 55 yrs (Stop 22 Dec)" xr:uid="{884D2A54-DC16-4160-8FE3-AFED9BE7722A}"/>
+    <hyperlink ref="B262" r:id="rId328" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 73 yrs - (Stop 22 Dec)" xr:uid="{C628F592-2342-4EE7-AFD5-99A84D5762D5}"/>
+    <hyperlink ref="T261" r:id="rId329" xr:uid="{D5762008-1984-4804-BF9A-2485573B0A1D}"/>
+    <hyperlink ref="T260" r:id="rId330" xr:uid="{8633495D-53BC-4CCB-987E-FF235604B280}"/>
+    <hyperlink ref="T259" r:id="rId331" xr:uid="{54B4B942-FEEB-476D-93A8-2D81479DC092}"/>
+    <hyperlink ref="T258" r:id="rId332" xr:uid="{D1B9CD42-A935-4D74-9DB5-F2F2D2E0CAC4}"/>
+    <hyperlink ref="B261" r:id="rId333" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb50294d-186e-4efb-a08c-5bd962403459" display="Cbus - Accessing Super &amp; SIS " xr:uid="{B9DD3996-A656-413E-A205-65D707DAB485}"/>
+    <hyperlink ref="B260" r:id="rId334" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb50294d-186e-4efb-a08c-5bd962403459" display="Cbus - Accessing Super &amp; SIS " xr:uid="{1A8763F8-E195-441A-A099-16AA0DDC0D04}"/>
     <hyperlink ref="B259" r:id="rId335" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb50294d-186e-4efb-a08c-5bd962403459" display="Cbus - Accessing Super &amp; SIS " xr:uid="{D864079F-919D-4730-9C4E-9BFDD5A3FCCF}"/>
-    <hyperlink ref="B260" r:id="rId336" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb50294d-186e-4efb-a08c-5bd962403459" display="Cbus - Accessing Super &amp; SIS " xr:uid="{1A8763F8-E195-441A-A099-16AA0DDC0D04}"/>
-    <hyperlink ref="B261" r:id="rId337" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb50294d-186e-4efb-a08c-5bd962403459" display="Cbus - Accessing Super &amp; SIS " xr:uid="{B9DD3996-A656-413E-A205-65D707DAB485}"/>
-    <hyperlink ref="T258" r:id="rId338" xr:uid="{D1B9CD42-A935-4D74-9DB5-F2F2D2E0CAC4}"/>
-    <hyperlink ref="T259" r:id="rId339" xr:uid="{54B4B942-FEEB-476D-93A8-2D81479DC092}"/>
-    <hyperlink ref="T260" r:id="rId340" xr:uid="{8633495D-53BC-4CCB-987E-FF235604B280}"/>
-    <hyperlink ref="T261" r:id="rId341" xr:uid="{D5762008-1984-4804-BF9A-2485573B0A1D}"/>
-    <hyperlink ref="B262" r:id="rId342" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 73 yrs - (Stop 22 Dec)" xr:uid="{C628F592-2342-4EE7-AFD5-99A84D5762D5}"/>
-    <hyperlink ref="B263" r:id="rId343" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/ae73d654-f7fb-4218-a985-79965ed53f32" display="Downsizer - 55 yrs (Stop 22 Dec)" xr:uid="{884D2A54-DC16-4160-8FE3-AFED9BE7722A}"/>
-    <hyperlink ref="B264" r:id="rId344" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/785d6f2f-8292-422a-9833-2d2802ca7fa1" display="Beneficiaries [Seg 4 - Lapsed binding] (Stop 22 Dec)" xr:uid="{947451C0-F3E8-410C-B94E-AE666A563C27}"/>
-    <hyperlink ref="B267" r:id="rId345" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/2a36e6fd-dd95-4f8b-87cb-ee5cbb8d6e73" display="SPC - Unpaid Super (Redundant 20251120) " xr:uid="{B5B1C7D8-8DF9-4D9D-B7AF-ACE3656B9CB3}"/>
-    <hyperlink ref="B268" r:id="rId346" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/1428586f-9ad2-4562-8874-284efe3c0c8d" display="Abandoned  Cart MJOL" xr:uid="{37A0CAD7-A271-4EDE-A7CB-3AB9E642CBA2}"/>
-    <hyperlink ref="B265:B266" r:id="rId347" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/e1d432aa-88e8-4c3a-89bb-7cfed646e1be" display="PYS 12 Months" xr:uid="{56C87BF7-E58B-4910-BAD8-FA2366D4FEE7}"/>
-    <hyperlink ref="B269" r:id="rId348" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6b33825c-fbb5-4f47-b564-a293510bba4f" xr:uid="{C23CDD79-90A2-4C6B-A3DB-33B6822CF85A}"/>
-    <hyperlink ref="B270" r:id="rId349" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/6b33825c-fbb5-4f47-b564-a293510bba4f" xr:uid="{DE650C40-D448-4F87-94F1-1AE88176FC1C}"/>
-    <hyperlink ref="B272" r:id="rId350" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{0D526AE5-9C92-49CC-841E-35EF62220E24}"/>
-    <hyperlink ref="B271" r:id="rId351" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/23e4f381-4c2b-457e-b600-83d098bf6354" display="Data Capture [Sept 2025] - Automated Sep Report" xr:uid="{89DD9A11-62CB-443C-A2DC-91316A733B75}"/>
-    <hyperlink ref="T265" r:id="rId352" xr:uid="{45BDE7B1-09B3-46B9-BB72-8C0930A078BF}"/>
-    <hyperlink ref="B273" r:id="rId353" location="/@cbus/sname:prod/journey-optimizer/journey/report/" xr:uid="{379C56FA-1D5B-4FA2-A31E-C5973A4CD9BF}"/>
-    <hyperlink ref="T273" r:id="rId354" xr:uid="{64F605DE-53A2-4520-9ECB-700F494E4B56}"/>
-    <hyperlink ref="T274" r:id="rId355" xr:uid="{F6F05B44-6AA2-4B51-A325-43FB7485F862}"/>
-    <hyperlink ref="T275" r:id="rId356" xr:uid="{6FA4FBEE-9AD9-4F61-8D10-C7C9A74A177F}"/>
-    <hyperlink ref="B276" r:id="rId357" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 68 Years [Pre 25 Sep 2025]" xr:uid="{90EA5B2E-0B7B-4C4F-837D-0A6B5A5040E0}"/>
-    <hyperlink ref="B277" r:id="rId358" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 67 Years Pre 25 Sep 2025]" xr:uid="{80F0ADC7-54B7-4261-8899-88744AEFCE9F}"/>
-    <hyperlink ref="B278" r:id="rId359" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" display="Age Pension - 66 Years [Pre 25 Sep 2025]" xr:uid="{38563F74-846E-4FAD-99DB-EB52E1F2AE65}"/>
-    <hyperlink ref="B279" r:id="rId360" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/3cbde0fd-ec21-4c5d-bbac-0292e906b9e5" xr:uid="{8ADD44E8-6354-42E1-BB12-830FDE27E91D}"/>
+    <hyperlink ref="B258" r:id="rId336" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/cb50294d-186e-4efb-a08c-5bd962403459" display="Cbus - Accessing Super &amp; SIS " xr:uid="{A194A329-BFAE-4C41-A6E8-5281732B1448}"/>
+    <hyperlink ref="B273" r:id="rId337" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d21ac559-604d-446d-8bf4-e1c8c6ea0563" display="PYS 9 Months (20-Nov End)" xr:uid="{966A009C-A803-4448-A826-5E8A67F36729}"/>
+    <hyperlink ref="B274" r:id="rId338" location="/@cbus/sname:prod/journey-optimizer/journey/report/#/workspace/template/ajo-journey/d21ac559-604d-446d-8bf4-e1c8c6ea0563" xr:uid="{33E021F7-D5B9-4897-B8F5-23289ADAE09A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId361"/>
+  <legacyDrawing r:id="rId339"/>
   <tableParts count="1">
-    <tablePart r:id="rId362"/>
+    <tablePart r:id="rId340"/>
   </tableParts>
 </worksheet>
 </file>
@@ -22640,44 +22755,44 @@
   <sheetData>
     <row r="1" spans="1:2" s="120" customFormat="1">
       <c r="A1" s="121" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="122" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B2" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!L:L))</f>
-        <v>64.699678073787155</v>
+        <v>64.700957569649518</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="122" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B3" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!M:M))</f>
-        <v>6.4993639288398866</v>
+        <v>6.5059975840938948</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="122" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B4" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!N:N))</f>
-        <v>9.9519729877069345</v>
+        <v>9.9619283286570326</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="122" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B5" s="118">
         <f>SUM(AVERAGE('FY-ajo-report'!K:K))</f>
-        <v>0.15005606257382187</v>
+        <v>0.14970090818515555</v>
       </c>
     </row>
   </sheetData>
@@ -22686,19 +22801,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAB1339F159CD428AD0F5BA99C368F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3c12e32d35f281fc2cfbff59ce227b1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0eeac73-9918-465e-bdd8-785547fbc2d9" xmlns:ns3="d777fa6b-bca0-4864-8d50-ac77b155e846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8cccd8974b01cfe5577657fdcd6042cb" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CAB1339F159CD428AD0F5BA99C368F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be1e989bef91ac63627d5ae0da3c3c75">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0eeac73-9918-465e-bdd8-785547fbc2d9" xmlns:ns3="d777fa6b-bca0-4864-8d50-ac77b155e846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9915e4f6c3f750f88ff3d934d8bc3e74" ns2:_="" ns3:_="">
     <xsd:import namespace="c0eeac73-9918-465e-bdd8-785547fbc2d9"/>
     <xsd:import namespace="d777fa6b-bca0-4864-8d50-ac77b155e846"/>
     <xsd:element name="properties">
@@ -22932,24 +23045,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBF9AAC-F6EE-4F9D-A850-BD5FE7C93CA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41A8F991-C20E-41DA-86BA-BB1F28819AFA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/pages/dashboard/data/email-report-fy26.xlsx
+++ b/pages/dashboard/data/email-report-fy26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbussuper.sharepoint.com/sites/MarketingTechTeam/Shared Documents/Reporting/FY26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CCC12F6-761E-4E67-A1B9-E0A2F4641D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF3BAE9-89FD-4853-90C8-04C470E8B57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2AF7D318-117B-4C45-A242-FA29CA5E08DD}"/>
   </bookViews>
@@ -1575,7 +1575,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
@@ -1914,12 +1914,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3029,8 +3023,8 @@
   <dimension ref="A1:T281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A275" sqref="A275:XFD275"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="32.1" customHeight="1"/>
@@ -4090,7 +4084,7 @@
     </row>
     <row r="16" spans="1:20" ht="32.1" customHeight="1">
       <c r="A16" s="74">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B16" s="104" t="s">
         <v>39</v>
@@ -7296,7 +7290,7 @@
     </row>
     <row r="62" spans="1:20" ht="32.1" customHeight="1">
       <c r="A62" s="75">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B62" s="104" t="s">
         <v>39</v>
@@ -10729,7 +10723,7 @@
     </row>
     <row r="111" spans="1:20" ht="32.1" customHeight="1">
       <c r="A111" s="75">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B111" s="106" t="s">
         <v>39</v>
@@ -14430,7 +14424,7 @@
     </row>
     <row r="164" spans="1:20" ht="32.1" customHeight="1">
       <c r="A164" s="81">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B164" s="108" t="s">
         <v>39</v>
@@ -18247,7 +18241,7 @@
     </row>
     <row r="221" spans="1:20" ht="32.1" customHeight="1">
       <c r="A221" s="81">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B221" s="108" t="s">
         <v>235</v>
@@ -21818,7 +21812,7 @@
     </row>
     <row r="274" spans="1:20" ht="32.1" customHeight="1">
       <c r="A274" s="81">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B274" s="84" t="s">
         <v>282</v>
@@ -22197,16 +22191,16 @@
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🔴</v>
       </c>
-      <c r="Q279" s="125">
+      <c r="Q279" s="14">
         <v>73.2</v>
       </c>
-      <c r="R279" s="126">
+      <c r="R279" s="16">
         <v>16.100000000000001</v>
       </c>
-      <c r="S279" s="126">
+      <c r="S279" s="16">
         <v>10.7</v>
       </c>
-      <c r="T279" s="127" t="s">
+      <c r="T279" s="125" t="s">
         <v>288</v>
       </c>
     </row>
@@ -22268,16 +22262,16 @@
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
-      <c r="Q280" s="125">
+      <c r="Q280" s="14">
         <v>40</v>
       </c>
-      <c r="R280" s="126">
+      <c r="R280" s="16">
         <v>26.7</v>
       </c>
-      <c r="S280" s="126">
+      <c r="S280" s="16">
         <v>33.299999999999997</v>
       </c>
-      <c r="T280" s="127" t="s">
+      <c r="T280" s="125" t="s">
         <v>290</v>
       </c>
     </row>
@@ -22339,16 +22333,16 @@
         <f>IF(Table1[[#This Row],[Engagement Score]]&lt;30,"🔴",IF(Table1[[#This Row],[Engagement Score]]&lt;40,"🟡","🟢"))</f>
         <v>🟡</v>
       </c>
-      <c r="Q281" s="125">
+      <c r="Q281" s="14">
         <v>77.2</v>
       </c>
-      <c r="R281" s="126">
+      <c r="R281" s="16">
         <v>16.399999999999999</v>
       </c>
-      <c r="S281" s="126">
+      <c r="S281" s="16">
         <v>6.4</v>
       </c>
-      <c r="T281" s="127" t="s">
+      <c r="T281" s="125" t="s">
         <v>292</v>
       </c>
     </row>
@@ -22801,12 +22795,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23045,18 +23041,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d777fa6b-bca0-4864-8d50-ac77b155e846" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0eeac73-9918-465e-bdd8-785547fbc2d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23064,7 +23058,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BB0AA99-F2C0-47AC-BEFF-11024E9EC09D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0ECD7C-9783-4AF2-B19D-668092346D66}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
